--- a/ALGORITHMS_LIST.xlsx
+++ b/ALGORITHMS_LIST.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0\Algorithms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0\Git\beginner-algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745CD06B-F9AE-417F-B712-DF5AF0A102D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AF6AE9-025D-4829-94D9-F32CB61C8A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F3AEC63A-3935-431B-9D94-C19A95072D1B}"/>
   </bookViews>
@@ -2930,7 +2930,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2940,6 +2940,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2971,7 +2977,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2989,6 +2995,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3305,10 +3314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC73345-1EB4-493B-9D32-2379CC101C9C}">
-  <dimension ref="A1:B375"/>
+  <dimension ref="A1:D375"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3318,7 +3327,7 @@
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>359</v>
       </c>
@@ -3326,15 +3335,19 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="2">
+        <f ca="1">RANDBETWEEN(1,374)</f>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3342,7 +3355,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3350,7 +3363,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3358,7 +3371,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3366,7 +3379,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3374,7 +3387,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3382,7 +3395,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3390,7 +3403,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3398,7 +3411,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3406,7 +3419,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3414,7 +3427,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3422,7 +3435,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3430,7 +3443,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3438,7 +3451,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -4314,7 +4327,7 @@
       <c r="A125" s="4">
         <v>124</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="7" t="s">
         <v>316</v>
       </c>
     </row>

--- a/ALGORITHMS_LIST.xlsx
+++ b/ALGORITHMS_LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0\Git\beginner-algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AF6AE9-025D-4829-94D9-F32CB61C8A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294E1C19-F40D-44D4-AA09-0552B83B559C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F3AEC63A-3935-431B-9D94-C19A95072D1B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="958">
   <si>
     <t>Linear Search, Binary Search, Jump Search, Interpolation Search, Exponential Search, Ternary Search</t>
   </si>
@@ -2897,6 +2897,9 @@
   </si>
   <si>
     <t>FILE TRANSFER</t>
+  </si>
+  <si>
+    <t>Random</t>
   </si>
 </sst>
 </file>
@@ -2977,7 +2980,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2999,6 +3002,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3316,8 +3322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC73345-1EB4-493B-9D32-2379CC101C9C}">
   <dimension ref="A1:D375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3334,6 +3340,9 @@
       <c r="B1" s="4" t="s">
         <v>360</v>
       </c>
+      <c r="D1" s="8" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
@@ -3342,13 +3351,14 @@
       <c r="B2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="2">
-        <f ca="1">RANDBETWEEN(1,374)</f>
-        <v>271</v>
+      <c r="D2" s="8">
+        <f ca="1">RANDBETWEEN(1,A375)</f>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
+        <f>IF(NOT(A2=0),A2,A1)+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3357,6 +3367,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
+        <f t="shared" ref="A4:A67" si="0">IF(NOT(A3=0),A3,A2)+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3365,6 +3376,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3373,6 +3385,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -3381,6 +3394,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -3389,6 +3403,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -3397,6 +3412,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -3405,6 +3421,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -3413,6 +3430,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -3421,6 +3439,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -3429,6 +3448,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -3437,6 +3457,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3445,6 +3466,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -3453,6 +3475,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -3461,6 +3484,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3469,6 +3493,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -3477,6 +3502,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -3485,6 +3511,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3493,6 +3520,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -3501,6 +3529,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -3509,6 +3538,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -3517,6 +3547,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -3525,6 +3556,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3533,6 +3565,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -3541,6 +3574,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3549,6 +3583,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -3557,6 +3592,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -3565,6 +3601,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -3573,6 +3610,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -3581,6 +3619,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -3589,6 +3628,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -3597,6 +3637,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -3605,6 +3646,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -3613,6 +3655,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -3621,6 +3664,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -3629,6 +3673,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -3637,6 +3682,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -3645,6 +3691,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -3653,6 +3700,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -3661,6 +3709,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -3669,6 +3718,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -3677,6 +3727,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -3685,6 +3736,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -3693,6 +3745,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -3701,6 +3754,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -3709,6 +3763,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -3717,6 +3772,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -3725,6 +3781,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -3733,6 +3790,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -3741,6 +3799,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -3749,6 +3808,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -3757,6 +3817,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -3765,6 +3826,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -3773,6 +3835,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -3781,6 +3844,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -3789,6 +3853,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -3797,6 +3862,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -3805,6 +3871,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -3813,6 +3880,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -3821,6 +3889,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -3829,6 +3898,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -3837,6 +3907,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -3845,6 +3916,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -3853,6 +3925,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -3861,6 +3934,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -3869,6 +3943,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
+        <f t="shared" ref="A68:A131" si="1">IF(NOT(A67=0),A67,A66)+1</f>
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -3877,6 +3952,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -3885,6 +3961,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -3893,6 +3970,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -3901,6 +3979,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -3909,6 +3988,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -3917,6 +3997,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -3925,6 +4006,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -3933,6 +4015,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -3941,6 +4024,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
@@ -3949,6 +4033,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -3957,6 +4042,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -3965,6 +4051,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -3973,6 +4060,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -3981,6 +4069,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -3989,6 +4078,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
@@ -3997,6 +4087,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
@@ -4005,6 +4096,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -4013,6 +4105,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
@@ -4021,6 +4114,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -4029,6 +4123,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
@@ -4037,6 +4132,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
@@ -4045,6 +4141,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
@@ -4053,6 +4150,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
@@ -4061,6 +4159,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
@@ -4069,6 +4168,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
@@ -4077,6 +4177,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
@@ -4085,6 +4186,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
@@ -4093,6 +4195,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
@@ -4101,6 +4204,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -4109,6 +4213,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
@@ -4117,6 +4222,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
@@ -4125,6 +4231,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
@@ -4133,6 +4240,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
@@ -4141,6 +4249,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
@@ -4149,6 +4258,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
@@ -4157,6 +4267,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -4165,6 +4276,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
@@ -4173,6 +4285,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
@@ -4181,6 +4294,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
@@ -4189,6 +4303,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
@@ -4197,6 +4312,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
@@ -4205,6 +4321,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
@@ -4213,6 +4330,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
@@ -4221,135 +4339,154 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
+        <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
-        <v>125</v>
+        <f t="shared" si="1"/>
+        <v>124</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
-        <v>126</v>
+        <f t="shared" si="1"/>
+        <v>125</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
-        <v>127</v>
+        <f t="shared" si="1"/>
+        <v>126</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>193</v>
@@ -4357,7 +4494,8 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
-        <v>128</v>
+        <f t="shared" si="1"/>
+        <v>127</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>185</v>
@@ -4365,7 +4503,8 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
-        <v>129</v>
+        <f t="shared" si="1"/>
+        <v>128</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>121</v>
@@ -4373,15 +4512,17 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
-        <v>130</v>
-      </c>
-      <c r="B131" s="3" t="s">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="B131" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
-        <v>131</v>
+        <f t="shared" ref="A132:A195" si="2">IF(NOT(A131=0),A131,A130)+1</f>
+        <v>130</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>294</v>
@@ -4389,7 +4530,8 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
-        <v>132</v>
+        <f t="shared" si="2"/>
+        <v>131</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>345</v>
@@ -4397,7 +4539,8 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
-        <v>133</v>
+        <f t="shared" si="2"/>
+        <v>132</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>211</v>
@@ -4405,7 +4548,8 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
-        <v>134</v>
+        <f t="shared" si="2"/>
+        <v>133</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>241</v>
@@ -4413,7 +4557,8 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
-        <v>135</v>
+        <f t="shared" si="2"/>
+        <v>134</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>252</v>
@@ -4421,7 +4566,8 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
-        <v>136</v>
+        <f t="shared" si="2"/>
+        <v>135</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>129</v>
@@ -4429,7 +4575,8 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
-        <v>137</v>
+        <f t="shared" si="2"/>
+        <v>136</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>291</v>
@@ -4437,7 +4584,8 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
-        <v>138</v>
+        <f t="shared" si="2"/>
+        <v>137</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>334</v>
@@ -4445,7 +4593,8 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
-        <v>139</v>
+        <f t="shared" si="2"/>
+        <v>138</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>85</v>
@@ -4453,7 +4602,8 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
-        <v>140</v>
+        <f t="shared" si="2"/>
+        <v>139</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>85</v>
@@ -4461,7 +4611,8 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
-        <v>141</v>
+        <f t="shared" si="2"/>
+        <v>140</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>304</v>
@@ -4469,7 +4620,8 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
-        <v>142</v>
+        <f t="shared" si="2"/>
+        <v>141</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>347</v>
@@ -4477,7 +4629,8 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
-        <v>143</v>
+        <f t="shared" si="2"/>
+        <v>142</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>181</v>
@@ -4485,7 +4638,8 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
-        <v>144</v>
+        <f t="shared" si="2"/>
+        <v>143</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>206</v>
@@ -4493,7 +4647,8 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
-        <v>145</v>
+        <f t="shared" si="2"/>
+        <v>144</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>332</v>
@@ -4501,7 +4656,8 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
-        <v>146</v>
+        <f t="shared" si="2"/>
+        <v>145</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>220</v>
@@ -4509,7 +4665,8 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
-        <v>147</v>
+        <f t="shared" si="2"/>
+        <v>146</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>182</v>
@@ -4517,7 +4674,8 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
-        <v>148</v>
+        <f t="shared" si="2"/>
+        <v>147</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>22</v>
@@ -4525,7 +4683,8 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
-        <v>149</v>
+        <f t="shared" si="2"/>
+        <v>148</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>310</v>
@@ -4533,7 +4692,8 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
-        <v>150</v>
+        <f t="shared" si="2"/>
+        <v>149</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>335</v>
@@ -4541,7 +4701,8 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
-        <v>151</v>
+        <f t="shared" si="2"/>
+        <v>150</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>162</v>
@@ -4549,7 +4710,8 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
-        <v>152</v>
+        <f t="shared" si="2"/>
+        <v>151</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>342</v>
@@ -4557,7 +4719,8 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
-        <v>153</v>
+        <f t="shared" si="2"/>
+        <v>152</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>263</v>
@@ -4565,7 +4728,8 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
-        <v>154</v>
+        <f t="shared" si="2"/>
+        <v>153</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>298</v>
@@ -4573,7 +4737,8 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
-        <v>155</v>
+        <f t="shared" si="2"/>
+        <v>154</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>299</v>
@@ -4581,7 +4746,8 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
-        <v>156</v>
+        <f t="shared" si="2"/>
+        <v>155</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>67</v>
@@ -4589,7 +4755,8 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
-        <v>157</v>
+        <f t="shared" si="2"/>
+        <v>156</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>146</v>
@@ -4597,7 +4764,8 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
-        <v>158</v>
+        <f t="shared" si="2"/>
+        <v>157</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>146</v>
@@ -4605,7 +4773,8 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
-        <v>159</v>
+        <f t="shared" si="2"/>
+        <v>158</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>48</v>
@@ -4613,7 +4782,8 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
-        <v>160</v>
+        <f t="shared" si="2"/>
+        <v>159</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>313</v>
@@ -4621,7 +4791,8 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
-        <v>161</v>
+        <f t="shared" si="2"/>
+        <v>160</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>314</v>
@@ -4629,7 +4800,8 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
-        <v>162</v>
+        <f t="shared" si="2"/>
+        <v>161</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>203</v>
@@ -4637,7 +4809,8 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
-        <v>163</v>
+        <f t="shared" si="2"/>
+        <v>162</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>199</v>
@@ -4645,7 +4818,8 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
-        <v>164</v>
+        <f t="shared" si="2"/>
+        <v>163</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>159</v>
@@ -4653,7 +4827,8 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
-        <v>165</v>
+        <f t="shared" si="2"/>
+        <v>164</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>213</v>
@@ -4661,7 +4836,8 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
-        <v>166</v>
+        <f t="shared" si="2"/>
+        <v>165</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>164</v>
@@ -4669,7 +4845,8 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
-        <v>167</v>
+        <f t="shared" si="2"/>
+        <v>166</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>158</v>
@@ -4677,7 +4854,8 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
-        <v>168</v>
+        <f t="shared" si="2"/>
+        <v>167</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>338</v>
@@ -4685,7 +4863,8 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
-        <v>169</v>
+        <f t="shared" si="2"/>
+        <v>168</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>120</v>
@@ -4693,7 +4872,8 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
-        <v>170</v>
+        <f t="shared" si="2"/>
+        <v>169</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>258</v>
@@ -4701,7 +4881,8 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
-        <v>171</v>
+        <f t="shared" si="2"/>
+        <v>170</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>261</v>
@@ -4709,7 +4890,8 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
-        <v>172</v>
+        <f t="shared" si="2"/>
+        <v>171</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>59</v>
@@ -4717,7 +4899,8 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
-        <v>173</v>
+        <f t="shared" si="2"/>
+        <v>172</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>46</v>
@@ -4725,7 +4908,8 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
-        <v>174</v>
+        <f t="shared" si="2"/>
+        <v>173</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>25</v>
@@ -4733,7 +4917,8 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
-        <v>175</v>
+        <f t="shared" si="2"/>
+        <v>174</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>1</v>
@@ -4741,7 +4926,8 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
-        <v>176</v>
+        <f t="shared" si="2"/>
+        <v>175</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>9</v>
@@ -4749,7 +4935,8 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
-        <v>177</v>
+        <f t="shared" si="2"/>
+        <v>176</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>65</v>
@@ -4757,7 +4944,8 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
-        <v>178</v>
+        <f t="shared" si="2"/>
+        <v>177</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>281</v>
@@ -4765,7 +4953,8 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
-        <v>179</v>
+        <f t="shared" si="2"/>
+        <v>178</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>68</v>
@@ -4773,7 +4962,8 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
-        <v>180</v>
+        <f t="shared" si="2"/>
+        <v>179</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>303</v>
@@ -4781,7 +4971,8 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
-        <v>181</v>
+        <f t="shared" si="2"/>
+        <v>180</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>17</v>
@@ -4789,7 +4980,8 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
-        <v>182</v>
+        <f t="shared" si="2"/>
+        <v>181</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>323</v>
@@ -4797,7 +4989,8 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
-        <v>183</v>
+        <f t="shared" si="2"/>
+        <v>182</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>18</v>
@@ -4805,7 +4998,8 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
-        <v>184</v>
+        <f t="shared" si="2"/>
+        <v>183</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>19</v>
@@ -4813,7 +5007,8 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
-        <v>185</v>
+        <f t="shared" si="2"/>
+        <v>184</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>257</v>
@@ -4821,7 +5016,8 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
-        <v>186</v>
+        <f t="shared" si="2"/>
+        <v>185</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>311</v>
@@ -4829,7 +5025,8 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
-        <v>187</v>
+        <f t="shared" si="2"/>
+        <v>186</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>311</v>
@@ -4837,7 +5034,8 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
-        <v>188</v>
+        <f t="shared" si="2"/>
+        <v>187</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>312</v>
@@ -4845,7 +5043,8 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
-        <v>189</v>
+        <f t="shared" si="2"/>
+        <v>188</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>136</v>
@@ -4853,7 +5052,8 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
-        <v>190</v>
+        <f t="shared" si="2"/>
+        <v>189</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>127</v>
@@ -4861,7 +5061,8 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
-        <v>191</v>
+        <f t="shared" si="2"/>
+        <v>190</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>58</v>
@@ -4869,7 +5070,8 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
-        <v>192</v>
+        <f t="shared" si="2"/>
+        <v>191</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>58</v>
@@ -4877,7 +5079,8 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
-        <v>193</v>
+        <f t="shared" si="2"/>
+        <v>192</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>100</v>
@@ -4885,7 +5088,8 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
-        <v>194</v>
+        <f t="shared" si="2"/>
+        <v>193</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>96</v>
@@ -4893,7 +5097,8 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
-        <v>195</v>
+        <f t="shared" ref="A196:A259" si="3">IF(NOT(A195=0),A195,A194)+1</f>
+        <v>194</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>315</v>
@@ -4901,7 +5106,8 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
-        <v>196</v>
+        <f t="shared" si="3"/>
+        <v>195</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>339</v>
@@ -4909,7 +5115,8 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
-        <v>197</v>
+        <f t="shared" si="3"/>
+        <v>196</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>340</v>
@@ -4917,7 +5124,8 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
-        <v>198</v>
+        <f t="shared" si="3"/>
+        <v>197</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>186</v>
@@ -4925,7 +5133,8 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
-        <v>199</v>
+        <f t="shared" si="3"/>
+        <v>198</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>348</v>
@@ -4933,7 +5142,8 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
-        <v>200</v>
+        <f t="shared" si="3"/>
+        <v>199</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>0</v>
@@ -4941,7 +5151,8 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
-        <v>201</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>317</v>
@@ -4949,7 +5160,8 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
-        <v>202</v>
+        <f t="shared" si="3"/>
+        <v>201</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>244</v>
@@ -4957,7 +5169,8 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
-        <v>203</v>
+        <f t="shared" si="3"/>
+        <v>202</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>31</v>
@@ -4965,7 +5178,8 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
-        <v>204</v>
+        <f t="shared" si="3"/>
+        <v>203</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>84</v>
@@ -4973,7 +5187,8 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
-        <v>205</v>
+        <f t="shared" si="3"/>
+        <v>204</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>73</v>
@@ -4981,7 +5196,8 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
-        <v>206</v>
+        <f t="shared" si="3"/>
+        <v>205</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>125</v>
@@ -4989,7 +5205,8 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
-        <v>207</v>
+        <f t="shared" si="3"/>
+        <v>206</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>125</v>
@@ -4997,7 +5214,8 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
-        <v>208</v>
+        <f t="shared" si="3"/>
+        <v>207</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>72</v>
@@ -5005,7 +5223,8 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
-        <v>209</v>
+        <f t="shared" si="3"/>
+        <v>208</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>346</v>
@@ -5013,7 +5232,8 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
-        <v>210</v>
+        <f t="shared" si="3"/>
+        <v>209</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>81</v>
@@ -5021,7 +5241,8 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
-        <v>211</v>
+        <f t="shared" si="3"/>
+        <v>210</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>97</v>
@@ -5029,7 +5250,8 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
-        <v>212</v>
+        <f t="shared" si="3"/>
+        <v>211</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>270</v>
@@ -5037,7 +5259,8 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
-        <v>213</v>
+        <f t="shared" si="3"/>
+        <v>212</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>32</v>
@@ -5045,7 +5268,8 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
-        <v>214</v>
+        <f t="shared" si="3"/>
+        <v>213</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>4</v>
@@ -5053,7 +5277,8 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
-        <v>215</v>
+        <f t="shared" si="3"/>
+        <v>214</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>168</v>
@@ -5061,7 +5286,8 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
-        <v>216</v>
+        <f t="shared" si="3"/>
+        <v>215</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>145</v>
@@ -5069,7 +5295,8 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
-        <v>217</v>
+        <f t="shared" si="3"/>
+        <v>216</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>176</v>
@@ -5077,7 +5304,8 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
-        <v>218</v>
+        <f t="shared" si="3"/>
+        <v>217</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>183</v>
@@ -5085,7 +5313,8 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
-        <v>219</v>
+        <f t="shared" si="3"/>
+        <v>218</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>139</v>
@@ -5093,7 +5322,8 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
-        <v>220</v>
+        <f t="shared" si="3"/>
+        <v>219</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>77</v>
@@ -5101,7 +5331,8 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
-        <v>221</v>
+        <f t="shared" si="3"/>
+        <v>220</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>307</v>
@@ -5109,7 +5340,8 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
-        <v>222</v>
+        <f t="shared" si="3"/>
+        <v>221</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>89</v>
@@ -5117,7 +5349,8 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
-        <v>223</v>
+        <f t="shared" si="3"/>
+        <v>222</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>119</v>
@@ -5125,7 +5358,8 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
-        <v>224</v>
+        <f t="shared" si="3"/>
+        <v>223</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>94</v>
@@ -5133,7 +5367,8 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
-        <v>225</v>
+        <f t="shared" si="3"/>
+        <v>224</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>83</v>
@@ -5141,7 +5376,8 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
-        <v>226</v>
+        <f t="shared" si="3"/>
+        <v>225</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>102</v>
@@ -5149,7 +5385,8 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
-        <v>227</v>
+        <f t="shared" si="3"/>
+        <v>226</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>195</v>
@@ -5157,7 +5394,8 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
-        <v>228</v>
+        <f t="shared" si="3"/>
+        <v>227</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>152</v>
@@ -5165,7 +5403,8 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
-        <v>229</v>
+        <f t="shared" si="3"/>
+        <v>228</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>47</v>
@@ -5173,7 +5412,8 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
-        <v>230</v>
+        <f t="shared" si="3"/>
+        <v>229</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>27</v>
@@ -5181,7 +5421,8 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
-        <v>231</v>
+        <f t="shared" si="3"/>
+        <v>230</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>7</v>
@@ -5189,7 +5430,8 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
-        <v>232</v>
+        <f t="shared" si="3"/>
+        <v>231</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>75</v>
@@ -5197,7 +5439,8 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
-        <v>233</v>
+        <f t="shared" si="3"/>
+        <v>232</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>28</v>
@@ -5205,7 +5448,8 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
-        <v>234</v>
+        <f t="shared" si="3"/>
+        <v>233</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>106</v>
@@ -5213,7 +5457,8 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
-        <v>235</v>
+        <f t="shared" si="3"/>
+        <v>234</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>109</v>
@@ -5221,7 +5466,8 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
-        <v>236</v>
+        <f t="shared" si="3"/>
+        <v>235</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>93</v>
@@ -5229,7 +5475,8 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
-        <v>237</v>
+        <f t="shared" si="3"/>
+        <v>236</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>69</v>
@@ -5237,7 +5484,8 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
-        <v>238</v>
+        <f t="shared" si="3"/>
+        <v>237</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>69</v>
@@ -5245,7 +5493,8 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
-        <v>239</v>
+        <f t="shared" si="3"/>
+        <v>238</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>113</v>
@@ -5253,7 +5502,8 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
-        <v>240</v>
+        <f t="shared" si="3"/>
+        <v>239</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>239</v>
@@ -5261,7 +5511,8 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
-        <v>241</v>
+        <f t="shared" si="3"/>
+        <v>240</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>107</v>
@@ -5269,7 +5520,8 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
-        <v>242</v>
+        <f t="shared" si="3"/>
+        <v>241</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>238</v>
@@ -5277,7 +5529,8 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
-        <v>243</v>
+        <f t="shared" si="3"/>
+        <v>242</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>171</v>
@@ -5285,7 +5538,8 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
-        <v>244</v>
+        <f t="shared" si="3"/>
+        <v>243</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>215</v>
@@ -5293,7 +5547,8 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
-        <v>245</v>
+        <f t="shared" si="3"/>
+        <v>244</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>234</v>
@@ -5301,7 +5556,8 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
-        <v>246</v>
+        <f t="shared" si="3"/>
+        <v>245</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>251</v>
@@ -5309,7 +5565,8 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
-        <v>247</v>
+        <f t="shared" si="3"/>
+        <v>246</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>143</v>
@@ -5317,7 +5574,8 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
-        <v>248</v>
+        <f t="shared" si="3"/>
+        <v>247</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>126</v>
@@ -5325,7 +5583,8 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
-        <v>249</v>
+        <f t="shared" si="3"/>
+        <v>248</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>231</v>
@@ -5333,7 +5592,8 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
-        <v>250</v>
+        <f t="shared" si="3"/>
+        <v>249</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>248</v>
@@ -5341,7 +5601,8 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
-        <v>251</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>38</v>
@@ -5349,7 +5610,8 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
-        <v>252</v>
+        <f t="shared" si="3"/>
+        <v>251</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>242</v>
@@ -5357,7 +5619,8 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
-        <v>253</v>
+        <f t="shared" si="3"/>
+        <v>252</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>247</v>
@@ -5365,7 +5628,8 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
-        <v>254</v>
+        <f t="shared" si="3"/>
+        <v>253</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>178</v>
@@ -5373,7 +5637,8 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
-        <v>255</v>
+        <f t="shared" si="3"/>
+        <v>254</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>333</v>
@@ -5381,7 +5646,8 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
-        <v>256</v>
+        <f t="shared" si="3"/>
+        <v>255</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>99</v>
@@ -5389,7 +5655,8 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
-        <v>257</v>
+        <f t="shared" si="3"/>
+        <v>256</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>71</v>
@@ -5397,7 +5664,8 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
-        <v>258</v>
+        <f t="shared" si="3"/>
+        <v>257</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>232</v>
@@ -5405,7 +5673,8 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
-        <v>259</v>
+        <f t="shared" ref="A260:A323" si="4">IF(NOT(A259=0),A259,A258)+1</f>
+        <v>258</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>70</v>
@@ -5413,7 +5682,8 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
-        <v>260</v>
+        <f t="shared" si="4"/>
+        <v>259</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>86</v>
@@ -5421,7 +5691,8 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
-        <v>261</v>
+        <f t="shared" si="4"/>
+        <v>260</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>87</v>
@@ -5429,7 +5700,8 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
-        <v>262</v>
+        <f t="shared" si="4"/>
+        <v>261</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>191</v>
@@ -5437,7 +5709,8 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
-        <v>263</v>
+        <f t="shared" si="4"/>
+        <v>262</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>134</v>
@@ -5445,7 +5718,8 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
-        <v>264</v>
+        <f t="shared" si="4"/>
+        <v>263</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>43</v>
@@ -5453,7 +5727,8 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
-        <v>265</v>
+        <f t="shared" si="4"/>
+        <v>264</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>55</v>
@@ -5461,7 +5736,8 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
-        <v>266</v>
+        <f t="shared" si="4"/>
+        <v>265</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>39</v>
@@ -5469,7 +5745,8 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
-        <v>267</v>
+        <f t="shared" si="4"/>
+        <v>266</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>253</v>
@@ -5477,7 +5754,8 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
-        <v>268</v>
+        <f t="shared" si="4"/>
+        <v>267</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>276</v>
@@ -5485,7 +5763,8 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
-        <v>269</v>
+        <f t="shared" si="4"/>
+        <v>268</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>61</v>
@@ -5493,7 +5772,8 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
-        <v>270</v>
+        <f t="shared" si="4"/>
+        <v>269</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>62</v>
@@ -5501,7 +5781,8 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
-        <v>271</v>
+        <f t="shared" si="4"/>
+        <v>270</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>62</v>
@@ -5509,7 +5790,8 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
-        <v>272</v>
+        <f t="shared" si="4"/>
+        <v>271</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>172</v>
@@ -5517,7 +5799,8 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
-        <v>273</v>
+        <f t="shared" si="4"/>
+        <v>272</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>341</v>
@@ -5525,7 +5808,8 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
-        <v>274</v>
+        <f t="shared" si="4"/>
+        <v>273</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>352</v>
@@ -5533,7 +5817,8 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
-        <v>275</v>
+        <f t="shared" si="4"/>
+        <v>274</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>187</v>
@@ -5541,7 +5826,8 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
-        <v>276</v>
+        <f t="shared" si="4"/>
+        <v>275</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>141</v>
@@ -5549,7 +5835,8 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
-        <v>277</v>
+        <f t="shared" si="4"/>
+        <v>276</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>197</v>
@@ -5557,7 +5844,8 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
-        <v>278</v>
+        <f t="shared" si="4"/>
+        <v>277</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>140</v>
@@ -5565,7 +5853,8 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
-        <v>279</v>
+        <f t="shared" si="4"/>
+        <v>278</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>219</v>
@@ -5573,7 +5862,8 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
-        <v>280</v>
+        <f t="shared" si="4"/>
+        <v>279</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>221</v>
@@ -5581,7 +5871,8 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
-        <v>281</v>
+        <f t="shared" si="4"/>
+        <v>280</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>92</v>
@@ -5589,7 +5880,8 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
-        <v>282</v>
+        <f t="shared" si="4"/>
+        <v>281</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>92</v>
@@ -5597,7 +5889,8 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
-        <v>283</v>
+        <f t="shared" si="4"/>
+        <v>282</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>222</v>
@@ -5605,7 +5898,8 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
-        <v>284</v>
+        <f t="shared" si="4"/>
+        <v>283</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>223</v>
@@ -5613,7 +5907,8 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
-        <v>285</v>
+        <f t="shared" si="4"/>
+        <v>284</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>205</v>
@@ -5621,7 +5916,8 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
-        <v>286</v>
+        <f t="shared" si="4"/>
+        <v>285</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>218</v>
@@ -5629,7 +5925,8 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
-        <v>287</v>
+        <f t="shared" si="4"/>
+        <v>286</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>350</v>
@@ -5637,7 +5934,8 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
-        <v>288</v>
+        <f t="shared" si="4"/>
+        <v>287</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>138</v>
@@ -5645,7 +5943,8 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
-        <v>289</v>
+        <f t="shared" si="4"/>
+        <v>288</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>37</v>
@@ -5653,7 +5952,8 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
-        <v>290</v>
+        <f t="shared" si="4"/>
+        <v>289</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>156</v>
@@ -5661,7 +5961,8 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
-        <v>291</v>
+        <f t="shared" si="4"/>
+        <v>290</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>49</v>
@@ -5669,7 +5970,8 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
-        <v>292</v>
+        <f t="shared" si="4"/>
+        <v>291</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>11</v>
@@ -5677,7 +5979,8 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
-        <v>293</v>
+        <f t="shared" si="4"/>
+        <v>292</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>10</v>
@@ -5685,7 +5988,8 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
-        <v>294</v>
+        <f t="shared" si="4"/>
+        <v>293</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>66</v>
@@ -5693,7 +5997,8 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
-        <v>295</v>
+        <f t="shared" si="4"/>
+        <v>294</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>128</v>
@@ -5701,7 +6006,8 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
-        <v>296</v>
+        <f t="shared" si="4"/>
+        <v>295</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>50</v>
@@ -5709,7 +6015,8 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
-        <v>297</v>
+        <f t="shared" si="4"/>
+        <v>296</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>198</v>
@@ -5717,7 +6024,8 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
-        <v>298</v>
+        <f t="shared" si="4"/>
+        <v>297</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>319</v>
@@ -5725,7 +6033,8 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
-        <v>299</v>
+        <f t="shared" si="4"/>
+        <v>298</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>320</v>
@@ -5733,7 +6042,8 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
-        <v>300</v>
+        <f t="shared" si="4"/>
+        <v>299</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>321</v>
@@ -5741,7 +6051,8 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
-        <v>301</v>
+        <f t="shared" si="4"/>
+        <v>300</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>322</v>
@@ -5749,7 +6060,8 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
-        <v>302</v>
+        <f t="shared" si="4"/>
+        <v>301</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>142</v>
@@ -5757,7 +6069,8 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
-        <v>303</v>
+        <f t="shared" si="4"/>
+        <v>302</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>217</v>
@@ -5765,7 +6078,8 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
-        <v>304</v>
+        <f t="shared" si="4"/>
+        <v>303</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>190</v>
@@ -5773,7 +6087,8 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
-        <v>305</v>
+        <f t="shared" si="4"/>
+        <v>304</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>190</v>
@@ -5781,7 +6096,8 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
-        <v>306</v>
+        <f t="shared" si="4"/>
+        <v>305</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>245</v>
@@ -5789,7 +6105,8 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
-        <v>307</v>
+        <f t="shared" si="4"/>
+        <v>306</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>240</v>
@@ -5797,7 +6114,8 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
-        <v>308</v>
+        <f t="shared" si="4"/>
+        <v>307</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>200</v>
@@ -5805,7 +6123,8 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
-        <v>309</v>
+        <f t="shared" si="4"/>
+        <v>308</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>14</v>
@@ -5813,7 +6132,8 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
-        <v>310</v>
+        <f t="shared" si="4"/>
+        <v>309</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>324</v>
@@ -5821,7 +6141,8 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
-        <v>311</v>
+        <f t="shared" si="4"/>
+        <v>310</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>192</v>
@@ -5829,7 +6150,8 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
-        <v>312</v>
+        <f t="shared" si="4"/>
+        <v>311</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>44</v>
@@ -5837,7 +6159,8 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
-        <v>313</v>
+        <f t="shared" si="4"/>
+        <v>312</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>226</v>
@@ -5845,7 +6168,8 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
-        <v>314</v>
+        <f t="shared" si="4"/>
+        <v>313</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>230</v>
@@ -5853,7 +6177,8 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
-        <v>315</v>
+        <f t="shared" si="4"/>
+        <v>314</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>53</v>
@@ -5861,7 +6186,8 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
-        <v>316</v>
+        <f t="shared" si="4"/>
+        <v>315</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>116</v>
@@ -5869,7 +6195,8 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
-        <v>317</v>
+        <f t="shared" si="4"/>
+        <v>316</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>282</v>
@@ -5877,7 +6204,8 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
-        <v>318</v>
+        <f t="shared" si="4"/>
+        <v>317</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>284</v>
@@ -5885,7 +6213,8 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
-        <v>319</v>
+        <f t="shared" si="4"/>
+        <v>318</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>188</v>
@@ -5893,7 +6222,8 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
-        <v>320</v>
+        <f t="shared" si="4"/>
+        <v>319</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>188</v>
@@ -5901,7 +6231,8 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
-        <v>321</v>
+        <f t="shared" si="4"/>
+        <v>320</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>177</v>
@@ -5909,7 +6240,8 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
-        <v>322</v>
+        <f t="shared" si="4"/>
+        <v>321</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>229</v>
@@ -5917,7 +6249,8 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
-        <v>323</v>
+        <f t="shared" ref="A324:A375" si="5">IF(NOT(A323=0),A323,A322)+1</f>
+        <v>322</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>273</v>
@@ -5925,7 +6258,8 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
-        <v>324</v>
+        <f t="shared" si="5"/>
+        <v>323</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>273</v>
@@ -5933,7 +6267,8 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
-        <v>325</v>
+        <f t="shared" si="5"/>
+        <v>324</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>149</v>
@@ -5941,7 +6276,8 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
-        <v>326</v>
+        <f t="shared" si="5"/>
+        <v>325</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>34</v>
@@ -5949,7 +6285,8 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
-        <v>327</v>
+        <f t="shared" si="5"/>
+        <v>326</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>283</v>
@@ -5957,7 +6294,8 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
-        <v>328</v>
+        <f t="shared" si="5"/>
+        <v>327</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>8</v>
@@ -5965,7 +6303,8 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
-        <v>329</v>
+        <f t="shared" si="5"/>
+        <v>328</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>15</v>
@@ -5973,7 +6312,8 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
-        <v>330</v>
+        <f t="shared" si="5"/>
+        <v>329</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>13</v>
@@ -5981,7 +6321,8 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
-        <v>331</v>
+        <f t="shared" si="5"/>
+        <v>330</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>189</v>
@@ -5989,7 +6330,8 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
-        <v>332</v>
+        <f t="shared" si="5"/>
+        <v>331</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>2</v>
@@ -5997,7 +6339,8 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
-        <v>333</v>
+        <f t="shared" si="5"/>
+        <v>332</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>155</v>
@@ -6005,7 +6348,8 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
-        <v>334</v>
+        <f t="shared" si="5"/>
+        <v>333</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>292</v>
@@ -6013,7 +6357,8 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
-        <v>335</v>
+        <f t="shared" si="5"/>
+        <v>334</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>144</v>
@@ -6021,7 +6366,8 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
-        <v>336</v>
+        <f t="shared" si="5"/>
+        <v>335</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>101</v>
@@ -6029,7 +6375,8 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
-        <v>337</v>
+        <f t="shared" si="5"/>
+        <v>336</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>147</v>
@@ -6037,7 +6384,8 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
-        <v>338</v>
+        <f t="shared" si="5"/>
+        <v>337</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>132</v>
@@ -6045,7 +6393,8 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
-        <v>339</v>
+        <f t="shared" si="5"/>
+        <v>338</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>255</v>
@@ -6053,7 +6402,8 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
-        <v>340</v>
+        <f t="shared" si="5"/>
+        <v>339</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>227</v>
@@ -6061,7 +6411,8 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
-        <v>341</v>
+        <f t="shared" si="5"/>
+        <v>340</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>260</v>
@@ -6069,7 +6420,8 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
-        <v>342</v>
+        <f t="shared" si="5"/>
+        <v>341</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>297</v>
@@ -6077,7 +6429,8 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
-        <v>343</v>
+        <f t="shared" si="5"/>
+        <v>342</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>358</v>
@@ -6085,7 +6438,8 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
-        <v>344</v>
+        <f t="shared" si="5"/>
+        <v>343</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>112</v>
@@ -6093,7 +6447,8 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
-        <v>345</v>
+        <f t="shared" si="5"/>
+        <v>344</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>40</v>
@@ -6101,7 +6456,8 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
-        <v>346</v>
+        <f t="shared" si="5"/>
+        <v>345</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>42</v>
@@ -6109,7 +6465,8 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
-        <v>347</v>
+        <f t="shared" si="5"/>
+        <v>346</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>41</v>
@@ -6117,7 +6474,8 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
-        <v>348</v>
+        <f t="shared" si="5"/>
+        <v>347</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>271</v>
@@ -6125,7 +6483,8 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
-        <v>349</v>
+        <f t="shared" si="5"/>
+        <v>348</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>110</v>
@@ -6133,7 +6492,8 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
-        <v>350</v>
+        <f t="shared" si="5"/>
+        <v>349</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>202</v>
@@ -6141,7 +6501,8 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
-        <v>351</v>
+        <f t="shared" si="5"/>
+        <v>350</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>293</v>
@@ -6149,7 +6510,8 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
-        <v>352</v>
+        <f t="shared" si="5"/>
+        <v>351</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>301</v>
@@ -6157,7 +6519,8 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
-        <v>353</v>
+        <f t="shared" si="5"/>
+        <v>352</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>300</v>
@@ -6165,7 +6528,8 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
-        <v>354</v>
+        <f t="shared" si="5"/>
+        <v>353</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>148</v>
@@ -6173,7 +6537,8 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
-        <v>355</v>
+        <f t="shared" si="5"/>
+        <v>354</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>235</v>
@@ -6181,7 +6546,8 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
-        <v>356</v>
+        <f t="shared" si="5"/>
+        <v>355</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>95</v>
@@ -6189,7 +6555,8 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
-        <v>357</v>
+        <f t="shared" si="5"/>
+        <v>356</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>90</v>
@@ -6197,7 +6564,8 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
-        <v>358</v>
+        <f t="shared" si="5"/>
+        <v>357</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>302</v>
@@ -6205,7 +6573,8 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
-        <v>359</v>
+        <f t="shared" si="5"/>
+        <v>358</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>122</v>
@@ -6213,7 +6582,8 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
-        <v>360</v>
+        <f t="shared" si="5"/>
+        <v>359</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>124</v>
@@ -6221,7 +6591,8 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
-        <v>361</v>
+        <f t="shared" si="5"/>
+        <v>360</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>36</v>
@@ -6229,7 +6600,8 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
-        <v>362</v>
+        <f t="shared" si="5"/>
+        <v>361</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>3</v>
@@ -6237,7 +6609,8 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
-        <v>363</v>
+        <f t="shared" si="5"/>
+        <v>362</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>5</v>
@@ -6245,7 +6618,8 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
-        <v>364</v>
+        <f t="shared" si="5"/>
+        <v>363</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>16</v>
@@ -6253,7 +6627,8 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
-        <v>365</v>
+        <f t="shared" si="5"/>
+        <v>364</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>26</v>
@@ -6261,7 +6636,8 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
-        <v>366</v>
+        <f t="shared" si="5"/>
+        <v>365</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>88</v>
@@ -6269,7 +6645,8 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
-        <v>367</v>
+        <f t="shared" si="5"/>
+        <v>366</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>29</v>
@@ -6277,7 +6654,8 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
-        <v>368</v>
+        <f t="shared" si="5"/>
+        <v>367</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>167</v>
@@ -6285,7 +6663,8 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
-        <v>369</v>
+        <f t="shared" si="5"/>
+        <v>368</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>343</v>
@@ -6293,7 +6672,8 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
-        <v>370</v>
+        <f t="shared" si="5"/>
+        <v>369</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>169</v>
@@ -6301,7 +6681,8 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
-        <v>371</v>
+        <f t="shared" si="5"/>
+        <v>370</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>165</v>
@@ -6309,7 +6690,8 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
-        <v>372</v>
+        <f t="shared" si="5"/>
+        <v>371</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>173</v>
@@ -6317,7 +6699,8 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
-        <v>373</v>
+        <f t="shared" si="5"/>
+        <v>372</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>151</v>
@@ -6325,7 +6708,8 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
-        <v>374</v>
+        <f t="shared" si="5"/>
+        <v>373</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>137</v>

--- a/ALGORITHMS_LIST.xlsx
+++ b/ALGORITHMS_LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0\Git\beginner-algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294E1C19-F40D-44D4-AA09-0552B83B559C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3821A0FB-2E0F-4FA5-AA03-400EAC0519A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F3AEC63A-3935-431B-9D94-C19A95072D1B}"/>
   </bookViews>
@@ -3322,8 +3322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC73345-1EB4-493B-9D32-2379CC101C9C}">
   <dimension ref="A1:D375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="D2" s="8">
         <f ca="1">RANDBETWEEN(1,A375)</f>
-        <v>150</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3943,7 +3943,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <f t="shared" ref="A68:A131" si="1">IF(NOT(A67=0),A67,A66)+1</f>
+        <f t="shared" ref="A68:A130" si="1">IF(NOT(A67=0),A67,A66)+1</f>
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -4315,7 +4315,7 @@
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="7" t="s">
         <v>290</v>
       </c>
     </row>
@@ -4346,7 +4346,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -4355,7 +4355,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -4364,7 +4364,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -4373,7 +4373,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -4382,7 +4382,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -4391,7 +4391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -4400,7 +4400,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -4409,7 +4409,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -4418,7 +4418,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -4427,7 +4427,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -4436,7 +4436,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -4445,7 +4445,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -4454,18 +4454,15 @@
         <v>256</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>0</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="C125" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -4474,7 +4471,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -4483,7 +4480,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -4512,8 +4509,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
-        <f t="shared" si="1"/>
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>6</v>
@@ -4521,8 +4517,8 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
-        <f t="shared" ref="A132:A195" si="2">IF(NOT(A131=0),A131,A130)+1</f>
-        <v>130</v>
+        <f t="shared" ref="A132:A194" si="2">IF(NOT(A131=0),A131,A130)+1</f>
+        <v>129</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>294</v>
@@ -4531,7 +4527,7 @@
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <f t="shared" si="2"/>
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>345</v>
@@ -4540,7 +4536,7 @@
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <f t="shared" si="2"/>
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>211</v>
@@ -4549,7 +4545,7 @@
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <f t="shared" si="2"/>
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>241</v>
@@ -4558,7 +4554,7 @@
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <f t="shared" si="2"/>
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>252</v>
@@ -4567,7 +4563,7 @@
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <f t="shared" si="2"/>
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>129</v>
@@ -4576,7 +4572,7 @@
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <f t="shared" si="2"/>
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>291</v>
@@ -4585,7 +4581,7 @@
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <f t="shared" si="2"/>
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>334</v>
@@ -4594,7 +4590,7 @@
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <f t="shared" si="2"/>
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>85</v>
@@ -4603,7 +4599,7 @@
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <f t="shared" si="2"/>
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>85</v>
@@ -4612,7 +4608,7 @@
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <f t="shared" si="2"/>
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>304</v>
@@ -4621,7 +4617,7 @@
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <f t="shared" si="2"/>
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>347</v>
@@ -4630,7 +4626,7 @@
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <f t="shared" si="2"/>
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>181</v>
@@ -4639,7 +4635,7 @@
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <f t="shared" si="2"/>
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>206</v>
@@ -4648,7 +4644,7 @@
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>332</v>
@@ -4657,7 +4653,7 @@
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <f t="shared" si="2"/>
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>220</v>
@@ -4666,7 +4662,7 @@
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <f t="shared" si="2"/>
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>182</v>
@@ -4675,7 +4671,7 @@
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <f t="shared" si="2"/>
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>22</v>
@@ -4684,7 +4680,7 @@
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <f t="shared" si="2"/>
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>310</v>
@@ -4693,7 +4689,7 @@
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <f t="shared" si="2"/>
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>335</v>
@@ -4702,7 +4698,7 @@
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>162</v>
@@ -4711,7 +4707,7 @@
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <f t="shared" si="2"/>
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>342</v>
@@ -4720,7 +4716,7 @@
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <f t="shared" si="2"/>
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>263</v>
@@ -4729,7 +4725,7 @@
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <f t="shared" si="2"/>
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>298</v>
@@ -4738,7 +4734,7 @@
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <f t="shared" si="2"/>
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>299</v>
@@ -4747,7 +4743,7 @@
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <f t="shared" si="2"/>
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>67</v>
@@ -4756,7 +4752,7 @@
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <f t="shared" si="2"/>
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>146</v>
@@ -4765,7 +4761,7 @@
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <f t="shared" si="2"/>
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>146</v>
@@ -4774,7 +4770,7 @@
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <f t="shared" si="2"/>
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>48</v>
@@ -4783,7 +4779,7 @@
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <f t="shared" si="2"/>
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>313</v>
@@ -4792,7 +4788,7 @@
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>314</v>
@@ -4801,7 +4797,7 @@
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <f t="shared" si="2"/>
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>203</v>
@@ -4810,7 +4806,7 @@
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <f t="shared" si="2"/>
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>199</v>
@@ -4819,7 +4815,7 @@
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <f t="shared" si="2"/>
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>159</v>
@@ -4828,7 +4824,7 @@
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <f t="shared" si="2"/>
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>213</v>
@@ -4837,7 +4833,7 @@
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <f t="shared" si="2"/>
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>164</v>
@@ -4846,7 +4842,7 @@
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <f t="shared" si="2"/>
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>158</v>
@@ -4855,7 +4851,7 @@
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <f t="shared" si="2"/>
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>338</v>
@@ -4864,7 +4860,7 @@
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <f t="shared" si="2"/>
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>120</v>
@@ -4873,7 +4869,7 @@
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <f t="shared" si="2"/>
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>258</v>
@@ -4882,7 +4878,7 @@
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <f t="shared" si="2"/>
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>261</v>
@@ -4891,7 +4887,7 @@
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <f t="shared" si="2"/>
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>59</v>
@@ -4900,7 +4896,7 @@
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <f t="shared" si="2"/>
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>46</v>
@@ -4909,7 +4905,7 @@
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <f t="shared" si="2"/>
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>25</v>
@@ -4918,7 +4914,7 @@
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <f t="shared" si="2"/>
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>1</v>
@@ -4927,7 +4923,7 @@
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <f t="shared" si="2"/>
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>9</v>
@@ -4936,7 +4932,7 @@
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <f t="shared" si="2"/>
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>65</v>
@@ -4945,7 +4941,7 @@
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <f t="shared" si="2"/>
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>281</v>
@@ -4954,7 +4950,7 @@
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>68</v>
@@ -4963,7 +4959,7 @@
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <f t="shared" si="2"/>
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>303</v>
@@ -4972,7 +4968,7 @@
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>17</v>
@@ -4981,7 +4977,7 @@
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <f t="shared" si="2"/>
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>323</v>
@@ -4990,7 +4986,7 @@
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <f t="shared" si="2"/>
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>18</v>
@@ -4999,7 +4995,7 @@
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <f t="shared" si="2"/>
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>19</v>
@@ -5008,7 +5004,7 @@
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <f t="shared" si="2"/>
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>257</v>
@@ -5017,7 +5013,7 @@
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <f t="shared" si="2"/>
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>311</v>
@@ -5026,7 +5022,7 @@
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <f t="shared" si="2"/>
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>311</v>
@@ -5035,7 +5031,7 @@
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <f t="shared" si="2"/>
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>312</v>
@@ -5044,7 +5040,7 @@
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <f t="shared" si="2"/>
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>136</v>
@@ -5053,7 +5049,7 @@
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <f t="shared" si="2"/>
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>127</v>
@@ -5062,7 +5058,7 @@
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <f t="shared" si="2"/>
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>58</v>
@@ -5071,7 +5067,7 @@
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <f t="shared" si="2"/>
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>58</v>
@@ -5080,7 +5076,7 @@
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <f t="shared" si="2"/>
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>100</v>
@@ -5088,17 +5084,16 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
-        <f t="shared" si="2"/>
-        <v>193</v>
-      </c>
-      <c r="B195" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B195" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <f t="shared" ref="A196:A259" si="3">IF(NOT(A195=0),A195,A194)+1</f>
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>315</v>
@@ -5107,7 +5102,7 @@
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <f t="shared" si="3"/>
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>339</v>
@@ -5116,7 +5111,7 @@
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <f t="shared" si="3"/>
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>340</v>
@@ -5125,7 +5120,7 @@
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <f t="shared" si="3"/>
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>186</v>
@@ -5134,7 +5129,7 @@
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <f t="shared" si="3"/>
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>348</v>
@@ -5143,7 +5138,7 @@
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <f t="shared" si="3"/>
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>0</v>
@@ -5152,7 +5147,7 @@
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>317</v>
@@ -5161,7 +5156,7 @@
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <f t="shared" si="3"/>
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>244</v>
@@ -5170,7 +5165,7 @@
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <f t="shared" si="3"/>
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>31</v>
@@ -5179,7 +5174,7 @@
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <f t="shared" si="3"/>
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>84</v>
@@ -5188,7 +5183,7 @@
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <f t="shared" si="3"/>
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>73</v>
@@ -5197,7 +5192,7 @@
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <f t="shared" si="3"/>
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>125</v>
@@ -5206,7 +5201,7 @@
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <f t="shared" si="3"/>
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>125</v>
@@ -5215,7 +5210,7 @@
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <f t="shared" si="3"/>
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>72</v>
@@ -5224,7 +5219,7 @@
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <f t="shared" si="3"/>
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>346</v>
@@ -5233,7 +5228,7 @@
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <f t="shared" si="3"/>
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>81</v>
@@ -5242,7 +5237,7 @@
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>97</v>
@@ -5251,7 +5246,7 @@
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <f t="shared" si="3"/>
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>270</v>
@@ -5260,7 +5255,7 @@
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <f t="shared" si="3"/>
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>32</v>
@@ -5269,7 +5264,7 @@
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <f t="shared" si="3"/>
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>4</v>
@@ -5278,7 +5273,7 @@
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <f t="shared" si="3"/>
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>168</v>
@@ -5287,7 +5282,7 @@
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <f t="shared" si="3"/>
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>145</v>
@@ -5296,7 +5291,7 @@
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <f t="shared" si="3"/>
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>176</v>
@@ -5305,7 +5300,7 @@
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <f t="shared" si="3"/>
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>183</v>
@@ -5314,7 +5309,7 @@
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <f t="shared" si="3"/>
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>139</v>
@@ -5323,7 +5318,7 @@
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <f t="shared" si="3"/>
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>77</v>
@@ -5332,7 +5327,7 @@
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <f t="shared" si="3"/>
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>307</v>
@@ -5341,7 +5336,7 @@
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <f t="shared" si="3"/>
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>89</v>
@@ -5350,7 +5345,7 @@
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <f t="shared" si="3"/>
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>119</v>
@@ -5359,7 +5354,7 @@
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <f t="shared" si="3"/>
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>94</v>
@@ -5368,7 +5363,7 @@
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <f t="shared" si="3"/>
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>83</v>
@@ -5377,7 +5372,7 @@
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <f t="shared" si="3"/>
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>102</v>
@@ -5386,7 +5381,7 @@
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <f t="shared" si="3"/>
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>195</v>
@@ -5395,7 +5390,7 @@
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <f t="shared" si="3"/>
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>152</v>
@@ -5404,7 +5399,7 @@
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <f t="shared" si="3"/>
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>47</v>
@@ -5413,7 +5408,7 @@
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <f t="shared" si="3"/>
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>27</v>
@@ -5422,7 +5417,7 @@
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <f t="shared" si="3"/>
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>7</v>
@@ -5431,7 +5426,7 @@
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <f t="shared" si="3"/>
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>75</v>
@@ -5440,7 +5435,7 @@
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <f t="shared" si="3"/>
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>28</v>
@@ -5449,7 +5444,7 @@
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <f t="shared" si="3"/>
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>106</v>
@@ -5458,7 +5453,7 @@
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <f t="shared" si="3"/>
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>109</v>
@@ -5467,7 +5462,7 @@
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <f t="shared" si="3"/>
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>93</v>
@@ -5476,7 +5471,7 @@
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <f t="shared" si="3"/>
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>69</v>
@@ -5485,7 +5480,7 @@
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <f t="shared" si="3"/>
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>69</v>
@@ -5494,7 +5489,7 @@
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <f t="shared" si="3"/>
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>113</v>
@@ -5503,7 +5498,7 @@
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <f t="shared" si="3"/>
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>239</v>
@@ -5512,7 +5507,7 @@
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <f t="shared" si="3"/>
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>107</v>
@@ -5521,7 +5516,7 @@
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <f t="shared" si="3"/>
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>238</v>
@@ -5530,7 +5525,7 @@
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <f t="shared" si="3"/>
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>171</v>
@@ -5539,7 +5534,7 @@
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <f t="shared" si="3"/>
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>215</v>
@@ -5548,7 +5543,7 @@
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <f t="shared" si="3"/>
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>234</v>
@@ -5557,7 +5552,7 @@
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <f t="shared" si="3"/>
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>251</v>
@@ -5566,7 +5561,7 @@
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <f t="shared" si="3"/>
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>143</v>
@@ -5575,7 +5570,7 @@
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <f t="shared" si="3"/>
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>126</v>
@@ -5584,7 +5579,7 @@
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <f t="shared" si="3"/>
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>231</v>
@@ -5593,7 +5588,7 @@
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <f t="shared" si="3"/>
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>248</v>
@@ -5602,7 +5597,7 @@
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <f t="shared" si="3"/>
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>38</v>
@@ -5611,7 +5606,7 @@
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <f t="shared" si="3"/>
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>242</v>
@@ -5620,7 +5615,7 @@
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <f t="shared" si="3"/>
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>247</v>
@@ -5629,7 +5624,7 @@
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <f t="shared" si="3"/>
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>178</v>
@@ -5638,7 +5633,7 @@
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <f t="shared" si="3"/>
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>333</v>
@@ -5647,7 +5642,7 @@
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <f t="shared" si="3"/>
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>99</v>
@@ -5656,7 +5651,7 @@
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <f t="shared" si="3"/>
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>71</v>
@@ -5665,7 +5660,7 @@
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <f t="shared" si="3"/>
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>232</v>
@@ -5674,7 +5669,7 @@
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <f t="shared" ref="A260:A323" si="4">IF(NOT(A259=0),A259,A258)+1</f>
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>70</v>
@@ -5683,7 +5678,7 @@
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <f t="shared" si="4"/>
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>86</v>
@@ -5692,7 +5687,7 @@
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <f t="shared" si="4"/>
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>87</v>
@@ -5701,7 +5696,7 @@
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <f t="shared" si="4"/>
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>191</v>
@@ -5710,7 +5705,7 @@
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <f t="shared" si="4"/>
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>134</v>
@@ -5719,7 +5714,7 @@
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <f t="shared" si="4"/>
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>43</v>
@@ -5728,7 +5723,7 @@
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <f t="shared" si="4"/>
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>55</v>
@@ -5737,7 +5732,7 @@
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <f t="shared" si="4"/>
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>39</v>
@@ -5746,7 +5741,7 @@
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <f t="shared" si="4"/>
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>253</v>
@@ -5755,7 +5750,7 @@
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <f t="shared" si="4"/>
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>276</v>
@@ -5764,7 +5759,7 @@
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <f t="shared" si="4"/>
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>61</v>
@@ -5773,7 +5768,7 @@
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <f t="shared" si="4"/>
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>62</v>
@@ -5782,7 +5777,7 @@
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <f t="shared" si="4"/>
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>62</v>
@@ -5791,7 +5786,7 @@
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <f t="shared" si="4"/>
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>172</v>
@@ -5800,7 +5795,7 @@
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <f t="shared" si="4"/>
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>341</v>
@@ -5809,7 +5804,7 @@
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <f t="shared" si="4"/>
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>352</v>
@@ -5818,7 +5813,7 @@
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <f t="shared" si="4"/>
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>187</v>
@@ -5827,7 +5822,7 @@
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <f t="shared" si="4"/>
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>141</v>
@@ -5836,7 +5831,7 @@
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <f t="shared" si="4"/>
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>197</v>
@@ -5845,7 +5840,7 @@
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <f t="shared" si="4"/>
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>140</v>
@@ -5854,7 +5849,7 @@
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <f t="shared" si="4"/>
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>219</v>
@@ -5863,7 +5858,7 @@
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <f t="shared" si="4"/>
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>221</v>
@@ -5872,7 +5867,7 @@
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <f t="shared" si="4"/>
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>92</v>
@@ -5881,7 +5876,7 @@
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <f t="shared" si="4"/>
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>92</v>
@@ -5890,7 +5885,7 @@
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <f t="shared" si="4"/>
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>222</v>
@@ -5899,7 +5894,7 @@
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <f t="shared" si="4"/>
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>223</v>
@@ -5908,7 +5903,7 @@
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <f t="shared" si="4"/>
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>205</v>
@@ -5917,7 +5912,7 @@
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <f t="shared" si="4"/>
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>218</v>
@@ -5926,7 +5921,7 @@
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <f t="shared" si="4"/>
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>350</v>
@@ -5935,7 +5930,7 @@
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <f t="shared" si="4"/>
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>138</v>
@@ -5944,7 +5939,7 @@
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <f t="shared" si="4"/>
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>37</v>
@@ -5953,7 +5948,7 @@
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <f t="shared" si="4"/>
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>156</v>
@@ -5962,7 +5957,7 @@
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <f t="shared" si="4"/>
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>49</v>
@@ -5971,7 +5966,7 @@
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <f t="shared" si="4"/>
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>11</v>
@@ -5980,7 +5975,7 @@
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <f t="shared" si="4"/>
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>10</v>
@@ -5989,7 +5984,7 @@
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <f t="shared" si="4"/>
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>66</v>
@@ -5998,7 +5993,7 @@
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <f t="shared" si="4"/>
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>128</v>
@@ -6007,7 +6002,7 @@
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <f t="shared" si="4"/>
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>50</v>
@@ -6016,7 +6011,7 @@
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <f t="shared" si="4"/>
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>198</v>
@@ -6025,7 +6020,7 @@
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <f t="shared" si="4"/>
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>319</v>
@@ -6034,7 +6029,7 @@
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <f t="shared" si="4"/>
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>320</v>
@@ -6043,7 +6038,7 @@
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <f t="shared" si="4"/>
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>321</v>
@@ -6052,7 +6047,7 @@
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <f t="shared" si="4"/>
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>322</v>
@@ -6061,7 +6056,7 @@
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <f t="shared" si="4"/>
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>142</v>
@@ -6070,7 +6065,7 @@
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <f t="shared" si="4"/>
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>217</v>
@@ -6079,7 +6074,7 @@
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <f t="shared" si="4"/>
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>190</v>
@@ -6088,7 +6083,7 @@
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <f t="shared" si="4"/>
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>190</v>
@@ -6097,7 +6092,7 @@
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
         <f t="shared" si="4"/>
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>245</v>
@@ -6106,7 +6101,7 @@
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <f t="shared" si="4"/>
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>240</v>
@@ -6115,7 +6110,7 @@
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <f t="shared" si="4"/>
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>200</v>
@@ -6124,7 +6119,7 @@
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <f t="shared" si="4"/>
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>14</v>
@@ -6133,7 +6128,7 @@
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <f t="shared" si="4"/>
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>324</v>
@@ -6142,7 +6137,7 @@
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <f t="shared" si="4"/>
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>192</v>
@@ -6151,7 +6146,7 @@
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <f t="shared" si="4"/>
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>44</v>
@@ -6160,7 +6155,7 @@
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <f t="shared" si="4"/>
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>226</v>
@@ -6169,7 +6164,7 @@
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
         <f t="shared" si="4"/>
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>230</v>
@@ -6178,7 +6173,7 @@
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <f t="shared" si="4"/>
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>53</v>
@@ -6187,7 +6182,7 @@
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <f t="shared" si="4"/>
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>116</v>
@@ -6196,7 +6191,7 @@
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <f t="shared" si="4"/>
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>282</v>
@@ -6205,7 +6200,7 @@
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <f t="shared" si="4"/>
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>284</v>
@@ -6214,7 +6209,7 @@
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <f t="shared" si="4"/>
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>188</v>
@@ -6223,7 +6218,7 @@
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
         <f t="shared" si="4"/>
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>188</v>
@@ -6232,7 +6227,7 @@
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <f t="shared" si="4"/>
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>177</v>
@@ -6241,7 +6236,7 @@
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <f t="shared" si="4"/>
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>229</v>
@@ -6250,7 +6245,7 @@
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <f t="shared" ref="A324:A375" si="5">IF(NOT(A323=0),A323,A322)+1</f>
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>273</v>
@@ -6259,7 +6254,7 @@
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
         <f t="shared" si="5"/>
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>273</v>
@@ -6268,7 +6263,7 @@
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <f t="shared" si="5"/>
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>149</v>
@@ -6277,7 +6272,7 @@
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <f t="shared" si="5"/>
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>34</v>
@@ -6286,7 +6281,7 @@
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
         <f t="shared" si="5"/>
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>283</v>
@@ -6295,7 +6290,7 @@
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <f t="shared" si="5"/>
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>8</v>
@@ -6304,7 +6299,7 @@
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
         <f t="shared" si="5"/>
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>15</v>
@@ -6313,7 +6308,7 @@
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
         <f t="shared" si="5"/>
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>13</v>
@@ -6322,7 +6317,7 @@
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <f t="shared" si="5"/>
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>189</v>
@@ -6331,7 +6326,7 @@
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
         <f t="shared" si="5"/>
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>2</v>
@@ -6340,7 +6335,7 @@
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
         <f t="shared" si="5"/>
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>155</v>
@@ -6349,7 +6344,7 @@
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
         <f t="shared" si="5"/>
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>292</v>
@@ -6358,7 +6353,7 @@
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
         <f t="shared" si="5"/>
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>144</v>
@@ -6367,7 +6362,7 @@
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <f t="shared" si="5"/>
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>101</v>
@@ -6376,7 +6371,7 @@
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
         <f t="shared" si="5"/>
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>147</v>
@@ -6385,7 +6380,7 @@
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <f t="shared" si="5"/>
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>132</v>
@@ -6394,7 +6389,7 @@
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <f t="shared" si="5"/>
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>255</v>
@@ -6403,7 +6398,7 @@
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
         <f t="shared" si="5"/>
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>227</v>
@@ -6412,7 +6407,7 @@
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
         <f t="shared" si="5"/>
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>260</v>
@@ -6421,7 +6416,7 @@
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <f t="shared" si="5"/>
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>297</v>
@@ -6430,7 +6425,7 @@
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
         <f t="shared" si="5"/>
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>358</v>
@@ -6439,7 +6434,7 @@
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
         <f t="shared" si="5"/>
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>112</v>
@@ -6448,7 +6443,7 @@
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
         <f t="shared" si="5"/>
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>40</v>
@@ -6457,7 +6452,7 @@
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
         <f t="shared" si="5"/>
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>42</v>
@@ -6466,7 +6461,7 @@
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
         <f t="shared" si="5"/>
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>41</v>
@@ -6475,7 +6470,7 @@
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
         <f t="shared" si="5"/>
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>271</v>
@@ -6484,7 +6479,7 @@
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
         <f t="shared" si="5"/>
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>110</v>
@@ -6493,7 +6488,7 @@
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
         <f t="shared" si="5"/>
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>202</v>
@@ -6502,7 +6497,7 @@
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
         <f t="shared" si="5"/>
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>293</v>
@@ -6511,7 +6506,7 @@
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
         <f t="shared" si="5"/>
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>301</v>
@@ -6520,7 +6515,7 @@
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
         <f t="shared" si="5"/>
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>300</v>
@@ -6529,7 +6524,7 @@
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
         <f t="shared" si="5"/>
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>148</v>
@@ -6538,7 +6533,7 @@
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
         <f t="shared" si="5"/>
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>235</v>
@@ -6547,7 +6542,7 @@
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
         <f t="shared" si="5"/>
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>95</v>
@@ -6556,7 +6551,7 @@
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <f t="shared" si="5"/>
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>90</v>
@@ -6565,7 +6560,7 @@
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
         <f t="shared" si="5"/>
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>302</v>
@@ -6574,7 +6569,7 @@
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
         <f t="shared" si="5"/>
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>122</v>
@@ -6583,7 +6578,7 @@
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
         <f t="shared" si="5"/>
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>124</v>
@@ -6592,7 +6587,7 @@
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
         <f t="shared" si="5"/>
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>36</v>
@@ -6601,7 +6596,7 @@
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
         <f t="shared" si="5"/>
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>3</v>
@@ -6610,7 +6605,7 @@
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
         <f t="shared" si="5"/>
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>5</v>
@@ -6619,7 +6614,7 @@
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
         <f t="shared" si="5"/>
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>16</v>
@@ -6628,7 +6623,7 @@
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
         <f t="shared" si="5"/>
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>26</v>
@@ -6637,7 +6632,7 @@
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
         <f t="shared" si="5"/>
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>88</v>
@@ -6646,7 +6641,7 @@
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
         <f t="shared" si="5"/>
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>29</v>
@@ -6655,7 +6650,7 @@
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
         <f t="shared" si="5"/>
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>167</v>
@@ -6664,7 +6659,7 @@
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
         <f t="shared" si="5"/>
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>343</v>
@@ -6673,7 +6668,7 @@
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
         <f t="shared" si="5"/>
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>169</v>
@@ -6682,7 +6677,7 @@
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
         <f t="shared" si="5"/>
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>165</v>
@@ -6691,7 +6686,7 @@
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
         <f t="shared" si="5"/>
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>173</v>
@@ -6700,7 +6695,7 @@
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
         <f t="shared" si="5"/>
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>151</v>
@@ -6709,7 +6704,7 @@
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
         <f t="shared" si="5"/>
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>137</v>

--- a/ALGORITHMS_LIST.xlsx
+++ b/ALGORITHMS_LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0\Git\beginner-algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3821A0FB-2E0F-4FA5-AA03-400EAC0519A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3060F5-4BD7-4751-BC5A-F4F84B229A6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F3AEC63A-3935-431B-9D94-C19A95072D1B}"/>
   </bookViews>
@@ -3322,8 +3322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC73345-1EB4-493B-9D32-2379CC101C9C}">
   <dimension ref="A1:D375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
+      <selection activeCell="B356" sqref="B356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="D2" s="8">
         <f ca="1">RANDBETWEEN(1,A375)</f>
-        <v>208</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4312,8 +4312,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
-        <f t="shared" si="1"/>
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>290</v>
@@ -4322,7 +4321,7 @@
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <f t="shared" si="1"/>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>318</v>
@@ -4331,7 +4330,7 @@
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>21</v>
@@ -4340,7 +4339,7 @@
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>179</v>
@@ -4349,7 +4348,7 @@
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <f t="shared" si="1"/>
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>207</v>
@@ -4358,7 +4357,7 @@
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <f t="shared" si="1"/>
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>337</v>
@@ -4367,7 +4366,7 @@
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <f t="shared" si="1"/>
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>309</v>
@@ -4376,7 +4375,7 @@
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <f t="shared" si="1"/>
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>285</v>
@@ -4385,7 +4384,7 @@
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <f t="shared" si="1"/>
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>12</v>
@@ -4394,7 +4393,7 @@
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <f t="shared" si="1"/>
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>111</v>
@@ -4403,7 +4402,7 @@
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <f t="shared" si="1"/>
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>305</v>
@@ -4412,7 +4411,7 @@
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <f t="shared" si="1"/>
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>114</v>
@@ -4421,7 +4420,7 @@
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>306</v>
@@ -4430,7 +4429,7 @@
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>208</v>
@@ -4439,7 +4438,7 @@
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <f t="shared" si="1"/>
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>250</v>
@@ -4448,7 +4447,7 @@
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <f t="shared" si="1"/>
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>256</v>
@@ -4465,7 +4464,7 @@
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <f t="shared" si="1"/>
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>20</v>
@@ -4474,7 +4473,7 @@
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>224</v>
@@ -4483,7 +4482,7 @@
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <f t="shared" si="1"/>
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>193</v>
@@ -4492,7 +4491,7 @@
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <f t="shared" si="1"/>
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>185</v>
@@ -4501,7 +4500,7 @@
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <f t="shared" si="1"/>
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>121</v>
@@ -4518,7 +4517,7 @@
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <f t="shared" ref="A132:A194" si="2">IF(NOT(A131=0),A131,A130)+1</f>
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>294</v>
@@ -4527,7 +4526,7 @@
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>345</v>
@@ -4536,7 +4535,7 @@
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <f t="shared" si="2"/>
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>211</v>
@@ -4545,7 +4544,7 @@
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <f t="shared" si="2"/>
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>241</v>
@@ -4554,7 +4553,7 @@
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <f t="shared" si="2"/>
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>252</v>
@@ -4563,7 +4562,7 @@
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <f t="shared" si="2"/>
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>129</v>
@@ -4572,7 +4571,7 @@
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <f t="shared" si="2"/>
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>291</v>
@@ -4581,7 +4580,7 @@
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <f t="shared" si="2"/>
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>334</v>
@@ -4590,7 +4589,7 @@
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <f t="shared" si="2"/>
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>85</v>
@@ -4599,7 +4598,7 @@
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <f t="shared" si="2"/>
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>85</v>
@@ -4608,7 +4607,7 @@
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <f t="shared" si="2"/>
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>304</v>
@@ -4617,7 +4616,7 @@
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <f t="shared" si="2"/>
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>347</v>
@@ -4626,7 +4625,7 @@
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <f t="shared" si="2"/>
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>181</v>
@@ -4635,7 +4634,7 @@
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <f t="shared" si="2"/>
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>206</v>
@@ -4644,7 +4643,7 @@
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <f t="shared" si="2"/>
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>332</v>
@@ -4653,7 +4652,7 @@
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>220</v>
@@ -4662,7 +4661,7 @@
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <f t="shared" si="2"/>
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>182</v>
@@ -4671,7 +4670,7 @@
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <f t="shared" si="2"/>
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>22</v>
@@ -4680,7 +4679,7 @@
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <f t="shared" si="2"/>
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>310</v>
@@ -4689,7 +4688,7 @@
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <f t="shared" si="2"/>
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>335</v>
@@ -4698,7 +4697,7 @@
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <f t="shared" si="2"/>
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>162</v>
@@ -4707,7 +4706,7 @@
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>342</v>
@@ -4716,7 +4715,7 @@
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <f t="shared" si="2"/>
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>263</v>
@@ -4725,7 +4724,7 @@
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <f t="shared" si="2"/>
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>298</v>
@@ -4734,7 +4733,7 @@
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <f t="shared" si="2"/>
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>299</v>
@@ -4743,7 +4742,7 @@
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <f t="shared" si="2"/>
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>67</v>
@@ -4752,7 +4751,7 @@
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <f t="shared" si="2"/>
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>146</v>
@@ -4761,7 +4760,7 @@
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <f t="shared" si="2"/>
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>146</v>
@@ -4770,7 +4769,7 @@
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <f t="shared" si="2"/>
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>48</v>
@@ -4779,7 +4778,7 @@
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <f t="shared" si="2"/>
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>313</v>
@@ -4788,7 +4787,7 @@
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <f t="shared" si="2"/>
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>314</v>
@@ -4797,7 +4796,7 @@
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>203</v>
@@ -4806,7 +4805,7 @@
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <f t="shared" si="2"/>
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>199</v>
@@ -4815,7 +4814,7 @@
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <f t="shared" si="2"/>
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>159</v>
@@ -4824,7 +4823,7 @@
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <f t="shared" si="2"/>
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>213</v>
@@ -4833,7 +4832,7 @@
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <f t="shared" si="2"/>
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>164</v>
@@ -4842,7 +4841,7 @@
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <f t="shared" si="2"/>
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>158</v>
@@ -4851,7 +4850,7 @@
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <f t="shared" si="2"/>
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>338</v>
@@ -4860,7 +4859,7 @@
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <f t="shared" si="2"/>
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>120</v>
@@ -4869,7 +4868,7 @@
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <f t="shared" si="2"/>
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>258</v>
@@ -4878,7 +4877,7 @@
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <f t="shared" si="2"/>
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>261</v>
@@ -4887,7 +4886,7 @@
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <f t="shared" si="2"/>
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>59</v>
@@ -4896,7 +4895,7 @@
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <f t="shared" si="2"/>
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>46</v>
@@ -4905,7 +4904,7 @@
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <f t="shared" si="2"/>
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>25</v>
@@ -4914,7 +4913,7 @@
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <f t="shared" si="2"/>
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>1</v>
@@ -4923,7 +4922,7 @@
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <f t="shared" si="2"/>
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>9</v>
@@ -4932,7 +4931,7 @@
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <f t="shared" si="2"/>
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>65</v>
@@ -4941,7 +4940,7 @@
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <f t="shared" si="2"/>
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>281</v>
@@ -4950,7 +4949,7 @@
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <f t="shared" si="2"/>
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>68</v>
@@ -4959,7 +4958,7 @@
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>303</v>
@@ -4968,7 +4967,7 @@
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <f t="shared" si="2"/>
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>17</v>
@@ -4977,7 +4976,7 @@
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>323</v>
@@ -4986,7 +4985,7 @@
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <f t="shared" si="2"/>
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>18</v>
@@ -4995,7 +4994,7 @@
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <f t="shared" si="2"/>
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>19</v>
@@ -5004,7 +5003,7 @@
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <f t="shared" si="2"/>
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>257</v>
@@ -5013,7 +5012,7 @@
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <f t="shared" si="2"/>
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>311</v>
@@ -5022,7 +5021,7 @@
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <f t="shared" si="2"/>
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>311</v>
@@ -5031,7 +5030,7 @@
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <f t="shared" si="2"/>
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>312</v>
@@ -5040,7 +5039,7 @@
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <f t="shared" si="2"/>
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>136</v>
@@ -5049,7 +5048,7 @@
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <f t="shared" si="2"/>
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>127</v>
@@ -5058,7 +5057,7 @@
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <f t="shared" si="2"/>
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>58</v>
@@ -5067,7 +5066,7 @@
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <f t="shared" si="2"/>
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>58</v>
@@ -5076,7 +5075,7 @@
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <f t="shared" si="2"/>
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>100</v>
@@ -5093,7 +5092,7 @@
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <f t="shared" ref="A196:A259" si="3">IF(NOT(A195=0),A195,A194)+1</f>
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>315</v>
@@ -5102,7 +5101,7 @@
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <f t="shared" si="3"/>
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>339</v>
@@ -5111,7 +5110,7 @@
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <f t="shared" si="3"/>
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>340</v>
@@ -5120,7 +5119,7 @@
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <f t="shared" si="3"/>
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>186</v>
@@ -5129,7 +5128,7 @@
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <f t="shared" si="3"/>
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>348</v>
@@ -5138,7 +5137,7 @@
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <f t="shared" si="3"/>
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>0</v>
@@ -5147,7 +5146,7 @@
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <f t="shared" si="3"/>
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>317</v>
@@ -5156,7 +5155,7 @@
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <f t="shared" si="3"/>
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>244</v>
@@ -5165,7 +5164,7 @@
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>31</v>
@@ -5174,7 +5173,7 @@
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <f t="shared" si="3"/>
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>84</v>
@@ -5183,7 +5182,7 @@
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <f t="shared" si="3"/>
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>73</v>
@@ -5192,7 +5191,7 @@
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <f t="shared" si="3"/>
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>125</v>
@@ -5201,7 +5200,7 @@
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <f t="shared" si="3"/>
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>125</v>
@@ -5210,7 +5209,7 @@
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <f t="shared" si="3"/>
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>72</v>
@@ -5219,7 +5218,7 @@
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <f t="shared" si="3"/>
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>346</v>
@@ -5228,7 +5227,7 @@
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <f t="shared" si="3"/>
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>81</v>
@@ -5237,7 +5236,7 @@
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <f t="shared" si="3"/>
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>97</v>
@@ -5246,7 +5245,7 @@
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <f t="shared" si="3"/>
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>270</v>
@@ -5255,7 +5254,7 @@
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>32</v>
@@ -5264,7 +5263,7 @@
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <f t="shared" si="3"/>
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>4</v>
@@ -5273,7 +5272,7 @@
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <f t="shared" si="3"/>
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>168</v>
@@ -5282,7 +5281,7 @@
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <f t="shared" si="3"/>
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>145</v>
@@ -5291,7 +5290,7 @@
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <f t="shared" si="3"/>
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>176</v>
@@ -5300,7 +5299,7 @@
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <f t="shared" si="3"/>
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>183</v>
@@ -5309,7 +5308,7 @@
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <f t="shared" si="3"/>
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>139</v>
@@ -5318,7 +5317,7 @@
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <f t="shared" si="3"/>
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>77</v>
@@ -5327,7 +5326,7 @@
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <f t="shared" si="3"/>
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>307</v>
@@ -5336,7 +5335,7 @@
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <f t="shared" si="3"/>
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>89</v>
@@ -5345,7 +5344,7 @@
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <f t="shared" si="3"/>
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>119</v>
@@ -5354,7 +5353,7 @@
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <f t="shared" si="3"/>
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>94</v>
@@ -5363,7 +5362,7 @@
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <f t="shared" si="3"/>
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>83</v>
@@ -5372,7 +5371,7 @@
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <f t="shared" si="3"/>
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>102</v>
@@ -5381,7 +5380,7 @@
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <f t="shared" si="3"/>
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>195</v>
@@ -5390,7 +5389,7 @@
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <f t="shared" si="3"/>
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>152</v>
@@ -5399,7 +5398,7 @@
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <f t="shared" si="3"/>
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>47</v>
@@ -5408,7 +5407,7 @@
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <f t="shared" si="3"/>
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>27</v>
@@ -5417,7 +5416,7 @@
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <f t="shared" si="3"/>
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>7</v>
@@ -5426,7 +5425,7 @@
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <f t="shared" si="3"/>
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>75</v>
@@ -5435,7 +5434,7 @@
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <f t="shared" si="3"/>
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>28</v>
@@ -5444,7 +5443,7 @@
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <f t="shared" si="3"/>
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>106</v>
@@ -5453,7 +5452,7 @@
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <f t="shared" si="3"/>
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>109</v>
@@ -5462,7 +5461,7 @@
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <f t="shared" si="3"/>
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>93</v>
@@ -5471,7 +5470,7 @@
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <f t="shared" si="3"/>
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>69</v>
@@ -5480,7 +5479,7 @@
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <f t="shared" si="3"/>
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>69</v>
@@ -5489,7 +5488,7 @@
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <f t="shared" si="3"/>
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>113</v>
@@ -5498,7 +5497,7 @@
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <f t="shared" si="3"/>
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>239</v>
@@ -5507,7 +5506,7 @@
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <f t="shared" si="3"/>
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>107</v>
@@ -5516,7 +5515,7 @@
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <f t="shared" si="3"/>
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>238</v>
@@ -5525,7 +5524,7 @@
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <f t="shared" si="3"/>
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>171</v>
@@ -5534,7 +5533,7 @@
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <f t="shared" si="3"/>
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>215</v>
@@ -5543,7 +5542,7 @@
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <f t="shared" si="3"/>
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>234</v>
@@ -5552,7 +5551,7 @@
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <f t="shared" si="3"/>
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>251</v>
@@ -5561,7 +5560,7 @@
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <f t="shared" si="3"/>
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>143</v>
@@ -5570,7 +5569,7 @@
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <f t="shared" si="3"/>
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>126</v>
@@ -5579,7 +5578,7 @@
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <f t="shared" si="3"/>
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>231</v>
@@ -5588,7 +5587,7 @@
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <f t="shared" si="3"/>
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>248</v>
@@ -5597,7 +5596,7 @@
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <f t="shared" si="3"/>
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>38</v>
@@ -5606,7 +5605,7 @@
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <f t="shared" si="3"/>
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>242</v>
@@ -5615,7 +5614,7 @@
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <f t="shared" si="3"/>
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>247</v>
@@ -5624,7 +5623,7 @@
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <f t="shared" si="3"/>
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>178</v>
@@ -5633,7 +5632,7 @@
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <f t="shared" si="3"/>
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>333</v>
@@ -5642,7 +5641,7 @@
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <f t="shared" si="3"/>
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>99</v>
@@ -5651,7 +5650,7 @@
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <f t="shared" si="3"/>
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>71</v>
@@ -5660,7 +5659,7 @@
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <f t="shared" si="3"/>
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>232</v>
@@ -5669,7 +5668,7 @@
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <f t="shared" ref="A260:A323" si="4">IF(NOT(A259=0),A259,A258)+1</f>
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>70</v>
@@ -5678,7 +5677,7 @@
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <f t="shared" si="4"/>
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>86</v>
@@ -5687,7 +5686,7 @@
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <f t="shared" si="4"/>
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>87</v>
@@ -5696,7 +5695,7 @@
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <f t="shared" si="4"/>
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>191</v>
@@ -5705,7 +5704,7 @@
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <f t="shared" si="4"/>
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>134</v>
@@ -5714,7 +5713,7 @@
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <f t="shared" si="4"/>
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>43</v>
@@ -5723,7 +5722,7 @@
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <f t="shared" si="4"/>
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>55</v>
@@ -5732,7 +5731,7 @@
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <f t="shared" si="4"/>
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>39</v>
@@ -5741,7 +5740,7 @@
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <f t="shared" si="4"/>
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>253</v>
@@ -5750,7 +5749,7 @@
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <f t="shared" si="4"/>
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>276</v>
@@ -5759,7 +5758,7 @@
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <f t="shared" si="4"/>
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>61</v>
@@ -5768,7 +5767,7 @@
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <f t="shared" si="4"/>
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>62</v>
@@ -5777,7 +5776,7 @@
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <f t="shared" si="4"/>
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>62</v>
@@ -5786,7 +5785,7 @@
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <f t="shared" si="4"/>
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>172</v>
@@ -5795,7 +5794,7 @@
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <f t="shared" si="4"/>
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>341</v>
@@ -5804,7 +5803,7 @@
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <f t="shared" si="4"/>
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>352</v>
@@ -5813,7 +5812,7 @@
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <f t="shared" si="4"/>
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>187</v>
@@ -5822,7 +5821,7 @@
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <f t="shared" si="4"/>
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>141</v>
@@ -5831,7 +5830,7 @@
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <f t="shared" si="4"/>
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>197</v>
@@ -5840,7 +5839,7 @@
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <f t="shared" si="4"/>
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>140</v>
@@ -5849,7 +5848,7 @@
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <f t="shared" si="4"/>
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>219</v>
@@ -5858,7 +5857,7 @@
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <f t="shared" si="4"/>
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>221</v>
@@ -5867,7 +5866,7 @@
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <f t="shared" si="4"/>
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>92</v>
@@ -5876,7 +5875,7 @@
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <f t="shared" si="4"/>
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>92</v>
@@ -5885,7 +5884,7 @@
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <f t="shared" si="4"/>
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>222</v>
@@ -5894,7 +5893,7 @@
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <f t="shared" si="4"/>
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>223</v>
@@ -5903,7 +5902,7 @@
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <f t="shared" si="4"/>
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>205</v>
@@ -5912,7 +5911,7 @@
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <f t="shared" si="4"/>
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>218</v>
@@ -5921,7 +5920,7 @@
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <f t="shared" si="4"/>
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>350</v>
@@ -5930,7 +5929,7 @@
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <f t="shared" si="4"/>
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>138</v>
@@ -5939,7 +5938,7 @@
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <f t="shared" si="4"/>
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>37</v>
@@ -5948,7 +5947,7 @@
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <f t="shared" si="4"/>
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>156</v>
@@ -5957,7 +5956,7 @@
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <f t="shared" si="4"/>
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>49</v>
@@ -5966,7 +5965,7 @@
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <f t="shared" si="4"/>
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>11</v>
@@ -5975,7 +5974,7 @@
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <f t="shared" si="4"/>
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>10</v>
@@ -5984,7 +5983,7 @@
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <f t="shared" si="4"/>
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>66</v>
@@ -5993,7 +5992,7 @@
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <f t="shared" si="4"/>
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>128</v>
@@ -6002,7 +6001,7 @@
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <f t="shared" si="4"/>
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>50</v>
@@ -6011,7 +6010,7 @@
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <f t="shared" si="4"/>
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>198</v>
@@ -6020,7 +6019,7 @@
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <f t="shared" si="4"/>
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>319</v>
@@ -6029,7 +6028,7 @@
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <f t="shared" si="4"/>
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>320</v>
@@ -6038,7 +6037,7 @@
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <f t="shared" si="4"/>
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>321</v>
@@ -6047,7 +6046,7 @@
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <f t="shared" si="4"/>
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>322</v>
@@ -6056,7 +6055,7 @@
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <f t="shared" si="4"/>
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>142</v>
@@ -6065,7 +6064,7 @@
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <f t="shared" si="4"/>
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>217</v>
@@ -6074,7 +6073,7 @@
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <f t="shared" si="4"/>
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>190</v>
@@ -6083,7 +6082,7 @@
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <f t="shared" si="4"/>
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>190</v>
@@ -6092,7 +6091,7 @@
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
         <f t="shared" si="4"/>
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>245</v>
@@ -6101,7 +6100,7 @@
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <f t="shared" si="4"/>
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>240</v>
@@ -6110,7 +6109,7 @@
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <f t="shared" si="4"/>
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>200</v>
@@ -6119,7 +6118,7 @@
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <f t="shared" si="4"/>
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>14</v>
@@ -6128,7 +6127,7 @@
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <f t="shared" si="4"/>
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>324</v>
@@ -6137,7 +6136,7 @@
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <f t="shared" si="4"/>
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>192</v>
@@ -6146,7 +6145,7 @@
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <f t="shared" si="4"/>
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>44</v>
@@ -6155,7 +6154,7 @@
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <f t="shared" si="4"/>
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>226</v>
@@ -6164,7 +6163,7 @@
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
         <f t="shared" si="4"/>
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>230</v>
@@ -6173,7 +6172,7 @@
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <f t="shared" si="4"/>
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>53</v>
@@ -6182,7 +6181,7 @@
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <f t="shared" si="4"/>
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>116</v>
@@ -6191,7 +6190,7 @@
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <f t="shared" si="4"/>
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>282</v>
@@ -6200,7 +6199,7 @@
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <f t="shared" si="4"/>
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>284</v>
@@ -6209,7 +6208,7 @@
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <f t="shared" si="4"/>
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>188</v>
@@ -6218,7 +6217,7 @@
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
         <f t="shared" si="4"/>
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>188</v>
@@ -6227,7 +6226,7 @@
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <f t="shared" si="4"/>
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>177</v>
@@ -6236,7 +6235,7 @@
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <f t="shared" si="4"/>
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>229</v>
@@ -6245,7 +6244,7 @@
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <f t="shared" ref="A324:A375" si="5">IF(NOT(A323=0),A323,A322)+1</f>
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>273</v>
@@ -6254,7 +6253,7 @@
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
         <f t="shared" si="5"/>
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>273</v>
@@ -6263,7 +6262,7 @@
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <f t="shared" si="5"/>
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>149</v>
@@ -6272,7 +6271,7 @@
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <f t="shared" si="5"/>
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>34</v>
@@ -6281,7 +6280,7 @@
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
         <f t="shared" si="5"/>
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>283</v>
@@ -6290,7 +6289,7 @@
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <f t="shared" si="5"/>
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>8</v>
@@ -6299,7 +6298,7 @@
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
         <f t="shared" si="5"/>
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>15</v>
@@ -6308,7 +6307,7 @@
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
         <f t="shared" si="5"/>
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>13</v>
@@ -6317,7 +6316,7 @@
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <f t="shared" si="5"/>
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>189</v>
@@ -6326,7 +6325,7 @@
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
         <f t="shared" si="5"/>
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>2</v>
@@ -6335,7 +6334,7 @@
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
         <f t="shared" si="5"/>
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>155</v>
@@ -6344,7 +6343,7 @@
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
         <f t="shared" si="5"/>
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>292</v>
@@ -6353,7 +6352,7 @@
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
         <f t="shared" si="5"/>
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>144</v>
@@ -6362,7 +6361,7 @@
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <f t="shared" si="5"/>
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>101</v>
@@ -6371,7 +6370,7 @@
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
         <f t="shared" si="5"/>
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>147</v>
@@ -6380,7 +6379,7 @@
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <f t="shared" si="5"/>
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>132</v>
@@ -6389,7 +6388,7 @@
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <f t="shared" si="5"/>
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>255</v>
@@ -6398,7 +6397,7 @@
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
         <f t="shared" si="5"/>
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>227</v>
@@ -6407,7 +6406,7 @@
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
         <f t="shared" si="5"/>
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>260</v>
@@ -6416,7 +6415,7 @@
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <f t="shared" si="5"/>
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>297</v>
@@ -6425,7 +6424,7 @@
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
         <f t="shared" si="5"/>
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>358</v>
@@ -6434,7 +6433,7 @@
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
         <f t="shared" si="5"/>
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>112</v>
@@ -6443,7 +6442,7 @@
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
         <f t="shared" si="5"/>
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>40</v>
@@ -6452,7 +6451,7 @@
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
         <f t="shared" si="5"/>
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>42</v>
@@ -6461,7 +6460,7 @@
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
         <f t="shared" si="5"/>
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>41</v>
@@ -6470,7 +6469,7 @@
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
         <f t="shared" si="5"/>
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>271</v>
@@ -6479,7 +6478,7 @@
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
         <f t="shared" si="5"/>
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>110</v>
@@ -6488,7 +6487,7 @@
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
         <f t="shared" si="5"/>
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>202</v>
@@ -6497,7 +6496,7 @@
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
         <f t="shared" si="5"/>
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>293</v>
@@ -6506,7 +6505,7 @@
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
         <f t="shared" si="5"/>
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>301</v>
@@ -6515,7 +6514,7 @@
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
         <f t="shared" si="5"/>
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>300</v>
@@ -6524,7 +6523,7 @@
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
         <f t="shared" si="5"/>
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>148</v>
@@ -6533,7 +6532,7 @@
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
         <f t="shared" si="5"/>
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>235</v>
@@ -6541,17 +6540,16 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
-        <f t="shared" si="5"/>
-        <v>353</v>
-      </c>
-      <c r="B357" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B357" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <f t="shared" si="5"/>
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>90</v>
@@ -6560,7 +6558,7 @@
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
         <f t="shared" si="5"/>
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>302</v>
@@ -6569,7 +6567,7 @@
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
         <f t="shared" si="5"/>
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>122</v>
@@ -6578,7 +6576,7 @@
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
         <f t="shared" si="5"/>
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>124</v>
@@ -6587,7 +6585,7 @@
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
         <f t="shared" si="5"/>
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>36</v>
@@ -6596,7 +6594,7 @@
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
         <f t="shared" si="5"/>
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>3</v>
@@ -6605,7 +6603,7 @@
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
         <f t="shared" si="5"/>
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>5</v>
@@ -6614,7 +6612,7 @@
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
         <f t="shared" si="5"/>
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>16</v>
@@ -6623,7 +6621,7 @@
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
         <f t="shared" si="5"/>
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>26</v>
@@ -6632,7 +6630,7 @@
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
         <f t="shared" si="5"/>
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>88</v>
@@ -6641,7 +6639,7 @@
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
         <f t="shared" si="5"/>
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>29</v>
@@ -6650,7 +6648,7 @@
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
         <f t="shared" si="5"/>
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>167</v>
@@ -6659,7 +6657,7 @@
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
         <f t="shared" si="5"/>
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>343</v>
@@ -6668,7 +6666,7 @@
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
         <f t="shared" si="5"/>
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>169</v>
@@ -6677,7 +6675,7 @@
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
         <f t="shared" si="5"/>
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>165</v>
@@ -6686,7 +6684,7 @@
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
         <f t="shared" si="5"/>
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>173</v>
@@ -6695,7 +6693,7 @@
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
         <f t="shared" si="5"/>
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>151</v>
@@ -6704,7 +6702,7 @@
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
         <f t="shared" si="5"/>
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>137</v>

--- a/ALGORITHMS_LIST.xlsx
+++ b/ALGORITHMS_LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0\Git\beginner-algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3060F5-4BD7-4751-BC5A-F4F84B229A6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8E2D6D-FB26-4E78-8428-952F45840CAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F3AEC63A-3935-431B-9D94-C19A95072D1B}"/>
   </bookViews>
@@ -3322,8 +3322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC73345-1EB4-493B-9D32-2379CC101C9C}">
   <dimension ref="A1:D375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
-      <selection activeCell="B356" sqref="B356"/>
+    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="A296" sqref="A296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="D2" s="8">
         <f ca="1">RANDBETWEEN(1,A375)</f>
-        <v>96</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5964,26 +5964,24 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
-        <f t="shared" si="4"/>
-        <v>288</v>
-      </c>
-      <c r="B293" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B293" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
-        <f t="shared" si="4"/>
-        <v>289</v>
-      </c>
-      <c r="B294" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B294" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
-        <f t="shared" si="4"/>
-        <v>290</v>
+        <f>IF(NOT(A294=0),A294,A292)+1</f>
+        <v>288</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>66</v>
@@ -5992,7 +5990,7 @@
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <f t="shared" si="4"/>
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>128</v>
@@ -6001,7 +5999,7 @@
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <f t="shared" si="4"/>
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>50</v>
@@ -6010,7 +6008,7 @@
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <f t="shared" si="4"/>
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>198</v>
@@ -6019,7 +6017,7 @@
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <f t="shared" si="4"/>
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>319</v>
@@ -6028,7 +6026,7 @@
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <f t="shared" si="4"/>
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>320</v>
@@ -6037,7 +6035,7 @@
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <f t="shared" si="4"/>
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>321</v>
@@ -6046,7 +6044,7 @@
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <f t="shared" si="4"/>
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>322</v>
@@ -6055,7 +6053,7 @@
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <f t="shared" si="4"/>
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>142</v>
@@ -6064,7 +6062,7 @@
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <f t="shared" si="4"/>
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>217</v>
@@ -6073,7 +6071,7 @@
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <f t="shared" si="4"/>
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>190</v>
@@ -6082,7 +6080,7 @@
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <f t="shared" si="4"/>
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>190</v>
@@ -6091,7 +6089,7 @@
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
         <f t="shared" si="4"/>
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>245</v>
@@ -6100,7 +6098,7 @@
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <f t="shared" si="4"/>
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>240</v>
@@ -6109,7 +6107,7 @@
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <f t="shared" si="4"/>
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>200</v>
@@ -6118,7 +6116,7 @@
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <f t="shared" si="4"/>
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>14</v>
@@ -6127,7 +6125,7 @@
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <f t="shared" si="4"/>
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>324</v>
@@ -6136,7 +6134,7 @@
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <f t="shared" si="4"/>
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>192</v>
@@ -6145,7 +6143,7 @@
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <f t="shared" si="4"/>
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>44</v>
@@ -6154,7 +6152,7 @@
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <f t="shared" si="4"/>
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>226</v>
@@ -6163,7 +6161,7 @@
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
         <f t="shared" si="4"/>
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>230</v>
@@ -6172,7 +6170,7 @@
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <f t="shared" si="4"/>
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>53</v>
@@ -6181,7 +6179,7 @@
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <f t="shared" si="4"/>
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>116</v>
@@ -6190,7 +6188,7 @@
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <f t="shared" si="4"/>
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>282</v>
@@ -6199,7 +6197,7 @@
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <f t="shared" si="4"/>
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>284</v>
@@ -6208,7 +6206,7 @@
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <f t="shared" si="4"/>
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>188</v>
@@ -6217,7 +6215,7 @@
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
         <f t="shared" si="4"/>
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>188</v>
@@ -6226,7 +6224,7 @@
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <f t="shared" si="4"/>
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>177</v>
@@ -6235,7 +6233,7 @@
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <f t="shared" si="4"/>
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>229</v>
@@ -6244,7 +6242,7 @@
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <f t="shared" ref="A324:A375" si="5">IF(NOT(A323=0),A323,A322)+1</f>
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>273</v>
@@ -6253,7 +6251,7 @@
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
         <f t="shared" si="5"/>
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>273</v>
@@ -6262,7 +6260,7 @@
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <f t="shared" si="5"/>
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>149</v>
@@ -6271,7 +6269,7 @@
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <f t="shared" si="5"/>
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>34</v>
@@ -6280,7 +6278,7 @@
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
         <f t="shared" si="5"/>
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>283</v>
@@ -6289,7 +6287,7 @@
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <f t="shared" si="5"/>
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>8</v>
@@ -6298,7 +6296,7 @@
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
         <f t="shared" si="5"/>
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>15</v>
@@ -6307,7 +6305,7 @@
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
         <f t="shared" si="5"/>
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>13</v>
@@ -6316,7 +6314,7 @@
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <f t="shared" si="5"/>
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>189</v>
@@ -6325,7 +6323,7 @@
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
         <f t="shared" si="5"/>
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>2</v>
@@ -6334,7 +6332,7 @@
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
         <f t="shared" si="5"/>
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>155</v>
@@ -6343,7 +6341,7 @@
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
         <f t="shared" si="5"/>
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>292</v>
@@ -6352,7 +6350,7 @@
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
         <f t="shared" si="5"/>
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>144</v>
@@ -6361,7 +6359,7 @@
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <f t="shared" si="5"/>
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>101</v>
@@ -6370,7 +6368,7 @@
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
         <f t="shared" si="5"/>
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>147</v>
@@ -6379,7 +6377,7 @@
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <f t="shared" si="5"/>
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>132</v>
@@ -6388,7 +6386,7 @@
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <f t="shared" si="5"/>
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>255</v>
@@ -6397,7 +6395,7 @@
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
         <f t="shared" si="5"/>
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>227</v>
@@ -6406,7 +6404,7 @@
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
         <f t="shared" si="5"/>
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>260</v>
@@ -6415,7 +6413,7 @@
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <f t="shared" si="5"/>
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>297</v>
@@ -6424,7 +6422,7 @@
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
         <f t="shared" si="5"/>
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>358</v>
@@ -6433,7 +6431,7 @@
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
         <f t="shared" si="5"/>
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>112</v>
@@ -6442,7 +6440,7 @@
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
         <f t="shared" si="5"/>
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>40</v>
@@ -6451,7 +6449,7 @@
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
         <f t="shared" si="5"/>
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>42</v>
@@ -6460,7 +6458,7 @@
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
         <f t="shared" si="5"/>
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>41</v>
@@ -6469,7 +6467,7 @@
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
         <f t="shared" si="5"/>
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>271</v>
@@ -6478,7 +6476,7 @@
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
         <f t="shared" si="5"/>
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>110</v>
@@ -6487,7 +6485,7 @@
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
         <f t="shared" si="5"/>
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>202</v>
@@ -6496,7 +6494,7 @@
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
         <f t="shared" si="5"/>
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>293</v>
@@ -6505,7 +6503,7 @@
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
         <f t="shared" si="5"/>
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>301</v>
@@ -6514,7 +6512,7 @@
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
         <f t="shared" si="5"/>
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>300</v>
@@ -6523,7 +6521,7 @@
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
         <f t="shared" si="5"/>
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>148</v>
@@ -6532,7 +6530,7 @@
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
         <f t="shared" si="5"/>
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>235</v>
@@ -6549,7 +6547,7 @@
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <f t="shared" si="5"/>
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>90</v>
@@ -6558,7 +6556,7 @@
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
         <f t="shared" si="5"/>
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>302</v>
@@ -6567,7 +6565,7 @@
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
         <f t="shared" si="5"/>
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>122</v>
@@ -6576,7 +6574,7 @@
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
         <f t="shared" si="5"/>
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>124</v>
@@ -6585,7 +6583,7 @@
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
         <f t="shared" si="5"/>
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>36</v>
@@ -6594,7 +6592,7 @@
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
         <f t="shared" si="5"/>
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>3</v>
@@ -6603,7 +6601,7 @@
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
         <f t="shared" si="5"/>
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>5</v>
@@ -6612,7 +6610,7 @@
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
         <f t="shared" si="5"/>
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>16</v>
@@ -6621,7 +6619,7 @@
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
         <f t="shared" si="5"/>
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>26</v>
@@ -6630,7 +6628,7 @@
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
         <f t="shared" si="5"/>
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>88</v>
@@ -6639,7 +6637,7 @@
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
         <f t="shared" si="5"/>
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>29</v>
@@ -6648,7 +6646,7 @@
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
         <f t="shared" si="5"/>
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>167</v>
@@ -6657,7 +6655,7 @@
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
         <f t="shared" si="5"/>
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>343</v>
@@ -6666,7 +6664,7 @@
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
         <f t="shared" si="5"/>
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>169</v>
@@ -6675,7 +6673,7 @@
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
         <f t="shared" si="5"/>
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>165</v>
@@ -6684,7 +6682,7 @@
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
         <f t="shared" si="5"/>
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>173</v>
@@ -6693,7 +6691,7 @@
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
         <f t="shared" si="5"/>
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>151</v>
@@ -6702,7 +6700,7 @@
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
         <f t="shared" si="5"/>
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>137</v>

--- a/ALGORITHMS_LIST.xlsx
+++ b/ALGORITHMS_LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0\Git\beginner-algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8E2D6D-FB26-4E78-8428-952F45840CAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A31A85B-F243-4DCA-AB92-B1D0B8F52ED2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F3AEC63A-3935-431B-9D94-C19A95072D1B}"/>
   </bookViews>
@@ -3322,8 +3322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC73345-1EB4-493B-9D32-2379CC101C9C}">
   <dimension ref="A1:D375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="A296" sqref="A296"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3346,3208 +3346,3206 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>290</v>
       </c>
       <c r="D2" s="8">
         <f ca="1">RANDBETWEEN(1,A375)</f>
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <f>IF(NOT(A2=0),A2,A1)+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>354</v>
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <f t="shared" ref="A4:A67" si="0">IF(NOT(A3=0),A3,A2)+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>355</v>
+        <v>0</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>356</v>
+        <v>0</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>357</v>
+        <v>0</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>237</v>
+        <v>0</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>233</v>
+        <v>0</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>228</v>
+        <v>0</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>IF(NOT(A11=0),A11,A10)+1</f>
+        <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>IF(NOT(A12=0),A12,A11)+1</f>
+        <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>133</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f>IF(NOT(A13=0),A13,A12)+1</f>
+        <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>33</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>IF(NOT(A14=0),A14,A13)+1</f>
+        <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>266</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>IF(NOT(A15=0),A15,A14)+1</f>
+        <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>IF(NOT(A16=0),A16,A15)+1</f>
+        <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>287</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f>IF(NOT(A17=0),A17,A16)+1</f>
+        <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>353</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f>IF(NOT(A18=0),A18,A17)+1</f>
+        <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>30</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f>IF(NOT(A19=0),A19,A18)+1</f>
+        <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>IF(NOT(A20=0),A20,A19)+1</f>
+        <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>170</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f>IF(NOT(A21=0),A21,A20)+1</f>
+        <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>280</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <f>IF(NOT(A22=0),A22,A21)+1</f>
+        <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <f>IF(NOT(A23=0),A23,A22)+1</f>
+        <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f>IF(NOT(A24=0),A24,A23)+1</f>
+        <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>IF(NOT(A25=0),A25,A24)+1</f>
+        <v>16</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <f>IF(NOT(A26=0),A26,A25)+1</f>
+        <v>17</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>24</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f>IF(NOT(A27=0),A27,A26)+1</f>
+        <v>18</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>254</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <f>IF(NOT(A28=0),A28,A27)+1</f>
+        <v>19</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>78</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f>IF(NOT(A29=0),A29,A28)+1</f>
+        <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f>IF(NOT(A30=0),A30,A29)+1</f>
+        <v>21</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>104</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <f>IF(NOT(A31=0),A31,A30)+1</f>
+        <v>22</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>278</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f>IF(NOT(A32=0),A32,A31)+1</f>
+        <v>23</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>91</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <f>IF(NOT(A33=0),A33,A32)+1</f>
+        <v>24</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>131</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <f>IF(NOT(A34=0),A34,A33)+1</f>
+        <v>25</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f>IF(NOT(A35=0),A35,A34)+1</f>
+        <v>26</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>326</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <f>IF(NOT(A36=0),A36,A35)+1</f>
+        <v>27</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>327</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <f t="shared" si="0"/>
-        <v>37</v>
+        <f>IF(NOT(A37=0),A37,A36)+1</f>
+        <v>28</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>328</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <f t="shared" si="0"/>
-        <v>38</v>
+        <f>IF(NOT(A38=0),A38,A37)+1</f>
+        <v>29</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>329</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <f t="shared" si="0"/>
-        <v>39</v>
+        <f>IF(NOT(A39=0),A39,A38)+1</f>
+        <v>30</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>330</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f>IF(NOT(A40=0),A40,A39)+1</f>
+        <v>31</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <f t="shared" si="0"/>
-        <v>41</v>
+        <f>IF(NOT(A41=0),A41,A40)+1</f>
+        <v>32</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>289</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <f>IF(NOT(A42=0),A42,A41)+1</f>
+        <v>33</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <f>IF(NOT(A43=0),A43,A42)+1</f>
+        <v>34</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>52</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <f>IF(NOT(A44=0),A44,A43)+1</f>
+        <v>35</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>210</v>
+        <v>326</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <f>IF(NOT(A45=0),A45,A44)+1</f>
+        <v>36</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <f>IF(NOT(A46=0),A46,A45)+1</f>
+        <v>37</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <f t="shared" si="0"/>
-        <v>47</v>
+        <f>IF(NOT(A47=0),A47,A46)+1</f>
+        <v>38</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>184</v>
+        <v>329</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <f t="shared" si="0"/>
-        <v>48</v>
+        <f>IF(NOT(A48=0),A48,A47)+1</f>
+        <v>39</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>243</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <f>IF(NOT(A49=0),A49,A48)+1</f>
+        <v>40</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f>IF(NOT(A50=0),A50,A49)+1</f>
+        <v>41</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <f t="shared" si="0"/>
-        <v>51</v>
+        <f>IF(NOT(A51=0),A51,A50)+1</f>
+        <v>42</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>249</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(A52=0),A52,A51)+1</f>
+        <v>43</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <f t="shared" si="0"/>
-        <v>53</v>
+        <f>IF(NOT(A53=0),A53,A52)+1</f>
+        <v>44</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>262</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <f t="shared" si="0"/>
-        <v>54</v>
+        <f>IF(NOT(A54=0),A54,A53)+1</f>
+        <v>45</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <f t="shared" si="0"/>
-        <v>55</v>
+        <f>IF(NOT(A55=0),A55,A54)+1</f>
+        <v>46</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>272</v>
+        <v>336</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <f t="shared" si="0"/>
-        <v>56</v>
+        <f>IF(NOT(A56=0),A56,A55)+1</f>
+        <v>47</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <f t="shared" si="0"/>
-        <v>57</v>
+        <f>IF(NOT(A57=0),A57,A56)+1</f>
+        <v>48</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>154</v>
+        <v>243</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <f t="shared" si="0"/>
-        <v>58</v>
+        <f>IF(NOT(A58=0),A58,A57)+1</f>
+        <v>49</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>157</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <f t="shared" si="0"/>
-        <v>59</v>
+        <f>IF(NOT(A59=0),A59,A58)+1</f>
+        <v>50</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>76</v>
+        <v>275</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <f>IF(NOT(A60=0),A60,A59)+1</f>
+        <v>51</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>115</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <f t="shared" si="0"/>
-        <v>61</v>
+        <f>IF(NOT(A61=0),A61,A60)+1</f>
+        <v>52</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>54</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <f t="shared" si="0"/>
-        <v>62</v>
+        <f>IF(NOT(A62=0),A62,A61)+1</f>
+        <v>53</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>331</v>
+        <v>262</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <f t="shared" si="0"/>
-        <v>63</v>
+        <f>IF(NOT(A63=0),A63,A62)+1</f>
+        <v>54</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>117</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <f t="shared" si="0"/>
-        <v>64</v>
+        <f>IF(NOT(A64=0),A64,A63)+1</f>
+        <v>55</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>344</v>
+        <v>272</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <f t="shared" si="0"/>
-        <v>65</v>
+        <f>IF(NOT(A65=0),A65,A64)+1</f>
+        <v>56</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>286</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <f t="shared" si="0"/>
-        <v>66</v>
+        <f>IF(NOT(A66=0),A66,A65)+1</f>
+        <v>57</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>349</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <f t="shared" ref="A68:A130" si="1">IF(NOT(A67=0),A67,A66)+1</f>
-        <v>67</v>
+        <f>IF(NOT(A67=0),A67,A66)+1</f>
+        <v>58</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <f t="shared" si="1"/>
-        <v>68</v>
+        <f>IF(NOT(A68=0),A68,A67)+1</f>
+        <v>59</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>161</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <f t="shared" si="1"/>
-        <v>69</v>
+        <f>IF(NOT(A69=0),A69,A68)+1</f>
+        <v>60</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <f>IF(NOT(A70=0),A70,A69)+1</f>
+        <v>61</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>201</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <f t="shared" si="1"/>
-        <v>71</v>
+        <f>IF(NOT(A71=0),A71,A70)+1</f>
+        <v>62</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <f t="shared" si="1"/>
-        <v>72</v>
+        <f>IF(NOT(A72=0),A72,A71)+1</f>
+        <v>63</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <f t="shared" si="1"/>
-        <v>73</v>
+        <f>IF(NOT(A73=0),A73,A72)+1</f>
+        <v>64</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>153</v>
+        <v>344</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <f t="shared" si="1"/>
-        <v>74</v>
+        <f>IF(NOT(A74=0),A74,A73)+1</f>
+        <v>65</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>103</v>
+        <v>286</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <f t="shared" si="1"/>
-        <v>75</v>
+        <f>IF(NOT(A75=0),A75,A74)+1</f>
+        <v>66</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>103</v>
+        <v>349</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <f t="shared" si="1"/>
-        <v>76</v>
+        <f>IF(NOT(A76=0),A76,A75)+1</f>
+        <v>67</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <f t="shared" si="1"/>
-        <v>77</v>
+        <f>IF(NOT(A77=0),A77,A76)+1</f>
+        <v>68</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <f t="shared" si="1"/>
-        <v>78</v>
+        <f>IF(NOT(A78=0),A78,A77)+1</f>
+        <v>69</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <f t="shared" si="1"/>
-        <v>79</v>
+        <f>IF(NOT(A79=0),A79,A78)+1</f>
+        <v>70</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <f>IF(NOT(A80=0),A80,A79)+1</f>
+        <v>71</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>118</v>
+        <v>295</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <f t="shared" si="1"/>
-        <v>81</v>
+        <f>IF(NOT(A81=0),A81,A80)+1</f>
+        <v>72</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <f t="shared" si="1"/>
-        <v>82</v>
+        <f>IF(NOT(A82=0),A82,A81)+1</f>
+        <v>73</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <f t="shared" si="1"/>
-        <v>83</v>
+        <f>IF(NOT(A83=0),A83,A82)+1</f>
+        <v>74</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <f t="shared" si="1"/>
-        <v>84</v>
+        <f>IF(NOT(A84=0),A84,A83)+1</f>
+        <v>75</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <f t="shared" si="1"/>
-        <v>85</v>
+        <f>IF(NOT(A85=0),A85,A84)+1</f>
+        <v>76</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <f t="shared" si="1"/>
-        <v>86</v>
+        <f>IF(NOT(A86=0),A86,A85)+1</f>
+        <v>77</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <f t="shared" si="1"/>
-        <v>87</v>
+        <f>IF(NOT(A87=0),A87,A86)+1</f>
+        <v>78</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <f t="shared" si="1"/>
-        <v>88</v>
+        <f>IF(NOT(A88=0),A88,A87)+1</f>
+        <v>79</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>265</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <f t="shared" si="1"/>
-        <v>89</v>
+        <f>IF(NOT(A89=0),A89,A88)+1</f>
+        <v>80</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>268</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <f>IF(NOT(A90=0),A90,A89)+1</f>
+        <v>81</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <f t="shared" si="1"/>
-        <v>91</v>
+        <f>IF(NOT(A91=0),A91,A90)+1</f>
+        <v>82</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>269</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <f t="shared" si="1"/>
-        <v>92</v>
+        <f>IF(NOT(A92=0),A92,A91)+1</f>
+        <v>83</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>225</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <f t="shared" si="1"/>
-        <v>93</v>
+        <f>IF(NOT(A93=0),A93,A92)+1</f>
+        <v>84</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <f t="shared" si="1"/>
-        <v>94</v>
+        <f>IF(NOT(A94=0),A94,A93)+1</f>
+        <v>85</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <f t="shared" si="1"/>
-        <v>95</v>
+        <f>IF(NOT(A95=0),A95,A94)+1</f>
+        <v>86</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <f t="shared" si="1"/>
-        <v>96</v>
+        <f>IF(NOT(A96=0),A96,A95)+1</f>
+        <v>87</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <f t="shared" si="1"/>
-        <v>97</v>
+        <f>IF(NOT(A97=0),A97,A96)+1</f>
+        <v>88</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <f t="shared" si="1"/>
-        <v>98</v>
+        <f>IF(NOT(A98=0),A98,A97)+1</f>
+        <v>89</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>150</v>
+        <v>268</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <f t="shared" si="1"/>
-        <v>99</v>
+        <f>IF(NOT(A99=0),A99,A98)+1</f>
+        <v>90</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f>IF(NOT(A100=0),A100,A99)+1</f>
+        <v>91</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>74</v>
+        <v>269</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <f t="shared" si="1"/>
-        <v>101</v>
+        <f>IF(NOT(A101=0),A101,A100)+1</f>
+        <v>92</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>130</v>
+        <v>225</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <f t="shared" si="1"/>
-        <v>102</v>
+        <f>IF(NOT(A102=0),A102,A101)+1</f>
+        <v>93</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>60</v>
+        <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <f t="shared" si="1"/>
-        <v>103</v>
+        <f>IF(NOT(A103=0),A103,A102)+1</f>
+        <v>94</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>194</v>
+        <v>64</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <f t="shared" si="1"/>
-        <v>104</v>
+        <f>IF(NOT(A104=0),A104,A103)+1</f>
+        <v>95</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>196</v>
+        <v>64</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <f t="shared" si="1"/>
-        <v>105</v>
+        <f>IF(NOT(A105=0),A105,A104)+1</f>
+        <v>96</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <f t="shared" si="1"/>
-        <v>106</v>
+        <f>IF(NOT(A106=0),A106,A105)+1</f>
+        <v>97</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>80</v>
+        <v>279</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
-        <f t="shared" si="1"/>
-        <v>107</v>
+        <f>IF(NOT(A107=0),A107,A106)+1</f>
+        <v>98</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>296</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
-        <v>0</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>290</v>
+        <f>IF(NOT(A108=0),A108,A107)+1</f>
+        <v>99</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
-        <f t="shared" si="1"/>
-        <v>108</v>
+        <f>IF(NOT(A109=0),A109,A108)+1</f>
+        <v>100</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>318</v>
+        <v>74</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
-        <f t="shared" si="1"/>
-        <v>109</v>
+        <f>IF(NOT(A110=0),A110,A109)+1</f>
+        <v>101</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
-        <f t="shared" si="1"/>
-        <v>110</v>
+        <f>IF(NOT(A111=0),A111,A110)+1</f>
+        <v>102</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>179</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
-        <f t="shared" si="1"/>
-        <v>111</v>
+        <f>IF(NOT(A112=0),A112,A111)+1</f>
+        <v>103</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
-        <f t="shared" si="1"/>
-        <v>112</v>
+        <f>IF(NOT(A113=0),A113,A112)+1</f>
+        <v>104</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>337</v>
+        <v>196</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
-        <f t="shared" si="1"/>
-        <v>113</v>
+        <f>IF(NOT(A114=0),A114,A113)+1</f>
+        <v>105</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>309</v>
+        <v>166</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
-        <f t="shared" si="1"/>
-        <v>114</v>
+        <f>IF(NOT(A115=0),A115,A114)+1</f>
+        <v>106</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>285</v>
+        <v>80</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
-        <f t="shared" si="1"/>
-        <v>115</v>
+        <f>IF(NOT(A116=0),A116,A115)+1</f>
+        <v>107</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>12</v>
+        <v>296</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
-        <f t="shared" si="1"/>
-        <v>116</v>
+        <f>IF(NOT(A117=0),A117,A116)+1</f>
+        <v>108</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>111</v>
+        <v>318</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
-        <f t="shared" si="1"/>
-        <v>117</v>
+        <f>IF(NOT(A118=0),A118,A117)+1</f>
+        <v>109</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>305</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
-        <f t="shared" si="1"/>
-        <v>118</v>
+        <f>IF(NOT(A119=0),A119,A118)+1</f>
+        <v>110</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
-        <f t="shared" si="1"/>
-        <v>119</v>
+        <f>IF(NOT(A120=0),A120,A119)+1</f>
+        <v>111</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <f>IF(NOT(A121=0),A121,A120)+1</f>
+        <v>112</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>208</v>
+        <v>337</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
-        <f t="shared" si="1"/>
-        <v>121</v>
+        <f>IF(NOT(A122=0),A122,A121)+1</f>
+        <v>113</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>250</v>
+        <v>309</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
-        <f t="shared" si="1"/>
-        <v>122</v>
+        <f>IF(NOT(A123=0),A123,A122)+1</f>
+        <v>114</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
-        <v>0</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>316</v>
+        <f>IF(NOT(A124=0),A124,A123)+1</f>
+        <v>115</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
-        <f t="shared" si="1"/>
-        <v>123</v>
+        <f>IF(NOT(A125=0),A125,A124)+1</f>
+        <v>116</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
-        <f t="shared" si="1"/>
-        <v>124</v>
+        <f>IF(NOT(A126=0),A126,A125)+1</f>
+        <v>117</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>224</v>
+        <v>305</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
-        <f t="shared" si="1"/>
-        <v>125</v>
+        <f>IF(NOT(A127=0),A127,A126)+1</f>
+        <v>118</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>193</v>
+        <v>114</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
-        <f t="shared" si="1"/>
-        <v>126</v>
+        <f>IF(NOT(A128=0),A128,A127)+1</f>
+        <v>119</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>185</v>
+        <v>306</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
-        <f t="shared" si="1"/>
-        <v>127</v>
+        <f>IF(NOT(A129=0),A129,A128)+1</f>
+        <v>120</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>121</v>
+        <v>208</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
-        <v>0</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>6</v>
+        <f>IF(NOT(A130=0),A130,A129)+1</f>
+        <v>121</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
-        <f t="shared" ref="A132:A194" si="2">IF(NOT(A131=0),A131,A130)+1</f>
-        <v>128</v>
+        <f>IF(NOT(A131=0),A131,A130)+1</f>
+        <v>122</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
-        <f t="shared" si="2"/>
-        <v>129</v>
+        <f>IF(NOT(A132=0),A132,A131)+1</f>
+        <v>123</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>345</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
-        <f t="shared" si="2"/>
-        <v>130</v>
+        <f>IF(NOT(A133=0),A133,A132)+1</f>
+        <v>124</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
-        <f t="shared" si="2"/>
-        <v>131</v>
+        <f>IF(NOT(A134=0),A134,A133)+1</f>
+        <v>125</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
-        <f t="shared" si="2"/>
-        <v>132</v>
+        <f>IF(NOT(A135=0),A135,A134)+1</f>
+        <v>126</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>252</v>
+        <v>185</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
-        <f t="shared" si="2"/>
-        <v>133</v>
+        <f>IF(NOT(A136=0),A136,A135)+1</f>
+        <v>127</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
-        <f t="shared" si="2"/>
-        <v>134</v>
+        <f>IF(NOT(A137=0),A137,A136)+1</f>
+        <v>128</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
-        <f t="shared" si="2"/>
-        <v>135</v>
+        <f>IF(NOT(A138=0),A138,A137)+1</f>
+        <v>129</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
-        <f t="shared" si="2"/>
-        <v>136</v>
+        <f>IF(NOT(A139=0),A139,A138)+1</f>
+        <v>130</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>85</v>
+        <v>211</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
-        <f t="shared" si="2"/>
-        <v>137</v>
+        <f>IF(NOT(A140=0),A140,A139)+1</f>
+        <v>131</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>85</v>
+        <v>241</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
-        <f t="shared" si="2"/>
-        <v>138</v>
+        <f>IF(NOT(A141=0),A141,A140)+1</f>
+        <v>132</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>304</v>
+        <v>252</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
-        <f t="shared" si="2"/>
-        <v>139</v>
+        <f>IF(NOT(A142=0),A142,A141)+1</f>
+        <v>133</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>347</v>
+        <v>129</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
-        <f t="shared" si="2"/>
-        <v>140</v>
+        <f>IF(NOT(A143=0),A143,A142)+1</f>
+        <v>134</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>181</v>
+        <v>291</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
-        <f t="shared" si="2"/>
-        <v>141</v>
+        <f>IF(NOT(A144=0),A144,A143)+1</f>
+        <v>135</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>206</v>
+        <v>334</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
-        <f t="shared" si="2"/>
-        <v>142</v>
+        <f>IF(NOT(A145=0),A145,A144)+1</f>
+        <v>136</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>332</v>
+        <v>85</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
-        <f t="shared" si="2"/>
-        <v>143</v>
+        <f>IF(NOT(A146=0),A146,A145)+1</f>
+        <v>137</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>220</v>
+        <v>85</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
-        <f t="shared" si="2"/>
-        <v>144</v>
+        <f>IF(NOT(A147=0),A147,A146)+1</f>
+        <v>138</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>182</v>
+        <v>304</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
-        <f t="shared" si="2"/>
-        <v>145</v>
+        <f>IF(NOT(A148=0),A148,A147)+1</f>
+        <v>139</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>22</v>
+        <v>347</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
-        <f t="shared" si="2"/>
-        <v>146</v>
+        <f>IF(NOT(A149=0),A149,A148)+1</f>
+        <v>140</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>310</v>
+        <v>181</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
-        <f t="shared" si="2"/>
-        <v>147</v>
+        <f>IF(NOT(A150=0),A150,A149)+1</f>
+        <v>141</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>335</v>
+        <v>206</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
-        <f t="shared" si="2"/>
-        <v>148</v>
+        <f>IF(NOT(A151=0),A151,A150)+1</f>
+        <v>142</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>162</v>
+        <v>332</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
-        <f t="shared" si="2"/>
-        <v>149</v>
+        <f>IF(NOT(A152=0),A152,A151)+1</f>
+        <v>143</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>342</v>
+        <v>220</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <f>IF(NOT(A153=0),A153,A152)+1</f>
+        <v>144</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>263</v>
+        <v>182</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
-        <f t="shared" si="2"/>
-        <v>151</v>
+        <f>IF(NOT(A154=0),A154,A153)+1</f>
+        <v>145</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>298</v>
+        <v>22</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
-        <f t="shared" si="2"/>
-        <v>152</v>
+        <f>IF(NOT(A155=0),A155,A154)+1</f>
+        <v>146</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
-        <f t="shared" si="2"/>
-        <v>153</v>
+        <f>IF(NOT(A156=0),A156,A155)+1</f>
+        <v>147</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>67</v>
+        <v>335</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
-        <f t="shared" si="2"/>
-        <v>154</v>
+        <f>IF(NOT(A157=0),A157,A156)+1</f>
+        <v>148</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
-        <f t="shared" si="2"/>
-        <v>155</v>
+        <f>IF(NOT(A158=0),A158,A157)+1</f>
+        <v>149</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>146</v>
+        <v>342</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
-        <f t="shared" si="2"/>
-        <v>156</v>
+        <f>IF(NOT(A159=0),A159,A158)+1</f>
+        <v>150</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>48</v>
+        <v>263</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
-        <f t="shared" si="2"/>
-        <v>157</v>
+        <f>IF(NOT(A160=0),A160,A159)+1</f>
+        <v>151</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
-        <f t="shared" si="2"/>
-        <v>158</v>
+        <f>IF(NOT(A161=0),A161,A160)+1</f>
+        <v>152</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
-        <f t="shared" si="2"/>
-        <v>159</v>
+        <f>IF(NOT(A162=0),A162,A161)+1</f>
+        <v>153</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>203</v>
+        <v>67</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
-        <f t="shared" si="2"/>
-        <v>160</v>
+        <f>IF(NOT(A163=0),A163,A162)+1</f>
+        <v>154</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
-        <f t="shared" si="2"/>
-        <v>161</v>
+        <f>IF(NOT(A164=0),A164,A163)+1</f>
+        <v>155</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
-        <f t="shared" si="2"/>
-        <v>162</v>
+        <f>IF(NOT(A165=0),A165,A164)+1</f>
+        <v>156</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>213</v>
+        <v>48</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
-        <f t="shared" si="2"/>
-        <v>163</v>
+        <f>IF(NOT(A166=0),A166,A165)+1</f>
+        <v>157</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>164</v>
+        <v>313</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
-        <f t="shared" si="2"/>
-        <v>164</v>
+        <f>IF(NOT(A167=0),A167,A166)+1</f>
+        <v>158</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>158</v>
+        <v>314</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
-        <f t="shared" si="2"/>
-        <v>165</v>
+        <f>IF(NOT(A168=0),A168,A167)+1</f>
+        <v>159</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>338</v>
+        <v>203</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
-        <f t="shared" si="2"/>
-        <v>166</v>
+        <f>IF(NOT(A169=0),A169,A168)+1</f>
+        <v>160</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>120</v>
+        <v>199</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
-        <f t="shared" si="2"/>
-        <v>167</v>
+        <f>IF(NOT(A170=0),A170,A169)+1</f>
+        <v>161</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>258</v>
+        <v>159</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
-        <f t="shared" si="2"/>
-        <v>168</v>
+        <f>IF(NOT(A171=0),A171,A170)+1</f>
+        <v>162</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
-        <f t="shared" si="2"/>
-        <v>169</v>
+        <f>IF(NOT(A172=0),A172,A171)+1</f>
+        <v>163</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
-        <f t="shared" si="2"/>
-        <v>170</v>
+        <f>IF(NOT(A173=0),A173,A172)+1</f>
+        <v>164</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>46</v>
+        <v>158</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
-        <f t="shared" si="2"/>
-        <v>171</v>
+        <f>IF(NOT(A174=0),A174,A173)+1</f>
+        <v>165</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>25</v>
+        <v>338</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
-        <f t="shared" si="2"/>
-        <v>172</v>
+        <f>IF(NOT(A175=0),A175,A174)+1</f>
+        <v>166</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>1</v>
+        <v>120</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
-        <f t="shared" si="2"/>
-        <v>173</v>
+        <f>IF(NOT(A176=0),A176,A175)+1</f>
+        <v>167</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>9</v>
+        <v>258</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
-        <f t="shared" si="2"/>
-        <v>174</v>
+        <f>IF(NOT(A177=0),A177,A176)+1</f>
+        <v>168</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>65</v>
+        <v>261</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
-        <f t="shared" si="2"/>
-        <v>175</v>
+        <f>IF(NOT(A178=0),A178,A177)+1</f>
+        <v>169</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>281</v>
+        <v>59</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
-        <f t="shared" si="2"/>
-        <v>176</v>
+        <f>IF(NOT(A179=0),A179,A178)+1</f>
+        <v>170</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
-        <f t="shared" si="2"/>
-        <v>177</v>
+        <f>IF(NOT(A180=0),A180,A179)+1</f>
+        <v>171</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>303</v>
+        <v>25</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
-        <f t="shared" si="2"/>
-        <v>178</v>
+        <f>IF(NOT(A181=0),A181,A180)+1</f>
+        <v>172</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
-        <f t="shared" si="2"/>
-        <v>179</v>
+        <f>IF(NOT(A182=0),A182,A181)+1</f>
+        <v>173</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>323</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
-        <f t="shared" si="2"/>
-        <v>180</v>
+        <f>IF(NOT(A183=0),A183,A182)+1</f>
+        <v>174</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
-        <f t="shared" si="2"/>
-        <v>181</v>
+        <f>IF(NOT(A184=0),A184,A183)+1</f>
+        <v>175</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>19</v>
+        <v>281</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
-        <f t="shared" si="2"/>
-        <v>182</v>
+        <f>IF(NOT(A185=0),A185,A184)+1</f>
+        <v>176</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>257</v>
+        <v>68</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
-        <f t="shared" si="2"/>
-        <v>183</v>
+        <f>IF(NOT(A186=0),A186,A185)+1</f>
+        <v>177</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
-        <f t="shared" si="2"/>
-        <v>184</v>
+        <f>IF(NOT(A187=0),A187,A186)+1</f>
+        <v>178</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>311</v>
+        <v>17</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
-        <f t="shared" si="2"/>
-        <v>185</v>
+        <f>IF(NOT(A188=0),A188,A187)+1</f>
+        <v>179</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
-        <f t="shared" si="2"/>
-        <v>186</v>
+        <f>IF(NOT(A189=0),A189,A188)+1</f>
+        <v>180</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
-        <f t="shared" si="2"/>
-        <v>187</v>
+        <f>IF(NOT(A190=0),A190,A189)+1</f>
+        <v>181</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
-        <f t="shared" si="2"/>
-        <v>188</v>
+        <f>IF(NOT(A191=0),A191,A190)+1</f>
+        <v>182</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
-        <f t="shared" si="2"/>
-        <v>189</v>
+        <f>IF(NOT(A192=0),A192,A191)+1</f>
+        <v>183</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>58</v>
+        <v>311</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
-        <f t="shared" si="2"/>
-        <v>190</v>
+        <f>IF(NOT(A193=0),A193,A192)+1</f>
+        <v>184</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>100</v>
+        <v>311</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
-        <v>0</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>96</v>
+        <f>IF(NOT(A194=0),A194,A193)+1</f>
+        <v>185</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
-        <f t="shared" ref="A196:A259" si="3">IF(NOT(A195=0),A195,A194)+1</f>
-        <v>191</v>
+        <f>IF(NOT(A195=0),A195,A194)+1</f>
+        <v>186</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>315</v>
+        <v>136</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
-        <f t="shared" si="3"/>
-        <v>192</v>
+        <f>IF(NOT(A196=0),A196,A195)+1</f>
+        <v>187</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>339</v>
+        <v>127</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
-        <f t="shared" si="3"/>
-        <v>193</v>
+        <f>IF(NOT(A197=0),A197,A196)+1</f>
+        <v>188</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>340</v>
+        <v>58</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
-        <f t="shared" si="3"/>
-        <v>194</v>
+        <f>IF(NOT(A198=0),A198,A197)+1</f>
+        <v>189</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>186</v>
+        <v>58</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
-        <f t="shared" si="3"/>
-        <v>195</v>
+        <f>IF(NOT(A199=0),A199,A198)+1</f>
+        <v>190</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>348</v>
+        <v>100</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
-        <f t="shared" si="3"/>
-        <v>196</v>
+        <f>IF(NOT(A200=0),A200,A199)+1</f>
+        <v>191</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>0</v>
+        <v>315</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
-        <f t="shared" si="3"/>
-        <v>197</v>
+        <f>IF(NOT(A201=0),A201,A200)+1</f>
+        <v>192</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
-        <f t="shared" si="3"/>
-        <v>198</v>
+        <f>IF(NOT(A202=0),A202,A201)+1</f>
+        <v>193</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>244</v>
+        <v>340</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
-        <f t="shared" si="3"/>
-        <v>199</v>
+        <f>IF(NOT(A203=0),A203,A202)+1</f>
+        <v>194</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>31</v>
+        <v>186</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
-        <f t="shared" si="3"/>
-        <v>200</v>
+        <f>IF(NOT(A204=0),A204,A203)+1</f>
+        <v>195</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>84</v>
+        <v>348</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
-        <f t="shared" si="3"/>
-        <v>201</v>
+        <f>IF(NOT(A205=0),A205,A204)+1</f>
+        <v>196</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
-        <f t="shared" si="3"/>
-        <v>202</v>
+        <f>IF(NOT(A206=0),A206,A205)+1</f>
+        <v>197</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>125</v>
+        <v>317</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
-        <f t="shared" si="3"/>
-        <v>203</v>
+        <f>IF(NOT(A207=0),A207,A206)+1</f>
+        <v>198</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>125</v>
+        <v>244</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
-        <f t="shared" si="3"/>
-        <v>204</v>
+        <f>IF(NOT(A208=0),A208,A207)+1</f>
+        <v>199</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
-        <f t="shared" si="3"/>
-        <v>205</v>
+        <f>IF(NOT(A209=0),A209,A208)+1</f>
+        <v>200</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>346</v>
+        <v>84</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
-        <f t="shared" si="3"/>
-        <v>206</v>
+        <f>IF(NOT(A210=0),A210,A209)+1</f>
+        <v>201</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
-        <f t="shared" si="3"/>
-        <v>207</v>
+        <f>IF(NOT(A211=0),A211,A210)+1</f>
+        <v>202</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
-        <f t="shared" si="3"/>
-        <v>208</v>
+        <f>IF(NOT(A212=0),A212,A211)+1</f>
+        <v>203</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>270</v>
+        <v>125</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
-        <f t="shared" si="3"/>
-        <v>209</v>
+        <f>IF(NOT(A213=0),A213,A212)+1</f>
+        <v>204</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
-        <f t="shared" si="3"/>
-        <v>210</v>
+        <f>IF(NOT(A214=0),A214,A213)+1</f>
+        <v>205</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>4</v>
+        <v>346</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
-        <f t="shared" si="3"/>
-        <v>211</v>
+        <f>IF(NOT(A215=0),A215,A214)+1</f>
+        <v>206</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>168</v>
+        <v>81</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
-        <f t="shared" si="3"/>
-        <v>212</v>
+        <f>IF(NOT(A216=0),A216,A215)+1</f>
+        <v>207</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
-        <f t="shared" si="3"/>
-        <v>213</v>
+        <f>IF(NOT(A217=0),A217,A216)+1</f>
+        <v>208</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>176</v>
+        <v>270</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
-        <f t="shared" si="3"/>
-        <v>214</v>
+        <f>IF(NOT(A218=0),A218,A217)+1</f>
+        <v>209</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
-        <f t="shared" si="3"/>
-        <v>215</v>
+        <f>IF(NOT(A219=0),A219,A218)+1</f>
+        <v>210</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
-        <f t="shared" si="3"/>
-        <v>216</v>
+        <f>IF(NOT(A220=0),A220,A219)+1</f>
+        <v>211</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
-        <f t="shared" si="3"/>
-        <v>217</v>
+        <f>IF(NOT(A221=0),A221,A220)+1</f>
+        <v>212</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>307</v>
+        <v>145</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
-        <f t="shared" si="3"/>
-        <v>218</v>
+        <f>IF(NOT(A222=0),A222,A221)+1</f>
+        <v>213</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>89</v>
+        <v>176</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
-        <f t="shared" si="3"/>
-        <v>219</v>
+        <f>IF(NOT(A223=0),A223,A222)+1</f>
+        <v>214</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
-        <f t="shared" si="3"/>
-        <v>220</v>
+        <f>IF(NOT(A224=0),A224,A223)+1</f>
+        <v>215</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
-        <f t="shared" si="3"/>
-        <v>221</v>
+        <f>IF(NOT(A225=0),A225,A224)+1</f>
+        <v>216</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
-        <f t="shared" si="3"/>
-        <v>222</v>
+        <f>IF(NOT(A226=0),A226,A225)+1</f>
+        <v>217</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>102</v>
+        <v>307</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
-        <f t="shared" si="3"/>
-        <v>223</v>
+        <f>IF(NOT(A227=0),A227,A226)+1</f>
+        <v>218</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>195</v>
+        <v>89</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
-        <f t="shared" si="3"/>
-        <v>224</v>
+        <f>IF(NOT(A228=0),A228,A227)+1</f>
+        <v>219</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
-        <f t="shared" si="3"/>
-        <v>225</v>
+        <f>IF(NOT(A229=0),A229,A228)+1</f>
+        <v>220</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
-        <f t="shared" si="3"/>
-        <v>226</v>
+        <f>IF(NOT(A230=0),A230,A229)+1</f>
+        <v>221</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
-        <f t="shared" si="3"/>
-        <v>227</v>
+        <f>IF(NOT(A231=0),A231,A230)+1</f>
+        <v>222</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
-        <f t="shared" si="3"/>
-        <v>228</v>
+        <f>IF(NOT(A232=0),A232,A231)+1</f>
+        <v>223</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>75</v>
+        <v>195</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
-        <f t="shared" si="3"/>
-        <v>229</v>
+        <f>IF(NOT(A233=0),A233,A232)+1</f>
+        <v>224</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
-        <f t="shared" si="3"/>
-        <v>230</v>
+        <f>IF(NOT(A234=0),A234,A233)+1</f>
+        <v>225</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
-        <f t="shared" si="3"/>
-        <v>231</v>
+        <f>IF(NOT(A235=0),A235,A234)+1</f>
+        <v>226</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
-        <f t="shared" si="3"/>
-        <v>232</v>
+        <f>IF(NOT(A236=0),A236,A235)+1</f>
+        <v>227</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
-        <f t="shared" si="3"/>
-        <v>233</v>
+        <f>IF(NOT(A237=0),A237,A236)+1</f>
+        <v>228</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
-        <f t="shared" si="3"/>
-        <v>234</v>
+        <f>IF(NOT(A238=0),A238,A237)+1</f>
+        <v>229</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
-        <f t="shared" si="3"/>
-        <v>235</v>
+        <f>IF(NOT(A239=0),A239,A238)+1</f>
+        <v>230</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
-        <f t="shared" si="3"/>
-        <v>236</v>
+        <f>IF(NOT(A240=0),A240,A239)+1</f>
+        <v>231</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>239</v>
+        <v>109</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
-        <f t="shared" si="3"/>
-        <v>237</v>
+        <f>IF(NOT(A241=0),A241,A240)+1</f>
+        <v>232</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
-        <f t="shared" si="3"/>
-        <v>238</v>
+        <f>IF(NOT(A242=0),A242,A241)+1</f>
+        <v>233</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>238</v>
+        <v>69</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
-        <f t="shared" si="3"/>
-        <v>239</v>
+        <f>IF(NOT(A243=0),A243,A242)+1</f>
+        <v>234</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>171</v>
+        <v>69</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
-        <f t="shared" si="3"/>
-        <v>240</v>
+        <f>IF(NOT(A244=0),A244,A243)+1</f>
+        <v>235</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
-        <f t="shared" si="3"/>
-        <v>241</v>
+        <f>IF(NOT(A245=0),A245,A244)+1</f>
+        <v>236</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
-        <f t="shared" si="3"/>
-        <v>242</v>
+        <f>IF(NOT(A246=0),A246,A245)+1</f>
+        <v>237</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>251</v>
+        <v>107</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
-        <f t="shared" si="3"/>
-        <v>243</v>
+        <f>IF(NOT(A247=0),A247,A246)+1</f>
+        <v>238</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>143</v>
+        <v>238</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
-        <f t="shared" si="3"/>
-        <v>244</v>
+        <f>IF(NOT(A248=0),A248,A247)+1</f>
+        <v>239</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
-        <f t="shared" si="3"/>
-        <v>245</v>
+        <f>IF(NOT(A249=0),A249,A248)+1</f>
+        <v>240</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
-        <f t="shared" si="3"/>
-        <v>246</v>
+        <f>IF(NOT(A250=0),A250,A249)+1</f>
+        <v>241</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
-        <f t="shared" si="3"/>
-        <v>247</v>
+        <f>IF(NOT(A251=0),A251,A250)+1</f>
+        <v>242</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>38</v>
+        <v>251</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
-        <f t="shared" si="3"/>
-        <v>248</v>
+        <f>IF(NOT(A252=0),A252,A251)+1</f>
+        <v>243</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>242</v>
+        <v>143</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
-        <f t="shared" si="3"/>
-        <v>249</v>
+        <f>IF(NOT(A253=0),A253,A252)+1</f>
+        <v>244</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>247</v>
+        <v>126</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
-        <f t="shared" si="3"/>
-        <v>250</v>
+        <f>IF(NOT(A254=0),A254,A253)+1</f>
+        <v>245</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>178</v>
+        <v>231</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
-        <f t="shared" si="3"/>
-        <v>251</v>
+        <f>IF(NOT(A255=0),A255,A254)+1</f>
+        <v>246</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>333</v>
+        <v>248</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
-        <f t="shared" si="3"/>
-        <v>252</v>
+        <f>IF(NOT(A256=0),A256,A255)+1</f>
+        <v>247</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
-        <f t="shared" si="3"/>
-        <v>253</v>
+        <f>IF(NOT(A257=0),A257,A256)+1</f>
+        <v>248</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>71</v>
+        <v>242</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
-        <f t="shared" si="3"/>
-        <v>254</v>
+        <f>IF(NOT(A258=0),A258,A257)+1</f>
+        <v>249</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
-        <f t="shared" ref="A260:A323" si="4">IF(NOT(A259=0),A259,A258)+1</f>
-        <v>255</v>
+        <f>IF(NOT(A259=0),A259,A258)+1</f>
+        <v>250</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
-        <f t="shared" si="4"/>
-        <v>256</v>
+        <f>IF(NOT(A260=0),A260,A259)+1</f>
+        <v>251</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>86</v>
+        <v>333</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
-        <f t="shared" si="4"/>
-        <v>257</v>
+        <f>IF(NOT(A261=0),A261,A260)+1</f>
+        <v>252</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
-        <f t="shared" si="4"/>
-        <v>258</v>
+        <f>IF(NOT(A262=0),A262,A261)+1</f>
+        <v>253</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
-        <f t="shared" si="4"/>
-        <v>259</v>
+        <f>IF(NOT(A263=0),A263,A262)+1</f>
+        <v>254</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
-        <f t="shared" si="4"/>
-        <v>260</v>
+        <f>IF(NOT(A264=0),A264,A263)+1</f>
+        <v>255</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
-        <f t="shared" si="4"/>
-        <v>261</v>
+        <f>IF(NOT(A265=0),A265,A264)+1</f>
+        <v>256</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
-        <f t="shared" si="4"/>
-        <v>262</v>
+        <f>IF(NOT(A266=0),A266,A265)+1</f>
+        <v>257</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>39</v>
+        <v>191</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
-        <f t="shared" si="4"/>
-        <v>263</v>
+        <f>IF(NOT(A267=0),A267,A266)+1</f>
+        <v>258</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>253</v>
+        <v>134</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
-        <f t="shared" si="4"/>
-        <v>264</v>
+        <f>IF(NOT(A268=0),A268,A267)+1</f>
+        <v>259</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>276</v>
+        <v>43</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
-        <f t="shared" si="4"/>
-        <v>265</v>
+        <f>IF(NOT(A269=0),A269,A268)+1</f>
+        <v>260</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
-        <f t="shared" si="4"/>
-        <v>266</v>
+        <f>IF(NOT(A270=0),A270,A269)+1</f>
+        <v>261</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
-        <f t="shared" si="4"/>
-        <v>267</v>
+        <f>IF(NOT(A271=0),A271,A270)+1</f>
+        <v>262</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>62</v>
+        <v>253</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
-        <f t="shared" si="4"/>
-        <v>268</v>
+        <f>IF(NOT(A272=0),A272,A271)+1</f>
+        <v>263</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>172</v>
+        <v>276</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
-        <f t="shared" si="4"/>
-        <v>269</v>
+        <f>IF(NOT(A273=0),A273,A272)+1</f>
+        <v>264</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>341</v>
+        <v>61</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
-        <f t="shared" si="4"/>
-        <v>270</v>
+        <f>IF(NOT(A274=0),A274,A273)+1</f>
+        <v>265</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>352</v>
+        <v>62</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
-        <f t="shared" si="4"/>
-        <v>271</v>
+        <f>IF(NOT(A275=0),A275,A274)+1</f>
+        <v>266</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>187</v>
+        <v>62</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
-        <f t="shared" si="4"/>
-        <v>272</v>
+        <f>IF(NOT(A276=0),A276,A275)+1</f>
+        <v>267</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
-        <f t="shared" si="4"/>
-        <v>273</v>
+        <f>IF(NOT(A277=0),A277,A276)+1</f>
+        <v>268</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>197</v>
+        <v>341</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
-        <f t="shared" si="4"/>
-        <v>274</v>
+        <f>IF(NOT(A278=0),A278,A277)+1</f>
+        <v>269</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>140</v>
+        <v>352</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
-        <f t="shared" si="4"/>
-        <v>275</v>
+        <f>IF(NOT(A279=0),A279,A278)+1</f>
+        <v>270</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
-        <f t="shared" si="4"/>
-        <v>276</v>
+        <f>IF(NOT(A280=0),A280,A279)+1</f>
+        <v>271</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>221</v>
+        <v>141</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
-        <f t="shared" si="4"/>
-        <v>277</v>
+        <f>IF(NOT(A281=0),A281,A280)+1</f>
+        <v>272</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>92</v>
+        <v>197</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
-        <f t="shared" si="4"/>
-        <v>278</v>
+        <f>IF(NOT(A282=0),A282,A281)+1</f>
+        <v>273</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
-        <f t="shared" si="4"/>
-        <v>279</v>
+        <f>IF(NOT(A283=0),A283,A282)+1</f>
+        <v>274</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
-        <f t="shared" si="4"/>
-        <v>280</v>
+        <f>IF(NOT(A284=0),A284,A283)+1</f>
+        <v>275</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
-        <f t="shared" si="4"/>
-        <v>281</v>
+        <f>IF(NOT(A285=0),A285,A284)+1</f>
+        <v>276</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>205</v>
+        <v>92</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
-        <f t="shared" si="4"/>
-        <v>282</v>
+        <f>IF(NOT(A286=0),A286,A285)+1</f>
+        <v>277</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>218</v>
+        <v>92</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
-        <f t="shared" si="4"/>
-        <v>283</v>
+        <f>IF(NOT(A287=0),A287,A286)+1</f>
+        <v>278</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>350</v>
+        <v>222</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
-        <f t="shared" si="4"/>
-        <v>284</v>
+        <f>IF(NOT(A288=0),A288,A287)+1</f>
+        <v>279</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>138</v>
+        <v>223</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
-        <f t="shared" si="4"/>
-        <v>285</v>
+        <f>IF(NOT(A289=0),A289,A288)+1</f>
+        <v>280</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>37</v>
+        <v>205</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
-        <f t="shared" si="4"/>
-        <v>286</v>
+        <f>IF(NOT(A290=0),A290,A289)+1</f>
+        <v>281</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
-        <f t="shared" si="4"/>
-        <v>287</v>
+        <f>IF(NOT(A291=0),A291,A290)+1</f>
+        <v>282</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>49</v>
+        <v>350</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
-        <v>0</v>
-      </c>
-      <c r="B293" s="7" t="s">
-        <v>11</v>
+        <f>IF(NOT(A292=0),A292,A291)+1</f>
+        <v>283</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
-        <v>0</v>
-      </c>
-      <c r="B294" s="7" t="s">
-        <v>10</v>
+        <f>IF(NOT(A293=0),A293,A292)+1</f>
+        <v>284</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
-        <f>IF(NOT(A294=0),A294,A292)+1</f>
-        <v>288</v>
+        <f>IF(NOT(A294=0),A294,A293)+1</f>
+        <v>285</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
-        <f t="shared" si="4"/>
-        <v>289</v>
+        <f>IF(NOT(A295=0),A295,A294)+1</f>
+        <v>286</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
-        <f t="shared" si="4"/>
-        <v>290</v>
+        <f>IF(NOT(A296=0),A296,A294)+1</f>
+        <v>287</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
-        <f t="shared" si="4"/>
-        <v>291</v>
+        <f>IF(NOT(A297=0),A297,A296)+1</f>
+        <v>288</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>198</v>
+        <v>128</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
-        <f t="shared" si="4"/>
-        <v>292</v>
+        <f>IF(NOT(A298=0),A298,A297)+1</f>
+        <v>289</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>319</v>
+        <v>50</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
-        <f t="shared" si="4"/>
-        <v>293</v>
+        <f>IF(NOT(A299=0),A299,A298)+1</f>
+        <v>290</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>320</v>
+        <v>198</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
-        <f t="shared" si="4"/>
-        <v>294</v>
+        <f>IF(NOT(A300=0),A300,A299)+1</f>
+        <v>291</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
-        <f t="shared" si="4"/>
-        <v>295</v>
+        <f>IF(NOT(A301=0),A301,A300)+1</f>
+        <v>292</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
-        <f t="shared" si="4"/>
-        <v>296</v>
+        <f>IF(NOT(A302=0),A302,A301)+1</f>
+        <v>293</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>142</v>
+        <v>321</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
-        <f t="shared" si="4"/>
-        <v>297</v>
+        <f>IF(NOT(A303=0),A303,A302)+1</f>
+        <v>294</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>217</v>
+        <v>322</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
-        <f t="shared" si="4"/>
-        <v>298</v>
+        <f>IF(NOT(A304=0),A304,A303)+1</f>
+        <v>295</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
-        <f t="shared" si="4"/>
-        <v>299</v>
+        <f>IF(NOT(A305=0),A305,A304)+1</f>
+        <v>296</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
-        <f t="shared" si="4"/>
-        <v>300</v>
+        <f>IF(NOT(A306=0),A306,A305)+1</f>
+        <v>297</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>245</v>
+        <v>190</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
-        <f t="shared" si="4"/>
-        <v>301</v>
+        <f>IF(NOT(A307=0),A307,A306)+1</f>
+        <v>298</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
-        <f t="shared" si="4"/>
-        <v>302</v>
+        <f>IF(NOT(A308=0),A308,A307)+1</f>
+        <v>299</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
-        <f t="shared" si="4"/>
-        <v>303</v>
+        <f>IF(NOT(A309=0),A309,A308)+1</f>
+        <v>300</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
-        <f t="shared" si="4"/>
-        <v>304</v>
+        <f>IF(NOT(A310=0),A310,A309)+1</f>
+        <v>301</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>324</v>
+        <v>200</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
-        <f t="shared" si="4"/>
-        <v>305</v>
+        <f>IF(NOT(A311=0),A311,A310)+1</f>
+        <v>302</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>192</v>
+        <v>14</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
-        <f t="shared" si="4"/>
-        <v>306</v>
+        <f>IF(NOT(A312=0),A312,A311)+1</f>
+        <v>303</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>44</v>
+        <v>324</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
-        <f t="shared" si="4"/>
-        <v>307</v>
+        <f>IF(NOT(A313=0),A313,A312)+1</f>
+        <v>304</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
-        <f t="shared" si="4"/>
-        <v>308</v>
+        <f>IF(NOT(A314=0),A314,A313)+1</f>
+        <v>305</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>230</v>
+        <v>44</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
-        <f t="shared" si="4"/>
-        <v>309</v>
+        <f>IF(NOT(A315=0),A315,A314)+1</f>
+        <v>306</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
-        <f t="shared" si="4"/>
-        <v>310</v>
+        <f>IF(NOT(A316=0),A316,A315)+1</f>
+        <v>307</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>116</v>
+        <v>230</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
-        <f t="shared" si="4"/>
-        <v>311</v>
+        <f>IF(NOT(A317=0),A317,A316)+1</f>
+        <v>308</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>282</v>
+        <v>53</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
-        <f t="shared" si="4"/>
-        <v>312</v>
+        <f>IF(NOT(A318=0),A318,A317)+1</f>
+        <v>309</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>284</v>
+        <v>116</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
-        <f t="shared" si="4"/>
-        <v>313</v>
+        <f>IF(NOT(A319=0),A319,A318)+1</f>
+        <v>310</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>188</v>
+        <v>282</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
-        <f t="shared" si="4"/>
-        <v>314</v>
+        <f>IF(NOT(A320=0),A320,A319)+1</f>
+        <v>311</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>188</v>
+        <v>284</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
-        <f t="shared" si="4"/>
-        <v>315</v>
+        <f>IF(NOT(A321=0),A321,A320)+1</f>
+        <v>312</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
-        <f t="shared" si="4"/>
-        <v>316</v>
+        <f>IF(NOT(A322=0),A322,A321)+1</f>
+        <v>313</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
-        <f t="shared" ref="A324:A375" si="5">IF(NOT(A323=0),A323,A322)+1</f>
-        <v>317</v>
+        <f>IF(NOT(A323=0),A323,A322)+1</f>
+        <v>314</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>273</v>
+        <v>177</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
-        <f t="shared" si="5"/>
-        <v>318</v>
+        <f>IF(NOT(A324=0),A324,A323)+1</f>
+        <v>315</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
-        <f t="shared" si="5"/>
-        <v>319</v>
+        <f>IF(NOT(A325=0),A325,A324)+1</f>
+        <v>316</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>149</v>
+        <v>273</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
-        <f t="shared" si="5"/>
-        <v>320</v>
+        <f>IF(NOT(A326=0),A326,A325)+1</f>
+        <v>317</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>34</v>
+        <v>273</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
-        <f t="shared" si="5"/>
-        <v>321</v>
+        <f>IF(NOT(A327=0),A327,A326)+1</f>
+        <v>318</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>283</v>
+        <v>149</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
-        <f t="shared" si="5"/>
-        <v>322</v>
+        <f>IF(NOT(A328=0),A328,A327)+1</f>
+        <v>319</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
-        <f t="shared" si="5"/>
-        <v>323</v>
+        <f>IF(NOT(A329=0),A329,A328)+1</f>
+        <v>320</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>15</v>
+        <v>283</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
-        <f t="shared" si="5"/>
-        <v>324</v>
+        <f>IF(NOT(A330=0),A330,A329)+1</f>
+        <v>321</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
-        <f t="shared" si="5"/>
-        <v>325</v>
+        <f>IF(NOT(A331=0),A331,A330)+1</f>
+        <v>322</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>189</v>
+        <v>15</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
-        <f t="shared" si="5"/>
-        <v>326</v>
+        <f>IF(NOT(A332=0),A332,A331)+1</f>
+        <v>323</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
-        <f t="shared" si="5"/>
-        <v>327</v>
+        <f>IF(NOT(A333=0),A333,A332)+1</f>
+        <v>324</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
-        <f t="shared" si="5"/>
-        <v>328</v>
+        <f>IF(NOT(A334=0),A334,A333)+1</f>
+        <v>325</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>292</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
-        <f t="shared" si="5"/>
-        <v>329</v>
+        <f>IF(NOT(A335=0),A335,A334)+1</f>
+        <v>326</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
-        <f t="shared" si="5"/>
-        <v>330</v>
+        <f>IF(NOT(A336=0),A336,A335)+1</f>
+        <v>327</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>101</v>
+        <v>292</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
-        <f t="shared" si="5"/>
-        <v>331</v>
+        <f>IF(NOT(A337=0),A337,A336)+1</f>
+        <v>328</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
-        <f t="shared" si="5"/>
-        <v>332</v>
+        <f>IF(NOT(A338=0),A338,A337)+1</f>
+        <v>329</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
-        <f t="shared" si="5"/>
-        <v>333</v>
+        <f>IF(NOT(A339=0),A339,A338)+1</f>
+        <v>330</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>255</v>
+        <v>132</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
-        <f t="shared" si="5"/>
-        <v>334</v>
+        <f>IF(NOT(A340=0),A340,A339)+1</f>
+        <v>331</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
-        <f t="shared" si="5"/>
-        <v>335</v>
+        <f>IF(NOT(A341=0),A341,A340)+1</f>
+        <v>332</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
-        <f t="shared" si="5"/>
-        <v>336</v>
+        <f>IF(NOT(A342=0),A342,A341)+1</f>
+        <v>333</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
-        <f t="shared" si="5"/>
-        <v>337</v>
+        <f>IF(NOT(A343=0),A343,A342)+1</f>
+        <v>334</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>358</v>
+        <v>297</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
-        <f t="shared" si="5"/>
-        <v>338</v>
+        <f>IF(NOT(A344=0),A344,A343)+1</f>
+        <v>335</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>112</v>
+        <v>358</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
-        <f t="shared" si="5"/>
-        <v>339</v>
+        <f>IF(NOT(A345=0),A345,A344)+1</f>
+        <v>336</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
-        <f t="shared" si="5"/>
-        <v>340</v>
+        <f>IF(NOT(A346=0),A346,A345)+1</f>
+        <v>337</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
-        <f t="shared" si="5"/>
-        <v>341</v>
+        <f>IF(NOT(A347=0),A347,A346)+1</f>
+        <v>338</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
-        <f t="shared" si="5"/>
-        <v>342</v>
+        <f>IF(NOT(A348=0),A348,A347)+1</f>
+        <v>339</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>271</v>
+        <v>41</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
-        <f t="shared" si="5"/>
-        <v>343</v>
+        <f>IF(NOT(A349=0),A349,A348)+1</f>
+        <v>340</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>110</v>
+        <v>271</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
-        <f t="shared" si="5"/>
-        <v>344</v>
+        <f>IF(NOT(A350=0),A350,A349)+1</f>
+        <v>341</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>202</v>
+        <v>110</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
-        <f t="shared" si="5"/>
-        <v>345</v>
+        <f>IF(NOT(A351=0),A351,A350)+1</f>
+        <v>342</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>293</v>
+        <v>202</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
-        <f t="shared" si="5"/>
-        <v>346</v>
+        <f>IF(NOT(A352=0),A352,A351)+1</f>
+        <v>343</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
-        <f t="shared" si="5"/>
-        <v>347</v>
+        <f>IF(NOT(A353=0),A353,A352)+1</f>
+        <v>344</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
-        <f t="shared" si="5"/>
-        <v>348</v>
+        <f>IF(NOT(A354=0),A354,A353)+1</f>
+        <v>345</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>148</v>
+        <v>300</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
-        <f t="shared" si="5"/>
-        <v>349</v>
+        <f>IF(NOT(A355=0),A355,A354)+1</f>
+        <v>346</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>235</v>
+        <v>148</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
-        <v>0</v>
-      </c>
-      <c r="B357" s="7" t="s">
-        <v>95</v>
+        <f>IF(NOT(A356=0),A356,A355)+1</f>
+        <v>347</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
-        <f t="shared" si="5"/>
-        <v>350</v>
+        <f>IF(NOT(A357=0),A357,A356)+1</f>
+        <v>348</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>90</v>
@@ -6555,8 +6553,8 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
-        <f t="shared" si="5"/>
-        <v>351</v>
+        <f>IF(NOT(A358=0),A358,A357)+1</f>
+        <v>349</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>302</v>
@@ -6564,8 +6562,8 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
-        <f t="shared" si="5"/>
-        <v>352</v>
+        <f>IF(NOT(A359=0),A359,A358)+1</f>
+        <v>350</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>122</v>
@@ -6573,8 +6571,8 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
-        <f t="shared" si="5"/>
-        <v>353</v>
+        <f>IF(NOT(A360=0),A360,A359)+1</f>
+        <v>351</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>124</v>
@@ -6582,8 +6580,8 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
-        <f t="shared" si="5"/>
-        <v>354</v>
+        <f>IF(NOT(A361=0),A361,A360)+1</f>
+        <v>352</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>36</v>
@@ -6591,8 +6589,8 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
-        <f t="shared" si="5"/>
-        <v>355</v>
+        <f>IF(NOT(A362=0),A362,A361)+1</f>
+        <v>353</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>3</v>
@@ -6600,8 +6598,8 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
-        <f t="shared" si="5"/>
-        <v>356</v>
+        <f>IF(NOT(A363=0),A363,A362)+1</f>
+        <v>354</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>5</v>
@@ -6609,8 +6607,8 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
-        <f t="shared" si="5"/>
-        <v>357</v>
+        <f>IF(NOT(A364=0),A364,A363)+1</f>
+        <v>355</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>16</v>
@@ -6618,8 +6616,8 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
-        <f t="shared" si="5"/>
-        <v>358</v>
+        <f>IF(NOT(A365=0),A365,A364)+1</f>
+        <v>356</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>26</v>
@@ -6627,8 +6625,8 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
-        <f t="shared" si="5"/>
-        <v>359</v>
+        <f>IF(NOT(A366=0),A366,A365)+1</f>
+        <v>357</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>88</v>
@@ -6636,8 +6634,8 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
-        <f t="shared" si="5"/>
-        <v>360</v>
+        <f>IF(NOT(A367=0),A367,A366)+1</f>
+        <v>358</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>29</v>
@@ -6645,8 +6643,8 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
-        <f t="shared" si="5"/>
-        <v>361</v>
+        <f>IF(NOT(A368=0),A368,A367)+1</f>
+        <v>359</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>167</v>
@@ -6654,8 +6652,8 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
-        <f t="shared" si="5"/>
-        <v>362</v>
+        <f>IF(NOT(A369=0),A369,A368)+1</f>
+        <v>360</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>343</v>
@@ -6663,8 +6661,8 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
-        <f t="shared" si="5"/>
-        <v>363</v>
+        <f>IF(NOT(A370=0),A370,A369)+1</f>
+        <v>361</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>169</v>
@@ -6672,8 +6670,8 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
-        <f t="shared" si="5"/>
-        <v>364</v>
+        <f>IF(NOT(A371=0),A371,A370)+1</f>
+        <v>362</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>165</v>
@@ -6681,8 +6679,8 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
-        <f t="shared" si="5"/>
-        <v>365</v>
+        <f>IF(NOT(A372=0),A372,A371)+1</f>
+        <v>363</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>173</v>
@@ -6690,8 +6688,8 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
-        <f t="shared" si="5"/>
-        <v>366</v>
+        <f>IF(NOT(A373=0),A373,A372)+1</f>
+        <v>364</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>151</v>
@@ -6699,8 +6697,8 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
-        <f t="shared" si="5"/>
-        <v>367</v>
+        <f>IF(NOT(A374=0),A374,A373)+1</f>
+        <v>365</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>137</v>
@@ -6708,7 +6706,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B375">
-    <sortCondition ref="B2:B375"/>
+    <sortCondition ref="A1:A375"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ALGORITHMS_LIST.xlsx
+++ b/ALGORITHMS_LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0\Git\beginner-algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B06333-FE1C-4AF0-BE47-1F7076329182}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F745F6D-D964-477F-A8C4-8EAFDC09F688}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F3AEC63A-3935-431B-9D94-C19A95072D1B}"/>
   </bookViews>
@@ -3981,8 +3981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC73345-1EB4-493B-9D32-2379CC101C9C}">
   <dimension ref="A1:D375"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -4012,7 +4012,7 @@
       </c>
       <c r="D2" s="8">
         <f ca="1">RANDBETWEEN(1,A375)</f>
-        <v>192</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4130,7 +4130,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <f>IF(NOT(A16=0),A16,A15)+1</f>
+        <f t="shared" ref="A17:A48" si="0">IF(NOT(A16=0),A16,A15)+1</f>
         <v>3</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -4139,7 +4139,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <f>IF(NOT(A17=0),A17,A16)+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -4148,7 +4148,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <f>IF(NOT(A18=0),A18,A17)+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -4157,7 +4157,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <f>IF(NOT(A19=0),A19,A18)+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -4166,7 +4166,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <f>IF(NOT(A20=0),A20,A19)+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -4175,7 +4175,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <f>IF(NOT(A21=0),A21,A20)+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -4184,7 +4184,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <f>IF(NOT(A22=0),A22,A21)+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -4193,7 +4193,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <f>IF(NOT(A23=0),A23,A22)+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -4202,7 +4202,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <f>IF(NOT(A24=0),A24,A23)+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4211,7 +4211,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <f>IF(NOT(A25=0),A25,A24)+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -4220,7 +4220,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <f>IF(NOT(A26=0),A26,A25)+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4229,7 +4229,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <f>IF(NOT(A27=0),A27,A26)+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -4238,7 +4238,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <f>IF(NOT(A28=0),A28,A27)+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -4247,7 +4247,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <f>IF(NOT(A29=0),A29,A28)+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -4256,7 +4256,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <f>IF(NOT(A30=0),A30,A29)+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -4265,7 +4265,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <f>IF(NOT(A31=0),A31,A30)+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -4274,7 +4274,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <f>IF(NOT(A32=0),A32,A31)+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -4283,7 +4283,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <f>IF(NOT(A33=0),A33,A32)+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -4292,7 +4292,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <f>IF(NOT(A34=0),A34,A33)+1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -4301,7 +4301,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <f>IF(NOT(A35=0),A35,A34)+1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -4310,7 +4310,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <f>IF(NOT(A36=0),A36,A35)+1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -4319,7 +4319,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <f>IF(NOT(A37=0),A37,A36)+1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -4328,7 +4328,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <f>IF(NOT(A38=0),A38,A37)+1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -4337,7 +4337,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <f>IF(NOT(A39=0),A39,A38)+1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -4346,7 +4346,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <f>IF(NOT(A40=0),A40,A39)+1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -4355,7 +4355,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <f>IF(NOT(A41=0),A41,A40)+1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -4364,7 +4364,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <f>IF(NOT(A42=0),A42,A41)+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -4373,7 +4373,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <f>IF(NOT(A43=0),A43,A42)+1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -4382,7 +4382,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <f>IF(NOT(A44=0),A44,A43)+1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -4391,7 +4391,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <f>IF(NOT(A45=0),A45,A44)+1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -4400,7 +4400,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <f>IF(NOT(A46=0),A46,A45)+1</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -4409,7 +4409,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <f>IF(NOT(A47=0),A47,A46)+1</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -4418,7 +4418,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <f>IF(NOT(A48=0),A48,A47)+1</f>
+        <f t="shared" ref="A49:A80" si="1">IF(NOT(A48=0),A48,A47)+1</f>
         <v>35</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -4427,7 +4427,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <f>IF(NOT(A49=0),A49,A48)+1</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -4436,7 +4436,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <f>IF(NOT(A50=0),A50,A49)+1</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -4445,7 +4445,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <f>IF(NOT(A51=0),A51,A50)+1</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -4454,7 +4454,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <f>IF(NOT(A52=0),A52,A51)+1</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -4463,7 +4463,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <f>IF(NOT(A53=0),A53,A52)+1</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -4472,7 +4472,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <f>IF(NOT(A54=0),A54,A53)+1</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -4481,7 +4481,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <f>IF(NOT(A55=0),A55,A54)+1</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -4490,7 +4490,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <f>IF(NOT(A56=0),A56,A55)+1</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -4499,7 +4499,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <f>IF(NOT(A57=0),A57,A56)+1</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -4508,7 +4508,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <f>IF(NOT(A58=0),A58,A57)+1</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -4517,7 +4517,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <f>IF(NOT(A59=0),A59,A58)+1</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -4526,7 +4526,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <f>IF(NOT(A60=0),A60,A59)+1</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -4535,7 +4535,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <f>IF(NOT(A61=0),A61,A60)+1</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -4544,7 +4544,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <f>IF(NOT(A62=0),A62,A61)+1</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -4553,7 +4553,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <f>IF(NOT(A63=0),A63,A62)+1</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -4562,7 +4562,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <f>IF(NOT(A64=0),A64,A63)+1</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -4571,7 +4571,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <f>IF(NOT(A65=0),A65,A64)+1</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -4580,7 +4580,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <f>IF(NOT(A66=0),A66,A65)+1</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -4589,7 +4589,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <f>IF(NOT(A67=0),A67,A66)+1</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -4598,7 +4598,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <f>IF(NOT(A68=0),A68,A67)+1</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -4607,7 +4607,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <f>IF(NOT(A69=0),A69,A68)+1</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -4616,7 +4616,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <f>IF(NOT(A70=0),A70,A69)+1</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -4625,7 +4625,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <f>IF(NOT(A71=0),A71,A70)+1</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -4634,7 +4634,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <f>IF(NOT(A72=0),A72,A71)+1</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -4643,7 +4643,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <f>IF(NOT(A73=0),A73,A72)+1</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -4652,7 +4652,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <f>IF(NOT(A74=0),A74,A73)+1</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -4661,7 +4661,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <f>IF(NOT(A75=0),A75,A74)+1</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -4670,7 +4670,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <f>IF(NOT(A76=0),A76,A75)+1</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B77" s="3" t="s">
@@ -4679,7 +4679,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <f>IF(NOT(A77=0),A77,A76)+1</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -4688,7 +4688,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <f>IF(NOT(A78=0),A78,A77)+1</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -4697,7 +4697,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <f>IF(NOT(A79=0),A79,A78)+1</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -4706,7 +4706,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <f>IF(NOT(A80=0),A80,A79)+1</f>
+        <f t="shared" ref="A81:A112" si="2">IF(NOT(A80=0),A80,A79)+1</f>
         <v>67</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -4715,7 +4715,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <f>IF(NOT(A81=0),A81,A80)+1</f>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -4724,7 +4724,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <f>IF(NOT(A82=0),A82,A81)+1</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="B83" s="3" t="s">
@@ -4733,7 +4733,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <f>IF(NOT(A83=0),A83,A82)+1</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="B84" s="3" t="s">
@@ -4742,7 +4742,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <f>IF(NOT(A84=0),A84,A83)+1</f>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -4751,7 +4751,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <f>IF(NOT(A85=0),A85,A84)+1</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="B86" s="3" t="s">
@@ -4760,7 +4760,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <f>IF(NOT(A86=0),A86,A85)+1</f>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -4769,7 +4769,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <f>IF(NOT(A87=0),A87,A86)+1</f>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="B88" s="3" t="s">
@@ -4778,7 +4778,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <f>IF(NOT(A88=0),A88,A87)+1</f>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="B89" s="3" t="s">
@@ -4787,7 +4787,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <f>IF(NOT(A89=0),A89,A88)+1</f>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="B90" s="3" t="s">
@@ -4796,7 +4796,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <f>IF(NOT(A90=0),A90,A89)+1</f>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="B91" s="3" t="s">
@@ -4805,7 +4805,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <f>IF(NOT(A91=0),A91,A90)+1</f>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="B92" s="3" t="s">
@@ -4814,7 +4814,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <f>IF(NOT(A92=0),A92,A91)+1</f>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="B93" s="3" t="s">
@@ -4832,7 +4832,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <f>IF(NOT(A94=0),A94,A93)+1</f>
+        <f t="shared" ref="A95:A158" si="3">IF(NOT(A94=0),A94,A93)+1</f>
         <v>81</v>
       </c>
       <c r="B95" s="3" t="s">
@@ -4841,7 +4841,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <f>IF(NOT(A95=0),A95,A94)+1</f>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="B96" s="3" t="s">
@@ -4850,7 +4850,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <f>IF(NOT(A96=0),A96,A95)+1</f>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -4859,7 +4859,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <f>IF(NOT(A97=0),A97,A96)+1</f>
+        <f t="shared" si="3"/>
         <v>84</v>
       </c>
       <c r="B98" s="3" t="s">
@@ -4868,7 +4868,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <f>IF(NOT(A98=0),A98,A97)+1</f>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="B99" s="3" t="s">
@@ -4877,7 +4877,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <f>IF(NOT(A99=0),A99,A98)+1</f>
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
       <c r="B100" s="3" t="s">
@@ -4886,7 +4886,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <f>IF(NOT(A100=0),A100,A99)+1</f>
+        <f t="shared" si="3"/>
         <v>87</v>
       </c>
       <c r="B101" s="3" t="s">
@@ -4895,7 +4895,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <f>IF(NOT(A101=0),A101,A100)+1</f>
+        <f t="shared" si="3"/>
         <v>88</v>
       </c>
       <c r="B102" s="3" t="s">
@@ -4904,16 +4904,16 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <f>IF(NOT(A102=0),A102,A101)+1</f>
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="7" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <f>IF(NOT(A103=0),A103,A102)+1</f>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -4922,7 +4922,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <f>IF(NOT(A104=0),A104,A103)+1</f>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
       <c r="B105" s="3" t="s">
@@ -4931,17 +4931,16 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <f>IF(NOT(A105=0),A105,A104)+1</f>
-        <v>92</v>
-      </c>
-      <c r="B106" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="7" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <f>IF(NOT(A106=0),A106,A105)+1</f>
-        <v>93</v>
+        <f t="shared" si="3"/>
+        <v>92</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>219</v>
@@ -4949,8 +4948,8 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
-        <f>IF(NOT(A107=0),A107,A106)+1</f>
-        <v>94</v>
+        <f t="shared" si="3"/>
+        <v>93</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>140</v>
@@ -4958,8 +4957,8 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
-        <f>IF(NOT(A108=0),A108,A107)+1</f>
-        <v>95</v>
+        <f t="shared" si="3"/>
+        <v>94</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>197</v>
@@ -4967,8 +4966,8 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
-        <f>IF(NOT(A109=0),A109,A108)+1</f>
-        <v>96</v>
+        <f t="shared" si="3"/>
+        <v>95</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>141</v>
@@ -4976,8 +4975,8 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
-        <f>IF(NOT(A110=0),A110,A109)+1</f>
-        <v>97</v>
+        <f t="shared" si="3"/>
+        <v>96</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>187</v>
@@ -4985,8 +4984,8 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
-        <f>IF(NOT(A111=0),A111,A110)+1</f>
-        <v>98</v>
+        <f t="shared" si="3"/>
+        <v>97</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>352</v>
@@ -4994,8 +4993,8 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
-        <f>IF(NOT(A112=0),A112,A111)+1</f>
-        <v>99</v>
+        <f t="shared" si="3"/>
+        <v>98</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>341</v>
@@ -5003,8 +5002,8 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
-        <f>IF(NOT(A113=0),A113,A112)+1</f>
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>99</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>172</v>
@@ -5012,8 +5011,8 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
-        <f>IF(NOT(A114=0),A114,A113)+1</f>
-        <v>101</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>62</v>
@@ -5021,8 +5020,8 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
-        <f>IF(NOT(A115=0),A115,A114)+1</f>
-        <v>102</v>
+        <f t="shared" si="3"/>
+        <v>101</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>62</v>
@@ -5030,8 +5029,8 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
-        <f>IF(NOT(A116=0),A116,A115)+1</f>
-        <v>103</v>
+        <f t="shared" si="3"/>
+        <v>102</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>61</v>
@@ -5039,8 +5038,8 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
-        <f>IF(NOT(A117=0),A117,A116)+1</f>
-        <v>104</v>
+        <f t="shared" si="3"/>
+        <v>103</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>276</v>
@@ -5048,8 +5047,8 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
-        <f>IF(NOT(A118=0),A118,A117)+1</f>
-        <v>105</v>
+        <f t="shared" si="3"/>
+        <v>104</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>253</v>
@@ -5057,8 +5056,8 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
-        <f>IF(NOT(A119=0),A119,A118)+1</f>
-        <v>106</v>
+        <f t="shared" si="3"/>
+        <v>105</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>39</v>
@@ -5066,8 +5065,8 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
-        <f>IF(NOT(A120=0),A120,A119)+1</f>
-        <v>107</v>
+        <f t="shared" si="3"/>
+        <v>106</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>55</v>
@@ -5075,8 +5074,8 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
-        <f>IF(NOT(A121=0),A121,A120)+1</f>
-        <v>108</v>
+        <f t="shared" si="3"/>
+        <v>107</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>43</v>
@@ -5084,8 +5083,8 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
-        <f>IF(NOT(A122=0),A122,A121)+1</f>
-        <v>109</v>
+        <f t="shared" si="3"/>
+        <v>108</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>134</v>
@@ -5093,8 +5092,8 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
-        <f>IF(NOT(A123=0),A123,A122)+1</f>
-        <v>110</v>
+        <f t="shared" si="3"/>
+        <v>109</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>191</v>
@@ -5102,8 +5101,8 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
-        <f>IF(NOT(A124=0),A124,A123)+1</f>
-        <v>111</v>
+        <f t="shared" si="3"/>
+        <v>110</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>87</v>
@@ -5111,8 +5110,8 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
-        <f>IF(NOT(A125=0),A125,A124)+1</f>
-        <v>112</v>
+        <f t="shared" si="3"/>
+        <v>111</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>86</v>
@@ -5120,8 +5119,8 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
-        <f>IF(NOT(A126=0),A126,A125)+1</f>
-        <v>113</v>
+        <f t="shared" si="3"/>
+        <v>112</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>70</v>
@@ -5129,8 +5128,8 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
-        <f>IF(NOT(A127=0),A127,A126)+1</f>
-        <v>114</v>
+        <f t="shared" si="3"/>
+        <v>113</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>232</v>
@@ -5138,8 +5137,8 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
-        <f>IF(NOT(A128=0),A128,A127)+1</f>
-        <v>115</v>
+        <f t="shared" si="3"/>
+        <v>114</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>71</v>
@@ -5147,8 +5146,8 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
-        <f>IF(NOT(A129=0),A129,A128)+1</f>
-        <v>116</v>
+        <f t="shared" si="3"/>
+        <v>115</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>333</v>
@@ -5156,8 +5155,8 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
-        <f>IF(NOT(A130=0),A130,A129)+1</f>
-        <v>117</v>
+        <f t="shared" si="3"/>
+        <v>116</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>178</v>
@@ -5165,8 +5164,8 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
-        <f>IF(NOT(A131=0),A131,A130)+1</f>
-        <v>118</v>
+        <f t="shared" si="3"/>
+        <v>117</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>247</v>
@@ -5174,8 +5173,8 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
-        <f>IF(NOT(A132=0),A132,A131)+1</f>
-        <v>119</v>
+        <f t="shared" si="3"/>
+        <v>118</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>242</v>
@@ -5183,8 +5182,8 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
-        <f>IF(NOT(A133=0),A133,A132)+1</f>
-        <v>120</v>
+        <f t="shared" si="3"/>
+        <v>119</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>38</v>
@@ -5192,8 +5191,8 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
-        <f>IF(NOT(A134=0),A134,A133)+1</f>
-        <v>121</v>
+        <f t="shared" si="3"/>
+        <v>120</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>231</v>
@@ -5201,8 +5200,8 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
-        <f>IF(NOT(A135=0),A135,A134)+1</f>
-        <v>122</v>
+        <f t="shared" si="3"/>
+        <v>121</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>126</v>
@@ -5210,8 +5209,8 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
-        <f>IF(NOT(A136=0),A136,A135)+1</f>
-        <v>123</v>
+        <f t="shared" si="3"/>
+        <v>122</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>143</v>
@@ -5219,8 +5218,8 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
-        <f>IF(NOT(A137=0),A137,A136)+1</f>
-        <v>124</v>
+        <f t="shared" si="3"/>
+        <v>123</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>251</v>
@@ -5228,8 +5227,8 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
-        <f>IF(NOT(A138=0),A138,A137)+1</f>
-        <v>125</v>
+        <f t="shared" si="3"/>
+        <v>124</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>234</v>
@@ -5237,8 +5236,8 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
-        <f>IF(NOT(A139=0),A139,A138)+1</f>
-        <v>126</v>
+        <f t="shared" si="3"/>
+        <v>125</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>215</v>
@@ -5246,8 +5245,8 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
-        <f>IF(NOT(A140=0),A140,A139)+1</f>
-        <v>127</v>
+        <f t="shared" si="3"/>
+        <v>126</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>171</v>
@@ -5255,8 +5254,8 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
-        <f>IF(NOT(A141=0),A141,A140)+1</f>
-        <v>128</v>
+        <f t="shared" si="3"/>
+        <v>127</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>238</v>
@@ -5264,8 +5263,8 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
-        <f>IF(NOT(A142=0),A142,A141)+1</f>
-        <v>129</v>
+        <f t="shared" si="3"/>
+        <v>128</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>107</v>
@@ -5273,8 +5272,8 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
-        <f>IF(NOT(A143=0),A143,A142)+1</f>
-        <v>130</v>
+        <f t="shared" si="3"/>
+        <v>129</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>239</v>
@@ -5282,8 +5281,8 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
-        <f>IF(NOT(A144=0),A144,A143)+1</f>
-        <v>131</v>
+        <f t="shared" si="3"/>
+        <v>130</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>113</v>
@@ -5291,8 +5290,8 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
-        <f>IF(NOT(A145=0),A145,A144)+1</f>
-        <v>132</v>
+        <f t="shared" si="3"/>
+        <v>131</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>69</v>
@@ -5300,8 +5299,8 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
-        <f>IF(NOT(A146=0),A146,A145)+1</f>
-        <v>133</v>
+        <f t="shared" si="3"/>
+        <v>132</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>69</v>
@@ -5309,8 +5308,8 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
-        <f>IF(NOT(A147=0),A147,A146)+1</f>
-        <v>134</v>
+        <f t="shared" si="3"/>
+        <v>133</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>93</v>
@@ -5318,8 +5317,8 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
-        <f>IF(NOT(A148=0),A148,A147)+1</f>
-        <v>135</v>
+        <f t="shared" si="3"/>
+        <v>134</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>109</v>
@@ -5327,8 +5326,8 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
-        <f>IF(NOT(A149=0),A149,A148)+1</f>
-        <v>136</v>
+        <f t="shared" si="3"/>
+        <v>135</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>106</v>
@@ -5336,8 +5335,8 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
-        <f>IF(NOT(A150=0),A150,A149)+1</f>
-        <v>137</v>
+        <f t="shared" si="3"/>
+        <v>136</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>28</v>
@@ -5345,8 +5344,8 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
-        <f>IF(NOT(A151=0),A151,A150)+1</f>
-        <v>138</v>
+        <f t="shared" si="3"/>
+        <v>137</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>75</v>
@@ -5354,8 +5353,8 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
-        <f>IF(NOT(A152=0),A152,A151)+1</f>
-        <v>139</v>
+        <f t="shared" si="3"/>
+        <v>138</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>7</v>
@@ -5363,8 +5362,8 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
-        <f>IF(NOT(A153=0),A153,A152)+1</f>
-        <v>140</v>
+        <f t="shared" si="3"/>
+        <v>139</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>27</v>
@@ -5372,8 +5371,8 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
-        <f>IF(NOT(A154=0),A154,A153)+1</f>
-        <v>141</v>
+        <f t="shared" si="3"/>
+        <v>140</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>47</v>
@@ -5381,8 +5380,8 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
-        <f>IF(NOT(A155=0),A155,A154)+1</f>
-        <v>142</v>
+        <f t="shared" si="3"/>
+        <v>141</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>152</v>
@@ -5390,8 +5389,8 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
-        <f>IF(NOT(A156=0),A156,A155)+1</f>
-        <v>143</v>
+        <f t="shared" si="3"/>
+        <v>142</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>195</v>
@@ -5399,8 +5398,8 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
-        <f>IF(NOT(A157=0),A157,A156)+1</f>
-        <v>144</v>
+        <f t="shared" si="3"/>
+        <v>143</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>102</v>
@@ -5408,8 +5407,8 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
-        <f>IF(NOT(A158=0),A158,A157)+1</f>
-        <v>145</v>
+        <f t="shared" ref="A159:A222" si="4">IF(NOT(A158=0),A158,A157)+1</f>
+        <v>144</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>83</v>
@@ -5417,8 +5416,8 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
-        <f>IF(NOT(A159=0),A159,A158)+1</f>
-        <v>146</v>
+        <f t="shared" si="4"/>
+        <v>145</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>94</v>
@@ -5426,8 +5425,8 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
-        <f>IF(NOT(A160=0),A160,A159)+1</f>
-        <v>147</v>
+        <f t="shared" si="4"/>
+        <v>146</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>119</v>
@@ -5435,8 +5434,8 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
-        <f>IF(NOT(A161=0),A161,A160)+1</f>
-        <v>148</v>
+        <f t="shared" si="4"/>
+        <v>147</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>89</v>
@@ -5444,8 +5443,8 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
-        <f>IF(NOT(A162=0),A162,A161)+1</f>
-        <v>149</v>
+        <f t="shared" si="4"/>
+        <v>148</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>307</v>
@@ -5453,8 +5452,8 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
-        <f>IF(NOT(A163=0),A163,A162)+1</f>
-        <v>150</v>
+        <f t="shared" si="4"/>
+        <v>149</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>77</v>
@@ -5462,8 +5461,8 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
-        <f>IF(NOT(A164=0),A164,A163)+1</f>
-        <v>151</v>
+        <f t="shared" si="4"/>
+        <v>150</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>139</v>
@@ -5471,8 +5470,8 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
-        <f>IF(NOT(A165=0),A165,A164)+1</f>
-        <v>152</v>
+        <f t="shared" si="4"/>
+        <v>151</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>183</v>
@@ -5480,8 +5479,8 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
-        <f>IF(NOT(A166=0),A166,A165)+1</f>
-        <v>153</v>
+        <f t="shared" si="4"/>
+        <v>152</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>176</v>
@@ -5489,8 +5488,8 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
-        <f>IF(NOT(A167=0),A167,A166)+1</f>
-        <v>154</v>
+        <f t="shared" si="4"/>
+        <v>153</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>145</v>
@@ -5498,8 +5497,8 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
-        <f>IF(NOT(A168=0),A168,A167)+1</f>
-        <v>155</v>
+        <f t="shared" si="4"/>
+        <v>154</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>168</v>
@@ -5507,8 +5506,8 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
-        <f>IF(NOT(A169=0),A169,A168)+1</f>
-        <v>156</v>
+        <f t="shared" si="4"/>
+        <v>155</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>4</v>
@@ -5516,8 +5515,8 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
-        <f>IF(NOT(A170=0),A170,A169)+1</f>
-        <v>157</v>
+        <f t="shared" si="4"/>
+        <v>156</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>32</v>
@@ -5525,8 +5524,8 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
-        <f>IF(NOT(A171=0),A171,A170)+1</f>
-        <v>158</v>
+        <f t="shared" si="4"/>
+        <v>157</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>270</v>
@@ -5534,8 +5533,8 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
-        <f>IF(NOT(A172=0),A172,A171)+1</f>
-        <v>159</v>
+        <f t="shared" si="4"/>
+        <v>158</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>97</v>
@@ -5543,8 +5542,8 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
-        <f>IF(NOT(A173=0),A173,A172)+1</f>
-        <v>160</v>
+        <f t="shared" si="4"/>
+        <v>159</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>81</v>
@@ -5552,8 +5551,8 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
-        <f>IF(NOT(A174=0),A174,A173)+1</f>
-        <v>161</v>
+        <f t="shared" si="4"/>
+        <v>160</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>346</v>
@@ -5561,8 +5560,8 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
-        <f>IF(NOT(A175=0),A175,A174)+1</f>
-        <v>162</v>
+        <f t="shared" si="4"/>
+        <v>161</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>72</v>
@@ -5570,8 +5569,8 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
-        <f>IF(NOT(A176=0),A176,A175)+1</f>
-        <v>163</v>
+        <f t="shared" si="4"/>
+        <v>162</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>125</v>
@@ -5579,8 +5578,8 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
-        <f>IF(NOT(A177=0),A177,A176)+1</f>
-        <v>164</v>
+        <f t="shared" si="4"/>
+        <v>163</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>125</v>
@@ -5588,8 +5587,8 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
-        <f>IF(NOT(A178=0),A178,A177)+1</f>
-        <v>165</v>
+        <f t="shared" si="4"/>
+        <v>164</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>73</v>
@@ -5597,8 +5596,8 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
-        <f>IF(NOT(A179=0),A179,A178)+1</f>
-        <v>166</v>
+        <f t="shared" si="4"/>
+        <v>165</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>84</v>
@@ -5606,8 +5605,8 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
-        <f>IF(NOT(A180=0),A180,A179)+1</f>
-        <v>167</v>
+        <f t="shared" si="4"/>
+        <v>166</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>31</v>
@@ -5615,8 +5614,8 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
-        <f>IF(NOT(A181=0),A181,A180)+1</f>
-        <v>168</v>
+        <f t="shared" si="4"/>
+        <v>167</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>244</v>
@@ -5624,8 +5623,8 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
-        <f>IF(NOT(A182=0),A182,A181)+1</f>
-        <v>169</v>
+        <f t="shared" si="4"/>
+        <v>168</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>0</v>
@@ -5633,8 +5632,8 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
-        <f>IF(NOT(A183=0),A183,A182)+1</f>
-        <v>170</v>
+        <f t="shared" si="4"/>
+        <v>169</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>348</v>
@@ -5642,8 +5641,8 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
-        <f>IF(NOT(A184=0),A184,A183)+1</f>
-        <v>171</v>
+        <f t="shared" si="4"/>
+        <v>170</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>186</v>
@@ -5651,8 +5650,8 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
-        <f>IF(NOT(A185=0),A185,A184)+1</f>
-        <v>172</v>
+        <f t="shared" si="4"/>
+        <v>171</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>340</v>
@@ -5660,8 +5659,8 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
-        <f>IF(NOT(A186=0),A186,A185)+1</f>
-        <v>173</v>
+        <f t="shared" si="4"/>
+        <v>172</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>339</v>
@@ -5669,8 +5668,8 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
-        <f>IF(NOT(A187=0),A187,A186)+1</f>
-        <v>174</v>
+        <f t="shared" si="4"/>
+        <v>173</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>315</v>
@@ -5678,8 +5677,8 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
-        <f>IF(NOT(A188=0),A188,A187)+1</f>
-        <v>175</v>
+        <f t="shared" si="4"/>
+        <v>174</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>100</v>
@@ -5687,8 +5686,8 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
-        <f>IF(NOT(A189=0),A189,A188)+1</f>
-        <v>176</v>
+        <f t="shared" si="4"/>
+        <v>175</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>58</v>
@@ -5696,8 +5695,8 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
-        <f>IF(NOT(A190=0),A190,A189)+1</f>
-        <v>177</v>
+        <f t="shared" si="4"/>
+        <v>176</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>58</v>
@@ -5705,8 +5704,8 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
-        <f>IF(NOT(A191=0),A191,A190)+1</f>
-        <v>178</v>
+        <f t="shared" si="4"/>
+        <v>177</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>127</v>
@@ -5714,8 +5713,8 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
-        <f>IF(NOT(A192=0),A192,A191)+1</f>
-        <v>179</v>
+        <f t="shared" si="4"/>
+        <v>178</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>136</v>
@@ -5723,8 +5722,8 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
-        <f>IF(NOT(A193=0),A193,A192)+1</f>
-        <v>180</v>
+        <f t="shared" si="4"/>
+        <v>179</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>312</v>
@@ -5732,8 +5731,8 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
-        <f>IF(NOT(A194=0),A194,A193)+1</f>
-        <v>181</v>
+        <f t="shared" si="4"/>
+        <v>180</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>311</v>
@@ -5741,8 +5740,8 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
-        <f>IF(NOT(A195=0),A195,A194)+1</f>
-        <v>182</v>
+        <f t="shared" si="4"/>
+        <v>181</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>311</v>
@@ -5750,8 +5749,8 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
-        <f>IF(NOT(A196=0),A196,A195)+1</f>
-        <v>183</v>
+        <f t="shared" si="4"/>
+        <v>182</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>257</v>
@@ -5759,8 +5758,8 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
-        <f>IF(NOT(A197=0),A197,A196)+1</f>
-        <v>184</v>
+        <f t="shared" si="4"/>
+        <v>183</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>19</v>
@@ -5768,8 +5767,8 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
-        <f>IF(NOT(A198=0),A198,A197)+1</f>
-        <v>185</v>
+        <f t="shared" si="4"/>
+        <v>184</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>18</v>
@@ -5777,8 +5776,8 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
-        <f>IF(NOT(A199=0),A199,A198)+1</f>
-        <v>186</v>
+        <f t="shared" si="4"/>
+        <v>185</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>323</v>
@@ -5786,8 +5785,8 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
-        <f>IF(NOT(A200=0),A200,A199)+1</f>
-        <v>187</v>
+        <f t="shared" si="4"/>
+        <v>186</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>17</v>
@@ -5795,8 +5794,8 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
-        <f>IF(NOT(A201=0),A201,A200)+1</f>
-        <v>188</v>
+        <f t="shared" si="4"/>
+        <v>187</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>303</v>
@@ -5804,8 +5803,8 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
-        <f>IF(NOT(A202=0),A202,A201)+1</f>
-        <v>189</v>
+        <f t="shared" si="4"/>
+        <v>188</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>68</v>
@@ -5813,8 +5812,8 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
-        <f>IF(NOT(A203=0),A203,A202)+1</f>
-        <v>190</v>
+        <f t="shared" si="4"/>
+        <v>189</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>281</v>
@@ -5822,8 +5821,8 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
-        <f>IF(NOT(A204=0),A204,A203)+1</f>
-        <v>191</v>
+        <f t="shared" si="4"/>
+        <v>190</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>65</v>
@@ -5831,8 +5830,8 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
-        <f>IF(NOT(A205=0),A205,A204)+1</f>
-        <v>192</v>
+        <f t="shared" si="4"/>
+        <v>191</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>9</v>
@@ -5840,8 +5839,8 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
-        <f>IF(NOT(A206=0),A206,A205)+1</f>
-        <v>193</v>
+        <f t="shared" si="4"/>
+        <v>192</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>1</v>
@@ -5849,8 +5848,8 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
-        <f>IF(NOT(A207=0),A207,A206)+1</f>
-        <v>194</v>
+        <f t="shared" si="4"/>
+        <v>193</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>25</v>
@@ -5858,8 +5857,8 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
-        <f>IF(NOT(A208=0),A208,A207)+1</f>
-        <v>195</v>
+        <f t="shared" si="4"/>
+        <v>194</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>46</v>
@@ -5867,8 +5866,8 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
-        <f>IF(NOT(A209=0),A209,A208)+1</f>
-        <v>196</v>
+        <f t="shared" si="4"/>
+        <v>195</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>59</v>
@@ -5876,8 +5875,8 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
-        <f>IF(NOT(A210=0),A210,A209)+1</f>
-        <v>197</v>
+        <f t="shared" si="4"/>
+        <v>196</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>261</v>
@@ -5885,8 +5884,8 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
-        <f>IF(NOT(A211=0),A211,A210)+1</f>
-        <v>198</v>
+        <f t="shared" si="4"/>
+        <v>197</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>258</v>
@@ -5894,8 +5893,8 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
-        <f>IF(NOT(A212=0),A212,A211)+1</f>
-        <v>199</v>
+        <f t="shared" si="4"/>
+        <v>198</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>120</v>
@@ -5903,8 +5902,8 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
-        <f>IF(NOT(A213=0),A213,A212)+1</f>
-        <v>200</v>
+        <f t="shared" si="4"/>
+        <v>199</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>338</v>
@@ -5912,8 +5911,8 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
-        <f>IF(NOT(A214=0),A214,A213)+1</f>
-        <v>201</v>
+        <f t="shared" si="4"/>
+        <v>200</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>158</v>
@@ -5921,8 +5920,8 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
-        <f>IF(NOT(A215=0),A215,A214)+1</f>
-        <v>202</v>
+        <f t="shared" si="4"/>
+        <v>201</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>164</v>
@@ -5930,8 +5929,8 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
-        <f>IF(NOT(A216=0),A216,A215)+1</f>
-        <v>203</v>
+        <f t="shared" si="4"/>
+        <v>202</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>213</v>
@@ -5939,8 +5938,8 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
-        <f>IF(NOT(A217=0),A217,A216)+1</f>
-        <v>204</v>
+        <f t="shared" si="4"/>
+        <v>203</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>159</v>
@@ -5948,8 +5947,8 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
-        <f>IF(NOT(A218=0),A218,A217)+1</f>
-        <v>205</v>
+        <f t="shared" si="4"/>
+        <v>204</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>199</v>
@@ -5957,8 +5956,8 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
-        <f>IF(NOT(A219=0),A219,A218)+1</f>
-        <v>206</v>
+        <f t="shared" si="4"/>
+        <v>205</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>203</v>
@@ -5966,8 +5965,8 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
-        <f>IF(NOT(A220=0),A220,A219)+1</f>
-        <v>207</v>
+        <f t="shared" si="4"/>
+        <v>206</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>314</v>
@@ -5975,8 +5974,8 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
-        <f>IF(NOT(A221=0),A221,A220)+1</f>
-        <v>208</v>
+        <f t="shared" si="4"/>
+        <v>207</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>313</v>
@@ -5984,8 +5983,8 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
-        <f>IF(NOT(A222=0),A222,A221)+1</f>
-        <v>209</v>
+        <f t="shared" ref="A223:A286" si="5">IF(NOT(A222=0),A222,A221)+1</f>
+        <v>208</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>48</v>
@@ -5993,8 +5992,8 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
-        <f>IF(NOT(A223=0),A223,A222)+1</f>
-        <v>210</v>
+        <f t="shared" si="5"/>
+        <v>209</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>146</v>
@@ -6002,8 +6001,8 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
-        <f>IF(NOT(A224=0),A224,A223)+1</f>
-        <v>211</v>
+        <f t="shared" si="5"/>
+        <v>210</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>146</v>
@@ -6011,8 +6010,8 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
-        <f>IF(NOT(A225=0),A225,A224)+1</f>
-        <v>212</v>
+        <f t="shared" si="5"/>
+        <v>211</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>67</v>
@@ -6020,8 +6019,8 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
-        <f>IF(NOT(A226=0),A226,A225)+1</f>
-        <v>213</v>
+        <f t="shared" si="5"/>
+        <v>212</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>299</v>
@@ -6029,8 +6028,8 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
-        <f>IF(NOT(A227=0),A227,A226)+1</f>
-        <v>214</v>
+        <f t="shared" si="5"/>
+        <v>213</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>298</v>
@@ -6038,8 +6037,8 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
-        <f>IF(NOT(A228=0),A228,A227)+1</f>
-        <v>215</v>
+        <f t="shared" si="5"/>
+        <v>214</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>342</v>
@@ -6047,8 +6046,8 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
-        <f>IF(NOT(A229=0),A229,A228)+1</f>
-        <v>216</v>
+        <f t="shared" si="5"/>
+        <v>215</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>162</v>
@@ -6056,8 +6055,8 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
-        <f>IF(NOT(A230=0),A230,A229)+1</f>
-        <v>217</v>
+        <f t="shared" si="5"/>
+        <v>216</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>335</v>
@@ -6065,8 +6064,8 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
-        <f>IF(NOT(A231=0),A231,A230)+1</f>
-        <v>218</v>
+        <f t="shared" si="5"/>
+        <v>217</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>310</v>
@@ -6074,8 +6073,8 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
-        <f>IF(NOT(A232=0),A232,A231)+1</f>
-        <v>219</v>
+        <f t="shared" si="5"/>
+        <v>218</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>22</v>
@@ -6083,8 +6082,8 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
-        <f>IF(NOT(A233=0),A233,A232)+1</f>
-        <v>220</v>
+        <f t="shared" si="5"/>
+        <v>219</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>182</v>
@@ -6092,8 +6091,8 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
-        <f>IF(NOT(A234=0),A234,A233)+1</f>
-        <v>221</v>
+        <f t="shared" si="5"/>
+        <v>220</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>220</v>
@@ -6101,8 +6100,8 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
-        <f>IF(NOT(A235=0),A235,A234)+1</f>
-        <v>222</v>
+        <f t="shared" si="5"/>
+        <v>221</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>332</v>
@@ -6110,8 +6109,8 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
-        <f>IF(NOT(A236=0),A236,A235)+1</f>
-        <v>223</v>
+        <f t="shared" si="5"/>
+        <v>222</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>206</v>
@@ -6119,8 +6118,8 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
-        <f>IF(NOT(A237=0),A237,A236)+1</f>
-        <v>224</v>
+        <f t="shared" si="5"/>
+        <v>223</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>181</v>
@@ -6128,8 +6127,8 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
-        <f>IF(NOT(A238=0),A238,A237)+1</f>
-        <v>225</v>
+        <f t="shared" si="5"/>
+        <v>224</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>347</v>
@@ -6137,8 +6136,8 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
-        <f>IF(NOT(A239=0),A239,A238)+1</f>
-        <v>226</v>
+        <f t="shared" si="5"/>
+        <v>225</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>304</v>
@@ -6146,8 +6145,8 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
-        <f>IF(NOT(A240=0),A240,A239)+1</f>
-        <v>227</v>
+        <f t="shared" si="5"/>
+        <v>226</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>85</v>
@@ -6155,8 +6154,8 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
-        <f>IF(NOT(A241=0),A241,A240)+1</f>
-        <v>228</v>
+        <f t="shared" si="5"/>
+        <v>227</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>85</v>
@@ -6164,8 +6163,8 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
-        <f>IF(NOT(A242=0),A242,A241)+1</f>
-        <v>229</v>
+        <f t="shared" si="5"/>
+        <v>228</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>334</v>
@@ -6173,8 +6172,8 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
-        <f>IF(NOT(A243=0),A243,A242)+1</f>
-        <v>230</v>
+        <f t="shared" si="5"/>
+        <v>229</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>291</v>
@@ -6182,8 +6181,8 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
-        <f>IF(NOT(A244=0),A244,A243)+1</f>
-        <v>231</v>
+        <f t="shared" si="5"/>
+        <v>230</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>129</v>
@@ -6191,8 +6190,8 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
-        <f>IF(NOT(A245=0),A245,A244)+1</f>
-        <v>232</v>
+        <f t="shared" si="5"/>
+        <v>231</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>252</v>
@@ -6200,8 +6199,8 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
-        <f>IF(NOT(A246=0),A246,A245)+1</f>
-        <v>233</v>
+        <f t="shared" si="5"/>
+        <v>232</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>241</v>
@@ -6209,8 +6208,8 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
-        <f>IF(NOT(A247=0),A247,A246)+1</f>
-        <v>234</v>
+        <f t="shared" si="5"/>
+        <v>233</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>211</v>
@@ -6218,8 +6217,8 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
-        <f>IF(NOT(A248=0),A248,A247)+1</f>
-        <v>235</v>
+        <f t="shared" si="5"/>
+        <v>234</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>345</v>
@@ -6227,8 +6226,8 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
-        <f>IF(NOT(A249=0),A249,A248)+1</f>
-        <v>236</v>
+        <f t="shared" si="5"/>
+        <v>235</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>294</v>
@@ -6236,8 +6235,8 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
-        <f>IF(NOT(A250=0),A250,A249)+1</f>
-        <v>237</v>
+        <f t="shared" si="5"/>
+        <v>236</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>121</v>
@@ -6245,8 +6244,8 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
-        <f>IF(NOT(A251=0),A251,A250)+1</f>
-        <v>238</v>
+        <f t="shared" si="5"/>
+        <v>237</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>185</v>
@@ -6254,8 +6253,8 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
-        <f>IF(NOT(A252=0),A252,A251)+1</f>
-        <v>239</v>
+        <f t="shared" si="5"/>
+        <v>238</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>193</v>
@@ -6263,8 +6262,8 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
-        <f>IF(NOT(A253=0),A253,A252)+1</f>
-        <v>240</v>
+        <f t="shared" si="5"/>
+        <v>239</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>224</v>
@@ -6272,8 +6271,8 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
-        <f>IF(NOT(A254=0),A254,A253)+1</f>
-        <v>241</v>
+        <f t="shared" si="5"/>
+        <v>240</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>20</v>
@@ -6281,8 +6280,8 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
-        <f>IF(NOT(A255=0),A255,A254)+1</f>
-        <v>242</v>
+        <f t="shared" si="5"/>
+        <v>241</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>256</v>
@@ -6290,8 +6289,8 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
-        <f>IF(NOT(A256=0),A256,A255)+1</f>
-        <v>243</v>
+        <f t="shared" si="5"/>
+        <v>242</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>250</v>
@@ -6299,8 +6298,8 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
-        <f>IF(NOT(A257=0),A257,A256)+1</f>
-        <v>244</v>
+        <f t="shared" si="5"/>
+        <v>243</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>208</v>
@@ -6308,8 +6307,8 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
-        <f>IF(NOT(A258=0),A258,A257)+1</f>
-        <v>245</v>
+        <f t="shared" si="5"/>
+        <v>244</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>306</v>
@@ -6317,8 +6316,8 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
-        <f>IF(NOT(A259=0),A259,A258)+1</f>
-        <v>246</v>
+        <f t="shared" si="5"/>
+        <v>245</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>114</v>
@@ -6326,8 +6325,8 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
-        <f>IF(NOT(A260=0),A260,A259)+1</f>
-        <v>247</v>
+        <f t="shared" si="5"/>
+        <v>246</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>305</v>
@@ -6335,8 +6334,8 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
-        <f>IF(NOT(A261=0),A261,A260)+1</f>
-        <v>248</v>
+        <f t="shared" si="5"/>
+        <v>247</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>111</v>
@@ -6344,8 +6343,8 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
-        <f>IF(NOT(A262=0),A262,A261)+1</f>
-        <v>249</v>
+        <f t="shared" si="5"/>
+        <v>248</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>12</v>
@@ -6353,8 +6352,8 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
-        <f>IF(NOT(A263=0),A263,A262)+1</f>
-        <v>250</v>
+        <f t="shared" si="5"/>
+        <v>249</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>285</v>
@@ -6362,8 +6361,8 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
-        <f>IF(NOT(A264=0),A264,A263)+1</f>
-        <v>251</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>309</v>
@@ -6371,8 +6370,8 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
-        <f>IF(NOT(A265=0),A265,A264)+1</f>
-        <v>252</v>
+        <f t="shared" si="5"/>
+        <v>251</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>337</v>
@@ -6380,8 +6379,8 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
-        <f>IF(NOT(A266=0),A266,A265)+1</f>
-        <v>253</v>
+        <f t="shared" si="5"/>
+        <v>252</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>207</v>
@@ -6389,8 +6388,8 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
-        <f>IF(NOT(A267=0),A267,A266)+1</f>
-        <v>254</v>
+        <f t="shared" si="5"/>
+        <v>253</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>179</v>
@@ -6398,8 +6397,8 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
-        <f>IF(NOT(A268=0),A268,A267)+1</f>
-        <v>255</v>
+        <f t="shared" si="5"/>
+        <v>254</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>21</v>
@@ -6407,8 +6406,8 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
-        <f>IF(NOT(A269=0),A269,A268)+1</f>
-        <v>256</v>
+        <f t="shared" si="5"/>
+        <v>255</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>318</v>
@@ -6416,8 +6415,8 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
-        <f>IF(NOT(A270=0),A270,A269)+1</f>
-        <v>257</v>
+        <f t="shared" si="5"/>
+        <v>256</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>296</v>
@@ -6425,8 +6424,8 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
-        <f>IF(NOT(A271=0),A271,A270)+1</f>
-        <v>258</v>
+        <f t="shared" si="5"/>
+        <v>257</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>80</v>
@@ -6434,8 +6433,8 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
-        <f>IF(NOT(A272=0),A272,A271)+1</f>
-        <v>259</v>
+        <f t="shared" si="5"/>
+        <v>258</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>166</v>
@@ -6443,8 +6442,8 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
-        <f>IF(NOT(A273=0),A273,A272)+1</f>
-        <v>260</v>
+        <f t="shared" si="5"/>
+        <v>259</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>196</v>
@@ -6452,8 +6451,8 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
-        <f>IF(NOT(A274=0),A274,A273)+1</f>
-        <v>261</v>
+        <f t="shared" si="5"/>
+        <v>260</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>194</v>
@@ -6461,8 +6460,8 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
-        <f>IF(NOT(A275=0),A275,A274)+1</f>
-        <v>262</v>
+        <f t="shared" si="5"/>
+        <v>261</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>60</v>
@@ -6470,8 +6469,8 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
-        <f>IF(NOT(A276=0),A276,A275)+1</f>
-        <v>263</v>
+        <f t="shared" si="5"/>
+        <v>262</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>130</v>
@@ -6479,8 +6478,8 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
-        <f>IF(NOT(A277=0),A277,A276)+1</f>
-        <v>264</v>
+        <f t="shared" si="5"/>
+        <v>263</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>74</v>
@@ -6488,8 +6487,8 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
-        <f>IF(NOT(A278=0),A278,A277)+1</f>
-        <v>265</v>
+        <f t="shared" si="5"/>
+        <v>264</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>212</v>
@@ -6497,8 +6496,8 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
-        <f>IF(NOT(A279=0),A279,A278)+1</f>
-        <v>266</v>
+        <f t="shared" si="5"/>
+        <v>265</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>150</v>
@@ -6506,8 +6505,8 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
-        <f>IF(NOT(A280=0),A280,A279)+1</f>
-        <v>267</v>
+        <f t="shared" si="5"/>
+        <v>266</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>279</v>
@@ -6515,8 +6514,8 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
-        <f>IF(NOT(A281=0),A281,A280)+1</f>
-        <v>268</v>
+        <f t="shared" si="5"/>
+        <v>267</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>63</v>
@@ -6524,8 +6523,8 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
-        <f>IF(NOT(A282=0),A282,A281)+1</f>
-        <v>269</v>
+        <f t="shared" si="5"/>
+        <v>268</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>64</v>
@@ -6533,8 +6532,8 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
-        <f>IF(NOT(A283=0),A283,A282)+1</f>
-        <v>270</v>
+        <f t="shared" si="5"/>
+        <v>269</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>64</v>
@@ -6542,8 +6541,8 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
-        <f>IF(NOT(A284=0),A284,A283)+1</f>
-        <v>271</v>
+        <f t="shared" si="5"/>
+        <v>270</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>180</v>
@@ -6551,8 +6550,8 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
-        <f>IF(NOT(A285=0),A285,A284)+1</f>
-        <v>272</v>
+        <f t="shared" si="5"/>
+        <v>271</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>225</v>
@@ -6560,8 +6559,8 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
-        <f>IF(NOT(A286=0),A286,A285)+1</f>
-        <v>273</v>
+        <f t="shared" ref="A287:A350" si="6">IF(NOT(A286=0),A286,A285)+1</f>
+        <v>272</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>269</v>
@@ -6569,8 +6568,8 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
-        <f>IF(NOT(A287=0),A287,A286)+1</f>
-        <v>274</v>
+        <f t="shared" si="6"/>
+        <v>273</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>267</v>
@@ -6578,8 +6577,8 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
-        <f>IF(NOT(A288=0),A288,A287)+1</f>
-        <v>275</v>
+        <f t="shared" si="6"/>
+        <v>274</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>268</v>
@@ -6587,8 +6586,8 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
-        <f>IF(NOT(A289=0),A289,A288)+1</f>
-        <v>276</v>
+        <f t="shared" si="6"/>
+        <v>275</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>265</v>
@@ -6596,8 +6595,8 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
-        <f>IF(NOT(A290=0),A290,A289)+1</f>
-        <v>277</v>
+        <f t="shared" si="6"/>
+        <v>276</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>56</v>
@@ -6605,8 +6604,8 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
-        <f>IF(NOT(A291=0),A291,A290)+1</f>
-        <v>278</v>
+        <f t="shared" si="6"/>
+        <v>277</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>82</v>
@@ -6614,8 +6613,8 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
-        <f>IF(NOT(A292=0),A292,A291)+1</f>
-        <v>279</v>
+        <f t="shared" si="6"/>
+        <v>278</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>51</v>
@@ -6623,8 +6622,8 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
-        <f>IF(NOT(A293=0),A293,A292)+1</f>
-        <v>280</v>
+        <f t="shared" si="6"/>
+        <v>279</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>105</v>
@@ -6632,8 +6631,8 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
-        <f>IF(NOT(A294=0),A294,A293)+1</f>
-        <v>281</v>
+        <f t="shared" si="6"/>
+        <v>280</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>105</v>
@@ -6641,8 +6640,8 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
-        <f>IF(NOT(A295=0),A295,A294)+1</f>
-        <v>282</v>
+        <f t="shared" si="6"/>
+        <v>281</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>204</v>
@@ -6650,8 +6649,8 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
-        <f>IF(NOT(A296=0),A296,A295)+1</f>
-        <v>283</v>
+        <f t="shared" si="6"/>
+        <v>282</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>246</v>
@@ -6659,8 +6658,8 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
-        <f>IF(NOT(A297=0),A297,A296)+1</f>
-        <v>284</v>
+        <f t="shared" si="6"/>
+        <v>283</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>118</v>
@@ -6668,8 +6667,8 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
-        <f>IF(NOT(A298=0),A298,A297)+1</f>
-        <v>285</v>
+        <f t="shared" si="6"/>
+        <v>284</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>209</v>
@@ -6677,8 +6676,8 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
-        <f>IF(NOT(A299=0),A299,A298)+1</f>
-        <v>286</v>
+        <f t="shared" si="6"/>
+        <v>285</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>108</v>
@@ -6686,8 +6685,8 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
-        <f>IF(NOT(A300=0),A300,A299)+1</f>
-        <v>287</v>
+        <f t="shared" si="6"/>
+        <v>286</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>175</v>
@@ -6695,8 +6694,8 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
-        <f>IF(NOT(A301=0),A301,A300)+1</f>
-        <v>288</v>
+        <f t="shared" si="6"/>
+        <v>287</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>123</v>
@@ -6704,8 +6703,8 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
-        <f>IF(NOT(A302=0),A302,A301)+1</f>
-        <v>289</v>
+        <f t="shared" si="6"/>
+        <v>288</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>103</v>
@@ -6713,8 +6712,8 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
-        <f>IF(NOT(A303=0),A303,A302)+1</f>
-        <v>290</v>
+        <f t="shared" si="6"/>
+        <v>289</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>103</v>
@@ -6722,8 +6721,8 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
-        <f>IF(NOT(A304=0),A304,A303)+1</f>
-        <v>291</v>
+        <f t="shared" si="6"/>
+        <v>290</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>153</v>
@@ -6731,8 +6730,8 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
-        <f>IF(NOT(A305=0),A305,A304)+1</f>
-        <v>292</v>
+        <f t="shared" si="6"/>
+        <v>291</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>216</v>
@@ -6740,8 +6739,8 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
-        <f>IF(NOT(A306=0),A306,A305)+1</f>
-        <v>293</v>
+        <f t="shared" si="6"/>
+        <v>292</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>295</v>
@@ -6749,8 +6748,8 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
-        <f>IF(NOT(A307=0),A307,A306)+1</f>
-        <v>294</v>
+        <f t="shared" si="6"/>
+        <v>293</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>201</v>
@@ -6758,8 +6757,8 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
-        <f>IF(NOT(A308=0),A308,A307)+1</f>
-        <v>295</v>
+        <f t="shared" si="6"/>
+        <v>294</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>23</v>
@@ -6767,8 +6766,8 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
-        <f>IF(NOT(A309=0),A309,A308)+1</f>
-        <v>296</v>
+        <f t="shared" si="6"/>
+        <v>295</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>161</v>
@@ -6776,8 +6775,8 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
-        <f>IF(NOT(A310=0),A310,A309)+1</f>
-        <v>297</v>
+        <f t="shared" si="6"/>
+        <v>296</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>160</v>
@@ -6785,8 +6784,8 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
-        <f>IF(NOT(A311=0),A311,A310)+1</f>
-        <v>298</v>
+        <f t="shared" si="6"/>
+        <v>297</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>349</v>
@@ -6794,8 +6793,8 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
-        <f>IF(NOT(A312=0),A312,A311)+1</f>
-        <v>299</v>
+        <f t="shared" si="6"/>
+        <v>298</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>286</v>
@@ -6803,8 +6802,8 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
-        <f>IF(NOT(A313=0),A313,A312)+1</f>
-        <v>300</v>
+        <f t="shared" si="6"/>
+        <v>299</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>344</v>
@@ -6812,8 +6811,8 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
-        <f>IF(NOT(A314=0),A314,A313)+1</f>
-        <v>301</v>
+        <f t="shared" si="6"/>
+        <v>300</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>117</v>
@@ -6821,8 +6820,8 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
-        <f>IF(NOT(A315=0),A315,A314)+1</f>
-        <v>302</v>
+        <f t="shared" si="6"/>
+        <v>301</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>331</v>
@@ -6830,8 +6829,8 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
-        <f>IF(NOT(A316=0),A316,A315)+1</f>
-        <v>303</v>
+        <f t="shared" si="6"/>
+        <v>302</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>54</v>
@@ -6839,8 +6838,8 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
-        <f>IF(NOT(A317=0),A317,A316)+1</f>
-        <v>304</v>
+        <f t="shared" si="6"/>
+        <v>303</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>115</v>
@@ -6848,8 +6847,8 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
-        <f>IF(NOT(A318=0),A318,A317)+1</f>
-        <v>305</v>
+        <f t="shared" si="6"/>
+        <v>304</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>76</v>
@@ -6857,8 +6856,8 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
-        <f>IF(NOT(A319=0),A319,A318)+1</f>
-        <v>306</v>
+        <f t="shared" si="6"/>
+        <v>305</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>157</v>
@@ -6866,8 +6865,8 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
-        <f>IF(NOT(A320=0),A320,A319)+1</f>
-        <v>307</v>
+        <f t="shared" si="6"/>
+        <v>306</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>154</v>
@@ -6875,8 +6874,8 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
-        <f>IF(NOT(A321=0),A321,A320)+1</f>
-        <v>308</v>
+        <f t="shared" si="6"/>
+        <v>307</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>163</v>
@@ -6884,8 +6883,8 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
-        <f>IF(NOT(A322=0),A322,A321)+1</f>
-        <v>309</v>
+        <f t="shared" si="6"/>
+        <v>308</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>272</v>
@@ -6893,8 +6892,8 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
-        <f>IF(NOT(A323=0),A323,A322)+1</f>
-        <v>310</v>
+        <f t="shared" si="6"/>
+        <v>309</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>351</v>
@@ -6902,8 +6901,8 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
-        <f>IF(NOT(A324=0),A324,A323)+1</f>
-        <v>311</v>
+        <f t="shared" si="6"/>
+        <v>310</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>262</v>
@@ -6911,8 +6910,8 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
-        <f>IF(NOT(A325=0),A325,A324)+1</f>
-        <v>312</v>
+        <f t="shared" si="6"/>
+        <v>311</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>259</v>
@@ -6920,8 +6919,8 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
-        <f>IF(NOT(A326=0),A326,A325)+1</f>
-        <v>313</v>
+        <f t="shared" si="6"/>
+        <v>312</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>249</v>
@@ -6929,8 +6928,8 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
-        <f>IF(NOT(A327=0),A327,A326)+1</f>
-        <v>314</v>
+        <f t="shared" si="6"/>
+        <v>313</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>275</v>
@@ -6938,8 +6937,8 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
-        <f>IF(NOT(A328=0),A328,A327)+1</f>
-        <v>315</v>
+        <f t="shared" si="6"/>
+        <v>314</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>236</v>
@@ -6947,8 +6946,8 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
-        <f>IF(NOT(A329=0),A329,A328)+1</f>
-        <v>316</v>
+        <f t="shared" si="6"/>
+        <v>315</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>243</v>
@@ -6956,8 +6955,8 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
-        <f>IF(NOT(A330=0),A330,A329)+1</f>
-        <v>317</v>
+        <f t="shared" si="6"/>
+        <v>316</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>184</v>
@@ -6965,8 +6964,8 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
-        <f>IF(NOT(A331=0),A331,A330)+1</f>
-        <v>318</v>
+        <f t="shared" si="6"/>
+        <v>317</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>336</v>
@@ -6974,8 +6973,8 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
-        <f>IF(NOT(A332=0),A332,A331)+1</f>
-        <v>319</v>
+        <f t="shared" si="6"/>
+        <v>318</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>308</v>
@@ -6983,8 +6982,8 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
-        <f>IF(NOT(A333=0),A333,A332)+1</f>
-        <v>320</v>
+        <f t="shared" si="6"/>
+        <v>319</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>210</v>
@@ -6992,8 +6991,8 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
-        <f>IF(NOT(A334=0),A334,A333)+1</f>
-        <v>321</v>
+        <f t="shared" si="6"/>
+        <v>320</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>45</v>
@@ -7001,8 +7000,8 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
-        <f>IF(NOT(A335=0),A335,A334)+1</f>
-        <v>322</v>
+        <f t="shared" si="6"/>
+        <v>321</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>289</v>
@@ -7010,8 +7009,8 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
-        <f>IF(NOT(A336=0),A336,A335)+1</f>
-        <v>323</v>
+        <f t="shared" si="6"/>
+        <v>322</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>264</v>
@@ -7019,8 +7018,8 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
-        <f>IF(NOT(A337=0),A337,A336)+1</f>
-        <v>324</v>
+        <f t="shared" si="6"/>
+        <v>323</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>330</v>
@@ -7028,8 +7027,8 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
-        <f>IF(NOT(A338=0),A338,A337)+1</f>
-        <v>325</v>
+        <f t="shared" si="6"/>
+        <v>324</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>329</v>
@@ -7037,8 +7036,8 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
-        <f>IF(NOT(A339=0),A339,A338)+1</f>
-        <v>326</v>
+        <f t="shared" si="6"/>
+        <v>325</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>328</v>
@@ -7046,8 +7045,8 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
-        <f>IF(NOT(A340=0),A340,A339)+1</f>
-        <v>327</v>
+        <f t="shared" si="6"/>
+        <v>326</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>327</v>
@@ -7055,8 +7054,8 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
-        <f>IF(NOT(A341=0),A341,A340)+1</f>
-        <v>328</v>
+        <f t="shared" si="6"/>
+        <v>327</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>326</v>
@@ -7064,8 +7063,8 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
-        <f>IF(NOT(A342=0),A342,A341)+1</f>
-        <v>329</v>
+        <f t="shared" si="6"/>
+        <v>328</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>325</v>
@@ -7073,8 +7072,8 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
-        <f>IF(NOT(A343=0),A343,A342)+1</f>
-        <v>330</v>
+        <f t="shared" si="6"/>
+        <v>329</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>131</v>
@@ -7082,8 +7081,8 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
-        <f>IF(NOT(A344=0),A344,A343)+1</f>
-        <v>331</v>
+        <f t="shared" si="6"/>
+        <v>330</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>91</v>
@@ -7091,8 +7090,8 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
-        <f>IF(NOT(A345=0),A345,A344)+1</f>
-        <v>332</v>
+        <f t="shared" si="6"/>
+        <v>331</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>278</v>
@@ -7100,8 +7099,8 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
-        <f>IF(NOT(A346=0),A346,A345)+1</f>
-        <v>333</v>
+        <f t="shared" si="6"/>
+        <v>332</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>104</v>
@@ -7109,8 +7108,8 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
-        <f>IF(NOT(A347=0),A347,A346)+1</f>
-        <v>334</v>
+        <f t="shared" si="6"/>
+        <v>333</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>214</v>
@@ -7118,8 +7117,8 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
-        <f>IF(NOT(A348=0),A348,A347)+1</f>
-        <v>335</v>
+        <f t="shared" si="6"/>
+        <v>334</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>78</v>
@@ -7127,8 +7126,8 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
-        <f>IF(NOT(A349=0),A349,A348)+1</f>
-        <v>336</v>
+        <f t="shared" si="6"/>
+        <v>335</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>254</v>
@@ -7136,8 +7135,8 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
-        <f>IF(NOT(A350=0),A350,A349)+1</f>
-        <v>337</v>
+        <f t="shared" ref="A351:A414" si="7">IF(NOT(A350=0),A350,A349)+1</f>
+        <v>336</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>24</v>
@@ -7145,8 +7144,8 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
-        <f>IF(NOT(A351=0),A351,A350)+1</f>
-        <v>338</v>
+        <f t="shared" si="7"/>
+        <v>337</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>288</v>
@@ -7154,8 +7153,8 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
-        <f>IF(NOT(A352=0),A352,A351)+1</f>
-        <v>339</v>
+        <f t="shared" si="7"/>
+        <v>338</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>274</v>
@@ -7163,8 +7162,8 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
-        <f>IF(NOT(A353=0),A353,A352)+1</f>
-        <v>340</v>
+        <f t="shared" si="7"/>
+        <v>339</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>274</v>
@@ -7172,8 +7171,8 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
-        <f>IF(NOT(A354=0),A354,A353)+1</f>
-        <v>341</v>
+        <f t="shared" si="7"/>
+        <v>340</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>98</v>
@@ -7181,8 +7180,8 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
-        <f>IF(NOT(A355=0),A355,A354)+1</f>
-        <v>342</v>
+        <f t="shared" si="7"/>
+        <v>341</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>280</v>
@@ -7190,8 +7189,8 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
-        <f>IF(NOT(A356=0),A356,A355)+1</f>
-        <v>343</v>
+        <f t="shared" si="7"/>
+        <v>342</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>170</v>
@@ -7199,8 +7198,8 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
-        <f>IF(NOT(A357=0),A357,A356)+1</f>
-        <v>344</v>
+        <f t="shared" si="7"/>
+        <v>343</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>174</v>
@@ -7208,8 +7207,8 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
-        <f>IF(NOT(A358=0),A358,A357)+1</f>
-        <v>345</v>
+        <f t="shared" si="7"/>
+        <v>344</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>30</v>
@@ -7217,8 +7216,8 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
-        <f>IF(NOT(A359=0),A359,A358)+1</f>
-        <v>346</v>
+        <f t="shared" si="7"/>
+        <v>345</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>353</v>
@@ -7226,8 +7225,8 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
-        <f>IF(NOT(A360=0),A360,A359)+1</f>
-        <v>347</v>
+        <f t="shared" si="7"/>
+        <v>346</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>287</v>
@@ -7235,8 +7234,8 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
-        <f>IF(NOT(A361=0),A361,A360)+1</f>
-        <v>348</v>
+        <f t="shared" si="7"/>
+        <v>347</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>277</v>
@@ -7244,8 +7243,8 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
-        <f>IF(NOT(A362=0),A362,A361)+1</f>
-        <v>349</v>
+        <f t="shared" si="7"/>
+        <v>348</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>266</v>
@@ -7253,8 +7252,8 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
-        <f>IF(NOT(A363=0),A363,A362)+1</f>
-        <v>350</v>
+        <f t="shared" si="7"/>
+        <v>349</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>33</v>
@@ -7262,8 +7261,8 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
-        <f>IF(NOT(A364=0),A364,A363)+1</f>
-        <v>351</v>
+        <f t="shared" si="7"/>
+        <v>350</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>133</v>
@@ -7271,8 +7270,8 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
-        <f>IF(NOT(A365=0),A365,A364)+1</f>
-        <v>352</v>
+        <f t="shared" si="7"/>
+        <v>351</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>35</v>
@@ -7280,8 +7279,8 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
-        <f>IF(NOT(A366=0),A366,A365)+1</f>
-        <v>353</v>
+        <f t="shared" si="7"/>
+        <v>352</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>135</v>
@@ -7289,8 +7288,8 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
-        <f>IF(NOT(A367=0),A367,A366)+1</f>
-        <v>354</v>
+        <f t="shared" si="7"/>
+        <v>353</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>228</v>
@@ -7298,8 +7297,8 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
-        <f>IF(NOT(A368=0),A368,A367)+1</f>
-        <v>355</v>
+        <f t="shared" si="7"/>
+        <v>354</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>233</v>
@@ -7307,8 +7306,8 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
-        <f>IF(NOT(A369=0),A369,A368)+1</f>
-        <v>356</v>
+        <f t="shared" si="7"/>
+        <v>355</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>57</v>
@@ -7316,8 +7315,8 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
-        <f>IF(NOT(A370=0),A370,A369)+1</f>
-        <v>357</v>
+        <f t="shared" si="7"/>
+        <v>356</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>237</v>
@@ -7325,8 +7324,8 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
-        <f>IF(NOT(A371=0),A371,A370)+1</f>
-        <v>358</v>
+        <f t="shared" si="7"/>
+        <v>357</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>357</v>
@@ -7334,8 +7333,8 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
-        <f>IF(NOT(A372=0),A372,A371)+1</f>
-        <v>359</v>
+        <f t="shared" si="7"/>
+        <v>358</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>356</v>
@@ -7343,8 +7342,8 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
-        <f>IF(NOT(A373=0),A373,A372)+1</f>
-        <v>360</v>
+        <f t="shared" si="7"/>
+        <v>359</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>355</v>
@@ -7352,8 +7351,8 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
-        <f>IF(NOT(A374=0),A374,A373)+1</f>
-        <v>361</v>
+        <f t="shared" si="7"/>
+        <v>360</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>354</v>
@@ -15289,6 +15288,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A237:B237"/>
@@ -15305,13 +15311,6 @@
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A155:B155"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ALGORITHMS_LIST.xlsx
+++ b/ALGORITHMS_LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0\Git\beginner-algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F745F6D-D964-477F-A8C4-8EAFDC09F688}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9799E215-0227-4172-B444-7A5B50B2C43C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F3AEC63A-3935-431B-9D94-C19A95072D1B}"/>
   </bookViews>
@@ -3981,9 +3981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC73345-1EB4-493B-9D32-2379CC101C9C}">
   <dimension ref="A1:D375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4012,7 +4010,7 @@
       </c>
       <c r="D2" s="8">
         <f ca="1">RANDBETWEEN(1,A375)</f>
-        <v>267</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4113,1041 +4111,1038 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <f>IF(NOT(A15=0),A15,#REF!)+1</f>
-        <v>2</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>137</v>
+        <v>0</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <f t="shared" ref="A17:A48" si="0">IF(NOT(A16=0),A16,A15)+1</f>
-        <v>3</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>151</v>
+        <v>0</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>173</v>
+        <v>0</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>IF(NOT(A19=0),A19,#REF!)+1</f>
+        <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>IF(NOT(A20=0),A20,A19)+1</f>
+        <v>3</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>343</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>IF(NOT(A21=0),A21,A20)+1</f>
+        <v>4</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>IF(NOT(A22=0),A22,A21)+1</f>
+        <v>5</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>IF(NOT(A23=0),A23,A22)+1</f>
+        <v>6</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>IF(NOT(A24=0),A24,A23)+1</f>
+        <v>7</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>26</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>IF(NOT(A25=0),A25,A24)+1</f>
+        <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f>IF(NOT(A26=0),A26,A25)+1</f>
+        <v>9</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>IF(NOT(A27=0),A27,A26)+1</f>
+        <v>10</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>IF(NOT(A28=0),A28,A27)+1</f>
+        <v>11</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(A29=0),A29,A28)+1</f>
+        <v>12</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f>IF(NOT(A30=0),A30,A29)+1</f>
+        <v>13</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>122</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f>IF(NOT(A31=0),A31,A30)+1</f>
+        <v>14</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>302</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f>IF(NOT(A32=0),A32,A31)+1</f>
+        <v>15</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>IF(NOT(A33=0),A33,A32)+1</f>
+        <v>16</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>235</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f>IF(NOT(A34=0),A34,A33)+1</f>
+        <v>17</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <f>IF(NOT(A35=0),A35,A34)+1</f>
+        <v>18</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <f>IF(NOT(A36=0),A36,A35)+1</f>
+        <v>19</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>301</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f>IF(NOT(A37=0),A37,A36)+1</f>
+        <v>20</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>293</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>IF(NOT(A38=0),A38,A37)+1</f>
+        <v>21</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <f>IF(NOT(A39=0),A39,A38)+1</f>
+        <v>22</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>110</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f>IF(NOT(A40=0),A40,A39)+1</f>
+        <v>23</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <f>IF(NOT(A41=0),A41,A40)+1</f>
+        <v>24</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>41</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f>IF(NOT(A42=0),A42,A41)+1</f>
+        <v>25</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f>IF(NOT(A43=0),A43,A42)+1</f>
+        <v>26</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <f>IF(NOT(A44=0),A44,A43)+1</f>
+        <v>27</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>112</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f>IF(NOT(A45=0),A45,A44)+1</f>
+        <v>28</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>358</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <f>IF(NOT(A46=0),A46,A45)+1</f>
+        <v>29</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>297</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <f>IF(NOT(A47=0),A47,A46)+1</f>
+        <v>30</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <f t="shared" ref="A49:A80" si="1">IF(NOT(A48=0),A48,A47)+1</f>
-        <v>35</v>
+        <f>IF(NOT(A48=0),A48,A47)+1</f>
+        <v>31</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>227</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <f t="shared" si="1"/>
-        <v>36</v>
+        <f>IF(NOT(A49=0),A49,A48)+1</f>
+        <v>32</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>255</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <f t="shared" si="1"/>
-        <v>37</v>
+        <f>IF(NOT(A50=0),A50,A49)+1</f>
+        <v>33</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>132</v>
+        <v>297</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <f t="shared" si="1"/>
-        <v>38</v>
+        <f>IF(NOT(A51=0),A51,A50)+1</f>
+        <v>34</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>147</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <f t="shared" si="1"/>
-        <v>39</v>
+        <f>IF(NOT(A52=0),A52,A51)+1</f>
+        <v>35</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>144</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f>IF(NOT(A53=0),A53,A52)+1</f>
+        <v>36</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <f t="shared" si="1"/>
-        <v>41</v>
+        <f>IF(NOT(A54=0),A54,A53)+1</f>
+        <v>37</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <f t="shared" si="1"/>
-        <v>42</v>
+        <f>IF(NOT(A55=0),A55,A54)+1</f>
+        <v>38</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <f t="shared" si="1"/>
-        <v>43</v>
+        <f>IF(NOT(A56=0),A56,A55)+1</f>
+        <v>39</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <f t="shared" si="1"/>
-        <v>44</v>
+        <f>IF(NOT(A57=0),A57,A56)+1</f>
+        <v>40</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>13</v>
+        <v>292</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <f t="shared" si="1"/>
-        <v>45</v>
+        <f>IF(NOT(A58=0),A58,A57)+1</f>
+        <v>41</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <f t="shared" si="1"/>
-        <v>46</v>
+        <f>IF(NOT(A59=0),A59,A58)+1</f>
+        <v>42</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <f t="shared" si="1"/>
-        <v>47</v>
+        <f>IF(NOT(A60=0),A60,A59)+1</f>
+        <v>43</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>283</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <f t="shared" si="1"/>
-        <v>48</v>
+        <f>IF(NOT(A61=0),A61,A60)+1</f>
+        <v>44</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <f t="shared" si="1"/>
-        <v>49</v>
+        <f>IF(NOT(A62=0),A62,A61)+1</f>
+        <v>45</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f>IF(NOT(A63=0),A63,A62)+1</f>
+        <v>46</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>273</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <f t="shared" si="1"/>
-        <v>51</v>
+        <f>IF(NOT(A64=0),A64,A63)+1</f>
+        <v>47</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <f t="shared" si="1"/>
-        <v>52</v>
+        <f>IF(NOT(A65=0),A65,A64)+1</f>
+        <v>48</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>229</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <f t="shared" si="1"/>
-        <v>53</v>
+        <f>IF(NOT(A66=0),A66,A65)+1</f>
+        <v>49</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <f t="shared" si="1"/>
-        <v>54</v>
+        <f>IF(NOT(A67=0),A67,A66)+1</f>
+        <v>50</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>188</v>
+        <v>273</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <f t="shared" si="1"/>
-        <v>55</v>
+        <f>IF(NOT(A68=0),A68,A67)+1</f>
+        <v>51</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>188</v>
+        <v>273</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <f t="shared" si="1"/>
-        <v>56</v>
+        <f>IF(NOT(A69=0),A69,A68)+1</f>
+        <v>52</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <f t="shared" si="1"/>
-        <v>57</v>
+        <f>IF(NOT(A70=0),A70,A69)+1</f>
+        <v>53</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>282</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <f t="shared" si="1"/>
-        <v>58</v>
+        <f>IF(NOT(A71=0),A71,A70)+1</f>
+        <v>54</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <f t="shared" si="1"/>
-        <v>59</v>
+        <f>IF(NOT(A72=0),A72,A71)+1</f>
+        <v>55</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>53</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f>IF(NOT(A73=0),A73,A72)+1</f>
+        <v>56</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <f t="shared" si="1"/>
-        <v>61</v>
+        <f>IF(NOT(A74=0),A74,A73)+1</f>
+        <v>57</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>226</v>
+        <v>282</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <f t="shared" si="1"/>
-        <v>62</v>
+        <f>IF(NOT(A75=0),A75,A74)+1</f>
+        <v>58</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <f t="shared" si="1"/>
-        <v>63</v>
+        <f>IF(NOT(A76=0),A76,A75)+1</f>
+        <v>59</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>192</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <f t="shared" si="1"/>
-        <v>64</v>
+        <f>IF(NOT(A77=0),A77,A76)+1</f>
+        <v>60</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>324</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <f t="shared" si="1"/>
-        <v>65</v>
+        <f>IF(NOT(A78=0),A78,A77)+1</f>
+        <v>61</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>14</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <f t="shared" si="1"/>
-        <v>66</v>
+        <f>IF(NOT(A79=0),A79,A78)+1</f>
+        <v>62</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>200</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <f t="shared" ref="A81:A112" si="2">IF(NOT(A80=0),A80,A79)+1</f>
-        <v>67</v>
+        <f>IF(NOT(A80=0),A80,A79)+1</f>
+        <v>63</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <f t="shared" si="2"/>
-        <v>68</v>
+        <f>IF(NOT(A81=0),A81,A80)+1</f>
+        <v>64</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>245</v>
+        <v>324</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <f t="shared" si="2"/>
-        <v>69</v>
+        <f>IF(NOT(A82=0),A82,A81)+1</f>
+        <v>65</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>190</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <f t="shared" si="2"/>
-        <v>70</v>
+        <f>IF(NOT(A83=0),A83,A82)+1</f>
+        <v>66</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <f t="shared" si="2"/>
-        <v>71</v>
+        <f>IF(NOT(A84=0),A84,A83)+1</f>
+        <v>67</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <f t="shared" si="2"/>
-        <v>72</v>
+        <f>IF(NOT(A85=0),A85,A84)+1</f>
+        <v>68</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>142</v>
+        <v>245</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <f t="shared" si="2"/>
-        <v>73</v>
+        <f>IF(NOT(A86=0),A86,A85)+1</f>
+        <v>69</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>322</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <f t="shared" si="2"/>
-        <v>74</v>
+        <f>IF(NOT(A87=0),A87,A86)+1</f>
+        <v>70</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>321</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <f t="shared" si="2"/>
-        <v>75</v>
+        <f>IF(NOT(A88=0),A88,A87)+1</f>
+        <v>71</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>320</v>
+        <v>217</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <f t="shared" si="2"/>
-        <v>76</v>
+        <f>IF(NOT(A89=0),A89,A88)+1</f>
+        <v>72</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>319</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <f t="shared" si="2"/>
-        <v>77</v>
+        <f>IF(NOT(A90=0),A90,A89)+1</f>
+        <v>73</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>198</v>
+        <v>322</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <f t="shared" si="2"/>
-        <v>78</v>
+        <f>IF(NOT(A91=0),A91,A90)+1</f>
+        <v>74</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>50</v>
+        <v>321</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <f t="shared" si="2"/>
-        <v>79</v>
+        <f>IF(NOT(A92=0),A92,A91)+1</f>
+        <v>75</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>128</v>
+        <v>320</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <f>IF(NOT(A93=0),A93,A91)+1</f>
-        <v>80</v>
+        <f>IF(NOT(A93=0),A93,A92)+1</f>
+        <v>76</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>66</v>
+        <v>319</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <f t="shared" ref="A95:A158" si="3">IF(NOT(A94=0),A94,A93)+1</f>
-        <v>81</v>
+        <f>IF(NOT(A94=0),A94,A93)+1</f>
+        <v>77</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>49</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <f t="shared" si="3"/>
-        <v>82</v>
+        <f>IF(NOT(A95=0),A95,A94)+1</f>
+        <v>78</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>156</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <f t="shared" si="3"/>
-        <v>83</v>
+        <f>IF(NOT(A96=0),A96,A95)+1</f>
+        <v>79</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <f t="shared" si="3"/>
-        <v>84</v>
+        <f>IF(NOT(A97=0),A97,A95)+1</f>
+        <v>80</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <f t="shared" si="3"/>
-        <v>85</v>
+        <f>IF(NOT(A98=0),A98,A97)+1</f>
+        <v>81</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>350</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <f t="shared" si="3"/>
-        <v>86</v>
+        <f>IF(NOT(A99=0),A99,A98)+1</f>
+        <v>82</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>218</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <f t="shared" si="3"/>
-        <v>87</v>
+        <f>IF(NOT(A100=0),A100,A99)+1</f>
+        <v>83</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>205</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <f t="shared" si="3"/>
-        <v>88</v>
+        <f>IF(NOT(A101=0),A101,A100)+1</f>
+        <v>84</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>223</v>
+        <v>138</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <f t="shared" si="3"/>
-        <v>89</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>222</v>
+        <f>IF(NOT(A102=0),A102,A101)+1</f>
+        <v>85</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <f t="shared" si="3"/>
-        <v>90</v>
+        <f>IF(NOT(A103=0),A103,A102)+1</f>
+        <v>86</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>92</v>
+        <v>218</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <f t="shared" si="3"/>
-        <v>91</v>
+        <f>IF(NOT(A104=0),A104,A103)+1</f>
+        <v>87</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>92</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <v>0</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>221</v>
+        <f>IF(NOT(A105=0),A105,A104)+1</f>
+        <v>88</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(A106=0),A106,A105)+1</f>
+        <v>89</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
-        <f t="shared" si="3"/>
-        <v>93</v>
+        <f>IF(NOT(A107=0),A107,A106)+1</f>
+        <v>90</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
-        <f t="shared" si="3"/>
-        <v>94</v>
+        <f>IF(NOT(A108=0),A108,A107)+1</f>
+        <v>91</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
-        <f t="shared" si="3"/>
-        <v>95</v>
+        <f>IF(NOT(A109=0),A109,A108)+1</f>
+        <v>92</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
-        <f t="shared" si="3"/>
-        <v>96</v>
+        <f>IF(NOT(A110=0),A110,A109)+1</f>
+        <v>93</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
-        <f t="shared" si="3"/>
-        <v>97</v>
+        <f>IF(NOT(A111=0),A111,A110)+1</f>
+        <v>94</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>352</v>
+        <v>141</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
-        <f t="shared" si="3"/>
-        <v>98</v>
+        <f>IF(NOT(A112=0),A112,A111)+1</f>
+        <v>95</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>341</v>
+        <v>187</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
-        <f t="shared" si="3"/>
-        <v>99</v>
+        <f>IF(NOT(A113=0),A113,A112)+1</f>
+        <v>96</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>172</v>
+        <v>352</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f>IF(NOT(A114=0),A114,A113)+1</f>
+        <v>97</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>62</v>
+        <v>341</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
-        <f t="shared" si="3"/>
-        <v>101</v>
+        <f>IF(NOT(A115=0),A115,A114)+1</f>
+        <v>98</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
-        <f t="shared" si="3"/>
-        <v>102</v>
+        <f>IF(NOT(A116=0),A116,A115)+1</f>
+        <v>99</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
-        <f t="shared" si="3"/>
-        <v>103</v>
+        <f>IF(NOT(A117=0),A117,A116)+1</f>
+        <v>100</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>276</v>
+        <v>62</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
-        <f t="shared" si="3"/>
-        <v>104</v>
+        <f>IF(NOT(A118=0),A118,A117)+1</f>
+        <v>101</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
-        <f t="shared" si="3"/>
-        <v>105</v>
+        <f>IF(NOT(A119=0),A119,A118)+1</f>
+        <v>102</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>39</v>
+        <v>276</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
-        <f t="shared" si="3"/>
-        <v>106</v>
+        <f>IF(NOT(A120=0),A120,A119)+1</f>
+        <v>103</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>55</v>
+        <v>253</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
-        <f t="shared" si="3"/>
-        <v>107</v>
+        <f>IF(NOT(A121=0),A121,A120)+1</f>
+        <v>104</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
-        <f t="shared" si="3"/>
-        <v>108</v>
+        <f>IF(NOT(A122=0),A122,A121)+1</f>
+        <v>105</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
-        <f t="shared" si="3"/>
-        <v>109</v>
+        <f>IF(NOT(A123=0),A123,A122)+1</f>
+        <v>106</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>191</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
-        <f t="shared" si="3"/>
-        <v>110</v>
+        <f>IF(NOT(A124=0),A124,A123)+1</f>
+        <v>107</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
-        <f t="shared" si="3"/>
-        <v>111</v>
+        <f>IF(NOT(A125=0),A125,A124)+1</f>
+        <v>108</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>86</v>
+        <v>191</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
-        <f t="shared" si="3"/>
-        <v>112</v>
+        <f>IF(NOT(A126=0),A126,A125)+1</f>
+        <v>109</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
-        <f t="shared" si="3"/>
-        <v>113</v>
+        <f>IF(NOT(A127=0),A127,A126)+1</f>
+        <v>110</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>232</v>
+        <v>86</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
-        <f t="shared" si="3"/>
-        <v>114</v>
+        <f>IF(NOT(A128=0),A128,A127)+1</f>
+        <v>111</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>71</v>
+        <v>232</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
-        <f t="shared" si="3"/>
-        <v>115</v>
+        <f>IF(NOT(A129=0),A129,A128)+1</f>
+        <v>112</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>333</v>
@@ -5155,8 +5150,8 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
-        <f t="shared" si="3"/>
-        <v>116</v>
+        <f>IF(NOT(A130=0),A130,A129)+1</f>
+        <v>113</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>178</v>
@@ -5164,8 +5159,8 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
-        <f t="shared" si="3"/>
-        <v>117</v>
+        <f>IF(NOT(A131=0),A131,A130)+1</f>
+        <v>114</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>247</v>
@@ -5173,8 +5168,8 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
-        <f t="shared" si="3"/>
-        <v>118</v>
+        <f>IF(NOT(A132=0),A132,A131)+1</f>
+        <v>115</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>242</v>
@@ -5182,8 +5177,8 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
-        <f t="shared" si="3"/>
-        <v>119</v>
+        <f>IF(NOT(A133=0),A133,A132)+1</f>
+        <v>116</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>38</v>
@@ -5191,8 +5186,8 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
-        <f t="shared" si="3"/>
-        <v>120</v>
+        <f>IF(NOT(A134=0),A134,A133)+1</f>
+        <v>117</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>231</v>
@@ -5200,8 +5195,8 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
-        <f t="shared" si="3"/>
-        <v>121</v>
+        <f>IF(NOT(A135=0),A135,A134)+1</f>
+        <v>118</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>126</v>
@@ -5209,8 +5204,8 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
-        <f t="shared" si="3"/>
-        <v>122</v>
+        <f>IF(NOT(A136=0),A136,A135)+1</f>
+        <v>119</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>143</v>
@@ -5218,8 +5213,8 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
-        <f t="shared" si="3"/>
-        <v>123</v>
+        <f>IF(NOT(A137=0),A137,A136)+1</f>
+        <v>120</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>251</v>
@@ -5227,8 +5222,8 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
-        <f t="shared" si="3"/>
-        <v>124</v>
+        <f>IF(NOT(A138=0),A138,A137)+1</f>
+        <v>121</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>234</v>
@@ -5236,8 +5231,8 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
-        <f t="shared" si="3"/>
-        <v>125</v>
+        <f>IF(NOT(A139=0),A139,A138)+1</f>
+        <v>122</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>215</v>
@@ -5245,8 +5240,8 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
-        <f t="shared" si="3"/>
-        <v>126</v>
+        <f>IF(NOT(A140=0),A140,A139)+1</f>
+        <v>123</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>171</v>
@@ -5254,8 +5249,8 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
-        <f t="shared" si="3"/>
-        <v>127</v>
+        <f>IF(NOT(A141=0),A141,A140)+1</f>
+        <v>124</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>238</v>
@@ -5263,8 +5258,8 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
-        <f t="shared" si="3"/>
-        <v>128</v>
+        <f>IF(NOT(A142=0),A142,A141)+1</f>
+        <v>125</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>107</v>
@@ -5272,8 +5267,8 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
-        <f t="shared" si="3"/>
-        <v>129</v>
+        <f>IF(NOT(A143=0),A143,A142)+1</f>
+        <v>126</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>239</v>
@@ -5281,8 +5276,8 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
-        <f t="shared" si="3"/>
-        <v>130</v>
+        <f>IF(NOT(A144=0),A144,A143)+1</f>
+        <v>127</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>113</v>
@@ -5290,8 +5285,8 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
-        <f t="shared" si="3"/>
-        <v>131</v>
+        <f>IF(NOT(A145=0),A145,A144)+1</f>
+        <v>128</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>69</v>
@@ -5299,8 +5294,8 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
-        <f t="shared" si="3"/>
-        <v>132</v>
+        <f>IF(NOT(A146=0),A146,A145)+1</f>
+        <v>129</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>69</v>
@@ -5308,8 +5303,8 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
-        <f t="shared" si="3"/>
-        <v>133</v>
+        <f>IF(NOT(A147=0),A147,A146)+1</f>
+        <v>130</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>93</v>
@@ -5317,8 +5312,8 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
-        <f t="shared" si="3"/>
-        <v>134</v>
+        <f>IF(NOT(A148=0),A148,A147)+1</f>
+        <v>131</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>109</v>
@@ -5326,8 +5321,8 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
-        <f t="shared" si="3"/>
-        <v>135</v>
+        <f>IF(NOT(A149=0),A149,A148)+1</f>
+        <v>132</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>106</v>
@@ -5335,8 +5330,8 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
-        <f t="shared" si="3"/>
-        <v>136</v>
+        <f>IF(NOT(A150=0),A150,A149)+1</f>
+        <v>133</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>28</v>
@@ -5344,8 +5339,8 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
-        <f t="shared" si="3"/>
-        <v>137</v>
+        <f>IF(NOT(A151=0),A151,A150)+1</f>
+        <v>134</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>75</v>
@@ -5353,8 +5348,8 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
-        <f t="shared" si="3"/>
-        <v>138</v>
+        <f>IF(NOT(A152=0),A152,A151)+1</f>
+        <v>135</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>7</v>
@@ -5362,8 +5357,8 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
-        <f t="shared" si="3"/>
-        <v>139</v>
+        <f>IF(NOT(A153=0),A153,A152)+1</f>
+        <v>136</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>27</v>
@@ -5371,8 +5366,8 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
-        <f t="shared" si="3"/>
-        <v>140</v>
+        <f>IF(NOT(A154=0),A154,A153)+1</f>
+        <v>137</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>47</v>
@@ -5380,8 +5375,8 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
-        <f t="shared" si="3"/>
-        <v>141</v>
+        <f>IF(NOT(A155=0),A155,A154)+1</f>
+        <v>138</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>152</v>
@@ -5389,8 +5384,8 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
-        <f t="shared" si="3"/>
-        <v>142</v>
+        <f>IF(NOT(A156=0),A156,A155)+1</f>
+        <v>139</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>195</v>
@@ -5398,8 +5393,8 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
-        <f t="shared" si="3"/>
-        <v>143</v>
+        <f>IF(NOT(A157=0),A157,A156)+1</f>
+        <v>140</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>102</v>
@@ -5407,8 +5402,8 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
-        <f t="shared" ref="A159:A222" si="4">IF(NOT(A158=0),A158,A157)+1</f>
-        <v>144</v>
+        <f>IF(NOT(A158=0),A158,A157)+1</f>
+        <v>141</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>83</v>
@@ -5416,8 +5411,8 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
-        <f t="shared" si="4"/>
-        <v>145</v>
+        <f>IF(NOT(A159=0),A159,A158)+1</f>
+        <v>142</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>94</v>
@@ -5425,8 +5420,8 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
-        <f t="shared" si="4"/>
-        <v>146</v>
+        <f>IF(NOT(A160=0),A160,A159)+1</f>
+        <v>143</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>119</v>
@@ -5434,8 +5429,8 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
-        <f t="shared" si="4"/>
-        <v>147</v>
+        <f>IF(NOT(A161=0),A161,A160)+1</f>
+        <v>144</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>89</v>
@@ -5443,8 +5438,8 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
-        <f t="shared" si="4"/>
-        <v>148</v>
+        <f>IF(NOT(A162=0),A162,A161)+1</f>
+        <v>145</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>307</v>
@@ -5452,8 +5447,8 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
-        <f t="shared" si="4"/>
-        <v>149</v>
+        <f>IF(NOT(A163=0),A163,A162)+1</f>
+        <v>146</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>77</v>
@@ -5461,8 +5456,8 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
-        <f t="shared" si="4"/>
-        <v>150</v>
+        <f>IF(NOT(A164=0),A164,A163)+1</f>
+        <v>147</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>139</v>
@@ -5470,8 +5465,8 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
-        <f t="shared" si="4"/>
-        <v>151</v>
+        <f>IF(NOT(A165=0),A165,A164)+1</f>
+        <v>148</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>183</v>
@@ -5479,8 +5474,8 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
-        <f t="shared" si="4"/>
-        <v>152</v>
+        <f>IF(NOT(A166=0),A166,A165)+1</f>
+        <v>149</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>176</v>
@@ -5488,8 +5483,8 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
-        <f t="shared" si="4"/>
-        <v>153</v>
+        <f>IF(NOT(A167=0),A167,A166)+1</f>
+        <v>150</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>145</v>
@@ -5497,8 +5492,8 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
-        <f t="shared" si="4"/>
-        <v>154</v>
+        <f>IF(NOT(A168=0),A168,A167)+1</f>
+        <v>151</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>168</v>
@@ -5506,8 +5501,8 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
-        <f t="shared" si="4"/>
-        <v>155</v>
+        <f>IF(NOT(A169=0),A169,A168)+1</f>
+        <v>152</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>4</v>
@@ -5515,8 +5510,8 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
-        <f t="shared" si="4"/>
-        <v>156</v>
+        <f>IF(NOT(A170=0),A170,A169)+1</f>
+        <v>153</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>32</v>
@@ -5524,8 +5519,8 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
-        <f t="shared" si="4"/>
-        <v>157</v>
+        <f>IF(NOT(A171=0),A171,A170)+1</f>
+        <v>154</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>270</v>
@@ -5533,8 +5528,8 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
-        <f t="shared" si="4"/>
-        <v>158</v>
+        <f>IF(NOT(A172=0),A172,A171)+1</f>
+        <v>155</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>97</v>
@@ -5542,8 +5537,8 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
-        <f t="shared" si="4"/>
-        <v>159</v>
+        <f>IF(NOT(A173=0),A173,A172)+1</f>
+        <v>156</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>81</v>
@@ -5551,8 +5546,8 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
-        <f t="shared" si="4"/>
-        <v>160</v>
+        <f>IF(NOT(A174=0),A174,A173)+1</f>
+        <v>157</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>346</v>
@@ -5560,8 +5555,8 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
-        <f t="shared" si="4"/>
-        <v>161</v>
+        <f>IF(NOT(A175=0),A175,A174)+1</f>
+        <v>158</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>72</v>
@@ -5569,8 +5564,8 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
-        <f t="shared" si="4"/>
-        <v>162</v>
+        <f>IF(NOT(A176=0),A176,A175)+1</f>
+        <v>159</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>125</v>
@@ -5578,8 +5573,8 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
-        <f t="shared" si="4"/>
-        <v>163</v>
+        <f>IF(NOT(A177=0),A177,A176)+1</f>
+        <v>160</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>125</v>
@@ -5587,8 +5582,8 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
-        <f t="shared" si="4"/>
-        <v>164</v>
+        <f>IF(NOT(A178=0),A178,A177)+1</f>
+        <v>161</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>73</v>
@@ -5596,8 +5591,8 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
-        <f t="shared" si="4"/>
-        <v>165</v>
+        <f>IF(NOT(A179=0),A179,A178)+1</f>
+        <v>162</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>84</v>
@@ -5605,8 +5600,8 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
-        <f t="shared" si="4"/>
-        <v>166</v>
+        <f>IF(NOT(A180=0),A180,A179)+1</f>
+        <v>163</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>31</v>
@@ -5614,8 +5609,8 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
-        <f t="shared" si="4"/>
-        <v>167</v>
+        <f>IF(NOT(A181=0),A181,A180)+1</f>
+        <v>164</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>244</v>
@@ -5623,8 +5618,8 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
-        <f t="shared" si="4"/>
-        <v>168</v>
+        <f>IF(NOT(A182=0),A182,A181)+1</f>
+        <v>165</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>0</v>
@@ -5632,8 +5627,8 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
-        <f t="shared" si="4"/>
-        <v>169</v>
+        <f>IF(NOT(A183=0),A183,A182)+1</f>
+        <v>166</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>348</v>
@@ -5641,8 +5636,8 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
-        <f t="shared" si="4"/>
-        <v>170</v>
+        <f>IF(NOT(A184=0),A184,A183)+1</f>
+        <v>167</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>186</v>
@@ -5650,8 +5645,8 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
-        <f t="shared" si="4"/>
-        <v>171</v>
+        <f>IF(NOT(A185=0),A185,A184)+1</f>
+        <v>168</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>340</v>
@@ -5659,8 +5654,8 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
-        <f t="shared" si="4"/>
-        <v>172</v>
+        <f>IF(NOT(A186=0),A186,A185)+1</f>
+        <v>169</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>339</v>
@@ -5668,8 +5663,8 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
-        <f t="shared" si="4"/>
-        <v>173</v>
+        <f>IF(NOT(A187=0),A187,A186)+1</f>
+        <v>170</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>315</v>
@@ -5677,8 +5672,8 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
-        <f t="shared" si="4"/>
-        <v>174</v>
+        <f>IF(NOT(A188=0),A188,A187)+1</f>
+        <v>171</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>100</v>
@@ -5686,8 +5681,8 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
-        <f t="shared" si="4"/>
-        <v>175</v>
+        <f>IF(NOT(A189=0),A189,A188)+1</f>
+        <v>172</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>58</v>
@@ -5695,8 +5690,8 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
-        <f t="shared" si="4"/>
-        <v>176</v>
+        <f>IF(NOT(A190=0),A190,A189)+1</f>
+        <v>173</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>58</v>
@@ -5704,8 +5699,8 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
-        <f t="shared" si="4"/>
-        <v>177</v>
+        <f>IF(NOT(A191=0),A191,A190)+1</f>
+        <v>174</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>127</v>
@@ -5713,8 +5708,8 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
-        <f t="shared" si="4"/>
-        <v>178</v>
+        <f>IF(NOT(A192=0),A192,A191)+1</f>
+        <v>175</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>136</v>
@@ -5722,8 +5717,8 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
-        <f t="shared" si="4"/>
-        <v>179</v>
+        <f>IF(NOT(A193=0),A193,A192)+1</f>
+        <v>176</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>312</v>
@@ -5731,8 +5726,8 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
-        <f t="shared" si="4"/>
-        <v>180</v>
+        <f>IF(NOT(A194=0),A194,A193)+1</f>
+        <v>177</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>311</v>
@@ -5740,8 +5735,8 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
-        <f t="shared" si="4"/>
-        <v>181</v>
+        <f>IF(NOT(A195=0),A195,A194)+1</f>
+        <v>178</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>311</v>
@@ -5749,8 +5744,8 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
-        <f t="shared" si="4"/>
-        <v>182</v>
+        <f>IF(NOT(A196=0),A196,A195)+1</f>
+        <v>179</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>257</v>
@@ -5758,8 +5753,8 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
-        <f t="shared" si="4"/>
-        <v>183</v>
+        <f>IF(NOT(A197=0),A197,A196)+1</f>
+        <v>180</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>19</v>
@@ -5767,8 +5762,8 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
-        <f t="shared" si="4"/>
-        <v>184</v>
+        <f>IF(NOT(A198=0),A198,A197)+1</f>
+        <v>181</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>18</v>
@@ -5776,8 +5771,8 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
-        <f t="shared" si="4"/>
-        <v>185</v>
+        <f>IF(NOT(A199=0),A199,A198)+1</f>
+        <v>182</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>323</v>
@@ -5785,8 +5780,8 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
-        <f t="shared" si="4"/>
-        <v>186</v>
+        <f>IF(NOT(A200=0),A200,A199)+1</f>
+        <v>183</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>17</v>
@@ -5794,8 +5789,8 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
-        <f t="shared" si="4"/>
-        <v>187</v>
+        <f>IF(NOT(A201=0),A201,A200)+1</f>
+        <v>184</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>303</v>
@@ -5803,8 +5798,8 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
-        <f t="shared" si="4"/>
-        <v>188</v>
+        <f>IF(NOT(A202=0),A202,A201)+1</f>
+        <v>185</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>68</v>
@@ -5812,8 +5807,8 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
-        <f t="shared" si="4"/>
-        <v>189</v>
+        <f>IF(NOT(A203=0),A203,A202)+1</f>
+        <v>186</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>281</v>
@@ -5821,8 +5816,8 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
-        <f t="shared" si="4"/>
-        <v>190</v>
+        <f>IF(NOT(A204=0),A204,A203)+1</f>
+        <v>187</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>65</v>
@@ -5830,8 +5825,8 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
-        <f t="shared" si="4"/>
-        <v>191</v>
+        <f>IF(NOT(A205=0),A205,A204)+1</f>
+        <v>188</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>9</v>
@@ -5839,8 +5834,8 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
-        <f t="shared" si="4"/>
-        <v>192</v>
+        <f>IF(NOT(A206=0),A206,A205)+1</f>
+        <v>189</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>1</v>
@@ -5848,8 +5843,8 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
-        <f t="shared" si="4"/>
-        <v>193</v>
+        <f>IF(NOT(A207=0),A207,A206)+1</f>
+        <v>190</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>25</v>
@@ -5857,8 +5852,8 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
-        <f t="shared" si="4"/>
-        <v>194</v>
+        <f>IF(NOT(A208=0),A208,A207)+1</f>
+        <v>191</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>46</v>
@@ -5866,8 +5861,8 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
-        <f t="shared" si="4"/>
-        <v>195</v>
+        <f>IF(NOT(A209=0),A209,A208)+1</f>
+        <v>192</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>59</v>
@@ -5875,8 +5870,8 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
-        <f t="shared" si="4"/>
-        <v>196</v>
+        <f>IF(NOT(A210=0),A210,A209)+1</f>
+        <v>193</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>261</v>
@@ -5884,8 +5879,8 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
-        <f t="shared" si="4"/>
-        <v>197</v>
+        <f>IF(NOT(A211=0),A211,A210)+1</f>
+        <v>194</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>258</v>
@@ -5893,8 +5888,8 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
-        <f t="shared" si="4"/>
-        <v>198</v>
+        <f>IF(NOT(A212=0),A212,A211)+1</f>
+        <v>195</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>120</v>
@@ -5902,8 +5897,8 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
-        <f t="shared" si="4"/>
-        <v>199</v>
+        <f>IF(NOT(A213=0),A213,A212)+1</f>
+        <v>196</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>338</v>
@@ -5911,8 +5906,8 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
-        <f t="shared" si="4"/>
-        <v>200</v>
+        <f>IF(NOT(A214=0),A214,A213)+1</f>
+        <v>197</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>158</v>
@@ -5920,8 +5915,8 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
-        <f t="shared" si="4"/>
-        <v>201</v>
+        <f>IF(NOT(A215=0),A215,A214)+1</f>
+        <v>198</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>164</v>
@@ -5929,8 +5924,8 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
-        <f t="shared" si="4"/>
-        <v>202</v>
+        <f>IF(NOT(A216=0),A216,A215)+1</f>
+        <v>199</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>213</v>
@@ -5938,8 +5933,8 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
-        <f t="shared" si="4"/>
-        <v>203</v>
+        <f>IF(NOT(A217=0),A217,A216)+1</f>
+        <v>200</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>159</v>
@@ -5947,8 +5942,8 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
-        <f t="shared" si="4"/>
-        <v>204</v>
+        <f>IF(NOT(A218=0),A218,A217)+1</f>
+        <v>201</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>199</v>
@@ -5956,8 +5951,8 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
-        <f t="shared" si="4"/>
-        <v>205</v>
+        <f>IF(NOT(A219=0),A219,A218)+1</f>
+        <v>202</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>203</v>
@@ -5965,8 +5960,8 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
-        <f t="shared" si="4"/>
-        <v>206</v>
+        <f>IF(NOT(A220=0),A220,A219)+1</f>
+        <v>203</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>314</v>
@@ -5974,8 +5969,8 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
-        <f t="shared" si="4"/>
-        <v>207</v>
+        <f>IF(NOT(A221=0),A221,A220)+1</f>
+        <v>204</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>313</v>
@@ -5983,8 +5978,8 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
-        <f t="shared" ref="A223:A286" si="5">IF(NOT(A222=0),A222,A221)+1</f>
-        <v>208</v>
+        <f>IF(NOT(A222=0),A222,A221)+1</f>
+        <v>205</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>48</v>
@@ -5992,8 +5987,8 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
-        <f t="shared" si="5"/>
-        <v>209</v>
+        <f>IF(NOT(A223=0),A223,A222)+1</f>
+        <v>206</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>146</v>
@@ -6001,8 +5996,8 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
-        <f t="shared" si="5"/>
-        <v>210</v>
+        <f>IF(NOT(A224=0),A224,A223)+1</f>
+        <v>207</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>146</v>
@@ -6010,8 +6005,8 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
-        <f t="shared" si="5"/>
-        <v>211</v>
+        <f>IF(NOT(A225=0),A225,A224)+1</f>
+        <v>208</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>67</v>
@@ -6019,8 +6014,8 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
-        <f t="shared" si="5"/>
-        <v>212</v>
+        <f>IF(NOT(A226=0),A226,A225)+1</f>
+        <v>209</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>299</v>
@@ -6028,8 +6023,8 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
-        <f t="shared" si="5"/>
-        <v>213</v>
+        <f>IF(NOT(A227=0),A227,A226)+1</f>
+        <v>210</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>298</v>
@@ -6037,8 +6032,8 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
-        <f t="shared" si="5"/>
-        <v>214</v>
+        <f>IF(NOT(A228=0),A228,A227)+1</f>
+        <v>211</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>342</v>
@@ -6046,8 +6041,8 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
-        <f t="shared" si="5"/>
-        <v>215</v>
+        <f>IF(NOT(A229=0),A229,A228)+1</f>
+        <v>212</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>162</v>
@@ -6055,8 +6050,8 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
-        <f t="shared" si="5"/>
-        <v>216</v>
+        <f>IF(NOT(A230=0),A230,A229)+1</f>
+        <v>213</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>335</v>
@@ -6064,8 +6059,8 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
-        <f t="shared" si="5"/>
-        <v>217</v>
+        <f>IF(NOT(A231=0),A231,A230)+1</f>
+        <v>214</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>310</v>
@@ -6073,8 +6068,8 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
-        <f t="shared" si="5"/>
-        <v>218</v>
+        <f>IF(NOT(A232=0),A232,A231)+1</f>
+        <v>215</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>22</v>
@@ -6082,8 +6077,8 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
-        <f t="shared" si="5"/>
-        <v>219</v>
+        <f>IF(NOT(A233=0),A233,A232)+1</f>
+        <v>216</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>182</v>
@@ -6091,8 +6086,8 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
-        <f t="shared" si="5"/>
-        <v>220</v>
+        <f>IF(NOT(A234=0),A234,A233)+1</f>
+        <v>217</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>220</v>
@@ -6100,8 +6095,8 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
-        <f t="shared" si="5"/>
-        <v>221</v>
+        <f>IF(NOT(A235=0),A235,A234)+1</f>
+        <v>218</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>332</v>
@@ -6109,8 +6104,8 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
-        <f t="shared" si="5"/>
-        <v>222</v>
+        <f>IF(NOT(A236=0),A236,A235)+1</f>
+        <v>219</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>206</v>
@@ -6118,8 +6113,8 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
-        <f t="shared" si="5"/>
-        <v>223</v>
+        <f>IF(NOT(A237=0),A237,A236)+1</f>
+        <v>220</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>181</v>
@@ -6127,8 +6122,8 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
-        <f t="shared" si="5"/>
-        <v>224</v>
+        <f>IF(NOT(A238=0),A238,A237)+1</f>
+        <v>221</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>347</v>
@@ -6136,8 +6131,8 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
-        <f t="shared" si="5"/>
-        <v>225</v>
+        <f>IF(NOT(A239=0),A239,A238)+1</f>
+        <v>222</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>304</v>
@@ -6145,8 +6140,8 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
-        <f t="shared" si="5"/>
-        <v>226</v>
+        <f>IF(NOT(A240=0),A240,A239)+1</f>
+        <v>223</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>85</v>
@@ -6154,8 +6149,8 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
-        <f t="shared" si="5"/>
-        <v>227</v>
+        <f>IF(NOT(A241=0),A241,A240)+1</f>
+        <v>224</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>85</v>
@@ -6163,8 +6158,8 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
-        <f t="shared" si="5"/>
-        <v>228</v>
+        <f>IF(NOT(A242=0),A242,A241)+1</f>
+        <v>225</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>334</v>
@@ -6172,8 +6167,8 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
-        <f t="shared" si="5"/>
-        <v>229</v>
+        <f>IF(NOT(A243=0),A243,A242)+1</f>
+        <v>226</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>291</v>
@@ -6181,8 +6176,8 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
-        <f t="shared" si="5"/>
-        <v>230</v>
+        <f>IF(NOT(A244=0),A244,A243)+1</f>
+        <v>227</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>129</v>
@@ -6190,8 +6185,8 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
-        <f t="shared" si="5"/>
-        <v>231</v>
+        <f>IF(NOT(A245=0),A245,A244)+1</f>
+        <v>228</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>252</v>
@@ -6199,8 +6194,8 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
-        <f t="shared" si="5"/>
-        <v>232</v>
+        <f>IF(NOT(A246=0),A246,A245)+1</f>
+        <v>229</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>241</v>
@@ -6208,8 +6203,8 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
-        <f t="shared" si="5"/>
-        <v>233</v>
+        <f>IF(NOT(A247=0),A247,A246)+1</f>
+        <v>230</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>211</v>
@@ -6217,8 +6212,8 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
-        <f t="shared" si="5"/>
-        <v>234</v>
+        <f>IF(NOT(A248=0),A248,A247)+1</f>
+        <v>231</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>345</v>
@@ -6226,8 +6221,8 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
-        <f t="shared" si="5"/>
-        <v>235</v>
+        <f>IF(NOT(A249=0),A249,A248)+1</f>
+        <v>232</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>294</v>
@@ -6235,8 +6230,8 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
-        <f t="shared" si="5"/>
-        <v>236</v>
+        <f>IF(NOT(A250=0),A250,A249)+1</f>
+        <v>233</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>121</v>
@@ -6244,8 +6239,8 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
-        <f t="shared" si="5"/>
-        <v>237</v>
+        <f>IF(NOT(A251=0),A251,A250)+1</f>
+        <v>234</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>185</v>
@@ -6253,8 +6248,8 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
-        <f t="shared" si="5"/>
-        <v>238</v>
+        <f>IF(NOT(A252=0),A252,A251)+1</f>
+        <v>235</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>193</v>
@@ -6262,8 +6257,8 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
-        <f t="shared" si="5"/>
-        <v>239</v>
+        <f>IF(NOT(A253=0),A253,A252)+1</f>
+        <v>236</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>224</v>
@@ -6271,8 +6266,8 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
-        <f t="shared" si="5"/>
-        <v>240</v>
+        <f>IF(NOT(A254=0),A254,A253)+1</f>
+        <v>237</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>20</v>
@@ -6280,8 +6275,8 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
-        <f t="shared" si="5"/>
-        <v>241</v>
+        <f>IF(NOT(A255=0),A255,A254)+1</f>
+        <v>238</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>256</v>
@@ -6289,8 +6284,8 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
-        <f t="shared" si="5"/>
-        <v>242</v>
+        <f>IF(NOT(A256=0),A256,A255)+1</f>
+        <v>239</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>250</v>
@@ -6298,8 +6293,8 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
-        <f t="shared" si="5"/>
-        <v>243</v>
+        <f>IF(NOT(A257=0),A257,A256)+1</f>
+        <v>240</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>208</v>
@@ -6307,8 +6302,8 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
-        <f t="shared" si="5"/>
-        <v>244</v>
+        <f>IF(NOT(A258=0),A258,A257)+1</f>
+        <v>241</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>306</v>
@@ -6316,8 +6311,8 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
-        <f t="shared" si="5"/>
-        <v>245</v>
+        <f>IF(NOT(A259=0),A259,A258)+1</f>
+        <v>242</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>114</v>
@@ -6325,8 +6320,8 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
-        <f t="shared" si="5"/>
-        <v>246</v>
+        <f>IF(NOT(A260=0),A260,A259)+1</f>
+        <v>243</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>305</v>
@@ -6334,8 +6329,8 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
-        <f t="shared" si="5"/>
-        <v>247</v>
+        <f>IF(NOT(A261=0),A261,A260)+1</f>
+        <v>244</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>111</v>
@@ -6343,8 +6338,8 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
-        <f t="shared" si="5"/>
-        <v>248</v>
+        <f>IF(NOT(A262=0),A262,A261)+1</f>
+        <v>245</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>12</v>
@@ -6352,8 +6347,8 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
-        <f t="shared" si="5"/>
-        <v>249</v>
+        <f>IF(NOT(A263=0),A263,A262)+1</f>
+        <v>246</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>285</v>
@@ -6361,8 +6356,8 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
-        <f t="shared" si="5"/>
-        <v>250</v>
+        <f>IF(NOT(A264=0),A264,A263)+1</f>
+        <v>247</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>309</v>
@@ -6370,8 +6365,8 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
-        <f t="shared" si="5"/>
-        <v>251</v>
+        <f>IF(NOT(A265=0),A265,A264)+1</f>
+        <v>248</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>337</v>
@@ -6379,8 +6374,8 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
-        <f t="shared" si="5"/>
-        <v>252</v>
+        <f>IF(NOT(A266=0),A266,A265)+1</f>
+        <v>249</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>207</v>
@@ -6388,8 +6383,8 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
-        <f t="shared" si="5"/>
-        <v>253</v>
+        <f>IF(NOT(A267=0),A267,A266)+1</f>
+        <v>250</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>179</v>
@@ -6397,8 +6392,8 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
-        <f t="shared" si="5"/>
-        <v>254</v>
+        <f>IF(NOT(A268=0),A268,A267)+1</f>
+        <v>251</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>21</v>
@@ -6406,8 +6401,8 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
-        <f t="shared" si="5"/>
-        <v>255</v>
+        <f>IF(NOT(A269=0),A269,A268)+1</f>
+        <v>252</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>318</v>
@@ -6415,8 +6410,8 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
-        <f t="shared" si="5"/>
-        <v>256</v>
+        <f>IF(NOT(A270=0),A270,A269)+1</f>
+        <v>253</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>296</v>
@@ -6424,8 +6419,8 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
-        <f t="shared" si="5"/>
-        <v>257</v>
+        <f>IF(NOT(A271=0),A271,A270)+1</f>
+        <v>254</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>80</v>
@@ -6433,8 +6428,8 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
-        <f t="shared" si="5"/>
-        <v>258</v>
+        <f>IF(NOT(A272=0),A272,A271)+1</f>
+        <v>255</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>166</v>
@@ -6442,8 +6437,8 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
-        <f t="shared" si="5"/>
-        <v>259</v>
+        <f>IF(NOT(A273=0),A273,A272)+1</f>
+        <v>256</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>196</v>
@@ -6451,8 +6446,8 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
-        <f t="shared" si="5"/>
-        <v>260</v>
+        <f>IF(NOT(A274=0),A274,A273)+1</f>
+        <v>257</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>194</v>
@@ -6460,8 +6455,8 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
-        <f t="shared" si="5"/>
-        <v>261</v>
+        <f>IF(NOT(A275=0),A275,A274)+1</f>
+        <v>258</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>60</v>
@@ -6469,8 +6464,8 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
-        <f t="shared" si="5"/>
-        <v>262</v>
+        <f>IF(NOT(A276=0),A276,A275)+1</f>
+        <v>259</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>130</v>
@@ -6478,8 +6473,8 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
-        <f t="shared" si="5"/>
-        <v>263</v>
+        <f>IF(NOT(A277=0),A277,A276)+1</f>
+        <v>260</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>74</v>
@@ -6487,8 +6482,8 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
-        <f t="shared" si="5"/>
-        <v>264</v>
+        <f>IF(NOT(A278=0),A278,A277)+1</f>
+        <v>261</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>212</v>
@@ -6496,8 +6491,8 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
-        <f t="shared" si="5"/>
-        <v>265</v>
+        <f>IF(NOT(A279=0),A279,A278)+1</f>
+        <v>262</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>150</v>
@@ -6505,8 +6500,8 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
-        <f t="shared" si="5"/>
-        <v>266</v>
+        <f>IF(NOT(A280=0),A280,A279)+1</f>
+        <v>263</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>279</v>
@@ -6514,8 +6509,8 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
-        <f t="shared" si="5"/>
-        <v>267</v>
+        <f>IF(NOT(A281=0),A281,A280)+1</f>
+        <v>264</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>63</v>
@@ -6523,8 +6518,8 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
-        <f t="shared" si="5"/>
-        <v>268</v>
+        <f>IF(NOT(A282=0),A282,A281)+1</f>
+        <v>265</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>64</v>
@@ -6532,8 +6527,8 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
-        <f t="shared" si="5"/>
-        <v>269</v>
+        <f>IF(NOT(A283=0),A283,A282)+1</f>
+        <v>266</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>64</v>
@@ -6541,8 +6536,8 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
-        <f t="shared" si="5"/>
-        <v>270</v>
+        <f>IF(NOT(A284=0),A284,A283)+1</f>
+        <v>267</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>180</v>
@@ -6550,8 +6545,8 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
-        <f t="shared" si="5"/>
-        <v>271</v>
+        <f>IF(NOT(A285=0),A285,A284)+1</f>
+        <v>268</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>225</v>
@@ -6559,8 +6554,8 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
-        <f t="shared" ref="A287:A350" si="6">IF(NOT(A286=0),A286,A285)+1</f>
-        <v>272</v>
+        <f>IF(NOT(A286=0),A286,A285)+1</f>
+        <v>269</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>269</v>
@@ -6568,8 +6563,8 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
-        <f t="shared" si="6"/>
-        <v>273</v>
+        <f>IF(NOT(A287=0),A287,A286)+1</f>
+        <v>270</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>267</v>
@@ -6577,8 +6572,8 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
-        <f t="shared" si="6"/>
-        <v>274</v>
+        <f>IF(NOT(A288=0),A288,A287)+1</f>
+        <v>271</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>268</v>
@@ -6586,8 +6581,8 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
-        <f t="shared" si="6"/>
-        <v>275</v>
+        <f>IF(NOT(A289=0),A289,A288)+1</f>
+        <v>272</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>265</v>
@@ -6595,8 +6590,8 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
-        <f t="shared" si="6"/>
-        <v>276</v>
+        <f>IF(NOT(A290=0),A290,A289)+1</f>
+        <v>273</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>56</v>
@@ -6604,8 +6599,8 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
-        <f t="shared" si="6"/>
-        <v>277</v>
+        <f>IF(NOT(A291=0),A291,A290)+1</f>
+        <v>274</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>82</v>
@@ -6613,8 +6608,8 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
-        <f t="shared" si="6"/>
-        <v>278</v>
+        <f>IF(NOT(A292=0),A292,A291)+1</f>
+        <v>275</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>51</v>
@@ -6622,8 +6617,8 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
-        <f t="shared" si="6"/>
-        <v>279</v>
+        <f>IF(NOT(A293=0),A293,A292)+1</f>
+        <v>276</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>105</v>
@@ -6631,8 +6626,8 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
-        <f t="shared" si="6"/>
-        <v>280</v>
+        <f>IF(NOT(A294=0),A294,A293)+1</f>
+        <v>277</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>105</v>
@@ -6640,8 +6635,8 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
-        <f t="shared" si="6"/>
-        <v>281</v>
+        <f>IF(NOT(A295=0),A295,A294)+1</f>
+        <v>278</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>204</v>
@@ -6649,8 +6644,8 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
-        <f t="shared" si="6"/>
-        <v>282</v>
+        <f>IF(NOT(A296=0),A296,A295)+1</f>
+        <v>279</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>246</v>
@@ -6658,8 +6653,8 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
-        <f t="shared" si="6"/>
-        <v>283</v>
+        <f>IF(NOT(A297=0),A297,A296)+1</f>
+        <v>280</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>118</v>
@@ -6667,8 +6662,8 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
-        <f t="shared" si="6"/>
-        <v>284</v>
+        <f>IF(NOT(A298=0),A298,A297)+1</f>
+        <v>281</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>209</v>
@@ -6676,8 +6671,8 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
-        <f t="shared" si="6"/>
-        <v>285</v>
+        <f>IF(NOT(A299=0),A299,A298)+1</f>
+        <v>282</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>108</v>
@@ -6685,8 +6680,8 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
-        <f t="shared" si="6"/>
-        <v>286</v>
+        <f>IF(NOT(A300=0),A300,A299)+1</f>
+        <v>283</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>175</v>
@@ -6694,8 +6689,8 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
-        <f t="shared" si="6"/>
-        <v>287</v>
+        <f>IF(NOT(A301=0),A301,A300)+1</f>
+        <v>284</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>123</v>
@@ -6703,8 +6698,8 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
-        <f t="shared" si="6"/>
-        <v>288</v>
+        <f>IF(NOT(A302=0),A302,A301)+1</f>
+        <v>285</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>103</v>
@@ -6712,8 +6707,8 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
-        <f t="shared" si="6"/>
-        <v>289</v>
+        <f>IF(NOT(A303=0),A303,A302)+1</f>
+        <v>286</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>103</v>
@@ -6721,8 +6716,8 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
-        <f t="shared" si="6"/>
-        <v>290</v>
+        <f>IF(NOT(A304=0),A304,A303)+1</f>
+        <v>287</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>153</v>
@@ -6730,8 +6725,8 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
-        <f t="shared" si="6"/>
-        <v>291</v>
+        <f>IF(NOT(A305=0),A305,A304)+1</f>
+        <v>288</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>216</v>
@@ -6739,8 +6734,8 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
-        <f t="shared" si="6"/>
-        <v>292</v>
+        <f>IF(NOT(A306=0),A306,A305)+1</f>
+        <v>289</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>295</v>
@@ -6748,8 +6743,8 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
-        <f t="shared" si="6"/>
-        <v>293</v>
+        <f>IF(NOT(A307=0),A307,A306)+1</f>
+        <v>290</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>201</v>
@@ -6757,8 +6752,8 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
-        <f t="shared" si="6"/>
-        <v>294</v>
+        <f>IF(NOT(A308=0),A308,A307)+1</f>
+        <v>291</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>23</v>
@@ -6766,8 +6761,8 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
-        <f t="shared" si="6"/>
-        <v>295</v>
+        <f>IF(NOT(A309=0),A309,A308)+1</f>
+        <v>292</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>161</v>
@@ -6775,8 +6770,8 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
-        <f t="shared" si="6"/>
-        <v>296</v>
+        <f>IF(NOT(A310=0),A310,A309)+1</f>
+        <v>293</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>160</v>
@@ -6784,8 +6779,8 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
-        <f t="shared" si="6"/>
-        <v>297</v>
+        <f>IF(NOT(A311=0),A311,A310)+1</f>
+        <v>294</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>349</v>
@@ -6793,8 +6788,8 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
-        <f t="shared" si="6"/>
-        <v>298</v>
+        <f>IF(NOT(A312=0),A312,A311)+1</f>
+        <v>295</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>286</v>
@@ -6802,8 +6797,8 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
-        <f t="shared" si="6"/>
-        <v>299</v>
+        <f>IF(NOT(A313=0),A313,A312)+1</f>
+        <v>296</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>344</v>
@@ -6811,8 +6806,8 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
-        <f t="shared" si="6"/>
-        <v>300</v>
+        <f>IF(NOT(A314=0),A314,A313)+1</f>
+        <v>297</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>117</v>
@@ -6820,8 +6815,8 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
-        <f t="shared" si="6"/>
-        <v>301</v>
+        <f>IF(NOT(A315=0),A315,A314)+1</f>
+        <v>298</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>331</v>
@@ -6829,8 +6824,8 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
-        <f t="shared" si="6"/>
-        <v>302</v>
+        <f>IF(NOT(A316=0),A316,A315)+1</f>
+        <v>299</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>54</v>
@@ -6838,8 +6833,8 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
-        <f t="shared" si="6"/>
-        <v>303</v>
+        <f>IF(NOT(A317=0),A317,A316)+1</f>
+        <v>300</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>115</v>
@@ -6847,8 +6842,8 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
-        <f t="shared" si="6"/>
-        <v>304</v>
+        <f>IF(NOT(A318=0),A318,A317)+1</f>
+        <v>301</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>76</v>
@@ -6856,8 +6851,8 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
-        <f t="shared" si="6"/>
-        <v>305</v>
+        <f>IF(NOT(A319=0),A319,A318)+1</f>
+        <v>302</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>157</v>
@@ -6865,8 +6860,8 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
-        <f t="shared" si="6"/>
-        <v>306</v>
+        <f>IF(NOT(A320=0),A320,A319)+1</f>
+        <v>303</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>154</v>
@@ -6874,8 +6869,8 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
-        <f t="shared" si="6"/>
-        <v>307</v>
+        <f>IF(NOT(A321=0),A321,A320)+1</f>
+        <v>304</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>163</v>
@@ -6883,8 +6878,8 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
-        <f t="shared" si="6"/>
-        <v>308</v>
+        <f>IF(NOT(A322=0),A322,A321)+1</f>
+        <v>305</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>272</v>
@@ -6892,8 +6887,8 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
-        <f t="shared" si="6"/>
-        <v>309</v>
+        <f>IF(NOT(A323=0),A323,A322)+1</f>
+        <v>306</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>351</v>
@@ -6901,8 +6896,8 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
-        <f t="shared" si="6"/>
-        <v>310</v>
+        <f>IF(NOT(A324=0),A324,A323)+1</f>
+        <v>307</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>262</v>
@@ -6910,8 +6905,8 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
-        <f t="shared" si="6"/>
-        <v>311</v>
+        <f>IF(NOT(A325=0),A325,A324)+1</f>
+        <v>308</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>259</v>
@@ -6919,8 +6914,8 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
-        <f t="shared" si="6"/>
-        <v>312</v>
+        <f>IF(NOT(A326=0),A326,A325)+1</f>
+        <v>309</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>249</v>
@@ -6928,8 +6923,8 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
-        <f t="shared" si="6"/>
-        <v>313</v>
+        <f>IF(NOT(A327=0),A327,A326)+1</f>
+        <v>310</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>275</v>
@@ -6937,8 +6932,8 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
-        <f t="shared" si="6"/>
-        <v>314</v>
+        <f>IF(NOT(A328=0),A328,A327)+1</f>
+        <v>311</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>236</v>
@@ -6946,8 +6941,8 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
-        <f t="shared" si="6"/>
-        <v>315</v>
+        <f>IF(NOT(A329=0),A329,A328)+1</f>
+        <v>312</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>243</v>
@@ -6955,8 +6950,8 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
-        <f t="shared" si="6"/>
-        <v>316</v>
+        <f>IF(NOT(A330=0),A330,A329)+1</f>
+        <v>313</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>184</v>
@@ -6964,8 +6959,8 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
-        <f t="shared" si="6"/>
-        <v>317</v>
+        <f>IF(NOT(A331=0),A331,A330)+1</f>
+        <v>314</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>336</v>
@@ -6973,8 +6968,8 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
-        <f t="shared" si="6"/>
-        <v>318</v>
+        <f>IF(NOT(A332=0),A332,A331)+1</f>
+        <v>315</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>308</v>
@@ -6982,8 +6977,8 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
-        <f t="shared" si="6"/>
-        <v>319</v>
+        <f>IF(NOT(A333=0),A333,A332)+1</f>
+        <v>316</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>210</v>
@@ -6991,8 +6986,8 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
-        <f t="shared" si="6"/>
-        <v>320</v>
+        <f>IF(NOT(A334=0),A334,A333)+1</f>
+        <v>317</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>45</v>
@@ -7000,8 +6995,8 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
-        <f t="shared" si="6"/>
-        <v>321</v>
+        <f>IF(NOT(A335=0),A335,A334)+1</f>
+        <v>318</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>289</v>
@@ -7009,8 +7004,8 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
-        <f t="shared" si="6"/>
-        <v>322</v>
+        <f>IF(NOT(A336=0),A336,A335)+1</f>
+        <v>319</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>264</v>
@@ -7018,8 +7013,8 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
-        <f t="shared" si="6"/>
-        <v>323</v>
+        <f>IF(NOT(A337=0),A337,A336)+1</f>
+        <v>320</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>330</v>
@@ -7027,8 +7022,8 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
-        <f t="shared" si="6"/>
-        <v>324</v>
+        <f>IF(NOT(A338=0),A338,A337)+1</f>
+        <v>321</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>329</v>
@@ -7036,8 +7031,8 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
-        <f t="shared" si="6"/>
-        <v>325</v>
+        <f>IF(NOT(A339=0),A339,A338)+1</f>
+        <v>322</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>328</v>
@@ -7045,8 +7040,8 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
-        <f t="shared" si="6"/>
-        <v>326</v>
+        <f>IF(NOT(A340=0),A340,A339)+1</f>
+        <v>323</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>327</v>
@@ -7054,8 +7049,8 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
-        <f t="shared" si="6"/>
-        <v>327</v>
+        <f>IF(NOT(A341=0),A341,A340)+1</f>
+        <v>324</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>326</v>
@@ -7063,8 +7058,8 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
-        <f t="shared" si="6"/>
-        <v>328</v>
+        <f>IF(NOT(A342=0),A342,A341)+1</f>
+        <v>325</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>325</v>
@@ -7072,8 +7067,8 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
-        <f t="shared" si="6"/>
-        <v>329</v>
+        <f>IF(NOT(A343=0),A343,A342)+1</f>
+        <v>326</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>131</v>
@@ -7081,8 +7076,8 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
-        <f t="shared" si="6"/>
-        <v>330</v>
+        <f>IF(NOT(A344=0),A344,A343)+1</f>
+        <v>327</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>91</v>
@@ -7090,8 +7085,8 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
-        <f t="shared" si="6"/>
-        <v>331</v>
+        <f>IF(NOT(A345=0),A345,A344)+1</f>
+        <v>328</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>278</v>
@@ -7099,8 +7094,8 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
-        <f t="shared" si="6"/>
-        <v>332</v>
+        <f>IF(NOT(A346=0),A346,A345)+1</f>
+        <v>329</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>104</v>
@@ -7108,8 +7103,8 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
-        <f t="shared" si="6"/>
-        <v>333</v>
+        <f>IF(NOT(A347=0),A347,A346)+1</f>
+        <v>330</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>214</v>
@@ -7117,8 +7112,8 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
-        <f t="shared" si="6"/>
-        <v>334</v>
+        <f>IF(NOT(A348=0),A348,A347)+1</f>
+        <v>331</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>78</v>
@@ -7126,8 +7121,8 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
-        <f t="shared" si="6"/>
-        <v>335</v>
+        <f>IF(NOT(A349=0),A349,A348)+1</f>
+        <v>332</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>254</v>
@@ -7135,8 +7130,8 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
-        <f t="shared" ref="A351:A414" si="7">IF(NOT(A350=0),A350,A349)+1</f>
-        <v>336</v>
+        <f>IF(NOT(A350=0),A350,A349)+1</f>
+        <v>333</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>24</v>
@@ -7144,8 +7139,8 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
-        <f t="shared" si="7"/>
-        <v>337</v>
+        <f>IF(NOT(A351=0),A351,A350)+1</f>
+        <v>334</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>288</v>
@@ -7153,8 +7148,8 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
-        <f t="shared" si="7"/>
-        <v>338</v>
+        <f>IF(NOT(A352=0),A352,A351)+1</f>
+        <v>335</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>274</v>
@@ -7162,8 +7157,8 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
-        <f t="shared" si="7"/>
-        <v>339</v>
+        <f>IF(NOT(A353=0),A353,A352)+1</f>
+        <v>336</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>274</v>
@@ -7171,8 +7166,8 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
-        <f t="shared" si="7"/>
-        <v>340</v>
+        <f>IF(NOT(A354=0),A354,A353)+1</f>
+        <v>337</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>98</v>
@@ -7180,8 +7175,8 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
-        <f t="shared" si="7"/>
-        <v>341</v>
+        <f>IF(NOT(A355=0),A355,A354)+1</f>
+        <v>338</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>280</v>
@@ -7189,8 +7184,8 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
-        <f t="shared" si="7"/>
-        <v>342</v>
+        <f>IF(NOT(A356=0),A356,A355)+1</f>
+        <v>339</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>170</v>
@@ -7198,8 +7193,8 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
-        <f t="shared" si="7"/>
-        <v>343</v>
+        <f>IF(NOT(A357=0),A357,A356)+1</f>
+        <v>340</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>174</v>
@@ -7207,8 +7202,8 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
-        <f t="shared" si="7"/>
-        <v>344</v>
+        <f>IF(NOT(A358=0),A358,A357)+1</f>
+        <v>341</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>30</v>
@@ -7216,8 +7211,8 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
-        <f t="shared" si="7"/>
-        <v>345</v>
+        <f>IF(NOT(A359=0),A359,A358)+1</f>
+        <v>342</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>353</v>
@@ -7225,8 +7220,8 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
-        <f t="shared" si="7"/>
-        <v>346</v>
+        <f>IF(NOT(A360=0),A360,A359)+1</f>
+        <v>343</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>287</v>
@@ -7234,8 +7229,8 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
-        <f t="shared" si="7"/>
-        <v>347</v>
+        <f>IF(NOT(A361=0),A361,A360)+1</f>
+        <v>344</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>277</v>
@@ -7243,8 +7238,8 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
-        <f t="shared" si="7"/>
-        <v>348</v>
+        <f>IF(NOT(A362=0),A362,A361)+1</f>
+        <v>345</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>266</v>
@@ -7252,8 +7247,8 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
-        <f t="shared" si="7"/>
-        <v>349</v>
+        <f>IF(NOT(A363=0),A363,A362)+1</f>
+        <v>346</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>33</v>
@@ -7261,8 +7256,8 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
-        <f t="shared" si="7"/>
-        <v>350</v>
+        <f>IF(NOT(A364=0),A364,A363)+1</f>
+        <v>347</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>133</v>
@@ -7270,8 +7265,8 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
-        <f t="shared" si="7"/>
-        <v>351</v>
+        <f>IF(NOT(A365=0),A365,A364)+1</f>
+        <v>348</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>35</v>
@@ -7279,8 +7274,8 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
-        <f t="shared" si="7"/>
-        <v>352</v>
+        <f>IF(NOT(A366=0),A366,A365)+1</f>
+        <v>349</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>135</v>
@@ -7288,8 +7283,8 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
-        <f t="shared" si="7"/>
-        <v>353</v>
+        <f>IF(NOT(A367=0),A367,A366)+1</f>
+        <v>350</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>228</v>
@@ -7297,8 +7292,8 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
-        <f t="shared" si="7"/>
-        <v>354</v>
+        <f>IF(NOT(A368=0),A368,A367)+1</f>
+        <v>351</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>233</v>
@@ -7306,8 +7301,8 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
-        <f t="shared" si="7"/>
-        <v>355</v>
+        <f>IF(NOT(A369=0),A369,A368)+1</f>
+        <v>352</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>57</v>
@@ -7315,8 +7310,8 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
-        <f t="shared" si="7"/>
-        <v>356</v>
+        <f>IF(NOT(A370=0),A370,A369)+1</f>
+        <v>353</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>237</v>
@@ -7324,8 +7319,8 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
-        <f t="shared" si="7"/>
-        <v>357</v>
+        <f>IF(NOT(A371=0),A371,A370)+1</f>
+        <v>354</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>357</v>
@@ -7333,8 +7328,8 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
-        <f t="shared" si="7"/>
-        <v>358</v>
+        <f>IF(NOT(A372=0),A372,A371)+1</f>
+        <v>355</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>356</v>
@@ -7342,8 +7337,8 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
-        <f t="shared" si="7"/>
-        <v>359</v>
+        <f>IF(NOT(A373=0),A373,A372)+1</f>
+        <v>356</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>355</v>
@@ -7351,8 +7346,8 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
-        <f t="shared" si="7"/>
-        <v>360</v>
+        <f>IF(NOT(A374=0),A374,A373)+1</f>
+        <v>357</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>354</v>
@@ -15288,13 +15283,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A125:B125"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A237:B237"/>
@@ -15311,6 +15299,13 @@
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ALGORITHMS_LIST.xlsx
+++ b/ALGORITHMS_LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0\Git\beginner-algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9799E215-0227-4172-B444-7A5B50B2C43C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727FC08A-7E2B-42D9-855C-04667D9A60D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F3AEC63A-3935-431B-9D94-C19A95072D1B}"/>
   </bookViews>
@@ -3981,7 +3981,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC73345-1EB4-493B-9D32-2379CC101C9C}">
   <dimension ref="A1:D375"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4010,7 +4012,7 @@
       </c>
       <c r="D2" s="8">
         <f ca="1">RANDBETWEEN(1,A375)</f>
-        <v>118</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4143,3214 +4145,3211 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>1</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <f>IF(NOT(A19=0),A19,#REF!)+1</f>
-        <v>2</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>137</v>
+        <v>0</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <f>IF(NOT(A20=0),A20,A19)+1</f>
-        <v>3</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>151</v>
+        <v>0</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <f>IF(NOT(A21=0),A21,A20)+1</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>173</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f>IF(NOT(A22=0),A22,A21)+1</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f>IF(NOT(A23=0),A23,A22)+1</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f>IF(NOT(A24=0),A24,A23)+1</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>343</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f>IF(NOT(A25=0),A25,A24)+1</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <f>IF(NOT(A26=0),A26,A25)+1</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>29</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <f>IF(NOT(A27=0),A27,A26)+1</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <f>IF(NOT(A28=0),A28,A27)+1</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>26</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <f>IF(NOT(A29=0),A29,A28)+1</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>16</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <f>IF(NOT(A30=0),A30,A29)+1</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <f>IF(NOT(A31=0),A31,A30)+1</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>3</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <f>IF(NOT(A32=0),A32,A31)+1</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <f>IF(NOT(A33=0),A33,A32)+1</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>124</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <f>IF(NOT(A34=0),A34,A33)+1</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <f>IF(NOT(A35=0),A35,A34)+1</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>302</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <f>IF(NOT(A36=0),A36,A35)+1</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>90</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <f>IF(NOT(A37=0),A37,A36)+1</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>235</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <f>IF(NOT(A38=0),A38,A37)+1</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>148</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <f>IF(NOT(A39=0),A39,A38)+1</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>300</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <f>IF(NOT(A40=0),A40,A39)+1</f>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <f>IF(NOT(A41=0),A41,A40)+1</f>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>293</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <f>IF(NOT(A42=0),A42,A41)+1</f>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>202</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <f>IF(NOT(A43=0),A43,A42)+1</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <f>IF(NOT(A44=0),A44,A43)+1</f>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>271</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <f>IF(NOT(A45=0),A45,A44)+1</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <f>IF(NOT(A46=0),A46,A45)+1</f>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <f>IF(NOT(A47=0),A47,A46)+1</f>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <f>IF(NOT(A48=0),A48,A47)+1</f>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <f>IF(NOT(A49=0),A49,A48)+1</f>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>358</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <f>IF(NOT(A50=0),A50,A49)+1</f>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>297</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <f>IF(NOT(A51=0),A51,A50)+1</f>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>260</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <f>IF(NOT(A52=0),A52,A51)+1</f>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>227</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <f>IF(NOT(A53=0),A53,A52)+1</f>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>255</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <f>IF(NOT(A54=0),A54,A53)+1</f>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <f>IF(NOT(A55=0),A55,A54)+1</f>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>147</v>
+        <v>302</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <f>IF(NOT(A56=0),A56,A55)+1</f>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <f>IF(NOT(A57=0),A57,A56)+1</f>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>292</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <f>IF(NOT(A58=0),A58,A57)+1</f>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>155</v>
+        <v>272</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <f>IF(NOT(A59=0),A59,A58)+1</f>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>2</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <f>IF(NOT(A60=0),A60,A59)+1</f>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>189</v>
+        <v>351</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <f>IF(NOT(A61=0),A61,A60)+1</f>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <f>IF(NOT(A62=0),A62,A61)+1</f>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>15</v>
+        <v>262</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <f>IF(NOT(A63=0),A63,A62)+1</f>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>8</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <f>IF(NOT(A64=0),A64,A63)+1</f>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <f>IF(NOT(A65=0),A65,A64)+1</f>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>34</v>
+        <v>301</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <f>IF(NOT(A66=0),A66,A65)+1</f>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>149</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <f>IF(NOT(A67=0),A67,A66)+1</f>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <f>IF(NOT(A68=0),A68,A67)+1</f>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <f>IF(NOT(A69=0),A69,A68)+1</f>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <f>IF(NOT(A70=0),A70,A69)+1</f>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>177</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <f>IF(NOT(A71=0),A71,A70)+1</f>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>188</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <f>IF(NOT(A72=0),A72,A71)+1</f>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>188</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <f>IF(NOT(A73=0),A73,A72)+1</f>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <f>IF(NOT(A74=0),A74,A73)+1</f>
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>282</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <f>IF(NOT(A75=0),A75,A74)+1</f>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <f>IF(NOT(A76=0),A76,A75)+1</f>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>53</v>
+        <v>336</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <f>IF(NOT(A77=0),A77,A76)+1</f>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>230</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <f>IF(NOT(A78=0),A78,A77)+1</f>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <f>IF(NOT(A79=0),A79,A78)+1</f>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <f>IF(NOT(A80=0),A80,A79)+1</f>
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <f>IF(NOT(A81=0),A81,A80)+1</f>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>324</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <f>IF(NOT(A82=0),A82,A81)+1</f>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <f>IF(NOT(A83=0),A83,A82)+1</f>
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>200</v>
+        <v>358</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <f>IF(NOT(A84=0),A84,A83)+1</f>
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>240</v>
+        <v>289</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <f>IF(NOT(A85=0),A85,A84)+1</f>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>245</v>
+        <v>297</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <f>IF(NOT(A86=0),A86,A85)+1</f>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>190</v>
+        <v>330</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <f>IF(NOT(A87=0),A87,A86)+1</f>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>190</v>
+        <v>260</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <f>IF(NOT(A88=0),A88,A87)+1</f>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>217</v>
+        <v>329</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <f>IF(NOT(A89=0),A89,A88)+1</f>
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>142</v>
+        <v>227</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <f>IF(NOT(A90=0),A90,A89)+1</f>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <f>IF(NOT(A91=0),A91,A90)+1</f>
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>321</v>
+        <v>255</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <f>IF(NOT(A92=0),A92,A91)+1</f>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <f>IF(NOT(A93=0),A93,A92)+1</f>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>319</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <f>IF(NOT(A94=0),A94,A93)+1</f>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>198</v>
+        <v>326</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <f>IF(NOT(A95=0),A95,A94)+1</f>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>50</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <f>IF(NOT(A96=0),A96,A95)+1</f>
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>128</v>
+        <v>325</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <f>IF(NOT(A97=0),A97,A95)+1</f>
-        <v>80</v>
+        <f>IF(NOT(A97=0),A97,A96)+1</f>
+        <v>77</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <f>IF(NOT(A98=0),A98,A97)+1</f>
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <f>IF(NOT(A99=0),A99,A98)+1</f>
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>156</v>
+        <v>292</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <f>IF(NOT(A100=0),A100,A99)+1</f>
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <f>IF(NOT(A101=0),A101,A100)+1</f>
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <f>IF(NOT(A102=0),A102,A101)+1</f>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>350</v>
+        <v>278</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <f>IF(NOT(A103=0),A103,A102)+1</f>
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>218</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <f>IF(NOT(A104=0),A104,A103)+1</f>
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>205</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <f>IF(NOT(A105=0),A105,A104)+1</f>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <f>IF(NOT(A106=0),A106,A105)+1</f>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>92</v>
+        <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <f>IF(NOT(A107=0),A107,A106)+1</f>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <f>IF(NOT(A108=0),A108,A107)+1</f>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <f>IF(NOT(A109=0),A109,A108)+1</f>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>140</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <f>IF(NOT(A110=0),A110,A109)+1</f>
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <f>IF(NOT(A111=0),A111,A110)+1</f>
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>141</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <f>IF(NOT(A112=0),A112,A111)+1</f>
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <f>IF(NOT(A113=0),A113,A112)+1</f>
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>352</v>
+        <v>283</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <f>IF(NOT(A114=0),A114,A113)+1</f>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <f>IF(NOT(A115=0),A115,A114)+1</f>
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <f>IF(NOT(A116=0),A116,A115)+1</f>
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>62</v>
+        <v>274</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <f>IF(NOT(A117=0),A117,A116)+1</f>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <f>IF(NOT(A118=0),A118,A117)+1</f>
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>61</v>
+        <v>274</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <f>IF(NOT(A119=0),A119,A118)+1</f>
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <f>IF(NOT(A120=0),A120,A119)+1</f>
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>253</v>
+        <v>98</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <f>IF(NOT(A121=0),A121,A120)+1</f>
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>39</v>
+        <v>273</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <f>IF(NOT(A122=0),A122,A121)+1</f>
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>55</v>
+        <v>280</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <f>IF(NOT(A123=0),A123,A122)+1</f>
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <f>IF(NOT(A124=0),A124,A123)+1</f>
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <f>IF(NOT(A125=0),A125,A124)+1</f>
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <f>IF(NOT(A126=0),A126,A125)+1</f>
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <f>IF(NOT(A127=0),A127,A126)+1</f>
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>86</v>
+        <v>188</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <f>IF(NOT(A128=0),A128,A127)+1</f>
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>232</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <f>IF(NOT(A129=0),A129,A128)+1</f>
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>333</v>
+        <v>188</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <f>IF(NOT(A130=0),A130,A129)+1</f>
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>178</v>
+        <v>353</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <f>IF(NOT(A131=0),A131,A130)+1</f>
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <f>IF(NOT(A132=0),A132,A131)+1</f>
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>242</v>
+        <v>287</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <f>IF(NOT(A133=0),A133,A132)+1</f>
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>38</v>
+        <v>282</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <f>IF(NOT(A134=0),A134,A133)+1</f>
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <f>IF(NOT(A135=0),A135,A134)+1</f>
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <f>IF(NOT(A136=0),A136,A135)+1</f>
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>143</v>
+        <v>266</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <f>IF(NOT(A137=0),A137,A136)+1</f>
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>251</v>
+        <v>53</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <f>IF(NOT(A138=0),A138,A137)+1</f>
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>234</v>
+        <v>33</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <f>IF(NOT(A139=0),A139,A138)+1</f>
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <f>IF(NOT(A140=0),A140,A139)+1</f>
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <f>IF(NOT(A141=0),A141,A140)+1</f>
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <f>IF(NOT(A142=0),A142,A141)+1</f>
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <f>IF(NOT(A143=0),A143,A142)+1</f>
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>239</v>
+        <v>44</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <f>IF(NOT(A144=0),A144,A143)+1</f>
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <f>IF(NOT(A145=0),A145,A144)+1</f>
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <f>IF(NOT(A146=0),A146,A145)+1</f>
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>69</v>
+        <v>228</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <f>IF(NOT(A147=0),A147,A146)+1</f>
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>93</v>
+        <v>324</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <f>IF(NOT(A148=0),A148,A147)+1</f>
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>109</v>
+        <v>233</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <f>IF(NOT(A149=0),A149,A148)+1</f>
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <f>IF(NOT(A150=0),A150,A149)+1</f>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <f>IF(NOT(A151=0),A151,A150)+1</f>
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>75</v>
+        <v>200</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <f>IF(NOT(A152=0),A152,A151)+1</f>
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>7</v>
+        <v>237</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <f>IF(NOT(A153=0),A153,A152)+1</f>
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>27</v>
+        <v>240</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <f>IF(NOT(A154=0),A154,A153)+1</f>
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>47</v>
+        <v>357</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <f>IF(NOT(A155=0),A155,A154)+1</f>
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>152</v>
+        <v>245</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <f>IF(NOT(A156=0),A156,A155)+1</f>
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>195</v>
+        <v>356</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <f>IF(NOT(A157=0),A157,A156)+1</f>
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>102</v>
+        <v>190</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <f>IF(NOT(A158=0),A158,A157)+1</f>
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>83</v>
+        <v>355</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <f>IF(NOT(A159=0),A159,A158)+1</f>
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>94</v>
+        <v>190</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <f>IF(NOT(A160=0),A160,A159)+1</f>
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>119</v>
+        <v>354</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <f>IF(NOT(A161=0),A161,A160)+1</f>
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>89</v>
+        <v>217</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <f>IF(NOT(A162=0),A162,A161)+1</f>
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>307</v>
+        <v>142</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <f>IF(NOT(A163=0),A163,A162)+1</f>
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>77</v>
+        <v>322</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <f>IF(NOT(A164=0),A164,A163)+1</f>
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>139</v>
+        <v>321</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <f>IF(NOT(A165=0),A165,A164)+1</f>
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>183</v>
+        <v>320</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <f>IF(NOT(A166=0),A166,A165)+1</f>
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>176</v>
+        <v>319</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <f>IF(NOT(A167=0),A167,A166)+1</f>
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <f>IF(NOT(A168=0),A168,A167)+1</f>
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>168</v>
+        <v>50</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <f>IF(NOT(A169=0),A169,A168)+1</f>
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>4</v>
+        <v>128</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
-        <f>IF(NOT(A170=0),A170,A169)+1</f>
-        <v>153</v>
+        <f>IF(NOT(A170=0),A170,A168)+1</f>
+        <v>150</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <f>IF(NOT(A171=0),A171,A170)+1</f>
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>270</v>
+        <v>49</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <f>IF(NOT(A172=0),A172,A171)+1</f>
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <f>IF(NOT(A173=0),A173,A172)+1</f>
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <f>IF(NOT(A174=0),A174,A173)+1</f>
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>346</v>
+        <v>138</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <f>IF(NOT(A175=0),A175,A174)+1</f>
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>72</v>
+        <v>350</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <f>IF(NOT(A176=0),A176,A175)+1</f>
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>125</v>
+        <v>218</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <f>IF(NOT(A177=0),A177,A176)+1</f>
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <f>IF(NOT(A178=0),A178,A177)+1</f>
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>73</v>
+        <v>223</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <f>IF(NOT(A179=0),A179,A178)+1</f>
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <f>IF(NOT(A180=0),A180,A179)+1</f>
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <f>IF(NOT(A181=0),A181,A180)+1</f>
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <f>IF(NOT(A182=0),A182,A181)+1</f>
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <f>IF(NOT(A183=0),A183,A182)+1</f>
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>348</v>
+        <v>197</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <f>IF(NOT(A184=0),A184,A183)+1</f>
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <f>IF(NOT(A185=0),A185,A184)+1</f>
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>340</v>
+        <v>187</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <f>IF(NOT(A186=0),A186,A185)+1</f>
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <f>IF(NOT(A187=0),A187,A186)+1</f>
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <f>IF(NOT(A188=0),A188,A187)+1</f>
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <f>IF(NOT(A189=0),A189,A188)+1</f>
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <f>IF(NOT(A190=0),A190,A189)+1</f>
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <f>IF(NOT(A191=0),A191,A190)+1</f>
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <f>IF(NOT(A192=0),A192,A191)+1</f>
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>136</v>
+        <v>276</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <f>IF(NOT(A193=0),A193,A192)+1</f>
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>312</v>
+        <v>253</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <f>IF(NOT(A194=0),A194,A193)+1</f>
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>311</v>
+        <v>39</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <f>IF(NOT(A195=0),A195,A194)+1</f>
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>311</v>
+        <v>55</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <f>IF(NOT(A196=0),A196,A195)+1</f>
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>257</v>
+        <v>43</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <f>IF(NOT(A197=0),A197,A196)+1</f>
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <f>IF(NOT(A198=0),A198,A197)+1</f>
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>18</v>
+        <v>191</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <f>IF(NOT(A199=0),A199,A198)+1</f>
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>323</v>
+        <v>87</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <f>IF(NOT(A200=0),A200,A199)+1</f>
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <f>IF(NOT(A201=0),A201,A200)+1</f>
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>303</v>
+        <v>232</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <f>IF(NOT(A202=0),A202,A201)+1</f>
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>68</v>
+        <v>333</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <f>IF(NOT(A203=0),A203,A202)+1</f>
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>281</v>
+        <v>178</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <f>IF(NOT(A204=0),A204,A203)+1</f>
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>65</v>
+        <v>247</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <f>IF(NOT(A205=0),A205,A204)+1</f>
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>9</v>
+        <v>242</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <f>IF(NOT(A206=0),A206,A205)+1</f>
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <f>IF(NOT(A207=0),A207,A206)+1</f>
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>25</v>
+        <v>231</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <f>IF(NOT(A208=0),A208,A207)+1</f>
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <f>IF(NOT(A209=0),A209,A208)+1</f>
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <f>IF(NOT(A210=0),A210,A209)+1</f>
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <f>IF(NOT(A211=0),A211,A210)+1</f>
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <f>IF(NOT(A212=0),A212,A211)+1</f>
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <f>IF(NOT(A213=0),A213,A212)+1</f>
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>338</v>
+        <v>171</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <f>IF(NOT(A214=0),A214,A213)+1</f>
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>158</v>
+        <v>238</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <f>IF(NOT(A215=0),A215,A214)+1</f>
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <f>IF(NOT(A216=0),A216,A215)+1</f>
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <f>IF(NOT(A217=0),A217,A216)+1</f>
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <f>IF(NOT(A218=0),A218,A217)+1</f>
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>199</v>
+        <v>69</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <f>IF(NOT(A219=0),A219,A218)+1</f>
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>203</v>
+        <v>69</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <f>IF(NOT(A220=0),A220,A219)+1</f>
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>314</v>
+        <v>93</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <f>IF(NOT(A221=0),A221,A220)+1</f>
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>313</v>
+        <v>109</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <f>IF(NOT(A222=0),A222,A221)+1</f>
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <f>IF(NOT(A223=0),A223,A222)+1</f>
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <f>IF(NOT(A224=0),A224,A223)+1</f>
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <f>IF(NOT(A225=0),A225,A224)+1</f>
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <f>IF(NOT(A226=0),A226,A225)+1</f>
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>299</v>
+        <v>27</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <f>IF(NOT(A227=0),A227,A226)+1</f>
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>298</v>
+        <v>47</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <f>IF(NOT(A228=0),A228,A227)+1</f>
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>342</v>
+        <v>152</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <f>IF(NOT(A229=0),A229,A228)+1</f>
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <f>IF(NOT(A230=0),A230,A229)+1</f>
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>335</v>
+        <v>102</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <f>IF(NOT(A231=0),A231,A230)+1</f>
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>310</v>
+        <v>83</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <f>IF(NOT(A232=0),A232,A231)+1</f>
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <f>IF(NOT(A233=0),A233,A232)+1</f>
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <f>IF(NOT(A234=0),A234,A233)+1</f>
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>220</v>
+        <v>89</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <f>IF(NOT(A235=0),A235,A234)+1</f>
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <f>IF(NOT(A236=0),A236,A235)+1</f>
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>206</v>
+        <v>77</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <f>IF(NOT(A237=0),A237,A236)+1</f>
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <f>IF(NOT(A238=0),A238,A237)+1</f>
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>347</v>
+        <v>183</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <f>IF(NOT(A239=0),A239,A238)+1</f>
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>304</v>
+        <v>176</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <f>IF(NOT(A240=0),A240,A239)+1</f>
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <f>IF(NOT(A241=0),A241,A240)+1</f>
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <f>IF(NOT(A242=0),A242,A241)+1</f>
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>334</v>
+        <v>4</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <f>IF(NOT(A243=0),A243,A242)+1</f>
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>291</v>
+        <v>32</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <f>IF(NOT(A244=0),A244,A243)+1</f>
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>129</v>
+        <v>270</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <f>IF(NOT(A245=0),A245,A244)+1</f>
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>252</v>
+        <v>97</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <f>IF(NOT(A246=0),A246,A245)+1</f>
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>241</v>
+        <v>81</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <f>IF(NOT(A247=0),A247,A246)+1</f>
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>211</v>
+        <v>346</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <f>IF(NOT(A248=0),A248,A247)+1</f>
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>345</v>
+        <v>72</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <f>IF(NOT(A249=0),A249,A248)+1</f>
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>294</v>
+        <v>125</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <f>IF(NOT(A250=0),A250,A249)+1</f>
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <f>IF(NOT(A251=0),A251,A250)+1</f>
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>185</v>
+        <v>73</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <f>IF(NOT(A252=0),A252,A251)+1</f>
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>193</v>
+        <v>84</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <f>IF(NOT(A253=0),A253,A252)+1</f>
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>224</v>
+        <v>31</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <f>IF(NOT(A254=0),A254,A253)+1</f>
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>20</v>
+        <v>244</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <f>IF(NOT(A255=0),A255,A254)+1</f>
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <f>IF(NOT(A256=0),A256,A255)+1</f>
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>250</v>
+        <v>348</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <f>IF(NOT(A257=0),A257,A256)+1</f>
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <f>IF(NOT(A258=0),A258,A257)+1</f>
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <f>IF(NOT(A259=0),A259,A258)+1</f>
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>114</v>
+        <v>339</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <f>IF(NOT(A260=0),A260,A259)+1</f>
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <f>IF(NOT(A261=0),A261,A260)+1</f>
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <f>IF(NOT(A262=0),A262,A261)+1</f>
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <f>IF(NOT(A263=0),A263,A262)+1</f>
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>285</v>
+        <v>58</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <f>IF(NOT(A264=0),A264,A263)+1</f>
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>309</v>
+        <v>127</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <f>IF(NOT(A265=0),A265,A264)+1</f>
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>337</v>
+        <v>136</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <f>IF(NOT(A266=0),A266,A265)+1</f>
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>207</v>
+        <v>312</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <f>IF(NOT(A267=0),A267,A266)+1</f>
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>179</v>
+        <v>311</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <f>IF(NOT(A268=0),A268,A267)+1</f>
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>21</v>
+        <v>311</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <f>IF(NOT(A269=0),A269,A268)+1</f>
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <f>IF(NOT(A270=0),A270,A269)+1</f>
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>296</v>
+        <v>19</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <f>IF(NOT(A271=0),A271,A270)+1</f>
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <f>IF(NOT(A272=0),A272,A271)+1</f>
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>166</v>
+        <v>323</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <f>IF(NOT(A273=0),A273,A272)+1</f>
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>196</v>
+        <v>17</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <f>IF(NOT(A274=0),A274,A273)+1</f>
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>194</v>
+        <v>303</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <f>IF(NOT(A275=0),A275,A274)+1</f>
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <f>IF(NOT(A276=0),A276,A275)+1</f>
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>130</v>
+        <v>281</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <f>IF(NOT(A277=0),A277,A276)+1</f>
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <f>IF(NOT(A278=0),A278,A277)+1</f>
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>212</v>
+        <v>9</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <f>IF(NOT(A279=0),A279,A278)+1</f>
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>150</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <f>IF(NOT(A280=0),A280,A279)+1</f>
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <f>IF(NOT(A281=0),A281,A280)+1</f>
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <f>IF(NOT(A282=0),A282,A281)+1</f>
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <f>IF(NOT(A283=0),A283,A282)+1</f>
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>64</v>
+        <v>261</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <f>IF(NOT(A284=0),A284,A283)+1</f>
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>180</v>
+        <v>258</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <f>IF(NOT(A285=0),A285,A284)+1</f>
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>225</v>
+        <v>120</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <f>IF(NOT(A286=0),A286,A285)+1</f>
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>269</v>
+        <v>338</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <f>IF(NOT(A287=0),A287,A286)+1</f>
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>267</v>
+        <v>158</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <f>IF(NOT(A288=0),A288,A287)+1</f>
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>268</v>
+        <v>164</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <f>IF(NOT(A289=0),A289,A288)+1</f>
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>265</v>
+        <v>213</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <f>IF(NOT(A290=0),A290,A289)+1</f>
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>56</v>
+        <v>159</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <f>IF(NOT(A291=0),A291,A290)+1</f>
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>82</v>
+        <v>199</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <f>IF(NOT(A292=0),A292,A291)+1</f>
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>51</v>
+        <v>203</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <f>IF(NOT(A293=0),A293,A292)+1</f>
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>105</v>
+        <v>314</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <f>IF(NOT(A294=0),A294,A293)+1</f>
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>105</v>
+        <v>313</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <f>IF(NOT(A295=0),A295,A294)+1</f>
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>204</v>
+        <v>48</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <f>IF(NOT(A296=0),A296,A295)+1</f>
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>246</v>
+        <v>146</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <f>IF(NOT(A297=0),A297,A296)+1</f>
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <f>IF(NOT(A298=0),A298,A297)+1</f>
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <f>IF(NOT(A299=0),A299,A298)+1</f>
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>108</v>
+        <v>299</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <f>IF(NOT(A300=0),A300,A299)+1</f>
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>175</v>
+        <v>298</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <f>IF(NOT(A301=0),A301,A300)+1</f>
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>123</v>
+        <v>342</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <f>IF(NOT(A302=0),A302,A301)+1</f>
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <f>IF(NOT(A303=0),A303,A302)+1</f>
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>103</v>
+        <v>335</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <f>IF(NOT(A304=0),A304,A303)+1</f>
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>153</v>
+        <v>310</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <f>IF(NOT(A305=0),A305,A304)+1</f>
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>216</v>
+        <v>22</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
         <f>IF(NOT(A306=0),A306,A305)+1</f>
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>295</v>
+        <v>182</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <f>IF(NOT(A307=0),A307,A306)+1</f>
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <f>IF(NOT(A308=0),A308,A307)+1</f>
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>23</v>
+        <v>332</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <f>IF(NOT(A309=0),A309,A308)+1</f>
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <f>IF(NOT(A310=0),A310,A309)+1</f>
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <f>IF(NOT(A311=0),A311,A310)+1</f>
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <f>IF(NOT(A312=0),A312,A311)+1</f>
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <f>IF(NOT(A313=0),A313,A312)+1</f>
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>344</v>
+        <v>85</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
         <f>IF(NOT(A314=0),A314,A313)+1</f>
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <f>IF(NOT(A315=0),A315,A314)+1</f>
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <f>IF(NOT(A316=0),A316,A315)+1</f>
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>54</v>
+        <v>291</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <f>IF(NOT(A317=0),A317,A316)+1</f>
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <f>IF(NOT(A318=0),A318,A317)+1</f>
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>76</v>
+        <v>252</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <f>IF(NOT(A319=0),A319,A318)+1</f>
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>157</v>
+        <v>241</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
         <f>IF(NOT(A320=0),A320,A319)+1</f>
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <f>IF(NOT(A321=0),A321,A320)+1</f>
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>163</v>
+        <v>345</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <f>IF(NOT(A322=0),A322,A321)+1</f>
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <f>IF(NOT(A323=0),A323,A322)+1</f>
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>351</v>
+        <v>121</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
         <f>IF(NOT(A324=0),A324,A323)+1</f>
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>262</v>
+        <v>185</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <f>IF(NOT(A325=0),A325,A324)+1</f>
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>259</v>
+        <v>193</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <f>IF(NOT(A326=0),A326,A325)+1</f>
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
         <f>IF(NOT(A327=0),A327,A326)+1</f>
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>275</v>
+        <v>20</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <f>IF(NOT(A328=0),A328,A327)+1</f>
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
         <f>IF(NOT(A329=0),A329,A328)+1</f>
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
         <f>IF(NOT(A330=0),A330,A329)+1</f>
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <f>IF(NOT(A331=0),A331,A330)+1</f>
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
         <f>IF(NOT(A332=0),A332,A331)+1</f>
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>308</v>
+        <v>114</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
         <f>IF(NOT(A333=0),A333,A332)+1</f>
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>210</v>
+        <v>305</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
         <f>IF(NOT(A334=0),A334,A333)+1</f>
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
         <f>IF(NOT(A335=0),A335,A334)+1</f>
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>289</v>
+        <v>12</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <f>IF(NOT(A336=0),A336,A335)+1</f>
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
         <f>IF(NOT(A337=0),A337,A336)+1</f>
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <f>IF(NOT(A338=0),A338,A337)+1</f>
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <f>IF(NOT(A339=0),A339,A338)+1</f>
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>328</v>
+        <v>207</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
         <f>IF(NOT(A340=0),A340,A339)+1</f>
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>327</v>
+        <v>179</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
         <f>IF(NOT(A341=0),A341,A340)+1</f>
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>326</v>
+        <v>21</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <f>IF(NOT(A342=0),A342,A341)+1</f>
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
         <f>IF(NOT(A343=0),A343,A342)+1</f>
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>131</v>
+        <v>296</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
         <f>IF(NOT(A344=0),A344,A343)+1</f>
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
         <f>IF(NOT(A345=0),A345,A344)+1</f>
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>278</v>
+        <v>166</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
         <f>IF(NOT(A346=0),A346,A345)+1</f>
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>104</v>
+        <v>196</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
         <f>IF(NOT(A347=0),A347,A346)+1</f>
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
         <f>IF(NOT(A348=0),A348,A347)+1</f>
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
         <f>IF(NOT(A349=0),A349,A348)+1</f>
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>254</v>
+        <v>130</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
         <f>IF(NOT(A350=0),A350,A349)+1</f>
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
         <f>IF(NOT(A351=0),A351,A350)+1</f>
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>288</v>
+        <v>212</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
         <f>IF(NOT(A352=0),A352,A351)+1</f>
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>274</v>
+        <v>150</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
         <f>IF(NOT(A353=0),A353,A352)+1</f>
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
         <f>IF(NOT(A354=0),A354,A353)+1</f>
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
         <f>IF(NOT(A355=0),A355,A354)+1</f>
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>280</v>
+        <v>64</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
         <f>IF(NOT(A356=0),A356,A355)+1</f>
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>170</v>
+        <v>64</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <f>IF(NOT(A357=0),A357,A356)+1</f>
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
         <f>IF(NOT(A358=0),A358,A357)+1</f>
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>30</v>
+        <v>225</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
         <f>IF(NOT(A359=0),A359,A358)+1</f>
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>353</v>
+        <v>269</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
         <f>IF(NOT(A360=0),A360,A359)+1</f>
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
         <f>IF(NOT(A361=0),A361,A360)+1</f>
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
         <f>IF(NOT(A362=0),A362,A361)+1</f>
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
         <f>IF(NOT(A363=0),A363,A362)+1</f>
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
         <f>IF(NOT(A364=0),A364,A363)+1</f>
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
         <f>IF(NOT(A365=0),A365,A364)+1</f>
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
         <f>IF(NOT(A366=0),A366,A365)+1</f>
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
         <f>IF(NOT(A367=0),A367,A366)+1</f>
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>228</v>
+        <v>105</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
         <f>IF(NOT(A368=0),A368,A367)+1</f>
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
         <f>IF(NOT(A369=0),A369,A368)+1</f>
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>57</v>
+        <v>246</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
         <f>IF(NOT(A370=0),A370,A369)+1</f>
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>237</v>
+        <v>118</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
         <f>IF(NOT(A371=0),A371,A370)+1</f>
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>357</v>
+        <v>209</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
         <f>IF(NOT(A372=0),A372,A371)+1</f>
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>356</v>
+        <v>108</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
         <f>IF(NOT(A373=0),A373,A372)+1</f>
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>355</v>
+        <v>175</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
         <f>IF(NOT(A374=0),A374,A373)+1</f>
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>354</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -15283,6 +15282,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A237:B237"/>
@@ -15299,13 +15305,6 @@
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A125:B125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ALGORITHMS_LIST.xlsx
+++ b/ALGORITHMS_LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0\Git\beginner-algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727FC08A-7E2B-42D9-855C-04667D9A60D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49257C0-0D5D-453C-A1D2-C66CFEE29E0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F3AEC63A-3935-431B-9D94-C19A95072D1B}"/>
   </bookViews>
@@ -3981,9 +3981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC73345-1EB4-493B-9D32-2379CC101C9C}">
   <dimension ref="A1:D375"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4012,7 +4010,7 @@
       </c>
       <c r="D2" s="8">
         <f ca="1">RANDBETWEEN(1,A375)</f>
-        <v>88</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4169,1249 +4167,1246 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>1</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <f>IF(NOT(A22=0),A22,A21)+1</f>
-        <v>2</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>153</v>
+        <v>0</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <f>IF(NOT(A23=0),A23,A22)+1</f>
-        <v>3</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>137</v>
+        <v>0</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <f>IF(NOT(A24=0),A24,A23)+1</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f>IF(NOT(A25=0),A25,A24)+1</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <f>IF(NOT(A26=0),A26,A25)+1</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>295</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <f>IF(NOT(A27=0),A27,A26)+1</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <f>IF(NOT(A28=0),A28,A27)+1</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <f>IF(NOT(A29=0),A29,A28)+1</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>165</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <f>IF(NOT(A30=0),A30,A29)+1</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <f>IF(NOT(A31=0),A31,A30)+1</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <f>IF(NOT(A32=0),A32,A31)+1</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <f>IF(NOT(A33=0),A33,A32)+1</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>343</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <f>IF(NOT(A34=0),A34,A33)+1</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <f>IF(NOT(A35=0),A35,A34)+1</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <f>IF(NOT(A36=0),A36,A35)+1</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <f>IF(NOT(A37=0),A37,A36)+1</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <f>IF(NOT(A38=0),A38,A37)+1</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>286</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <f>IF(NOT(A39=0),A39,A38)+1</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>88</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <f>IF(NOT(A40=0),A40,A39)+1</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>344</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <f>IF(NOT(A41=0),A41,A40)+1</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>26</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <f>IF(NOT(A42=0),A42,A41)+1</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <f>IF(NOT(A43=0),A43,A42)+1</f>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>16</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <f>IF(NOT(A44=0),A44,A43)+1</f>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>331</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <f>IF(NOT(A45=0),A45,A44)+1</f>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>5</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <f>IF(NOT(A46=0),A46,A45)+1</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <f>IF(NOT(A47=0),A47,A46)+1</f>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>3</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <f>IF(NOT(A48=0),A48,A47)+1</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>115</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <f>IF(NOT(A49=0),A49,A48)+1</f>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <f>IF(NOT(A50=0),A50,A49)+1</f>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <f>IF(NOT(A51=0),A51,A50)+1</f>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <f>IF(NOT(A52=0),A52,A51)+1</f>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>157</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <f>IF(NOT(A53=0),A53,A52)+1</f>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <f>IF(NOT(A54=0),A54,A53)+1</f>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <f>IF(NOT(A55=0),A55,A54)+1</f>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>302</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <f>IF(NOT(A56=0),A56,A55)+1</f>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <f>IF(NOT(A57=0),A57,A56)+1</f>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <f>IF(NOT(A58=0),A58,A57)+1</f>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <f>IF(NOT(A59=0),A59,A58)+1</f>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>235</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <f>IF(NOT(A60=0),A60,A59)+1</f>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>351</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <f>IF(NOT(A61=0),A61,A60)+1</f>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>148</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <f>IF(NOT(A62=0),A62,A61)+1</f>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <f>IF(NOT(A63=0),A63,A62)+1</f>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>300</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <f>IF(NOT(A64=0),A64,A63)+1</f>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>259</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <f>IF(NOT(A65=0),A65,A64)+1</f>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <f>IF(NOT(A66=0),A66,A65)+1</f>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>249</v>
+        <v>300</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <f>IF(NOT(A67=0),A67,A66)+1</f>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <f>IF(NOT(A68=0),A68,A67)+1</f>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <f>IF(NOT(A69=0),A69,A68)+1</f>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <f>IF(NOT(A70=0),A70,A69)+1</f>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>236</v>
+        <v>293</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <f>IF(NOT(A71=0),A71,A70)+1</f>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>110</v>
+        <v>275</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <f>IF(NOT(A72=0),A72,A71)+1</f>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <f>IF(NOT(A73=0),A73,A72)+1</f>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <f>IF(NOT(A74=0),A74,A73)+1</f>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>184</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <f>IF(NOT(A75=0),A75,A74)+1</f>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>41</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <f>IF(NOT(A76=0),A76,A75)+1</f>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>336</v>
+        <v>271</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <f>IF(NOT(A77=0),A77,A76)+1</f>
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>42</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <f>IF(NOT(A78=0),A78,A77)+1</f>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>308</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <f>IF(NOT(A79=0),A79,A78)+1</f>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>40</v>
+        <v>336</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <f>IF(NOT(A80=0),A80,A79)+1</f>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>210</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <f>IF(NOT(A81=0),A81,A80)+1</f>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>112</v>
+        <v>308</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <f>IF(NOT(A82=0),A82,A81)+1</f>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <f>IF(NOT(A83=0),A83,A82)+1</f>
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>358</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <f>IF(NOT(A84=0),A84,A83)+1</f>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>289</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <f>IF(NOT(A85=0),A85,A84)+1</f>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>297</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <f>IF(NOT(A86=0),A86,A85)+1</f>
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <f>IF(NOT(A87=0),A87,A86)+1</f>
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <f>IF(NOT(A88=0),A88,A87)+1</f>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <f>IF(NOT(A89=0),A89,A88)+1</f>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>227</v>
+        <v>330</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <f>IF(NOT(A90=0),A90,A89)+1</f>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>328</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <f>IF(NOT(A91=0),A91,A90)+1</f>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>255</v>
+        <v>329</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <f>IF(NOT(A92=0),A92,A91)+1</f>
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <f>IF(NOT(A93=0),A93,A92)+1</f>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>132</v>
+        <v>328</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <f>IF(NOT(A94=0),A94,A93)+1</f>
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>326</v>
+        <v>255</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <f>IF(NOT(A95=0),A95,A94)+1</f>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>147</v>
+        <v>327</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <f>IF(NOT(A96=0),A96,A95)+1</f>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>325</v>
+        <v>132</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <f>IF(NOT(A97=0),A97,A96)+1</f>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>144</v>
+        <v>326</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <f>IF(NOT(A98=0),A98,A97)+1</f>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <f>IF(NOT(A99=0),A99,A98)+1</f>
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <f>IF(NOT(A100=0),A100,A99)+1</f>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <f>IF(NOT(A101=0),A101,A100)+1</f>
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <f>IF(NOT(A102=0),A102,A101)+1</f>
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <f>IF(NOT(A103=0),A103,A102)+1</f>
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <f>IF(NOT(A104=0),A104,A103)+1</f>
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>104</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <f>IF(NOT(A105=0),A105,A104)+1</f>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>189</v>
+        <v>278</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <f>IF(NOT(A106=0),A106,A105)+1</f>
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>214</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <f>IF(NOT(A107=0),A107,A106)+1</f>
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <f>IF(NOT(A108=0),A108,A107)+1</f>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>78</v>
+        <v>189</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <f>IF(NOT(A109=0),A109,A108)+1</f>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>15</v>
+        <v>214</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <f>IF(NOT(A110=0),A110,A109)+1</f>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>254</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <f>IF(NOT(A111=0),A111,A110)+1</f>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <f>IF(NOT(A112=0),A112,A111)+1</f>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <f>IF(NOT(A113=0),A113,A112)+1</f>
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <f>IF(NOT(A114=0),A114,A113)+1</f>
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>288</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <f>IF(NOT(A115=0),A115,A114)+1</f>
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <f>IF(NOT(A116=0),A116,A115)+1</f>
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <f>IF(NOT(A117=0),A117,A116)+1</f>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>149</v>
+        <v>288</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <f>IF(NOT(A118=0),A118,A117)+1</f>
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>274</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <f>IF(NOT(A119=0),A119,A118)+1</f>
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <f>IF(NOT(A120=0),A120,A119)+1</f>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <f>IF(NOT(A121=0),A121,A120)+1</f>
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <f>IF(NOT(A122=0),A122,A121)+1</f>
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <f>IF(NOT(A123=0),A123,A122)+1</f>
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>229</v>
+        <v>98</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <f>IF(NOT(A124=0),A124,A123)+1</f>
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>170</v>
+        <v>273</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <f>IF(NOT(A125=0),A125,A124)+1</f>
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>177</v>
+        <v>280</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <f>IF(NOT(A126=0),A126,A125)+1</f>
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <f>IF(NOT(A127=0),A127,A126)+1</f>
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <f>IF(NOT(A128=0),A128,A127)+1</f>
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <f>IF(NOT(A129=0),A129,A128)+1</f>
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <f>IF(NOT(A130=0),A130,A129)+1</f>
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>353</v>
+        <v>188</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <f>IF(NOT(A131=0),A131,A130)+1</f>
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>284</v>
+        <v>30</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <f>IF(NOT(A132=0),A132,A131)+1</f>
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>287</v>
+        <v>188</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <f>IF(NOT(A133=0),A133,A132)+1</f>
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>282</v>
+        <v>353</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <f>IF(NOT(A134=0),A134,A133)+1</f>
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <f>IF(NOT(A135=0),A135,A134)+1</f>
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>116</v>
+        <v>287</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <f>IF(NOT(A136=0),A136,A135)+1</f>
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <f>IF(NOT(A137=0),A137,A136)+1</f>
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <f>IF(NOT(A138=0),A138,A137)+1</f>
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>33</v>
+        <v>266</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <f>IF(NOT(A139=0),A139,A138)+1</f>
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>230</v>
+        <v>53</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <f>IF(NOT(A140=0),A140,A139)+1</f>
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <f>IF(NOT(A141=0),A141,A140)+1</f>
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <f>IF(NOT(A142=0),A142,A141)+1</f>
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <f>IF(NOT(A143=0),A143,A142)+1</f>
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>44</v>
+        <v>226</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <f>IF(NOT(A144=0),A144,A143)+1</f>
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>135</v>
+        <v>35</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <f>IF(NOT(A145=0),A145,A144)+1</f>
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>192</v>
+        <v>44</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <f>IF(NOT(A146=0),A146,A145)+1</f>
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>228</v>
+        <v>135</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <f>IF(NOT(A147=0),A147,A146)+1</f>
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>324</v>
+        <v>192</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <f>IF(NOT(A148=0),A148,A147)+1</f>
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <f>IF(NOT(A149=0),A149,A148)+1</f>
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>14</v>
+        <v>324</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <f>IF(NOT(A150=0),A150,A149)+1</f>
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>57</v>
+        <v>233</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <f>IF(NOT(A151=0),A151,A150)+1</f>
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <f>IF(NOT(A152=0),A152,A151)+1</f>
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>237</v>
+        <v>57</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <f>IF(NOT(A153=0),A153,A152)+1</f>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <f>IF(NOT(A154=0),A154,A153)+1</f>
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>357</v>
+        <v>237</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <f>IF(NOT(A155=0),A155,A154)+1</f>
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <f>IF(NOT(A156=0),A156,A155)+1</f>
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <f>IF(NOT(A157=0),A157,A156)+1</f>
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>190</v>
+        <v>245</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <f>IF(NOT(A158=0),A158,A157)+1</f>
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <f>IF(NOT(A159=0),A159,A158)+1</f>
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>190</v>
@@ -5420,1870 +5415,1870 @@
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <f>IF(NOT(A160=0),A160,A159)+1</f>
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <f>IF(NOT(A161=0),A161,A160)+1</f>
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <f>IF(NOT(A162=0),A162,A161)+1</f>
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>142</v>
+        <v>354</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <f>IF(NOT(A163=0),A163,A162)+1</f>
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>322</v>
+        <v>217</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <f>IF(NOT(A164=0),A164,A163)+1</f>
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>321</v>
+        <v>142</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <f>IF(NOT(A165=0),A165,A164)+1</f>
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <f>IF(NOT(A166=0),A166,A165)+1</f>
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <f>IF(NOT(A167=0),A167,A166)+1</f>
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>198</v>
+        <v>320</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <f>IF(NOT(A168=0),A168,A167)+1</f>
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>50</v>
+        <v>319</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <f>IF(NOT(A169=0),A169,A168)+1</f>
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
-        <f>IF(NOT(A170=0),A170,A168)+1</f>
-        <v>150</v>
+        <f>IF(NOT(A170=0),A170,A169)+1</f>
+        <v>147</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <f>IF(NOT(A171=0),A171,A170)+1</f>
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
-        <f>IF(NOT(A172=0),A172,A171)+1</f>
-        <v>152</v>
+        <f>IF(NOT(A172=0),A172,A170)+1</f>
+        <v>149</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>156</v>
+        <v>66</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <f>IF(NOT(A173=0),A173,A172)+1</f>
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <f>IF(NOT(A174=0),A174,A173)+1</f>
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <f>IF(NOT(A175=0),A175,A174)+1</f>
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>350</v>
+        <v>37</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <f>IF(NOT(A176=0),A176,A175)+1</f>
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>218</v>
+        <v>138</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <f>IF(NOT(A177=0),A177,A176)+1</f>
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>205</v>
+        <v>350</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <f>IF(NOT(A178=0),A178,A177)+1</f>
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <f>IF(NOT(A179=0),A179,A178)+1</f>
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>92</v>
+        <v>205</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <f>IF(NOT(A180=0),A180,A179)+1</f>
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>92</v>
+        <v>223</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <f>IF(NOT(A181=0),A181,A180)+1</f>
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>219</v>
+        <v>92</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <f>IF(NOT(A182=0),A182,A181)+1</f>
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <f>IF(NOT(A183=0),A183,A182)+1</f>
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <f>IF(NOT(A184=0),A184,A183)+1</f>
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <f>IF(NOT(A185=0),A185,A184)+1</f>
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <f>IF(NOT(A186=0),A186,A185)+1</f>
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>352</v>
+        <v>141</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <f>IF(NOT(A187=0),A187,A186)+1</f>
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>341</v>
+        <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <f>IF(NOT(A188=0),A188,A187)+1</f>
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>172</v>
+        <v>352</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <f>IF(NOT(A189=0),A189,A188)+1</f>
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>62</v>
+        <v>341</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <f>IF(NOT(A190=0),A190,A189)+1</f>
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <f>IF(NOT(A191=0),A191,A190)+1</f>
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <f>IF(NOT(A192=0),A192,A191)+1</f>
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>276</v>
+        <v>62</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <f>IF(NOT(A193=0),A193,A192)+1</f>
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <f>IF(NOT(A194=0),A194,A193)+1</f>
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>39</v>
+        <v>276</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <f>IF(NOT(A195=0),A195,A194)+1</f>
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>55</v>
+        <v>253</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <f>IF(NOT(A196=0),A196,A195)+1</f>
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <f>IF(NOT(A197=0),A197,A196)+1</f>
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <f>IF(NOT(A198=0),A198,A197)+1</f>
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>191</v>
+        <v>43</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <f>IF(NOT(A199=0),A199,A198)+1</f>
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <f>IF(NOT(A200=0),A200,A199)+1</f>
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>86</v>
+        <v>191</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <f>IF(NOT(A201=0),A201,A200)+1</f>
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>232</v>
+        <v>87</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <f>IF(NOT(A202=0),A202,A201)+1</f>
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>333</v>
+        <v>86</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <f>IF(NOT(A203=0),A203,A202)+1</f>
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <f>IF(NOT(A204=0),A204,A203)+1</f>
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>247</v>
+        <v>333</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <f>IF(NOT(A205=0),A205,A204)+1</f>
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>242</v>
+        <v>178</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <f>IF(NOT(A206=0),A206,A205)+1</f>
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>38</v>
+        <v>247</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <f>IF(NOT(A207=0),A207,A206)+1</f>
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <f>IF(NOT(A208=0),A208,A207)+1</f>
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <f>IF(NOT(A209=0),A209,A208)+1</f>
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <f>IF(NOT(A210=0),A210,A209)+1</f>
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>251</v>
+        <v>126</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <f>IF(NOT(A211=0),A211,A210)+1</f>
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>234</v>
+        <v>143</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <f>IF(NOT(A212=0),A212,A211)+1</f>
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <f>IF(NOT(A213=0),A213,A212)+1</f>
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>171</v>
+        <v>234</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <f>IF(NOT(A214=0),A214,A213)+1</f>
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <f>IF(NOT(A215=0),A215,A214)+1</f>
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <f>IF(NOT(A216=0),A216,A215)+1</f>
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <f>IF(NOT(A217=0),A217,A216)+1</f>
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <f>IF(NOT(A218=0),A218,A217)+1</f>
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>69</v>
+        <v>239</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <f>IF(NOT(A219=0),A219,A218)+1</f>
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <f>IF(NOT(A220=0),A220,A219)+1</f>
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <f>IF(NOT(A221=0),A221,A220)+1</f>
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <f>IF(NOT(A222=0),A222,A221)+1</f>
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <f>IF(NOT(A223=0),A223,A222)+1</f>
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <f>IF(NOT(A224=0),A224,A223)+1</f>
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <f>IF(NOT(A225=0),A225,A224)+1</f>
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <f>IF(NOT(A226=0),A226,A225)+1</f>
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <f>IF(NOT(A227=0),A227,A226)+1</f>
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <f>IF(NOT(A228=0),A228,A227)+1</f>
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <f>IF(NOT(A229=0),A229,A228)+1</f>
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>195</v>
+        <v>47</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <f>IF(NOT(A230=0),A230,A229)+1</f>
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <f>IF(NOT(A231=0),A231,A230)+1</f>
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>83</v>
+        <v>195</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <f>IF(NOT(A232=0),A232,A231)+1</f>
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <f>IF(NOT(A233=0),A233,A232)+1</f>
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <f>IF(NOT(A234=0),A234,A233)+1</f>
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <f>IF(NOT(A235=0),A235,A234)+1</f>
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>307</v>
+        <v>119</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <f>IF(NOT(A236=0),A236,A235)+1</f>
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <f>IF(NOT(A237=0),A237,A236)+1</f>
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <f>IF(NOT(A238=0),A238,A237)+1</f>
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>183</v>
+        <v>77</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <f>IF(NOT(A239=0),A239,A238)+1</f>
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <f>IF(NOT(A240=0),A240,A239)+1</f>
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <f>IF(NOT(A241=0),A241,A240)+1</f>
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <f>IF(NOT(A242=0),A242,A241)+1</f>
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>4</v>
+        <v>145</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <f>IF(NOT(A243=0),A243,A242)+1</f>
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <f>IF(NOT(A244=0),A244,A243)+1</f>
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>270</v>
+        <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <f>IF(NOT(A245=0),A245,A244)+1</f>
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <f>IF(NOT(A246=0),A246,A245)+1</f>
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>81</v>
+        <v>270</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <f>IF(NOT(A247=0),A247,A246)+1</f>
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>346</v>
+        <v>97</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <f>IF(NOT(A248=0),A248,A247)+1</f>
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <f>IF(NOT(A249=0),A249,A248)+1</f>
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>125</v>
+        <v>346</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <f>IF(NOT(A250=0),A250,A249)+1</f>
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <f>IF(NOT(A251=0),A251,A250)+1</f>
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <f>IF(NOT(A252=0),A252,A251)+1</f>
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <f>IF(NOT(A253=0),A253,A252)+1</f>
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <f>IF(NOT(A254=0),A254,A253)+1</f>
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>244</v>
+        <v>84</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <f>IF(NOT(A255=0),A255,A254)+1</f>
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <f>IF(NOT(A256=0),A256,A255)+1</f>
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>348</v>
+        <v>244</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <f>IF(NOT(A257=0),A257,A256)+1</f>
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <f>IF(NOT(A258=0),A258,A257)+1</f>
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <f>IF(NOT(A259=0),A259,A258)+1</f>
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <f>IF(NOT(A260=0),A260,A259)+1</f>
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <f>IF(NOT(A261=0),A261,A260)+1</f>
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>100</v>
+        <v>339</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <f>IF(NOT(A262=0),A262,A261)+1</f>
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>58</v>
+        <v>315</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <f>IF(NOT(A263=0),A263,A262)+1</f>
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <f>IF(NOT(A264=0),A264,A263)+1</f>
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <f>IF(NOT(A265=0),A265,A264)+1</f>
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <f>IF(NOT(A266=0),A266,A265)+1</f>
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>312</v>
+        <v>127</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <f>IF(NOT(A267=0),A267,A266)+1</f>
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>311</v>
+        <v>136</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <f>IF(NOT(A268=0),A268,A267)+1</f>
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <f>IF(NOT(A269=0),A269,A268)+1</f>
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <f>IF(NOT(A270=0),A270,A269)+1</f>
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>19</v>
+        <v>311</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <f>IF(NOT(A271=0),A271,A270)+1</f>
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>18</v>
+        <v>257</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <f>IF(NOT(A272=0),A272,A271)+1</f>
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>323</v>
+        <v>19</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <f>IF(NOT(A273=0),A273,A272)+1</f>
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <f>IF(NOT(A274=0),A274,A273)+1</f>
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <f>IF(NOT(A275=0),A275,A274)+1</f>
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <f>IF(NOT(A276=0),A276,A275)+1</f>
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <f>IF(NOT(A277=0),A277,A276)+1</f>
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <f>IF(NOT(A278=0),A278,A277)+1</f>
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>9</v>
+        <v>281</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <f>IF(NOT(A279=0),A279,A278)+1</f>
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <f>IF(NOT(A280=0),A280,A279)+1</f>
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <f>IF(NOT(A281=0),A281,A280)+1</f>
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <f>IF(NOT(A282=0),A282,A281)+1</f>
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <f>IF(NOT(A283=0),A283,A282)+1</f>
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>261</v>
+        <v>46</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <f>IF(NOT(A284=0),A284,A283)+1</f>
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>258</v>
+        <v>59</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <f>IF(NOT(A285=0),A285,A284)+1</f>
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>120</v>
+        <v>261</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <f>IF(NOT(A286=0),A286,A285)+1</f>
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>338</v>
+        <v>258</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <f>IF(NOT(A287=0),A287,A286)+1</f>
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <f>IF(NOT(A288=0),A288,A287)+1</f>
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>164</v>
+        <v>338</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <f>IF(NOT(A289=0),A289,A288)+1</f>
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>213</v>
+        <v>158</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <f>IF(NOT(A290=0),A290,A289)+1</f>
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <f>IF(NOT(A291=0),A291,A290)+1</f>
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <f>IF(NOT(A292=0),A292,A291)+1</f>
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <f>IF(NOT(A293=0),A293,A292)+1</f>
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>314</v>
+        <v>199</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <f>IF(NOT(A294=0),A294,A293)+1</f>
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>313</v>
+        <v>203</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <f>IF(NOT(A295=0),A295,A294)+1</f>
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>48</v>
+        <v>314</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <f>IF(NOT(A296=0),A296,A295)+1</f>
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>146</v>
+        <v>313</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <f>IF(NOT(A297=0),A297,A296)+1</f>
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>146</v>
+        <v>48</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <f>IF(NOT(A298=0),A298,A297)+1</f>
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <f>IF(NOT(A299=0),A299,A298)+1</f>
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>299</v>
+        <v>146</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <f>IF(NOT(A300=0),A300,A299)+1</f>
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>298</v>
+        <v>67</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <f>IF(NOT(A301=0),A301,A300)+1</f>
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <f>IF(NOT(A302=0),A302,A301)+1</f>
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <f>IF(NOT(A303=0),A303,A302)+1</f>
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <f>IF(NOT(A304=0),A304,A303)+1</f>
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>310</v>
+        <v>162</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <f>IF(NOT(A305=0),A305,A304)+1</f>
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>22</v>
+        <v>335</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
         <f>IF(NOT(A306=0),A306,A305)+1</f>
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>182</v>
+        <v>310</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <f>IF(NOT(A307=0),A307,A306)+1</f>
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>220</v>
+        <v>22</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <f>IF(NOT(A308=0),A308,A307)+1</f>
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>332</v>
+        <v>182</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <f>IF(NOT(A309=0),A309,A308)+1</f>
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <f>IF(NOT(A310=0),A310,A309)+1</f>
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>181</v>
+        <v>332</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <f>IF(NOT(A311=0),A311,A310)+1</f>
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>347</v>
+        <v>206</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <f>IF(NOT(A312=0),A312,A311)+1</f>
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>304</v>
+        <v>181</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <f>IF(NOT(A313=0),A313,A312)+1</f>
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>85</v>
+        <v>347</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
         <f>IF(NOT(A314=0),A314,A313)+1</f>
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>85</v>
+        <v>304</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <f>IF(NOT(A315=0),A315,A314)+1</f>
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>334</v>
+        <v>85</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <f>IF(NOT(A316=0),A316,A315)+1</f>
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>291</v>
+        <v>85</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <f>IF(NOT(A317=0),A317,A316)+1</f>
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>129</v>
+        <v>334</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <f>IF(NOT(A318=0),A318,A317)+1</f>
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <f>IF(NOT(A319=0),A319,A318)+1</f>
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>241</v>
+        <v>129</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
         <f>IF(NOT(A320=0),A320,A319)+1</f>
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <f>IF(NOT(A321=0),A321,A320)+1</f>
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>345</v>
+        <v>241</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <f>IF(NOT(A322=0),A322,A321)+1</f>
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>294</v>
+        <v>211</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <f>IF(NOT(A323=0),A323,A322)+1</f>
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>121</v>
+        <v>345</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
         <f>IF(NOT(A324=0),A324,A323)+1</f>
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>185</v>
+        <v>294</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <f>IF(NOT(A325=0),A325,A324)+1</f>
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>193</v>
+        <v>121</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <f>IF(NOT(A326=0),A326,A325)+1</f>
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
         <f>IF(NOT(A327=0),A327,A326)+1</f>
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>20</v>
+        <v>193</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <f>IF(NOT(A328=0),A328,A327)+1</f>
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
         <f>IF(NOT(A329=0),A329,A328)+1</f>
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>250</v>
+        <v>20</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
         <f>IF(NOT(A330=0),A330,A329)+1</f>
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <f>IF(NOT(A331=0),A331,A330)+1</f>
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>306</v>
+        <v>250</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
         <f>IF(NOT(A332=0),A332,A331)+1</f>
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>114</v>
+        <v>208</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
         <f>IF(NOT(A333=0),A333,A332)+1</f>
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
         <f>IF(NOT(A334=0),A334,A333)+1</f>
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
         <f>IF(NOT(A335=0),A335,A334)+1</f>
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>12</v>
+        <v>305</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <f>IF(NOT(A336=0),A336,A335)+1</f>
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>285</v>
+        <v>111</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
         <f>IF(NOT(A337=0),A337,A336)+1</f>
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>309</v>
+        <v>12</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <f>IF(NOT(A338=0),A338,A337)+1</f>
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>337</v>
+        <v>285</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <f>IF(NOT(A339=0),A339,A338)+1</f>
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>207</v>
+        <v>309</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
         <f>IF(NOT(A340=0),A340,A339)+1</f>
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>179</v>
+        <v>337</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
         <f>IF(NOT(A341=0),A341,A340)+1</f>
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>21</v>
+        <v>207</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <f>IF(NOT(A342=0),A342,A341)+1</f>
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>318</v>
+        <v>179</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
         <f>IF(NOT(A343=0),A343,A342)+1</f>
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>296</v>
+        <v>21</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
         <f>IF(NOT(A344=0),A344,A343)+1</f>
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>80</v>
+        <v>318</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
         <f>IF(NOT(A345=0),A345,A344)+1</f>
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>166</v>
+        <v>296</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
         <f>IF(NOT(A346=0),A346,A345)+1</f>
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>196</v>
+        <v>80</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
         <f>IF(NOT(A347=0),A347,A346)+1</f>
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
         <f>IF(NOT(A348=0),A348,A347)+1</f>
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>60</v>
+        <v>196</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
         <f>IF(NOT(A349=0),A349,A348)+1</f>
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>130</v>
+        <v>194</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
         <f>IF(NOT(A350=0),A350,A349)+1</f>
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
         <f>IF(NOT(A351=0),A351,A350)+1</f>
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>212</v>
+        <v>130</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
         <f>IF(NOT(A352=0),A352,A351)+1</f>
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
         <f>IF(NOT(A353=0),A353,A352)+1</f>
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
         <f>IF(NOT(A354=0),A354,A353)+1</f>
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
         <f>IF(NOT(A355=0),A355,A354)+1</f>
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>64</v>
+        <v>279</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
         <f>IF(NOT(A356=0),A356,A355)+1</f>
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <f>IF(NOT(A357=0),A357,A356)+1</f>
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>180</v>
+        <v>64</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
         <f>IF(NOT(A358=0),A358,A357)+1</f>
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>225</v>
+        <v>64</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
         <f>IF(NOT(A359=0),A359,A358)+1</f>
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>269</v>
+        <v>180</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
         <f>IF(NOT(A360=0),A360,A359)+1</f>
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
         <f>IF(NOT(A361=0),A361,A360)+1</f>
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
         <f>IF(NOT(A362=0),A362,A361)+1</f>
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
         <f>IF(NOT(A363=0),A363,A362)+1</f>
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>56</v>
+        <v>265</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
         <f>IF(NOT(A364=0),A364,A363)+1</f>
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
         <f>IF(NOT(A365=0),A365,A364)+1</f>
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
         <f>IF(NOT(A366=0),A366,A365)+1</f>
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
         <f>IF(NOT(A367=0),A367,A366)+1</f>
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>105</v>
@@ -7292,64 +7287,64 @@
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
         <f>IF(NOT(A368=0),A368,A367)+1</f>
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
         <f>IF(NOT(A369=0),A369,A368)+1</f>
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
         <f>IF(NOT(A370=0),A370,A369)+1</f>
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>118</v>
+        <v>246</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
         <f>IF(NOT(A371=0),A371,A370)+1</f>
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
         <f>IF(NOT(A372=0),A372,A371)+1</f>
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>108</v>
+        <v>209</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
         <f>IF(NOT(A373=0),A373,A372)+1</f>
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>175</v>
+        <v>108</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
         <f>IF(NOT(A374=0),A374,A373)+1</f>
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -15282,13 +15277,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A125:B125"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A237:B237"/>
@@ -15305,6 +15293,13 @@
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ALGORITHMS_LIST.xlsx
+++ b/ALGORITHMS_LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0\Git\beginner-algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49257C0-0D5D-453C-A1D2-C66CFEE29E0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE06DD6-579E-4987-A37A-93DD1DD51A40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F3AEC63A-3935-431B-9D94-C19A95072D1B}"/>
   </bookViews>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="D2" s="8">
         <f ca="1">RANDBETWEEN(1,A375)</f>
-        <v>305</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4191,3160 +4191,3157 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>1</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <f>IF(NOT(A25=0),A25,A24)+1</f>
-        <v>2</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>153</v>
+        <v>0</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <f>IF(NOT(A26=0),A26,A25)+1</f>
-        <v>3</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>137</v>
+        <v>0</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <f>IF(NOT(A27=0),A27,A26)+1</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <f>IF(NOT(A28=0),A28,A27)+1</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <f>IF(NOT(A29=0),A29,A28)+1</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>295</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <f>IF(NOT(A30=0),A30,A29)+1</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>173</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <f>IF(NOT(A31=0),A31,A30)+1</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>201</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <f>IF(NOT(A32=0),A32,A31)+1</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>165</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <f>IF(NOT(A33=0),A33,A32)+1</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>23</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <f>IF(NOT(A34=0),A34,A33)+1</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>169</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <f>IF(NOT(A35=0),A35,A34)+1</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <f>IF(NOT(A36=0),A36,A35)+1</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>343</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <f>IF(NOT(A37=0),A37,A36)+1</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>160</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <f>IF(NOT(A38=0),A38,A37)+1</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>167</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <f>IF(NOT(A39=0),A39,A38)+1</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>349</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <f>IF(NOT(A40=0),A40,A39)+1</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>29</v>
+        <v>310</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <f>IF(NOT(A41=0),A41,A40)+1</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <f>IF(NOT(A42=0),A42,A41)+1</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <f>IF(NOT(A43=0),A43,A42)+1</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>344</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <f>IF(NOT(A44=0),A44,A43)+1</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <f>IF(NOT(A45=0),A45,A44)+1</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <f>IF(NOT(A46=0),A46,A45)+1</f>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <f>IF(NOT(A47=0),A47,A46)+1</f>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>331</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <f>IF(NOT(A48=0),A48,A47)+1</f>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>5</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <f>IF(NOT(A49=0),A49,A48)+1</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>54</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <f>IF(NOT(A50=0),A50,A49)+1</f>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>3</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <f>IF(NOT(A51=0),A51,A50)+1</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>115</v>
+        <v>343</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <f>IF(NOT(A52=0),A52,A51)+1</f>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>36</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <f>IF(NOT(A53=0),A53,A52)+1</f>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>76</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <f>IF(NOT(A54=0),A54,A53)+1</f>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>124</v>
+        <v>347</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <f>IF(NOT(A55=0),A55,A54)+1</f>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <f>IF(NOT(A56=0),A56,A55)+1</f>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>122</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <f>IF(NOT(A57=0),A57,A56)+1</f>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>154</v>
+        <v>349</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <f>IF(NOT(A58=0),A58,A57)+1</f>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>302</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <f>IF(NOT(A59=0),A59,A58)+1</f>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>163</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <f>IF(NOT(A60=0),A60,A59)+1</f>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <f>IF(NOT(A61=0),A61,A60)+1</f>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <f>IF(NOT(A62=0),A62,A61)+1</f>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>235</v>
+        <v>334</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <f>IF(NOT(A63=0),A63,A62)+1</f>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>351</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <f>IF(NOT(A64=0),A64,A63)+1</f>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>148</v>
+        <v>291</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <f>IF(NOT(A65=0),A65,A64)+1</f>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>262</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <f>IF(NOT(A66=0),A66,A65)+1</f>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>300</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <f>IF(NOT(A67=0),A67,A66)+1</f>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>259</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <f>IF(NOT(A68=0),A68,A67)+1</f>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <f>IF(NOT(A69=0),A69,A68)+1</f>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>249</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <f>IF(NOT(A70=0),A70,A69)+1</f>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>293</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <f>IF(NOT(A71=0),A71,A70)+1</f>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>275</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <f>IF(NOT(A72=0),A72,A71)+1</f>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <f>IF(NOT(A73=0),A73,A72)+1</f>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>236</v>
+        <v>331</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <f>IF(NOT(A74=0),A74,A73)+1</f>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>110</v>
+        <v>345</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <f>IF(NOT(A75=0),A75,A74)+1</f>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>243</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <f>IF(NOT(A76=0),A76,A75)+1</f>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <f>IF(NOT(A77=0),A77,A76)+1</f>
+        <v>51</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <f>IF(NOT(A78=0),A78,A77)+1</f>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <f>IF(NOT(A79=0),A79,A78)+1</f>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>336</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <f>IF(NOT(A80=0),A80,A79)+1</f>
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>42</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <f>IF(NOT(A81=0),A81,A80)+1</f>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>308</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <f>IF(NOT(A82=0),A82,A81)+1</f>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>40</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <f>IF(NOT(A83=0),A83,A82)+1</f>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>210</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <f>IF(NOT(A84=0),A84,A83)+1</f>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>112</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <f>IF(NOT(A85=0),A85,A84)+1</f>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <f>IF(NOT(A86=0),A86,A85)+1</f>
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>358</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <f>IF(NOT(A87=0),A87,A86)+1</f>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>289</v>
+        <v>124</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <f>IF(NOT(A88=0),A88,A87)+1</f>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <f>IF(NOT(A89=0),A89,A88)+1</f>
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>330</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <f>IF(NOT(A90=0),A90,A89)+1</f>
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <f>IF(NOT(A91=0),A91,A90)+1</f>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>329</v>
+        <v>122</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <f>IF(NOT(A92=0),A92,A91)+1</f>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <f>IF(NOT(A93=0),A93,A92)+1</f>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>328</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <f>IF(NOT(A94=0),A94,A93)+1</f>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>255</v>
+        <v>306</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <f>IF(NOT(A95=0),A95,A94)+1</f>
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <f>IF(NOT(A96=0),A96,A95)+1</f>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <f>IF(NOT(A97=0),A97,A96)+1</f>
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>326</v>
+        <v>163</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <f>IF(NOT(A98=0),A98,A97)+1</f>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>147</v>
+        <v>305</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <f>IF(NOT(A99=0),A99,A98)+1</f>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>325</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <f>IF(NOT(A100=0),A100,A99)+1</f>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <f>IF(NOT(A101=0),A101,A100)+1</f>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>131</v>
+        <v>272</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <f>IF(NOT(A102=0),A102,A101)+1</f>
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>292</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <f>IF(NOT(A103=0),A103,A102)+1</f>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>91</v>
+        <v>235</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <f>IF(NOT(A104=0),A104,A103)+1</f>
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>155</v>
+        <v>285</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <f>IF(NOT(A105=0),A105,A104)+1</f>
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>278</v>
+        <v>351</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <f>IF(NOT(A106=0),A106,A105)+1</f>
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>2</v>
+        <v>309</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <f>IF(NOT(A107=0),A107,A106)+1</f>
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <f>IF(NOT(A108=0),A108,A107)+1</f>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>189</v>
+        <v>337</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <f>IF(NOT(A109=0),A109,A108)+1</f>
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <f>IF(NOT(A110=0),A110,A109)+1</f>
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>13</v>
+        <v>207</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <f>IF(NOT(A111=0),A111,A110)+1</f>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>78</v>
+        <v>300</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <f>IF(NOT(A112=0),A112,A111)+1</f>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>15</v>
+        <v>179</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <f>IF(NOT(A113=0),A113,A112)+1</f>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <f>IF(NOT(A114=0),A114,A113)+1</f>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <f>IF(NOT(A115=0),A115,A114)+1</f>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>24</v>
+        <v>301</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <f>IF(NOT(A116=0),A116,A115)+1</f>
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <f>IF(NOT(A117=0),A117,A116)+1</f>
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <f>IF(NOT(A118=0),A118,A117)+1</f>
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>34</v>
+        <v>296</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <f>IF(NOT(A119=0),A119,A118)+1</f>
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <f>IF(NOT(A120=0),A120,A119)+1</f>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <f>IF(NOT(A121=0),A121,A120)+1</f>
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <f>IF(NOT(A122=0),A122,A121)+1</f>
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>273</v>
+        <v>166</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <f>IF(NOT(A123=0),A123,A122)+1</f>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>98</v>
+        <v>202</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <f>IF(NOT(A124=0),A124,A123)+1</f>
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>273</v>
+        <v>196</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <f>IF(NOT(A125=0),A125,A124)+1</f>
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <f>IF(NOT(A126=0),A126,A125)+1</f>
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <f>IF(NOT(A127=0),A127,A126)+1</f>
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <f>IF(NOT(A128=0),A128,A127)+1</f>
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>177</v>
+        <v>60</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <f>IF(NOT(A129=0),A129,A128)+1</f>
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>174</v>
+        <v>243</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <f>IF(NOT(A130=0),A130,A129)+1</f>
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <f>IF(NOT(A131=0),A131,A130)+1</f>
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>30</v>
+        <v>271</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <f>IF(NOT(A132=0),A132,A131)+1</f>
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>188</v>
+        <v>74</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <f>IF(NOT(A133=0),A133,A132)+1</f>
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>353</v>
+        <v>184</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <f>IF(NOT(A134=0),A134,A133)+1</f>
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>284</v>
+        <v>212</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <f>IF(NOT(A135=0),A135,A134)+1</f>
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>287</v>
+        <v>41</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <f>IF(NOT(A136=0),A136,A135)+1</f>
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>282</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <f>IF(NOT(A137=0),A137,A136)+1</f>
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>116</v>
+        <v>336</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <f>IF(NOT(A138=0),A138,A137)+1</f>
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <f>IF(NOT(A139=0),A139,A138)+1</f>
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <f>IF(NOT(A140=0),A140,A139)+1</f>
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <f>IF(NOT(A141=0),A141,A140)+1</f>
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>230</v>
+        <v>308</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <f>IF(NOT(A142=0),A142,A141)+1</f>
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>133</v>
+        <v>64</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <f>IF(NOT(A143=0),A143,A142)+1</f>
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>226</v>
+        <v>40</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <f>IF(NOT(A144=0),A144,A143)+1</f>
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <f>IF(NOT(A145=0),A145,A144)+1</f>
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>44</v>
+        <v>210</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <f>IF(NOT(A146=0),A146,A145)+1</f>
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <f>IF(NOT(A147=0),A147,A146)+1</f>
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>192</v>
+        <v>112</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <f>IF(NOT(A148=0),A148,A147)+1</f>
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>228</v>
+        <v>269</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <f>IF(NOT(A149=0),A149,A148)+1</f>
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>324</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <f>IF(NOT(A150=0),A150,A149)+1</f>
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <f>IF(NOT(A151=0),A151,A150)+1</f>
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>14</v>
+        <v>358</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <f>IF(NOT(A152=0),A152,A151)+1</f>
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>57</v>
+        <v>268</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <f>IF(NOT(A153=0),A153,A152)+1</f>
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>200</v>
+        <v>289</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <f>IF(NOT(A154=0),A154,A153)+1</f>
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <f>IF(NOT(A155=0),A155,A154)+1</f>
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>240</v>
+        <v>297</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <f>IF(NOT(A156=0),A156,A155)+1</f>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>357</v>
+        <v>56</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <f>IF(NOT(A157=0),A157,A156)+1</f>
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>245</v>
+        <v>330</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <f>IF(NOT(A158=0),A158,A157)+1</f>
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>356</v>
+        <v>82</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <f>IF(NOT(A159=0),A159,A158)+1</f>
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>190</v>
+        <v>260</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <f>IF(NOT(A160=0),A160,A159)+1</f>
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>355</v>
+        <v>51</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <f>IF(NOT(A161=0),A161,A160)+1</f>
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>190</v>
+        <v>329</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <f>IF(NOT(A162=0),A162,A161)+1</f>
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>354</v>
+        <v>105</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <f>IF(NOT(A163=0),A163,A162)+1</f>
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <f>IF(NOT(A164=0),A164,A163)+1</f>
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <f>IF(NOT(A165=0),A165,A164)+1</f>
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <f>IF(NOT(A166=0),A166,A165)+1</f>
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>321</v>
+        <v>204</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <f>IF(NOT(A167=0),A167,A166)+1</f>
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>320</v>
+        <v>255</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <f>IF(NOT(A168=0),A168,A167)+1</f>
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>319</v>
+        <v>246</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <f>IF(NOT(A169=0),A169,A168)+1</f>
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>198</v>
+        <v>327</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <f>IF(NOT(A170=0),A170,A169)+1</f>
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <f>IF(NOT(A171=0),A171,A170)+1</f>
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
-        <f>IF(NOT(A172=0),A172,A170)+1</f>
-        <v>149</v>
+        <f>IF(NOT(A172=0),A172,A171)+1</f>
+        <v>146</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>66</v>
+        <v>209</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <f>IF(NOT(A173=0),A173,A172)+1</f>
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>49</v>
+        <v>326</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <f>IF(NOT(A174=0),A174,A173)+1</f>
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <f>IF(NOT(A175=0),A175,A174)+1</f>
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <f>IF(NOT(A176=0),A176,A175)+1</f>
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <f>IF(NOT(A177=0),A177,A176)+1</f>
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <f>IF(NOT(A178=0),A178,A177)+1</f>
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>218</v>
+        <v>144</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <f>IF(NOT(A179=0),A179,A178)+1</f>
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>205</v>
+        <v>131</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <f>IF(NOT(A180=0),A180,A179)+1</f>
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>223</v>
+        <v>292</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <f>IF(NOT(A181=0),A181,A180)+1</f>
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <f>IF(NOT(A182=0),A182,A181)+1</f>
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <f>IF(NOT(A183=0),A183,A182)+1</f>
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <f>IF(NOT(A184=0),A184,A183)+1</f>
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <f>IF(NOT(A185=0),A185,A184)+1</f>
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>197</v>
+        <v>104</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <f>IF(NOT(A186=0),A186,A185)+1</f>
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <f>IF(NOT(A187=0),A187,A186)+1</f>
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <f>IF(NOT(A188=0),A188,A187)+1</f>
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>352</v>
+        <v>13</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <f>IF(NOT(A189=0),A189,A188)+1</f>
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>341</v>
+        <v>78</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <f>IF(NOT(A190=0),A190,A189)+1</f>
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>172</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <f>IF(NOT(A191=0),A191,A190)+1</f>
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>62</v>
+        <v>254</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <f>IF(NOT(A192=0),A192,A191)+1</f>
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <f>IF(NOT(A193=0),A193,A192)+1</f>
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <f>IF(NOT(A194=0),A194,A193)+1</f>
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <f>IF(NOT(A195=0),A195,A194)+1</f>
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <f>IF(NOT(A196=0),A196,A195)+1</f>
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <f>IF(NOT(A197=0),A197,A196)+1</f>
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>55</v>
+        <v>274</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <f>IF(NOT(A198=0),A198,A197)+1</f>
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <f>IF(NOT(A199=0),A199,A198)+1</f>
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>134</v>
+        <v>274</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <f>IF(NOT(A200=0),A200,A199)+1</f>
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>191</v>
+        <v>273</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <f>IF(NOT(A201=0),A201,A200)+1</f>
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <f>IF(NOT(A202=0),A202,A201)+1</f>
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>86</v>
+        <v>273</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <f>IF(NOT(A203=0),A203,A202)+1</f>
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <f>IF(NOT(A204=0),A204,A203)+1</f>
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>333</v>
+        <v>229</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <f>IF(NOT(A205=0),A205,A204)+1</f>
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <f>IF(NOT(A206=0),A206,A205)+1</f>
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>247</v>
+        <v>177</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <f>IF(NOT(A207=0),A207,A206)+1</f>
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <f>IF(NOT(A208=0),A208,A207)+1</f>
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>38</v>
+        <v>188</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <f>IF(NOT(A209=0),A209,A208)+1</f>
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>231</v>
+        <v>30</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <f>IF(NOT(A210=0),A210,A209)+1</f>
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>126</v>
+        <v>188</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <f>IF(NOT(A211=0),A211,A210)+1</f>
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>143</v>
+        <v>353</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <f>IF(NOT(A212=0),A212,A211)+1</f>
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <f>IF(NOT(A213=0),A213,A212)+1</f>
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <f>IF(NOT(A214=0),A214,A213)+1</f>
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>215</v>
+        <v>282</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <f>IF(NOT(A215=0),A215,A214)+1</f>
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <f>IF(NOT(A216=0),A216,A215)+1</f>
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <f>IF(NOT(A217=0),A217,A216)+1</f>
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <f>IF(NOT(A218=0),A218,A217)+1</f>
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>239</v>
+        <v>33</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <f>IF(NOT(A219=0),A219,A218)+1</f>
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>113</v>
+        <v>230</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <f>IF(NOT(A220=0),A220,A219)+1</f>
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <f>IF(NOT(A221=0),A221,A220)+1</f>
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>69</v>
+        <v>226</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <f>IF(NOT(A222=0),A222,A221)+1</f>
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <f>IF(NOT(A223=0),A223,A222)+1</f>
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <f>IF(NOT(A224=0),A224,A223)+1</f>
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <f>IF(NOT(A225=0),A225,A224)+1</f>
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>28</v>
+        <v>192</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <f>IF(NOT(A226=0),A226,A225)+1</f>
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>75</v>
+        <v>228</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <f>IF(NOT(A227=0),A227,A226)+1</f>
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>7</v>
+        <v>324</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <f>IF(NOT(A228=0),A228,A227)+1</f>
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>27</v>
+        <v>233</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <f>IF(NOT(A229=0),A229,A228)+1</f>
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <f>IF(NOT(A230=0),A230,A229)+1</f>
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <f>IF(NOT(A231=0),A231,A230)+1</f>
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <f>IF(NOT(A232=0),A232,A231)+1</f>
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>102</v>
+        <v>237</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <f>IF(NOT(A233=0),A233,A232)+1</f>
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>83</v>
+        <v>240</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <f>IF(NOT(A234=0),A234,A233)+1</f>
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>94</v>
+        <v>357</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <f>IF(NOT(A235=0),A235,A234)+1</f>
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>119</v>
+        <v>245</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <f>IF(NOT(A236=0),A236,A235)+1</f>
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>89</v>
+        <v>356</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <f>IF(NOT(A237=0),A237,A236)+1</f>
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>307</v>
+        <v>190</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <f>IF(NOT(A238=0),A238,A237)+1</f>
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>77</v>
+        <v>355</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <f>IF(NOT(A239=0),A239,A238)+1</f>
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <f>IF(NOT(A240=0),A240,A239)+1</f>
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>183</v>
+        <v>354</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <f>IF(NOT(A241=0),A241,A240)+1</f>
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <f>IF(NOT(A242=0),A242,A241)+1</f>
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <f>IF(NOT(A243=0),A243,A242)+1</f>
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>168</v>
+        <v>322</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <f>IF(NOT(A244=0),A244,A243)+1</f>
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>4</v>
+        <v>321</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <f>IF(NOT(A245=0),A245,A244)+1</f>
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>32</v>
+        <v>320</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <f>IF(NOT(A246=0),A246,A245)+1</f>
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>270</v>
+        <v>319</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <f>IF(NOT(A247=0),A247,A246)+1</f>
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>97</v>
+        <v>198</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <f>IF(NOT(A248=0),A248,A247)+1</f>
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <f>IF(NOT(A249=0),A249,A248)+1</f>
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>346</v>
+        <v>128</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
-        <f>IF(NOT(A250=0),A250,A249)+1</f>
-        <v>227</v>
+        <f>IF(NOT(A250=0),A250,A248)+1</f>
+        <v>224</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <f>IF(NOT(A251=0),A251,A250)+1</f>
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <f>IF(NOT(A252=0),A252,A251)+1</f>
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <f>IF(NOT(A253=0),A253,A252)+1</f>
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <f>IF(NOT(A254=0),A254,A253)+1</f>
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>84</v>
+        <v>350</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <f>IF(NOT(A255=0),A255,A254)+1</f>
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>31</v>
+        <v>218</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <f>IF(NOT(A256=0),A256,A255)+1</f>
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <f>IF(NOT(A257=0),A257,A256)+1</f>
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <f>IF(NOT(A258=0),A258,A257)+1</f>
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>348</v>
+        <v>92</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <f>IF(NOT(A259=0),A259,A258)+1</f>
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>186</v>
+        <v>92</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <f>IF(NOT(A260=0),A260,A259)+1</f>
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>340</v>
+        <v>219</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <f>IF(NOT(A261=0),A261,A260)+1</f>
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>339</v>
+        <v>140</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <f>IF(NOT(A262=0),A262,A261)+1</f>
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>315</v>
+        <v>197</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <f>IF(NOT(A263=0),A263,A262)+1</f>
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <f>IF(NOT(A264=0),A264,A263)+1</f>
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>58</v>
+        <v>187</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <f>IF(NOT(A265=0),A265,A264)+1</f>
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>58</v>
+        <v>352</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <f>IF(NOT(A266=0),A266,A265)+1</f>
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>127</v>
+        <v>341</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <f>IF(NOT(A267=0),A267,A266)+1</f>
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <f>IF(NOT(A268=0),A268,A267)+1</f>
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>312</v>
+        <v>62</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <f>IF(NOT(A269=0),A269,A268)+1</f>
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>311</v>
+        <v>62</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <f>IF(NOT(A270=0),A270,A269)+1</f>
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>311</v>
+        <v>61</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <f>IF(NOT(A271=0),A271,A270)+1</f>
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <f>IF(NOT(A272=0),A272,A271)+1</f>
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>19</v>
+        <v>253</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <f>IF(NOT(A273=0),A273,A272)+1</f>
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <f>IF(NOT(A274=0),A274,A273)+1</f>
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>323</v>
+        <v>55</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <f>IF(NOT(A275=0),A275,A274)+1</f>
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <f>IF(NOT(A276=0),A276,A275)+1</f>
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>303</v>
+        <v>134</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <f>IF(NOT(A277=0),A277,A276)+1</f>
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>68</v>
+        <v>191</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <f>IF(NOT(A278=0),A278,A277)+1</f>
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>281</v>
+        <v>87</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <f>IF(NOT(A279=0),A279,A278)+1</f>
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <f>IF(NOT(A280=0),A280,A279)+1</f>
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <f>IF(NOT(A281=0),A281,A280)+1</f>
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>1</v>
+        <v>333</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <f>IF(NOT(A282=0),A282,A281)+1</f>
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <f>IF(NOT(A283=0),A283,A282)+1</f>
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>46</v>
+        <v>247</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <f>IF(NOT(A284=0),A284,A283)+1</f>
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>59</v>
+        <v>242</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <f>IF(NOT(A285=0),A285,A284)+1</f>
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>261</v>
+        <v>38</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <f>IF(NOT(A286=0),A286,A285)+1</f>
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <f>IF(NOT(A287=0),A287,A286)+1</f>
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <f>IF(NOT(A288=0),A288,A287)+1</f>
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>338</v>
+        <v>143</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <f>IF(NOT(A289=0),A289,A288)+1</f>
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>158</v>
+        <v>251</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <f>IF(NOT(A290=0),A290,A289)+1</f>
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>164</v>
+        <v>234</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <f>IF(NOT(A291=0),A291,A290)+1</f>
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <f>IF(NOT(A292=0),A292,A291)+1</f>
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <f>IF(NOT(A293=0),A293,A292)+1</f>
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <f>IF(NOT(A294=0),A294,A293)+1</f>
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>203</v>
+        <v>107</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <f>IF(NOT(A295=0),A295,A294)+1</f>
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>314</v>
+        <v>239</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <f>IF(NOT(A296=0),A296,A295)+1</f>
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>313</v>
+        <v>113</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <f>IF(NOT(A297=0),A297,A296)+1</f>
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <f>IF(NOT(A298=0),A298,A297)+1</f>
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>146</v>
+        <v>69</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <f>IF(NOT(A299=0),A299,A298)+1</f>
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <f>IF(NOT(A300=0),A300,A299)+1</f>
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <f>IF(NOT(A301=0),A301,A300)+1</f>
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>299</v>
+        <v>106</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <f>IF(NOT(A302=0),A302,A301)+1</f>
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>298</v>
+        <v>28</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <f>IF(NOT(A303=0),A303,A302)+1</f>
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>342</v>
+        <v>75</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <f>IF(NOT(A304=0),A304,A303)+1</f>
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>162</v>
+        <v>7</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <f>IF(NOT(A305=0),A305,A304)+1</f>
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>335</v>
+        <v>27</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
         <f>IF(NOT(A306=0),A306,A305)+1</f>
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>310</v>
+        <v>47</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <f>IF(NOT(A307=0),A307,A306)+1</f>
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <f>IF(NOT(A308=0),A308,A307)+1</f>
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <f>IF(NOT(A309=0),A309,A308)+1</f>
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>220</v>
+        <v>102</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <f>IF(NOT(A310=0),A310,A309)+1</f>
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>332</v>
+        <v>83</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <f>IF(NOT(A311=0),A311,A310)+1</f>
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>206</v>
+        <v>94</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <f>IF(NOT(A312=0),A312,A311)+1</f>
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>181</v>
+        <v>119</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <f>IF(NOT(A313=0),A313,A312)+1</f>
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>347</v>
+        <v>89</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
         <f>IF(NOT(A314=0),A314,A313)+1</f>
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <f>IF(NOT(A315=0),A315,A314)+1</f>
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <f>IF(NOT(A316=0),A316,A315)+1</f>
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <f>IF(NOT(A317=0),A317,A316)+1</f>
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>334</v>
+        <v>183</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <f>IF(NOT(A318=0),A318,A317)+1</f>
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>291</v>
+        <v>176</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <f>IF(NOT(A319=0),A319,A318)+1</f>
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
         <f>IF(NOT(A320=0),A320,A319)+1</f>
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>252</v>
+        <v>168</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <f>IF(NOT(A321=0),A321,A320)+1</f>
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>241</v>
+        <v>4</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <f>IF(NOT(A322=0),A322,A321)+1</f>
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>211</v>
+        <v>32</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <f>IF(NOT(A323=0),A323,A322)+1</f>
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>345</v>
+        <v>270</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
         <f>IF(NOT(A324=0),A324,A323)+1</f>
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>294</v>
+        <v>97</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <f>IF(NOT(A325=0),A325,A324)+1</f>
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <f>IF(NOT(A326=0),A326,A325)+1</f>
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>185</v>
+        <v>346</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
         <f>IF(NOT(A327=0),A327,A326)+1</f>
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>193</v>
+        <v>72</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <f>IF(NOT(A328=0),A328,A327)+1</f>
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
         <f>IF(NOT(A329=0),A329,A328)+1</f>
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
         <f>IF(NOT(A330=0),A330,A329)+1</f>
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>256</v>
+        <v>73</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <f>IF(NOT(A331=0),A331,A330)+1</f>
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>250</v>
+        <v>84</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
         <f>IF(NOT(A332=0),A332,A331)+1</f>
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>208</v>
+        <v>31</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
         <f>IF(NOT(A333=0),A333,A332)+1</f>
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>306</v>
+        <v>244</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
         <f>IF(NOT(A334=0),A334,A333)+1</f>
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
         <f>IF(NOT(A335=0),A335,A334)+1</f>
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <f>IF(NOT(A336=0),A336,A335)+1</f>
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>111</v>
+        <v>186</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
         <f>IF(NOT(A337=0),A337,A336)+1</f>
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <f>IF(NOT(A338=0),A338,A337)+1</f>
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <f>IF(NOT(A339=0),A339,A338)+1</f>
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
         <f>IF(NOT(A340=0),A340,A339)+1</f>
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>337</v>
+        <v>100</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
         <f>IF(NOT(A341=0),A341,A340)+1</f>
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>207</v>
+        <v>58</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <f>IF(NOT(A342=0),A342,A341)+1</f>
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>179</v>
+        <v>58</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
         <f>IF(NOT(A343=0),A343,A342)+1</f>
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
         <f>IF(NOT(A344=0),A344,A343)+1</f>
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>318</v>
+        <v>136</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
         <f>IF(NOT(A345=0),A345,A344)+1</f>
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
         <f>IF(NOT(A346=0),A346,A345)+1</f>
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>80</v>
+        <v>311</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
         <f>IF(NOT(A347=0),A347,A346)+1</f>
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>166</v>
+        <v>311</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
         <f>IF(NOT(A348=0),A348,A347)+1</f>
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>196</v>
+        <v>257</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
         <f>IF(NOT(A349=0),A349,A348)+1</f>
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>194</v>
+        <v>19</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
         <f>IF(NOT(A350=0),A350,A349)+1</f>
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
         <f>IF(NOT(A351=0),A351,A350)+1</f>
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>130</v>
+        <v>323</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
         <f>IF(NOT(A352=0),A352,A351)+1</f>
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
         <f>IF(NOT(A353=0),A353,A352)+1</f>
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>212</v>
+        <v>303</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
         <f>IF(NOT(A354=0),A354,A353)+1</f>
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
         <f>IF(NOT(A355=0),A355,A354)+1</f>
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
         <f>IF(NOT(A356=0),A356,A355)+1</f>
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <f>IF(NOT(A357=0),A357,A356)+1</f>
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
         <f>IF(NOT(A358=0),A358,A357)+1</f>
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
         <f>IF(NOT(A359=0),A359,A358)+1</f>
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>180</v>
+        <v>25</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
         <f>IF(NOT(A360=0),A360,A359)+1</f>
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>269</v>
+        <v>46</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
         <f>IF(NOT(A361=0),A361,A360)+1</f>
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>267</v>
+        <v>59</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
         <f>IF(NOT(A362=0),A362,A361)+1</f>
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
         <f>IF(NOT(A363=0),A363,A362)+1</f>
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
         <f>IF(NOT(A364=0),A364,A363)+1</f>
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
         <f>IF(NOT(A365=0),A365,A364)+1</f>
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>82</v>
+        <v>338</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
         <f>IF(NOT(A366=0),A366,A365)+1</f>
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>51</v>
+        <v>158</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
         <f>IF(NOT(A367=0),A367,A366)+1</f>
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
         <f>IF(NOT(A368=0),A368,A367)+1</f>
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>105</v>
+        <v>213</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
         <f>IF(NOT(A369=0),A369,A368)+1</f>
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
         <f>IF(NOT(A370=0),A370,A369)+1</f>
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
         <f>IF(NOT(A371=0),A371,A370)+1</f>
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>118</v>
+        <v>203</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
         <f>IF(NOT(A372=0),A372,A371)+1</f>
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>209</v>
+        <v>314</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
         <f>IF(NOT(A373=0),A373,A372)+1</f>
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>108</v>
+        <v>313</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
         <f>IF(NOT(A374=0),A374,A373)+1</f>
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -15277,6 +15274,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A237:B237"/>
@@ -15293,13 +15297,6 @@
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A125:B125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ALGORITHMS_LIST.xlsx
+++ b/ALGORITHMS_LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0\Git\beginner-algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE06DD6-579E-4987-A37A-93DD1DD51A40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440E34DE-3E3C-4A1A-A619-ADD9273449DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F3AEC63A-3935-431B-9D94-C19A95072D1B}"/>
   </bookViews>
@@ -3981,7 +3981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC73345-1EB4-493B-9D32-2379CC101C9C}">
   <dimension ref="A1:D375"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="D2" s="8">
         <f ca="1">RANDBETWEEN(1,A375)</f>
-        <v>148</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4215,304 +4215,302 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>1</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <f>IF(NOT(A28=0),A28,A27)+1</f>
-        <v>2</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <f>IF(NOT(A29=0),A29,A28)+1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <f>IF(NOT(A30=0),A30,A29)+1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>299</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <f>IF(NOT(A31=0),A31,A30)+1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <f>IF(NOT(A32=0),A32,A31)+1</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <f>IF(NOT(A33=0),A33,A32)+1</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <f>IF(NOT(A34=0),A34,A33)+1</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>342</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <f>IF(NOT(A35=0),A35,A34)+1</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>151</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <f>IF(NOT(A36=0),A36,A35)+1</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>162</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <f>IF(NOT(A37=0),A37,A36)+1</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>295</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <f>IF(NOT(A38=0),A38,A37)+1</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>335</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <f>IF(NOT(A39=0),A39,A38)+1</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>173</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <f>IF(NOT(A40=0),A40,A39)+1</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <f>IF(NOT(A41=0),A41,A40)+1</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <f>IF(NOT(A42=0),A42,A41)+1</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>22</v>
+        <v>310</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <f>IF(NOT(A43=0),A43,A42)+1</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <f>IF(NOT(A44=0),A44,A43)+1</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>182</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <f>IF(NOT(A45=0),A45,A44)+1</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <f>IF(NOT(A46=0),A46,A45)+1</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <f>IF(NOT(A47=0),A47,A46)+1</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <f>IF(NOT(A48=0),A48,A47)+1</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>332</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <f>IF(NOT(A49=0),A49,A48)+1</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <f>IF(NOT(A50=0),A50,A49)+1</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>206</v>
+        <v>332</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <f>IF(NOT(A51=0),A51,A50)+1</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>343</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <f>IF(NOT(A52=0),A52,A51)+1</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <f>IF(NOT(A53=0),A53,A52)+1</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>160</v>
+        <v>343</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <f>IF(NOT(A54=0),A54,A53)+1</f>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>347</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <f>IF(NOT(A55=0),A55,A54)+1</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <f>IF(NOT(A56=0),A56,A55)+1</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <f>IF(NOT(A57=0),A57,A56)+1</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>349</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <f>IF(NOT(A58=0),A58,A57)+1</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>85</v>
+        <v>304</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <f>IF(NOT(A59=0),A59,A58)+1</f>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>29</v>
+        <v>349</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <f>IF(NOT(A60=0),A60,A59)+1</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>85</v>
@@ -4521,1789 +4519,1789 @@
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <f>IF(NOT(A61=0),A61,A60)+1</f>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>286</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <f>IF(NOT(A62=0),A62,A61)+1</f>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>334</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <f>IF(NOT(A63=0),A63,A62)+1</f>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>88</v>
+        <v>286</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <f>IF(NOT(A64=0),A64,A63)+1</f>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>291</v>
+        <v>334</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <f>IF(NOT(A65=0),A65,A64)+1</f>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>344</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <f>IF(NOT(A66=0),A66,A65)+1</f>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>129</v>
+        <v>291</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <f>IF(NOT(A67=0),A67,A66)+1</f>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>26</v>
+        <v>344</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <f>IF(NOT(A68=0),A68,A67)+1</f>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>252</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <f>IF(NOT(A69=0),A69,A68)+1</f>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <f>IF(NOT(A70=0),A70,A69)+1</f>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <f>IF(NOT(A71=0),A71,A70)+1</f>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <f>IF(NOT(A72=0),A72,A71)+1</f>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <f>IF(NOT(A73=0),A73,A72)+1</f>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>331</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <f>IF(NOT(A74=0),A74,A73)+1</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>345</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <f>IF(NOT(A75=0),A75,A74)+1</f>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>5</v>
+        <v>331</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <f>IF(NOT(A76=0),A76,A75)+1</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>294</v>
+        <v>345</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <f>IF(NOT(A77=0),A77,A76)+1</f>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <f>IF(NOT(A78=0),A78,A77)+1</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>121</v>
+        <v>294</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <f>IF(NOT(A79=0),A79,A78)+1</f>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <f>IF(NOT(A80=0),A80,A79)+1</f>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <f>IF(NOT(A81=0),A81,A80)+1</f>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <f>IF(NOT(A82=0),A82,A81)+1</f>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>193</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <f>IF(NOT(A83=0),A83,A82)+1</f>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>36</v>
+        <v>193</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <f>IF(NOT(A84=0),A84,A83)+1</f>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>224</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <f>IF(NOT(A85=0),A85,A84)+1</f>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>76</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <f>IF(NOT(A86=0),A86,A85)+1</f>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <f>IF(NOT(A87=0),A87,A86)+1</f>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <f>IF(NOT(A88=0),A88,A87)+1</f>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>256</v>
+        <v>124</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <f>IF(NOT(A89=0),A89,A88)+1</f>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <f>IF(NOT(A90=0),A90,A89)+1</f>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>250</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <f>IF(NOT(A91=0),A91,A90)+1</f>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <f>IF(NOT(A92=0),A92,A91)+1</f>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>208</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <f>IF(NOT(A93=0),A93,A92)+1</f>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <f>IF(NOT(A94=0),A94,A93)+1</f>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>306</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <f>IF(NOT(A95=0),A95,A94)+1</f>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <f>IF(NOT(A96=0),A96,A95)+1</f>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>114</v>
+        <v>302</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <f>IF(NOT(A97=0),A97,A96)+1</f>
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <f>IF(NOT(A98=0),A98,A97)+1</f>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>305</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <f>IF(NOT(A99=0),A99,A98)+1</f>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>90</v>
+        <v>305</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <f>IF(NOT(A100=0),A100,A99)+1</f>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <f>IF(NOT(A101=0),A101,A100)+1</f>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>272</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <f>IF(NOT(A102=0),A102,A101)+1</f>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>12</v>
+        <v>272</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <f>IF(NOT(A103=0),A103,A102)+1</f>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <f>IF(NOT(A104=0),A104,A103)+1</f>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <f>IF(NOT(A105=0),A105,A104)+1</f>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>351</v>
+        <v>285</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <f>IF(NOT(A106=0),A106,A105)+1</f>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <f>IF(NOT(A107=0),A107,A106)+1</f>
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>148</v>
+        <v>309</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <f>IF(NOT(A108=0),A108,A107)+1</f>
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>337</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <f>IF(NOT(A109=0),A109,A108)+1</f>
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>262</v>
+        <v>337</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <f>IF(NOT(A110=0),A110,A109)+1</f>
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>207</v>
+        <v>262</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <f>IF(NOT(A111=0),A111,A110)+1</f>
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>300</v>
+        <v>207</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <f>IF(NOT(A112=0),A112,A111)+1</f>
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>179</v>
+        <v>300</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <f>IF(NOT(A113=0),A113,A112)+1</f>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>259</v>
+        <v>179</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <f>IF(NOT(A114=0),A114,A113)+1</f>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>21</v>
+        <v>259</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <f>IF(NOT(A115=0),A115,A114)+1</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>301</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <f>IF(NOT(A116=0),A116,A115)+1</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <f>IF(NOT(A117=0),A117,A116)+1</f>
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>249</v>
+        <v>318</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <f>IF(NOT(A118=0),A118,A117)+1</f>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <f>IF(NOT(A119=0),A119,A118)+1</f>
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <f>IF(NOT(A120=0),A120,A119)+1</f>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>80</v>
+        <v>293</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <f>IF(NOT(A121=0),A121,A120)+1</f>
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>275</v>
+        <v>80</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <f>IF(NOT(A122=0),A122,A121)+1</f>
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>166</v>
+        <v>275</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <f>IF(NOT(A123=0),A123,A122)+1</f>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <f>IF(NOT(A124=0),A124,A123)+1</f>
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <f>IF(NOT(A125=0),A125,A124)+1</f>
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <f>IF(NOT(A126=0),A126,A125)+1</f>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <f>IF(NOT(A127=0),A127,A126)+1</f>
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>110</v>
+        <v>194</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <f>IF(NOT(A128=0),A128,A127)+1</f>
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <f>IF(NOT(A129=0),A129,A128)+1</f>
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>243</v>
+        <v>60</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <f>IF(NOT(A130=0),A130,A129)+1</f>
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>130</v>
+        <v>243</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <f>IF(NOT(A131=0),A131,A130)+1</f>
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>271</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <f>IF(NOT(A132=0),A132,A131)+1</f>
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>74</v>
+        <v>271</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <f>IF(NOT(A133=0),A133,A132)+1</f>
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>184</v>
+        <v>74</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <f>IF(NOT(A134=0),A134,A133)+1</f>
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <f>IF(NOT(A135=0),A135,A134)+1</f>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>41</v>
+        <v>212</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <f>IF(NOT(A136=0),A136,A135)+1</f>
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <f>IF(NOT(A137=0),A137,A136)+1</f>
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>336</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <f>IF(NOT(A138=0),A138,A137)+1</f>
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>279</v>
+        <v>336</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <f>IF(NOT(A139=0),A139,A138)+1</f>
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>42</v>
+        <v>279</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <f>IF(NOT(A140=0),A140,A139)+1</f>
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <f>IF(NOT(A141=0),A141,A140)+1</f>
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>308</v>
+        <v>63</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <f>IF(NOT(A142=0),A142,A141)+1</f>
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>64</v>
+        <v>308</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <f>IF(NOT(A143=0),A143,A142)+1</f>
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <f>IF(NOT(A144=0),A144,A143)+1</f>
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <f>IF(NOT(A145=0),A145,A144)+1</f>
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>210</v>
+        <v>64</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <f>IF(NOT(A146=0),A146,A145)+1</f>
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <f>IF(NOT(A147=0),A147,A146)+1</f>
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <f>IF(NOT(A148=0),A148,A147)+1</f>
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>269</v>
+        <v>112</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <f>IF(NOT(A149=0),A149,A148)+1</f>
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>45</v>
+        <v>269</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <f>IF(NOT(A150=0),A150,A149)+1</f>
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>267</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <f>IF(NOT(A151=0),A151,A150)+1</f>
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>358</v>
+        <v>267</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <f>IF(NOT(A152=0),A152,A151)+1</f>
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>268</v>
+        <v>358</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <f>IF(NOT(A153=0),A153,A152)+1</f>
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <f>IF(NOT(A154=0),A154,A153)+1</f>
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <f>IF(NOT(A155=0),A155,A154)+1</f>
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <f>IF(NOT(A156=0),A156,A155)+1</f>
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>56</v>
+        <v>297</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <f>IF(NOT(A157=0),A157,A156)+1</f>
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>330</v>
+        <v>56</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <f>IF(NOT(A158=0),A158,A157)+1</f>
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>82</v>
+        <v>330</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <f>IF(NOT(A159=0),A159,A158)+1</f>
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>260</v>
+        <v>82</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <f>IF(NOT(A160=0),A160,A159)+1</f>
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>51</v>
+        <v>260</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <f>IF(NOT(A161=0),A161,A160)+1</f>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>329</v>
+        <v>51</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <f>IF(NOT(A162=0),A162,A161)+1</f>
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>105</v>
+        <v>329</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <f>IF(NOT(A163=0),A163,A162)+1</f>
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>227</v>
+        <v>105</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <f>IF(NOT(A164=0),A164,A163)+1</f>
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>105</v>
+        <v>227</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <f>IF(NOT(A165=0),A165,A164)+1</f>
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>328</v>
+        <v>105</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <f>IF(NOT(A166=0),A166,A165)+1</f>
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>204</v>
+        <v>328</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <f>IF(NOT(A167=0),A167,A166)+1</f>
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <f>IF(NOT(A168=0),A168,A167)+1</f>
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <f>IF(NOT(A169=0),A169,A168)+1</f>
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>327</v>
+        <v>246</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <f>IF(NOT(A170=0),A170,A169)+1</f>
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>118</v>
+        <v>327</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <f>IF(NOT(A171=0),A171,A170)+1</f>
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <f>IF(NOT(A172=0),A172,A171)+1</f>
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>209</v>
+        <v>132</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <f>IF(NOT(A173=0),A173,A172)+1</f>
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <f>IF(NOT(A174=0),A174,A173)+1</f>
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>108</v>
+        <v>326</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <f>IF(NOT(A175=0),A175,A174)+1</f>
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <f>IF(NOT(A176=0),A176,A175)+1</f>
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <f>IF(NOT(A177=0),A177,A176)+1</f>
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>325</v>
+        <v>175</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <f>IF(NOT(A178=0),A178,A177)+1</f>
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>144</v>
+        <v>325</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <f>IF(NOT(A179=0),A179,A178)+1</f>
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <f>IF(NOT(A180=0),A180,A179)+1</f>
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>292</v>
+        <v>131</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <f>IF(NOT(A181=0),A181,A180)+1</f>
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>91</v>
+        <v>292</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <f>IF(NOT(A182=0),A182,A181)+1</f>
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <f>IF(NOT(A183=0),A183,A182)+1</f>
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>278</v>
+        <v>155</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <f>IF(NOT(A184=0),A184,A183)+1</f>
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>2</v>
+        <v>278</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <f>IF(NOT(A185=0),A185,A184)+1</f>
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>104</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <f>IF(NOT(A186=0),A186,A185)+1</f>
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <f>IF(NOT(A187=0),A187,A186)+1</f>
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <f>IF(NOT(A188=0),A188,A187)+1</f>
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>13</v>
+        <v>214</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <f>IF(NOT(A189=0),A189,A188)+1</f>
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <f>IF(NOT(A190=0),A190,A189)+1</f>
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <f>IF(NOT(A191=0),A191,A190)+1</f>
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>254</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <f>IF(NOT(A192=0),A192,A191)+1</f>
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>8</v>
+        <v>254</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <f>IF(NOT(A193=0),A193,A192)+1</f>
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <f>IF(NOT(A194=0),A194,A193)+1</f>
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>283</v>
+        <v>24</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <f>IF(NOT(A195=0),A195,A194)+1</f>
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <f>IF(NOT(A196=0),A196,A195)+1</f>
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>34</v>
+        <v>288</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <f>IF(NOT(A197=0),A197,A196)+1</f>
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>274</v>
+        <v>34</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <f>IF(NOT(A198=0),A198,A197)+1</f>
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>149</v>
+        <v>274</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <f>IF(NOT(A199=0),A199,A198)+1</f>
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>274</v>
+        <v>149</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <f>IF(NOT(A200=0),A200,A199)+1</f>
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <f>IF(NOT(A201=0),A201,A200)+1</f>
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>98</v>
+        <v>273</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <f>IF(NOT(A202=0),A202,A201)+1</f>
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>273</v>
+        <v>98</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <f>IF(NOT(A203=0),A203,A202)+1</f>
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <f>IF(NOT(A204=0),A204,A203)+1</f>
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>229</v>
+        <v>280</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <f>IF(NOT(A205=0),A205,A204)+1</f>
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>170</v>
+        <v>229</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <f>IF(NOT(A206=0),A206,A205)+1</f>
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <f>IF(NOT(A207=0),A207,A206)+1</f>
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <f>IF(NOT(A208=0),A208,A207)+1</f>
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <f>IF(NOT(A209=0),A209,A208)+1</f>
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>30</v>
+        <v>188</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <f>IF(NOT(A210=0),A210,A209)+1</f>
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>188</v>
+        <v>30</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <f>IF(NOT(A211=0),A211,A210)+1</f>
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>353</v>
+        <v>188</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <f>IF(NOT(A212=0),A212,A211)+1</f>
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>284</v>
+        <v>353</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <f>IF(NOT(A213=0),A213,A212)+1</f>
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <f>IF(NOT(A214=0),A214,A213)+1</f>
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <f>IF(NOT(A215=0),A215,A214)+1</f>
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>116</v>
+        <v>282</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <f>IF(NOT(A216=0),A216,A215)+1</f>
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>266</v>
+        <v>116</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <f>IF(NOT(A217=0),A217,A216)+1</f>
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>53</v>
+        <v>266</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <f>IF(NOT(A218=0),A218,A217)+1</f>
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <f>IF(NOT(A219=0),A219,A218)+1</f>
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>230</v>
+        <v>33</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <f>IF(NOT(A220=0),A220,A219)+1</f>
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>133</v>
+        <v>230</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <f>IF(NOT(A221=0),A221,A220)+1</f>
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>226</v>
+        <v>133</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <f>IF(NOT(A222=0),A222,A221)+1</f>
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>35</v>
+        <v>226</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <f>IF(NOT(A223=0),A223,A222)+1</f>
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <f>IF(NOT(A224=0),A224,A223)+1</f>
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <f>IF(NOT(A225=0),A225,A224)+1</f>
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <f>IF(NOT(A226=0),A226,A225)+1</f>
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <f>IF(NOT(A227=0),A227,A226)+1</f>
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>324</v>
+        <v>228</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <f>IF(NOT(A228=0),A228,A227)+1</f>
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>233</v>
+        <v>324</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <f>IF(NOT(A229=0),A229,A228)+1</f>
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <f>IF(NOT(A230=0),A230,A229)+1</f>
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <f>IF(NOT(A231=0),A231,A230)+1</f>
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>200</v>
+        <v>57</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <f>IF(NOT(A232=0),A232,A231)+1</f>
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <f>IF(NOT(A233=0),A233,A232)+1</f>
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <f>IF(NOT(A234=0),A234,A233)+1</f>
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>357</v>
+        <v>240</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <f>IF(NOT(A235=0),A235,A234)+1</f>
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>245</v>
+        <v>357</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <f>IF(NOT(A236=0),A236,A235)+1</f>
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>356</v>
+        <v>245</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <f>IF(NOT(A237=0),A237,A236)+1</f>
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>190</v>
+        <v>356</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <f>IF(NOT(A238=0),A238,A237)+1</f>
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>355</v>
+        <v>190</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <f>IF(NOT(A239=0),A239,A238)+1</f>
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>190</v>
+        <v>355</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <f>IF(NOT(A240=0),A240,A239)+1</f>
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>354</v>
+        <v>190</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <f>IF(NOT(A241=0),A241,A240)+1</f>
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>217</v>
+        <v>354</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <f>IF(NOT(A242=0),A242,A241)+1</f>
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>142</v>
+        <v>217</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <f>IF(NOT(A243=0),A243,A242)+1</f>
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>322</v>
+        <v>142</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <f>IF(NOT(A244=0),A244,A243)+1</f>
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <f>IF(NOT(A245=0),A245,A244)+1</f>
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <f>IF(NOT(A246=0),A246,A245)+1</f>
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <f>IF(NOT(A247=0),A247,A246)+1</f>
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>198</v>
+        <v>319</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <f>IF(NOT(A248=0),A248,A247)+1</f>
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>50</v>
+        <v>198</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <f>IF(NOT(A249=0),A249,A248)+1</f>
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
-        <f>IF(NOT(A250=0),A250,A248)+1</f>
-        <v>224</v>
+        <f>IF(NOT(A250=0),A250,A249)+1</f>
+        <v>222</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
-        <f>IF(NOT(A251=0),A251,A250)+1</f>
-        <v>225</v>
+        <f>IF(NOT(A251=0),A251,A249)+1</f>
+        <v>223</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <f>IF(NOT(A252=0),A252,A251)+1</f>
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>156</v>
+        <v>49</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <f>IF(NOT(A253=0),A253,A252)+1</f>
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <f>IF(NOT(A254=0),A254,A253)+1</f>
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>350</v>
+        <v>138</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <f>IF(NOT(A255=0),A255,A254)+1</f>
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>218</v>
+        <v>350</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <f>IF(NOT(A256=0),A256,A255)+1</f>
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <f>IF(NOT(A257=0),A257,A256)+1</f>
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <f>IF(NOT(A258=0),A258,A257)+1</f>
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>92</v>
+        <v>223</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <f>IF(NOT(A259=0),A259,A258)+1</f>
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>92</v>
@@ -6312,88 +6310,88 @@
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <f>IF(NOT(A260=0),A260,A259)+1</f>
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>219</v>
+        <v>92</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <f>IF(NOT(A261=0),A261,A260)+1</f>
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>140</v>
+        <v>219</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <f>IF(NOT(A262=0),A262,A261)+1</f>
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <f>IF(NOT(A263=0),A263,A262)+1</f>
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <f>IF(NOT(A264=0),A264,A263)+1</f>
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <f>IF(NOT(A265=0),A265,A264)+1</f>
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>352</v>
+        <v>187</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <f>IF(NOT(A266=0),A266,A265)+1</f>
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <f>IF(NOT(A267=0),A267,A266)+1</f>
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>172</v>
+        <v>341</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <f>IF(NOT(A268=0),A268,A267)+1</f>
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <f>IF(NOT(A269=0),A269,A268)+1</f>
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>62</v>
@@ -6402,259 +6400,259 @@
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <f>IF(NOT(A270=0),A270,A269)+1</f>
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <f>IF(NOT(A271=0),A271,A270)+1</f>
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>276</v>
+        <v>61</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <f>IF(NOT(A272=0),A272,A271)+1</f>
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <f>IF(NOT(A273=0),A273,A272)+1</f>
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>39</v>
+        <v>253</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <f>IF(NOT(A274=0),A274,A273)+1</f>
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <f>IF(NOT(A275=0),A275,A274)+1</f>
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <f>IF(NOT(A276=0),A276,A275)+1</f>
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <f>IF(NOT(A277=0),A277,A276)+1</f>
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <f>IF(NOT(A278=0),A278,A277)+1</f>
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <f>IF(NOT(A279=0),A279,A278)+1</f>
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <f>IF(NOT(A280=0),A280,A279)+1</f>
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>232</v>
+        <v>86</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <f>IF(NOT(A281=0),A281,A280)+1</f>
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>333</v>
+        <v>232</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <f>IF(NOT(A282=0),A282,A281)+1</f>
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>178</v>
+        <v>333</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <f>IF(NOT(A283=0),A283,A282)+1</f>
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>247</v>
+        <v>178</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <f>IF(NOT(A284=0),A284,A283)+1</f>
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <f>IF(NOT(A285=0),A285,A284)+1</f>
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>38</v>
+        <v>242</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <f>IF(NOT(A286=0),A286,A285)+1</f>
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>231</v>
+        <v>38</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <f>IF(NOT(A287=0),A287,A286)+1</f>
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>126</v>
+        <v>231</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <f>IF(NOT(A288=0),A288,A287)+1</f>
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <f>IF(NOT(A289=0),A289,A288)+1</f>
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>251</v>
+        <v>143</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <f>IF(NOT(A290=0),A290,A289)+1</f>
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <f>IF(NOT(A291=0),A291,A290)+1</f>
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <f>IF(NOT(A292=0),A292,A291)+1</f>
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <f>IF(NOT(A293=0),A293,A292)+1</f>
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>238</v>
+        <v>171</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <f>IF(NOT(A294=0),A294,A293)+1</f>
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>107</v>
+        <v>238</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <f>IF(NOT(A295=0),A295,A294)+1</f>
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>239</v>
+        <v>107</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <f>IF(NOT(A296=0),A296,A295)+1</f>
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>113</v>
+        <v>239</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <f>IF(NOT(A297=0),A297,A296)+1</f>
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <f>IF(NOT(A298=0),A298,A297)+1</f>
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>69</v>
@@ -6663,52 +6661,52 @@
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <f>IF(NOT(A299=0),A299,A298)+1</f>
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <f>IF(NOT(A300=0),A300,A299)+1</f>
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <f>IF(NOT(A301=0),A301,A300)+1</f>
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <f>IF(NOT(A302=0),A302,A301)+1</f>
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <f>IF(NOT(A303=0),A303,A302)+1</f>
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <f>IF(NOT(A304=0),A304,A303)+1</f>
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>7</v>
@@ -6717,7 +6715,7 @@
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <f>IF(NOT(A305=0),A305,A304)+1</f>
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>27</v>
@@ -6726,7 +6724,7 @@
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
         <f>IF(NOT(A306=0),A306,A305)+1</f>
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>47</v>
@@ -6735,7 +6733,7 @@
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <f>IF(NOT(A307=0),A307,A306)+1</f>
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>152</v>
@@ -6744,7 +6742,7 @@
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <f>IF(NOT(A308=0),A308,A307)+1</f>
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>195</v>
@@ -6753,7 +6751,7 @@
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <f>IF(NOT(A309=0),A309,A308)+1</f>
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>102</v>
@@ -6762,7 +6760,7 @@
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <f>IF(NOT(A310=0),A310,A309)+1</f>
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>83</v>
@@ -6771,7 +6769,7 @@
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <f>IF(NOT(A311=0),A311,A310)+1</f>
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>94</v>
@@ -6780,7 +6778,7 @@
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <f>IF(NOT(A312=0),A312,A311)+1</f>
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>119</v>
@@ -6789,7 +6787,7 @@
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <f>IF(NOT(A313=0),A313,A312)+1</f>
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>89</v>
@@ -6798,7 +6796,7 @@
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
         <f>IF(NOT(A314=0),A314,A313)+1</f>
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>307</v>
@@ -6807,7 +6805,7 @@
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <f>IF(NOT(A315=0),A315,A314)+1</f>
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>77</v>
@@ -6816,7 +6814,7 @@
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <f>IF(NOT(A316=0),A316,A315)+1</f>
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>139</v>
@@ -6825,7 +6823,7 @@
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <f>IF(NOT(A317=0),A317,A316)+1</f>
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>183</v>
@@ -6834,7 +6832,7 @@
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <f>IF(NOT(A318=0),A318,A317)+1</f>
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>176</v>
@@ -6843,7 +6841,7 @@
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <f>IF(NOT(A319=0),A319,A318)+1</f>
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>145</v>
@@ -6852,7 +6850,7 @@
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
         <f>IF(NOT(A320=0),A320,A319)+1</f>
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>168</v>
@@ -6861,7 +6859,7 @@
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <f>IF(NOT(A321=0),A321,A320)+1</f>
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>4</v>
@@ -6870,7 +6868,7 @@
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <f>IF(NOT(A322=0),A322,A321)+1</f>
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>32</v>
@@ -6879,7 +6877,7 @@
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <f>IF(NOT(A323=0),A323,A322)+1</f>
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>270</v>
@@ -6888,7 +6886,7 @@
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
         <f>IF(NOT(A324=0),A324,A323)+1</f>
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>97</v>
@@ -6897,7 +6895,7 @@
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <f>IF(NOT(A325=0),A325,A324)+1</f>
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>81</v>
@@ -6906,7 +6904,7 @@
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <f>IF(NOT(A326=0),A326,A325)+1</f>
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>346</v>
@@ -6915,7 +6913,7 @@
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
         <f>IF(NOT(A327=0),A327,A326)+1</f>
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>72</v>
@@ -6924,7 +6922,7 @@
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <f>IF(NOT(A328=0),A328,A327)+1</f>
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>125</v>
@@ -6933,7 +6931,7 @@
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
         <f>IF(NOT(A329=0),A329,A328)+1</f>
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>125</v>
@@ -6942,7 +6940,7 @@
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
         <f>IF(NOT(A330=0),A330,A329)+1</f>
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>73</v>
@@ -6951,7 +6949,7 @@
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <f>IF(NOT(A331=0),A331,A330)+1</f>
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>84</v>
@@ -6960,7 +6958,7 @@
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
         <f>IF(NOT(A332=0),A332,A331)+1</f>
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>31</v>
@@ -6969,7 +6967,7 @@
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
         <f>IF(NOT(A333=0),A333,A332)+1</f>
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>244</v>
@@ -6978,7 +6976,7 @@
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
         <f>IF(NOT(A334=0),A334,A333)+1</f>
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>0</v>
@@ -6987,7 +6985,7 @@
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
         <f>IF(NOT(A335=0),A335,A334)+1</f>
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>348</v>
@@ -6996,7 +6994,7 @@
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <f>IF(NOT(A336=0),A336,A335)+1</f>
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>186</v>
@@ -7005,7 +7003,7 @@
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
         <f>IF(NOT(A337=0),A337,A336)+1</f>
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>340</v>
@@ -7014,7 +7012,7 @@
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <f>IF(NOT(A338=0),A338,A337)+1</f>
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>339</v>
@@ -7023,7 +7021,7 @@
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <f>IF(NOT(A339=0),A339,A338)+1</f>
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>315</v>
@@ -7032,7 +7030,7 @@
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
         <f>IF(NOT(A340=0),A340,A339)+1</f>
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>100</v>
@@ -7041,7 +7039,7 @@
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
         <f>IF(NOT(A341=0),A341,A340)+1</f>
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>58</v>
@@ -7050,7 +7048,7 @@
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <f>IF(NOT(A342=0),A342,A341)+1</f>
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>58</v>
@@ -7059,7 +7057,7 @@
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
         <f>IF(NOT(A343=0),A343,A342)+1</f>
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>127</v>
@@ -7068,7 +7066,7 @@
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
         <f>IF(NOT(A344=0),A344,A343)+1</f>
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>136</v>
@@ -7077,7 +7075,7 @@
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
         <f>IF(NOT(A345=0),A345,A344)+1</f>
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>312</v>
@@ -7086,7 +7084,7 @@
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
         <f>IF(NOT(A346=0),A346,A345)+1</f>
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>311</v>
@@ -7095,7 +7093,7 @@
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
         <f>IF(NOT(A347=0),A347,A346)+1</f>
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>311</v>
@@ -7104,7 +7102,7 @@
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
         <f>IF(NOT(A348=0),A348,A347)+1</f>
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>257</v>
@@ -7113,7 +7111,7 @@
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
         <f>IF(NOT(A349=0),A349,A348)+1</f>
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>19</v>
@@ -7122,7 +7120,7 @@
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
         <f>IF(NOT(A350=0),A350,A349)+1</f>
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>18</v>
@@ -7131,7 +7129,7 @@
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
         <f>IF(NOT(A351=0),A351,A350)+1</f>
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>323</v>
@@ -7140,7 +7138,7 @@
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
         <f>IF(NOT(A352=0),A352,A351)+1</f>
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>17</v>
@@ -7149,7 +7147,7 @@
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
         <f>IF(NOT(A353=0),A353,A352)+1</f>
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>303</v>
@@ -7158,7 +7156,7 @@
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
         <f>IF(NOT(A354=0),A354,A353)+1</f>
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>68</v>
@@ -7167,7 +7165,7 @@
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
         <f>IF(NOT(A355=0),A355,A354)+1</f>
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>281</v>
@@ -7176,7 +7174,7 @@
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
         <f>IF(NOT(A356=0),A356,A355)+1</f>
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>65</v>
@@ -7185,7 +7183,7 @@
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <f>IF(NOT(A357=0),A357,A356)+1</f>
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>9</v>
@@ -7194,7 +7192,7 @@
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
         <f>IF(NOT(A358=0),A358,A357)+1</f>
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>1</v>
@@ -7203,7 +7201,7 @@
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
         <f>IF(NOT(A359=0),A359,A358)+1</f>
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>25</v>
@@ -7212,7 +7210,7 @@
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
         <f>IF(NOT(A360=0),A360,A359)+1</f>
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>46</v>
@@ -7221,7 +7219,7 @@
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
         <f>IF(NOT(A361=0),A361,A360)+1</f>
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>59</v>
@@ -7230,7 +7228,7 @@
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
         <f>IF(NOT(A362=0),A362,A361)+1</f>
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>261</v>
@@ -7239,7 +7237,7 @@
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
         <f>IF(NOT(A363=0),A363,A362)+1</f>
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>258</v>
@@ -7248,7 +7246,7 @@
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
         <f>IF(NOT(A364=0),A364,A363)+1</f>
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>120</v>
@@ -7257,7 +7255,7 @@
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
         <f>IF(NOT(A365=0),A365,A364)+1</f>
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>338</v>
@@ -7266,7 +7264,7 @@
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
         <f>IF(NOT(A366=0),A366,A365)+1</f>
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>158</v>
@@ -7275,7 +7273,7 @@
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
         <f>IF(NOT(A367=0),A367,A366)+1</f>
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>164</v>
@@ -7284,7 +7282,7 @@
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
         <f>IF(NOT(A368=0),A368,A367)+1</f>
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>213</v>
@@ -7293,7 +7291,7 @@
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
         <f>IF(NOT(A369=0),A369,A368)+1</f>
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>159</v>
@@ -7302,7 +7300,7 @@
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
         <f>IF(NOT(A370=0),A370,A369)+1</f>
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>199</v>
@@ -7311,7 +7309,7 @@
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
         <f>IF(NOT(A371=0),A371,A370)+1</f>
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>203</v>
@@ -7320,7 +7318,7 @@
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
         <f>IF(NOT(A372=0),A372,A371)+1</f>
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>314</v>
@@ -7329,7 +7327,7 @@
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
         <f>IF(NOT(A373=0),A373,A372)+1</f>
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>313</v>
@@ -7338,7 +7336,7 @@
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
         <f>IF(NOT(A374=0),A374,A373)+1</f>
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>48</v>
@@ -15274,13 +15272,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A125:B125"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A237:B237"/>
@@ -15297,6 +15288,13 @@
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ALGORITHMS_LIST.xlsx
+++ b/ALGORITHMS_LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0\Git\beginner-algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440E34DE-3E3C-4A1A-A619-ADD9273449DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F89594D-70C4-4916-9AF9-623A98B8FFA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F3AEC63A-3935-431B-9D94-C19A95072D1B}"/>
   </bookViews>
@@ -3981,7 +3981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC73345-1EB4-493B-9D32-2379CC101C9C}">
   <dimension ref="A1:D375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="D2" s="8">
         <f ca="1">RANDBETWEEN(1,A375)</f>
-        <v>51</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4231,151 +4231,149 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>1</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <f>IF(NOT(A30=0),A30,A29)+1</f>
-        <v>2</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <f>IF(NOT(A31=0),A31,A30)+1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <f>IF(NOT(A32=0),A32,A31)+1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>299</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <f>IF(NOT(A33=0),A33,A32)+1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <f>IF(NOT(A34=0),A34,A33)+1</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <f>IF(NOT(A35=0),A35,A34)+1</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <f>IF(NOT(A36=0),A36,A35)+1</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>342</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <f>IF(NOT(A37=0),A37,A36)+1</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>151</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <f>IF(NOT(A38=0),A38,A37)+1</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>162</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <f>IF(NOT(A39=0),A39,A38)+1</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>295</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <f>IF(NOT(A40=0),A40,A39)+1</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>335</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <f>IF(NOT(A41=0),A41,A40)+1</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>173</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <f>IF(NOT(A42=0),A42,A41)+1</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <f>IF(NOT(A43=0),A43,A42)+1</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>201</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <f>IF(NOT(A44=0),A44,A43)+1</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>22</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <f>IF(NOT(A45=0),A45,A44)+1</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>165</v>
@@ -4384,7 +4382,7 @@
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <f>IF(NOT(A46=0),A46,A45)+1</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>182</v>
@@ -4393,7 +4391,7 @@
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <f>IF(NOT(A47=0),A47,A46)+1</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>23</v>
@@ -4402,7 +4400,7 @@
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <f>IF(NOT(A48=0),A48,A47)+1</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>220</v>
@@ -4411,7 +4409,7 @@
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <f>IF(NOT(A49=0),A49,A48)+1</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>169</v>
@@ -4420,7 +4418,7 @@
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <f>IF(NOT(A50=0),A50,A49)+1</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>332</v>
@@ -4429,7 +4427,7 @@
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <f>IF(NOT(A51=0),A51,A50)+1</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>161</v>
@@ -4438,7 +4436,7 @@
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <f>IF(NOT(A52=0),A52,A51)+1</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>206</v>
@@ -4447,7 +4445,7 @@
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <f>IF(NOT(A53=0),A53,A52)+1</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>343</v>
@@ -4456,7 +4454,7 @@
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <f>IF(NOT(A54=0),A54,A53)+1</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>181</v>
@@ -4465,7 +4463,7 @@
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <f>IF(NOT(A55=0),A55,A54)+1</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>160</v>
@@ -4474,7 +4472,7 @@
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <f>IF(NOT(A56=0),A56,A55)+1</f>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>347</v>
@@ -4483,7 +4481,7 @@
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <f>IF(NOT(A57=0),A57,A56)+1</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>167</v>
@@ -4492,7 +4490,7 @@
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <f>IF(NOT(A58=0),A58,A57)+1</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>304</v>
@@ -4501,7 +4499,7 @@
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <f>IF(NOT(A59=0),A59,A58)+1</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>349</v>
@@ -4510,7 +4508,7 @@
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <f>IF(NOT(A60=0),A60,A59)+1</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>85</v>
@@ -4519,7 +4517,7 @@
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <f>IF(NOT(A61=0),A61,A60)+1</f>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>29</v>
@@ -4528,7 +4526,7 @@
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <f>IF(NOT(A62=0),A62,A61)+1</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>85</v>
@@ -4537,7 +4535,7 @@
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <f>IF(NOT(A63=0),A63,A62)+1</f>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>286</v>
@@ -4546,7 +4544,7 @@
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <f>IF(NOT(A64=0),A64,A63)+1</f>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>334</v>
@@ -4555,7 +4553,7 @@
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <f>IF(NOT(A65=0),A65,A64)+1</f>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>88</v>
@@ -4564,7 +4562,7 @@
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <f>IF(NOT(A66=0),A66,A65)+1</f>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>291</v>
@@ -4573,7 +4571,7 @@
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <f>IF(NOT(A67=0),A67,A66)+1</f>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>344</v>
@@ -4582,7 +4580,7 @@
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <f>IF(NOT(A68=0),A68,A67)+1</f>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>129</v>
@@ -4591,7 +4589,7 @@
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <f>IF(NOT(A69=0),A69,A68)+1</f>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>26</v>
@@ -4600,7 +4598,7 @@
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <f>IF(NOT(A70=0),A70,A69)+1</f>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>252</v>
@@ -4609,7 +4607,7 @@
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <f>IF(NOT(A71=0),A71,A70)+1</f>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>117</v>
@@ -4618,7 +4616,7 @@
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <f>IF(NOT(A72=0),A72,A71)+1</f>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>241</v>
@@ -4627,7 +4625,7 @@
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <f>IF(NOT(A73=0),A73,A72)+1</f>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>16</v>
@@ -4636,7 +4634,7 @@
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <f>IF(NOT(A74=0),A74,A73)+1</f>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>211</v>
@@ -4645,7 +4643,7 @@
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <f>IF(NOT(A75=0),A75,A74)+1</f>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>331</v>
@@ -4654,7 +4652,7 @@
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <f>IF(NOT(A76=0),A76,A75)+1</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>345</v>
@@ -4663,7 +4661,7 @@
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <f>IF(NOT(A77=0),A77,A76)+1</f>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>5</v>
@@ -4672,7 +4670,7 @@
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <f>IF(NOT(A78=0),A78,A77)+1</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>294</v>
@@ -4681,7 +4679,7 @@
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <f>IF(NOT(A79=0),A79,A78)+1</f>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>54</v>
@@ -4690,7 +4688,7 @@
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <f>IF(NOT(A80=0),A80,A79)+1</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>121</v>
@@ -4699,7 +4697,7 @@
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <f>IF(NOT(A81=0),A81,A80)+1</f>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>185</v>
@@ -4708,7 +4706,7 @@
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <f>IF(NOT(A82=0),A82,A81)+1</f>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>115</v>
@@ -4717,7 +4715,7 @@
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <f>IF(NOT(A83=0),A83,A82)+1</f>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>193</v>
@@ -4726,7 +4724,7 @@
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <f>IF(NOT(A84=0),A84,A83)+1</f>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>36</v>
@@ -4735,7 +4733,7 @@
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <f>IF(NOT(A85=0),A85,A84)+1</f>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>224</v>
@@ -4744,7 +4742,7 @@
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <f>IF(NOT(A86=0),A86,A85)+1</f>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>76</v>
@@ -4753,7 +4751,7 @@
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <f>IF(NOT(A87=0),A87,A86)+1</f>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>20</v>
@@ -4762,7 +4760,7 @@
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <f>IF(NOT(A88=0),A88,A87)+1</f>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>124</v>
@@ -4771,7 +4769,7 @@
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <f>IF(NOT(A89=0),A89,A88)+1</f>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>256</v>
@@ -4780,7 +4778,7 @@
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <f>IF(NOT(A90=0),A90,A89)+1</f>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>157</v>
@@ -4789,7 +4787,7 @@
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <f>IF(NOT(A91=0),A91,A90)+1</f>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>250</v>
@@ -4798,7 +4796,7 @@
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <f>IF(NOT(A92=0),A92,A91)+1</f>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>122</v>
@@ -4807,7 +4805,7 @@
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <f>IF(NOT(A93=0),A93,A92)+1</f>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>208</v>
@@ -4816,7 +4814,7 @@
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <f>IF(NOT(A94=0),A94,A93)+1</f>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>154</v>
@@ -4825,7 +4823,7 @@
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <f>IF(NOT(A95=0),A95,A94)+1</f>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>306</v>
@@ -4834,7 +4832,7 @@
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <f>IF(NOT(A96=0),A96,A95)+1</f>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>302</v>
@@ -4843,7 +4841,7 @@
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <f>IF(NOT(A97=0),A97,A96)+1</f>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>114</v>
@@ -4852,7 +4850,7 @@
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <f>IF(NOT(A98=0),A98,A97)+1</f>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>163</v>
@@ -4861,7 +4859,7 @@
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <f>IF(NOT(A99=0),A99,A98)+1</f>
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>305</v>
@@ -4870,7 +4868,7 @@
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <f>IF(NOT(A100=0),A100,A99)+1</f>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>90</v>
@@ -4879,7 +4877,7 @@
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <f>IF(NOT(A101=0),A101,A100)+1</f>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>111</v>
@@ -4888,7 +4886,7 @@
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <f>IF(NOT(A102=0),A102,A101)+1</f>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>272</v>
@@ -4897,7 +4895,7 @@
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <f>IF(NOT(A103=0),A103,A102)+1</f>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>12</v>
@@ -4906,7 +4904,7 @@
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <f>IF(NOT(A104=0),A104,A103)+1</f>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>235</v>
@@ -4915,7 +4913,7 @@
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <f>IF(NOT(A105=0),A105,A104)+1</f>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>285</v>
@@ -4924,7 +4922,7 @@
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <f>IF(NOT(A106=0),A106,A105)+1</f>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>351</v>
@@ -4933,7 +4931,7 @@
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <f>IF(NOT(A107=0),A107,A106)+1</f>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>309</v>
@@ -4942,7 +4940,7 @@
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <f>IF(NOT(A108=0),A108,A107)+1</f>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>148</v>
@@ -4951,7 +4949,7 @@
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <f>IF(NOT(A109=0),A109,A108)+1</f>
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>337</v>
@@ -4960,7 +4958,7 @@
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <f>IF(NOT(A110=0),A110,A109)+1</f>
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>262</v>
@@ -4969,7 +4967,7 @@
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <f>IF(NOT(A111=0),A111,A110)+1</f>
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>207</v>
@@ -4978,7 +4976,7 @@
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <f>IF(NOT(A112=0),A112,A111)+1</f>
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>300</v>
@@ -4987,7 +4985,7 @@
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <f>IF(NOT(A113=0),A113,A112)+1</f>
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>179</v>
@@ -4996,7 +4994,7 @@
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <f>IF(NOT(A114=0),A114,A113)+1</f>
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>259</v>
@@ -5005,7 +5003,7 @@
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <f>IF(NOT(A115=0),A115,A114)+1</f>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>21</v>
@@ -5014,7 +5012,7 @@
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <f>IF(NOT(A116=0),A116,A115)+1</f>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>301</v>
@@ -5023,7 +5021,7 @@
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <f>IF(NOT(A117=0),A117,A116)+1</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>318</v>
@@ -5032,7 +5030,7 @@
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <f>IF(NOT(A118=0),A118,A117)+1</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>249</v>
@@ -5041,7 +5039,7 @@
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <f>IF(NOT(A119=0),A119,A118)+1</f>
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>296</v>
@@ -5050,7 +5048,7 @@
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <f>IF(NOT(A120=0),A120,A119)+1</f>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>293</v>
@@ -5059,7 +5057,7 @@
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <f>IF(NOT(A121=0),A121,A120)+1</f>
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>80</v>
@@ -5068,7 +5066,7 @@
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <f>IF(NOT(A122=0),A122,A121)+1</f>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>275</v>
@@ -5077,7 +5075,7 @@
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <f>IF(NOT(A123=0),A123,A122)+1</f>
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>166</v>
@@ -5086,7 +5084,7 @@
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <f>IF(NOT(A124=0),A124,A123)+1</f>
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>202</v>
@@ -5095,7 +5093,7 @@
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <f>IF(NOT(A125=0),A125,A124)+1</f>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>196</v>
@@ -5104,7 +5102,7 @@
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <f>IF(NOT(A126=0),A126,A125)+1</f>
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>236</v>
@@ -5113,7 +5111,7 @@
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <f>IF(NOT(A127=0),A127,A126)+1</f>
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>194</v>
@@ -5122,7 +5120,7 @@
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <f>IF(NOT(A128=0),A128,A127)+1</f>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>110</v>
@@ -5131,7 +5129,7 @@
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <f>IF(NOT(A129=0),A129,A128)+1</f>
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>60</v>
@@ -5140,7 +5138,7 @@
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <f>IF(NOT(A130=0),A130,A129)+1</f>
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>243</v>
@@ -5149,7 +5147,7 @@
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <f>IF(NOT(A131=0),A131,A130)+1</f>
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>130</v>
@@ -5158,7 +5156,7 @@
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <f>IF(NOT(A132=0),A132,A131)+1</f>
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>271</v>
@@ -5167,7 +5165,7 @@
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <f>IF(NOT(A133=0),A133,A132)+1</f>
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>74</v>
@@ -5176,7 +5174,7 @@
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <f>IF(NOT(A134=0),A134,A133)+1</f>
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>184</v>
@@ -5185,7 +5183,7 @@
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <f>IF(NOT(A135=0),A135,A134)+1</f>
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>212</v>
@@ -5194,7 +5192,7 @@
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <f>IF(NOT(A136=0),A136,A135)+1</f>
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>41</v>
@@ -5203,7 +5201,7 @@
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <f>IF(NOT(A137=0),A137,A136)+1</f>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>150</v>
@@ -5212,7 +5210,7 @@
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <f>IF(NOT(A138=0),A138,A137)+1</f>
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>336</v>
@@ -5221,7 +5219,7 @@
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <f>IF(NOT(A139=0),A139,A138)+1</f>
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>279</v>
@@ -5230,7 +5228,7 @@
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <f>IF(NOT(A140=0),A140,A139)+1</f>
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>42</v>
@@ -5239,7 +5237,7 @@
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <f>IF(NOT(A141=0),A141,A140)+1</f>
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>63</v>
@@ -5248,7 +5246,7 @@
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <f>IF(NOT(A142=0),A142,A141)+1</f>
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>308</v>
@@ -5257,7 +5255,7 @@
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <f>IF(NOT(A143=0),A143,A142)+1</f>
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>64</v>
@@ -5266,7 +5264,7 @@
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <f>IF(NOT(A144=0),A144,A143)+1</f>
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>40</v>
@@ -5275,7 +5273,7 @@
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <f>IF(NOT(A145=0),A145,A144)+1</f>
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>64</v>
@@ -5284,7 +5282,7 @@
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <f>IF(NOT(A146=0),A146,A145)+1</f>
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>210</v>
@@ -5293,7 +5291,7 @@
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <f>IF(NOT(A147=0),A147,A146)+1</f>
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>180</v>
@@ -5302,7 +5300,7 @@
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <f>IF(NOT(A148=0),A148,A147)+1</f>
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>112</v>
@@ -5311,7 +5309,7 @@
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <f>IF(NOT(A149=0),A149,A148)+1</f>
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>269</v>
@@ -5320,7 +5318,7 @@
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <f>IF(NOT(A150=0),A150,A149)+1</f>
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>45</v>
@@ -5329,7 +5327,7 @@
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <f>IF(NOT(A151=0),A151,A150)+1</f>
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>267</v>
@@ -5338,7 +5336,7 @@
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <f>IF(NOT(A152=0),A152,A151)+1</f>
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>358</v>
@@ -5347,7 +5345,7 @@
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <f>IF(NOT(A153=0),A153,A152)+1</f>
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>268</v>
@@ -5356,7 +5354,7 @@
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <f>IF(NOT(A154=0),A154,A153)+1</f>
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>289</v>
@@ -5365,7 +5363,7 @@
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <f>IF(NOT(A155=0),A155,A154)+1</f>
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>265</v>
@@ -5374,7 +5372,7 @@
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <f>IF(NOT(A156=0),A156,A155)+1</f>
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>297</v>
@@ -5383,7 +5381,7 @@
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <f>IF(NOT(A157=0),A157,A156)+1</f>
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>56</v>
@@ -5392,7 +5390,7 @@
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <f>IF(NOT(A158=0),A158,A157)+1</f>
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>330</v>
@@ -5401,7 +5399,7 @@
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <f>IF(NOT(A159=0),A159,A158)+1</f>
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>82</v>
@@ -5410,7 +5408,7 @@
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <f>IF(NOT(A160=0),A160,A159)+1</f>
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>260</v>
@@ -5419,7 +5417,7 @@
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <f>IF(NOT(A161=0),A161,A160)+1</f>
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>51</v>
@@ -5428,7 +5426,7 @@
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <f>IF(NOT(A162=0),A162,A161)+1</f>
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>329</v>
@@ -5437,7 +5435,7 @@
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <f>IF(NOT(A163=0),A163,A162)+1</f>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>105</v>
@@ -5446,7 +5444,7 @@
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <f>IF(NOT(A164=0),A164,A163)+1</f>
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>227</v>
@@ -5455,7 +5453,7 @@
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <f>IF(NOT(A165=0),A165,A164)+1</f>
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>105</v>
@@ -5464,7 +5462,7 @@
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <f>IF(NOT(A166=0),A166,A165)+1</f>
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>328</v>
@@ -5473,7 +5471,7 @@
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <f>IF(NOT(A167=0),A167,A166)+1</f>
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>204</v>
@@ -5482,7 +5480,7 @@
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <f>IF(NOT(A168=0),A168,A167)+1</f>
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>255</v>
@@ -5491,7 +5489,7 @@
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <f>IF(NOT(A169=0),A169,A168)+1</f>
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>246</v>
@@ -5500,7 +5498,7 @@
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <f>IF(NOT(A170=0),A170,A169)+1</f>
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>327</v>
@@ -5509,7 +5507,7 @@
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <f>IF(NOT(A171=0),A171,A170)+1</f>
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>118</v>
@@ -5518,7 +5516,7 @@
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <f>IF(NOT(A172=0),A172,A171)+1</f>
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>132</v>
@@ -5527,7 +5525,7 @@
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <f>IF(NOT(A173=0),A173,A172)+1</f>
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>209</v>
@@ -5536,7 +5534,7 @@
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <f>IF(NOT(A174=0),A174,A173)+1</f>
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>326</v>
@@ -5545,7 +5543,7 @@
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <f>IF(NOT(A175=0),A175,A174)+1</f>
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>108</v>
@@ -5554,7 +5552,7 @@
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <f>IF(NOT(A176=0),A176,A175)+1</f>
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>147</v>
@@ -5563,7 +5561,7 @@
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <f>IF(NOT(A177=0),A177,A176)+1</f>
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>175</v>
@@ -5572,7 +5570,7 @@
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <f>IF(NOT(A178=0),A178,A177)+1</f>
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>325</v>
@@ -5581,7 +5579,7 @@
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <f>IF(NOT(A179=0),A179,A178)+1</f>
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>144</v>
@@ -5590,7 +5588,7 @@
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <f>IF(NOT(A180=0),A180,A179)+1</f>
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>131</v>
@@ -5599,7 +5597,7 @@
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <f>IF(NOT(A181=0),A181,A180)+1</f>
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>292</v>
@@ -5608,7 +5606,7 @@
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <f>IF(NOT(A182=0),A182,A181)+1</f>
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>91</v>
@@ -5617,7 +5615,7 @@
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <f>IF(NOT(A183=0),A183,A182)+1</f>
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>155</v>
@@ -5626,7 +5624,7 @@
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <f>IF(NOT(A184=0),A184,A183)+1</f>
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>278</v>
@@ -5635,7 +5633,7 @@
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <f>IF(NOT(A185=0),A185,A184)+1</f>
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>2</v>
@@ -5644,7 +5642,7 @@
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <f>IF(NOT(A186=0),A186,A185)+1</f>
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>104</v>
@@ -5653,7 +5651,7 @@
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <f>IF(NOT(A187=0),A187,A186)+1</f>
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>189</v>
@@ -5662,7 +5660,7 @@
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <f>IF(NOT(A188=0),A188,A187)+1</f>
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>214</v>
@@ -5671,7 +5669,7 @@
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <f>IF(NOT(A189=0),A189,A188)+1</f>
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>13</v>
@@ -5680,7 +5678,7 @@
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <f>IF(NOT(A190=0),A190,A189)+1</f>
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>78</v>
@@ -5689,7 +5687,7 @@
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <f>IF(NOT(A191=0),A191,A190)+1</f>
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>15</v>
@@ -5698,7 +5696,7 @@
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <f>IF(NOT(A192=0),A192,A191)+1</f>
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>254</v>
@@ -5707,7 +5705,7 @@
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <f>IF(NOT(A193=0),A193,A192)+1</f>
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>8</v>
@@ -5716,7 +5714,7 @@
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <f>IF(NOT(A194=0),A194,A193)+1</f>
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>24</v>
@@ -5725,7 +5723,7 @@
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <f>IF(NOT(A195=0),A195,A194)+1</f>
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>283</v>
@@ -5734,7 +5732,7 @@
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <f>IF(NOT(A196=0),A196,A195)+1</f>
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>288</v>
@@ -5743,7 +5741,7 @@
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <f>IF(NOT(A197=0),A197,A196)+1</f>
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>34</v>
@@ -5752,7 +5750,7 @@
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <f>IF(NOT(A198=0),A198,A197)+1</f>
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>274</v>
@@ -5761,7 +5759,7 @@
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <f>IF(NOT(A199=0),A199,A198)+1</f>
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>149</v>
@@ -5770,7 +5768,7 @@
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <f>IF(NOT(A200=0),A200,A199)+1</f>
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>274</v>
@@ -5779,7 +5777,7 @@
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <f>IF(NOT(A201=0),A201,A200)+1</f>
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>273</v>
@@ -5788,7 +5786,7 @@
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <f>IF(NOT(A202=0),A202,A201)+1</f>
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>98</v>
@@ -5797,7 +5795,7 @@
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <f>IF(NOT(A203=0),A203,A202)+1</f>
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>273</v>
@@ -5806,7 +5804,7 @@
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <f>IF(NOT(A204=0),A204,A203)+1</f>
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>280</v>
@@ -5815,7 +5813,7 @@
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <f>IF(NOT(A205=0),A205,A204)+1</f>
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>229</v>
@@ -5824,7 +5822,7 @@
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <f>IF(NOT(A206=0),A206,A205)+1</f>
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>170</v>
@@ -5833,7 +5831,7 @@
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <f>IF(NOT(A207=0),A207,A206)+1</f>
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>177</v>
@@ -5842,7 +5840,7 @@
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <f>IF(NOT(A208=0),A208,A207)+1</f>
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>174</v>
@@ -5851,7 +5849,7 @@
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <f>IF(NOT(A209=0),A209,A208)+1</f>
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>188</v>
@@ -5860,7 +5858,7 @@
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <f>IF(NOT(A210=0),A210,A209)+1</f>
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>30</v>
@@ -5869,7 +5867,7 @@
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <f>IF(NOT(A211=0),A211,A210)+1</f>
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>188</v>
@@ -5878,7 +5876,7 @@
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <f>IF(NOT(A212=0),A212,A211)+1</f>
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>353</v>
@@ -5887,7 +5885,7 @@
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <f>IF(NOT(A213=0),A213,A212)+1</f>
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>284</v>
@@ -5896,7 +5894,7 @@
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <f>IF(NOT(A214=0),A214,A213)+1</f>
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>287</v>
@@ -5905,7 +5903,7 @@
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <f>IF(NOT(A215=0),A215,A214)+1</f>
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>282</v>
@@ -5914,7 +5912,7 @@
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <f>IF(NOT(A216=0),A216,A215)+1</f>
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>116</v>
@@ -5923,7 +5921,7 @@
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <f>IF(NOT(A217=0),A217,A216)+1</f>
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>266</v>
@@ -5932,7 +5930,7 @@
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <f>IF(NOT(A218=0),A218,A217)+1</f>
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>53</v>
@@ -5941,7 +5939,7 @@
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <f>IF(NOT(A219=0),A219,A218)+1</f>
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>33</v>
@@ -5950,7 +5948,7 @@
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <f>IF(NOT(A220=0),A220,A219)+1</f>
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>230</v>
@@ -5959,7 +5957,7 @@
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <f>IF(NOT(A221=0),A221,A220)+1</f>
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>133</v>
@@ -5968,7 +5966,7 @@
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <f>IF(NOT(A222=0),A222,A221)+1</f>
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>226</v>
@@ -5977,7 +5975,7 @@
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <f>IF(NOT(A223=0),A223,A222)+1</f>
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>35</v>
@@ -5986,7 +5984,7 @@
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <f>IF(NOT(A224=0),A224,A223)+1</f>
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>44</v>
@@ -5995,7 +5993,7 @@
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <f>IF(NOT(A225=0),A225,A224)+1</f>
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>135</v>
@@ -6004,7 +6002,7 @@
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <f>IF(NOT(A226=0),A226,A225)+1</f>
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>192</v>
@@ -6013,7 +6011,7 @@
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <f>IF(NOT(A227=0),A227,A226)+1</f>
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>228</v>
@@ -6022,7 +6020,7 @@
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <f>IF(NOT(A228=0),A228,A227)+1</f>
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>324</v>
@@ -6031,7 +6029,7 @@
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <f>IF(NOT(A229=0),A229,A228)+1</f>
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>233</v>
@@ -6040,7 +6038,7 @@
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <f>IF(NOT(A230=0),A230,A229)+1</f>
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>14</v>
@@ -6049,7 +6047,7 @@
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <f>IF(NOT(A231=0),A231,A230)+1</f>
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>57</v>
@@ -6058,7 +6056,7 @@
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <f>IF(NOT(A232=0),A232,A231)+1</f>
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>200</v>
@@ -6067,7 +6065,7 @@
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <f>IF(NOT(A233=0),A233,A232)+1</f>
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>237</v>
@@ -6076,7 +6074,7 @@
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <f>IF(NOT(A234=0),A234,A233)+1</f>
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>240</v>
@@ -6085,7 +6083,7 @@
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <f>IF(NOT(A235=0),A235,A234)+1</f>
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>357</v>
@@ -6094,7 +6092,7 @@
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <f>IF(NOT(A236=0),A236,A235)+1</f>
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>245</v>
@@ -6103,7 +6101,7 @@
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <f>IF(NOT(A237=0),A237,A236)+1</f>
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>356</v>
@@ -6112,7 +6110,7 @@
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <f>IF(NOT(A238=0),A238,A237)+1</f>
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>190</v>
@@ -6121,7 +6119,7 @@
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <f>IF(NOT(A239=0),A239,A238)+1</f>
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>355</v>
@@ -6130,7 +6128,7 @@
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <f>IF(NOT(A240=0),A240,A239)+1</f>
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>190</v>
@@ -6139,7 +6137,7 @@
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <f>IF(NOT(A241=0),A241,A240)+1</f>
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>354</v>
@@ -6148,7 +6146,7 @@
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <f>IF(NOT(A242=0),A242,A241)+1</f>
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>217</v>
@@ -6157,7 +6155,7 @@
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <f>IF(NOT(A243=0),A243,A242)+1</f>
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>142</v>
@@ -6166,7 +6164,7 @@
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <f>IF(NOT(A244=0),A244,A243)+1</f>
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>322</v>
@@ -6175,7 +6173,7 @@
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <f>IF(NOT(A245=0),A245,A244)+1</f>
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>321</v>
@@ -6184,7 +6182,7 @@
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <f>IF(NOT(A246=0),A246,A245)+1</f>
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>320</v>
@@ -6193,7 +6191,7 @@
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <f>IF(NOT(A247=0),A247,A246)+1</f>
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>319</v>
@@ -6202,7 +6200,7 @@
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <f>IF(NOT(A248=0),A248,A247)+1</f>
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>198</v>
@@ -6211,7 +6209,7 @@
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <f>IF(NOT(A249=0),A249,A248)+1</f>
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>50</v>
@@ -6220,7 +6218,7 @@
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <f>IF(NOT(A250=0),A250,A249)+1</f>
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>128</v>
@@ -6229,7 +6227,7 @@
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <f>IF(NOT(A251=0),A251,A249)+1</f>
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>66</v>
@@ -6238,7 +6236,7 @@
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <f>IF(NOT(A252=0),A252,A251)+1</f>
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>49</v>
@@ -6247,7 +6245,7 @@
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <f>IF(NOT(A253=0),A253,A252)+1</f>
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>156</v>
@@ -6256,7 +6254,7 @@
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <f>IF(NOT(A254=0),A254,A253)+1</f>
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>138</v>
@@ -6265,7 +6263,7 @@
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <f>IF(NOT(A255=0),A255,A254)+1</f>
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>350</v>
@@ -6274,7 +6272,7 @@
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <f>IF(NOT(A256=0),A256,A255)+1</f>
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>218</v>
@@ -6283,7 +6281,7 @@
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <f>IF(NOT(A257=0),A257,A256)+1</f>
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>205</v>
@@ -6292,7 +6290,7 @@
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <f>IF(NOT(A258=0),A258,A257)+1</f>
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>223</v>
@@ -6301,7 +6299,7 @@
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <f>IF(NOT(A259=0),A259,A258)+1</f>
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>92</v>
@@ -6310,7 +6308,7 @@
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <f>IF(NOT(A260=0),A260,A259)+1</f>
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>92</v>
@@ -6319,7 +6317,7 @@
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <f>IF(NOT(A261=0),A261,A260)+1</f>
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>219</v>
@@ -6328,7 +6326,7 @@
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <f>IF(NOT(A262=0),A262,A261)+1</f>
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>140</v>
@@ -6337,7 +6335,7 @@
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <f>IF(NOT(A263=0),A263,A262)+1</f>
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>197</v>
@@ -6346,7 +6344,7 @@
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <f>IF(NOT(A264=0),A264,A263)+1</f>
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>141</v>
@@ -6355,7 +6353,7 @@
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <f>IF(NOT(A265=0),A265,A264)+1</f>
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>187</v>
@@ -6364,7 +6362,7 @@
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <f>IF(NOT(A266=0),A266,A265)+1</f>
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>352</v>
@@ -6373,7 +6371,7 @@
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <f>IF(NOT(A267=0),A267,A266)+1</f>
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>341</v>
@@ -6382,7 +6380,7 @@
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <f>IF(NOT(A268=0),A268,A267)+1</f>
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>172</v>
@@ -6391,7 +6389,7 @@
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <f>IF(NOT(A269=0),A269,A268)+1</f>
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>62</v>
@@ -6400,7 +6398,7 @@
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <f>IF(NOT(A270=0),A270,A269)+1</f>
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>62</v>
@@ -6409,7 +6407,7 @@
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <f>IF(NOT(A271=0),A271,A270)+1</f>
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>61</v>
@@ -6418,7 +6416,7 @@
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <f>IF(NOT(A272=0),A272,A271)+1</f>
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>276</v>
@@ -6427,7 +6425,7 @@
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <f>IF(NOT(A273=0),A273,A272)+1</f>
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>253</v>
@@ -6436,7 +6434,7 @@
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <f>IF(NOT(A274=0),A274,A273)+1</f>
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>39</v>
@@ -6445,7 +6443,7 @@
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <f>IF(NOT(A275=0),A275,A274)+1</f>
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>55</v>
@@ -6454,7 +6452,7 @@
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <f>IF(NOT(A276=0),A276,A275)+1</f>
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>43</v>
@@ -6463,7 +6461,7 @@
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <f>IF(NOT(A277=0),A277,A276)+1</f>
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>134</v>
@@ -6472,7 +6470,7 @@
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <f>IF(NOT(A278=0),A278,A277)+1</f>
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>191</v>
@@ -6481,7 +6479,7 @@
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <f>IF(NOT(A279=0),A279,A278)+1</f>
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>87</v>
@@ -6490,7 +6488,7 @@
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <f>IF(NOT(A280=0),A280,A279)+1</f>
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>86</v>
@@ -6499,7 +6497,7 @@
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <f>IF(NOT(A281=0),A281,A280)+1</f>
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>232</v>
@@ -6508,7 +6506,7 @@
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <f>IF(NOT(A282=0),A282,A281)+1</f>
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>333</v>
@@ -6517,7 +6515,7 @@
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <f>IF(NOT(A283=0),A283,A282)+1</f>
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>178</v>
@@ -6526,7 +6524,7 @@
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <f>IF(NOT(A284=0),A284,A283)+1</f>
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>247</v>
@@ -6535,7 +6533,7 @@
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <f>IF(NOT(A285=0),A285,A284)+1</f>
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>242</v>
@@ -6544,7 +6542,7 @@
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <f>IF(NOT(A286=0),A286,A285)+1</f>
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>38</v>
@@ -6553,7 +6551,7 @@
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <f>IF(NOT(A287=0),A287,A286)+1</f>
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>231</v>
@@ -6562,7 +6560,7 @@
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <f>IF(NOT(A288=0),A288,A287)+1</f>
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>126</v>
@@ -6571,7 +6569,7 @@
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <f>IF(NOT(A289=0),A289,A288)+1</f>
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>143</v>
@@ -6580,7 +6578,7 @@
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <f>IF(NOT(A290=0),A290,A289)+1</f>
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>251</v>
@@ -6589,7 +6587,7 @@
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <f>IF(NOT(A291=0),A291,A290)+1</f>
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>234</v>
@@ -6598,7 +6596,7 @@
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <f>IF(NOT(A292=0),A292,A291)+1</f>
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>215</v>
@@ -6607,7 +6605,7 @@
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <f>IF(NOT(A293=0),A293,A292)+1</f>
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>171</v>
@@ -6616,7 +6614,7 @@
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <f>IF(NOT(A294=0),A294,A293)+1</f>
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>238</v>
@@ -6625,7 +6623,7 @@
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <f>IF(NOT(A295=0),A295,A294)+1</f>
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>107</v>
@@ -6634,7 +6632,7 @@
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <f>IF(NOT(A296=0),A296,A295)+1</f>
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>239</v>
@@ -6643,7 +6641,7 @@
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <f>IF(NOT(A297=0),A297,A296)+1</f>
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>113</v>
@@ -6652,7 +6650,7 @@
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <f>IF(NOT(A298=0),A298,A297)+1</f>
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>69</v>
@@ -6661,7 +6659,7 @@
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <f>IF(NOT(A299=0),A299,A298)+1</f>
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>69</v>
@@ -6670,7 +6668,7 @@
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <f>IF(NOT(A300=0),A300,A299)+1</f>
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>93</v>
@@ -6679,7 +6677,7 @@
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <f>IF(NOT(A301=0),A301,A300)+1</f>
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>109</v>
@@ -6688,7 +6686,7 @@
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <f>IF(NOT(A302=0),A302,A301)+1</f>
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>106</v>
@@ -6697,7 +6695,7 @@
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <f>IF(NOT(A303=0),A303,A302)+1</f>
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>28</v>
@@ -6706,7 +6704,7 @@
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <f>IF(NOT(A304=0),A304,A303)+1</f>
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>7</v>
@@ -6715,7 +6713,7 @@
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <f>IF(NOT(A305=0),A305,A304)+1</f>
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>27</v>
@@ -6724,7 +6722,7 @@
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
         <f>IF(NOT(A306=0),A306,A305)+1</f>
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>47</v>
@@ -6733,7 +6731,7 @@
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <f>IF(NOT(A307=0),A307,A306)+1</f>
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>152</v>
@@ -6742,7 +6740,7 @@
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <f>IF(NOT(A308=0),A308,A307)+1</f>
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>195</v>
@@ -6751,7 +6749,7 @@
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <f>IF(NOT(A309=0),A309,A308)+1</f>
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>102</v>
@@ -6760,7 +6758,7 @@
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <f>IF(NOT(A310=0),A310,A309)+1</f>
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>83</v>
@@ -6769,7 +6767,7 @@
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <f>IF(NOT(A311=0),A311,A310)+1</f>
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>94</v>
@@ -6778,7 +6776,7 @@
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <f>IF(NOT(A312=0),A312,A311)+1</f>
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>119</v>
@@ -6787,7 +6785,7 @@
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <f>IF(NOT(A313=0),A313,A312)+1</f>
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>89</v>
@@ -6796,7 +6794,7 @@
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
         <f>IF(NOT(A314=0),A314,A313)+1</f>
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>307</v>
@@ -6805,7 +6803,7 @@
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <f>IF(NOT(A315=0),A315,A314)+1</f>
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>77</v>
@@ -6814,7 +6812,7 @@
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <f>IF(NOT(A316=0),A316,A315)+1</f>
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>139</v>
@@ -6823,7 +6821,7 @@
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <f>IF(NOT(A317=0),A317,A316)+1</f>
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>183</v>
@@ -6832,7 +6830,7 @@
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <f>IF(NOT(A318=0),A318,A317)+1</f>
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>176</v>
@@ -6841,7 +6839,7 @@
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <f>IF(NOT(A319=0),A319,A318)+1</f>
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>145</v>
@@ -6850,7 +6848,7 @@
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
         <f>IF(NOT(A320=0),A320,A319)+1</f>
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>168</v>
@@ -6859,7 +6857,7 @@
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <f>IF(NOT(A321=0),A321,A320)+1</f>
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>4</v>
@@ -6868,7 +6866,7 @@
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <f>IF(NOT(A322=0),A322,A321)+1</f>
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>32</v>
@@ -6877,7 +6875,7 @@
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <f>IF(NOT(A323=0),A323,A322)+1</f>
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>270</v>
@@ -6886,7 +6884,7 @@
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
         <f>IF(NOT(A324=0),A324,A323)+1</f>
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>97</v>
@@ -6895,7 +6893,7 @@
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <f>IF(NOT(A325=0),A325,A324)+1</f>
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>81</v>
@@ -6904,7 +6902,7 @@
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <f>IF(NOT(A326=0),A326,A325)+1</f>
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>346</v>
@@ -6913,7 +6911,7 @@
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
         <f>IF(NOT(A327=0),A327,A326)+1</f>
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>72</v>
@@ -6922,7 +6920,7 @@
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <f>IF(NOT(A328=0),A328,A327)+1</f>
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>125</v>
@@ -6931,7 +6929,7 @@
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
         <f>IF(NOT(A329=0),A329,A328)+1</f>
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>125</v>
@@ -6940,7 +6938,7 @@
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
         <f>IF(NOT(A330=0),A330,A329)+1</f>
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>73</v>
@@ -6949,7 +6947,7 @@
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <f>IF(NOT(A331=0),A331,A330)+1</f>
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>84</v>
@@ -6958,7 +6956,7 @@
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
         <f>IF(NOT(A332=0),A332,A331)+1</f>
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>31</v>
@@ -6967,7 +6965,7 @@
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
         <f>IF(NOT(A333=0),A333,A332)+1</f>
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>244</v>
@@ -6976,7 +6974,7 @@
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
         <f>IF(NOT(A334=0),A334,A333)+1</f>
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>0</v>
@@ -6985,7 +6983,7 @@
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
         <f>IF(NOT(A335=0),A335,A334)+1</f>
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>348</v>
@@ -6994,7 +6992,7 @@
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <f>IF(NOT(A336=0),A336,A335)+1</f>
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>186</v>
@@ -7003,7 +7001,7 @@
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
         <f>IF(NOT(A337=0),A337,A336)+1</f>
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>340</v>
@@ -7012,7 +7010,7 @@
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <f>IF(NOT(A338=0),A338,A337)+1</f>
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>339</v>
@@ -7021,7 +7019,7 @@
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <f>IF(NOT(A339=0),A339,A338)+1</f>
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>315</v>
@@ -7030,7 +7028,7 @@
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
         <f>IF(NOT(A340=0),A340,A339)+1</f>
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>100</v>
@@ -7039,7 +7037,7 @@
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
         <f>IF(NOT(A341=0),A341,A340)+1</f>
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>58</v>
@@ -7048,7 +7046,7 @@
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <f>IF(NOT(A342=0),A342,A341)+1</f>
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>58</v>
@@ -7057,7 +7055,7 @@
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
         <f>IF(NOT(A343=0),A343,A342)+1</f>
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>127</v>
@@ -7066,7 +7064,7 @@
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
         <f>IF(NOT(A344=0),A344,A343)+1</f>
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>136</v>
@@ -7075,7 +7073,7 @@
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
         <f>IF(NOT(A345=0),A345,A344)+1</f>
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>312</v>
@@ -7084,7 +7082,7 @@
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
         <f>IF(NOT(A346=0),A346,A345)+1</f>
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>311</v>
@@ -7093,7 +7091,7 @@
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
         <f>IF(NOT(A347=0),A347,A346)+1</f>
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>311</v>
@@ -7102,7 +7100,7 @@
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
         <f>IF(NOT(A348=0),A348,A347)+1</f>
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>257</v>
@@ -7111,7 +7109,7 @@
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
         <f>IF(NOT(A349=0),A349,A348)+1</f>
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>19</v>
@@ -7120,7 +7118,7 @@
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
         <f>IF(NOT(A350=0),A350,A349)+1</f>
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>18</v>
@@ -7129,7 +7127,7 @@
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
         <f>IF(NOT(A351=0),A351,A350)+1</f>
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>323</v>
@@ -7138,7 +7136,7 @@
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
         <f>IF(NOT(A352=0),A352,A351)+1</f>
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>17</v>
@@ -7147,7 +7145,7 @@
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
         <f>IF(NOT(A353=0),A353,A352)+1</f>
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>303</v>
@@ -7156,7 +7154,7 @@
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
         <f>IF(NOT(A354=0),A354,A353)+1</f>
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>68</v>
@@ -7165,7 +7163,7 @@
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
         <f>IF(NOT(A355=0),A355,A354)+1</f>
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>281</v>
@@ -7174,7 +7172,7 @@
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
         <f>IF(NOT(A356=0),A356,A355)+1</f>
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>65</v>
@@ -7183,7 +7181,7 @@
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <f>IF(NOT(A357=0),A357,A356)+1</f>
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>9</v>
@@ -7192,7 +7190,7 @@
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
         <f>IF(NOT(A358=0),A358,A357)+1</f>
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>1</v>
@@ -7201,7 +7199,7 @@
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
         <f>IF(NOT(A359=0),A359,A358)+1</f>
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>25</v>
@@ -7210,7 +7208,7 @@
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
         <f>IF(NOT(A360=0),A360,A359)+1</f>
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>46</v>
@@ -7219,7 +7217,7 @@
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
         <f>IF(NOT(A361=0),A361,A360)+1</f>
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>59</v>
@@ -7228,7 +7226,7 @@
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
         <f>IF(NOT(A362=0),A362,A361)+1</f>
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>261</v>
@@ -7237,7 +7235,7 @@
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
         <f>IF(NOT(A363=0),A363,A362)+1</f>
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>258</v>
@@ -7246,7 +7244,7 @@
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
         <f>IF(NOT(A364=0),A364,A363)+1</f>
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>120</v>
@@ -7255,7 +7253,7 @@
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
         <f>IF(NOT(A365=0),A365,A364)+1</f>
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>338</v>
@@ -7264,7 +7262,7 @@
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
         <f>IF(NOT(A366=0),A366,A365)+1</f>
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>158</v>
@@ -7273,7 +7271,7 @@
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
         <f>IF(NOT(A367=0),A367,A366)+1</f>
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>164</v>
@@ -7282,7 +7280,7 @@
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
         <f>IF(NOT(A368=0),A368,A367)+1</f>
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>213</v>
@@ -7291,7 +7289,7 @@
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
         <f>IF(NOT(A369=0),A369,A368)+1</f>
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>159</v>
@@ -7300,7 +7298,7 @@
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
         <f>IF(NOT(A370=0),A370,A369)+1</f>
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>199</v>
@@ -7309,7 +7307,7 @@
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
         <f>IF(NOT(A371=0),A371,A370)+1</f>
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>203</v>
@@ -7318,7 +7316,7 @@
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
         <f>IF(NOT(A372=0),A372,A371)+1</f>
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>314</v>
@@ -7327,7 +7325,7 @@
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
         <f>IF(NOT(A373=0),A373,A372)+1</f>
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>313</v>
@@ -7336,7 +7334,7 @@
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
         <f>IF(NOT(A374=0),A374,A373)+1</f>
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>48</v>

--- a/ALGORITHMS_LIST.xlsx
+++ b/ALGORITHMS_LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0\Git\beginner-algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F89594D-70C4-4916-9AF9-623A98B8FFA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B221C09E-D56E-4D47-A67F-8D5C8BE8E3F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F3AEC63A-3935-431B-9D94-C19A95072D1B}"/>
   </bookViews>
@@ -3981,7 +3981,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC73345-1EB4-493B-9D32-2379CC101C9C}">
   <dimension ref="A1:D375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4010,7 +4012,7 @@
       </c>
       <c r="D2" s="8">
         <f ca="1">RANDBETWEEN(1,A375)</f>
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4247,1033 +4249,1030 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>1</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <f>IF(NOT(A32=0),A32,A31)+1</f>
-        <v>2</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <f>IF(NOT(A33=0),A33,A32)+1</f>
-        <v>3</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>153</v>
+        <v>0</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <f>IF(NOT(A34=0),A34,A33)+1</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>299</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <f>IF(NOT(A35=0),A35,A34)+1</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <f>IF(NOT(A36=0),A36,A35)+1</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>298</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <f>IF(NOT(A37=0),A37,A36)+1</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>216</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <f>IF(NOT(A38=0),A38,A37)+1</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>342</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <f>IF(NOT(A39=0),A39,A38)+1</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>151</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <f>IF(NOT(A40=0),A40,A39)+1</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <f>IF(NOT(A41=0),A41,A40)+1</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <f>IF(NOT(A42=0),A42,A41)+1</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <f>IF(NOT(A43=0),A43,A42)+1</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>310</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <f>IF(NOT(A44=0),A44,A43)+1</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>201</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <f>IF(NOT(A45=0),A45,A44)+1</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>165</v>
+        <v>335</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <f>IF(NOT(A46=0),A46,A45)+1</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>182</v>
+        <v>310</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <f>IF(NOT(A47=0),A47,A46)+1</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>23</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <f>IF(NOT(A48=0),A48,A47)+1</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>220</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <f>IF(NOT(A49=0),A49,A48)+1</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <f>IF(NOT(A50=0),A50,A49)+1</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>332</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <f>IF(NOT(A51=0),A51,A50)+1</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>161</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <f>IF(NOT(A52=0),A52,A51)+1</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <f>IF(NOT(A53=0),A53,A52)+1</f>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <f>IF(NOT(A54=0),A54,A53)+1</f>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <f>IF(NOT(A55=0),A55,A54)+1</f>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <f>IF(NOT(A56=0),A56,A55)+1</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <f>IF(NOT(A57=0),A57,A56)+1</f>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <f>IF(NOT(A58=0),A58,A57)+1</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>304</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <f>IF(NOT(A59=0),A59,A58)+1</f>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <f>IF(NOT(A60=0),A60,A59)+1</f>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <f>IF(NOT(A61=0),A61,A60)+1</f>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>29</v>
+        <v>304</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <f>IF(NOT(A62=0),A62,A61)+1</f>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>85</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <f>IF(NOT(A63=0),A63,A62)+1</f>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>286</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <f>IF(NOT(A64=0),A64,A63)+1</f>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>334</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <f>IF(NOT(A65=0),A65,A64)+1</f>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <f>IF(NOT(A66=0),A66,A65)+1</f>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <f>IF(NOT(A67=0),A67,A66)+1</f>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <f>IF(NOT(A68=0),A68,A67)+1</f>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <f>IF(NOT(A69=0),A69,A68)+1</f>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>26</v>
+        <v>291</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <f>IF(NOT(A70=0),A70,A69)+1</f>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>252</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <f>IF(NOT(A71=0),A71,A70)+1</f>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <f>IF(NOT(A72=0),A72,A71)+1</f>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>241</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <f>IF(NOT(A73=0),A73,A72)+1</f>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>16</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <f>IF(NOT(A74=0),A74,A73)+1</f>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>211</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <f>IF(NOT(A75=0),A75,A74)+1</f>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>331</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <f>IF(NOT(A76=0),A76,A75)+1</f>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>345</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <f>IF(NOT(A77=0),A77,A76)+1</f>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>5</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <f>IF(NOT(A78=0),A78,A77)+1</f>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <f>IF(NOT(A79=0),A79,A78)+1</f>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>54</v>
+        <v>345</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <f>IF(NOT(A80=0),A80,A79)+1</f>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <f>IF(NOT(A81=0),A81,A80)+1</f>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>185</v>
+        <v>294</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <f>IF(NOT(A82=0),A82,A81)+1</f>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <f>IF(NOT(A83=0),A83,A82)+1</f>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>193</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <f>IF(NOT(A84=0),A84,A83)+1</f>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <f>IF(NOT(A85=0),A85,A84)+1</f>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>224</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <f>IF(NOT(A86=0),A86,A85)+1</f>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>76</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <f>IF(NOT(A87=0),A87,A86)+1</f>
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <f>IF(NOT(A88=0),A88,A87)+1</f>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>124</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <f>IF(NOT(A89=0),A89,A88)+1</f>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>256</v>
+        <v>76</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <f>IF(NOT(A90=0),A90,A89)+1</f>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <f>IF(NOT(A91=0),A91,A90)+1</f>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>250</v>
+        <v>124</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <f>IF(NOT(A92=0),A92,A91)+1</f>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>122</v>
+        <v>256</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <f>IF(NOT(A93=0),A93,A92)+1</f>
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>208</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <f>IF(NOT(A94=0),A94,A93)+1</f>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>154</v>
+        <v>250</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <f>IF(NOT(A95=0),A95,A94)+1</f>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>306</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <f>IF(NOT(A96=0),A96,A95)+1</f>
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>302</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <f>IF(NOT(A97=0),A97,A96)+1</f>
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <f>IF(NOT(A98=0),A98,A97)+1</f>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>163</v>
+        <v>306</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <f>IF(NOT(A99=0),A99,A98)+1</f>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <f>IF(NOT(A100=0),A100,A99)+1</f>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <f>IF(NOT(A101=0),A101,A100)+1</f>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <f>IF(NOT(A102=0),A102,A101)+1</f>
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <f>IF(NOT(A103=0),A103,A102)+1</f>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <f>IF(NOT(A104=0),A104,A103)+1</f>
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>235</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <f>IF(NOT(A105=0),A105,A104)+1</f>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <f>IF(NOT(A106=0),A106,A105)+1</f>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>351</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <f>IF(NOT(A107=0),A107,A106)+1</f>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>309</v>
+        <v>235</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <f>IF(NOT(A108=0),A108,A107)+1</f>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>148</v>
+        <v>285</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <f>IF(NOT(A109=0),A109,A108)+1</f>
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <f>IF(NOT(A110=0),A110,A109)+1</f>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>262</v>
+        <v>309</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <f>IF(NOT(A111=0),A111,A110)+1</f>
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <f>IF(NOT(A112=0),A112,A111)+1</f>
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <f>IF(NOT(A113=0),A113,A112)+1</f>
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>179</v>
+        <v>262</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <f>IF(NOT(A114=0),A114,A113)+1</f>
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>259</v>
+        <v>207</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <f>IF(NOT(A115=0),A115,A114)+1</f>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>21</v>
+        <v>300</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <f>IF(NOT(A116=0),A116,A115)+1</f>
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>301</v>
+        <v>179</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <f>IF(NOT(A117=0),A117,A116)+1</f>
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>318</v>
+        <v>259</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <f>IF(NOT(A118=0),A118,A117)+1</f>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>249</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <f>IF(NOT(A119=0),A119,A118)+1</f>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <f>IF(NOT(A120=0),A120,A119)+1</f>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <f>IF(NOT(A121=0),A121,A120)+1</f>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>80</v>
+        <v>249</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <f>IF(NOT(A122=0),A122,A121)+1</f>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <f>IF(NOT(A123=0),A123,A122)+1</f>
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>166</v>
+        <v>293</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <f>IF(NOT(A124=0),A124,A123)+1</f>
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>202</v>
+        <v>80</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <f>IF(NOT(A125=0),A125,A124)+1</f>
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>196</v>
+        <v>275</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <f>IF(NOT(A126=0),A126,A125)+1</f>
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>236</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <f>IF(NOT(A127=0),A127,A126)+1</f>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <f>IF(NOT(A128=0),A128,A127)+1</f>
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>110</v>
+        <v>196</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <f>IF(NOT(A129=0),A129,A128)+1</f>
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>60</v>
+        <v>236</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <f>IF(NOT(A130=0),A130,A129)+1</f>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <f>IF(NOT(A131=0),A131,A130)+1</f>
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <f>IF(NOT(A132=0),A132,A131)+1</f>
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <f>IF(NOT(A133=0),A133,A132)+1</f>
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <f>IF(NOT(A134=0),A134,A133)+1</f>
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <f>IF(NOT(A135=0),A135,A134)+1</f>
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>212</v>
+        <v>74</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <f>IF(NOT(A136=0),A136,A135)+1</f>
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>41</v>
+        <v>184</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <f>IF(NOT(A137=0),A137,A136)+1</f>
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>150</v>
+        <v>212</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <f>IF(NOT(A138=0),A138,A137)+1</f>
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>336</v>
+        <v>41</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <f>IF(NOT(A139=0),A139,A138)+1</f>
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>279</v>
+        <v>150</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <f>IF(NOT(A140=0),A140,A139)+1</f>
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>42</v>
+        <v>336</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <f>IF(NOT(A141=0),A141,A140)+1</f>
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>63</v>
+        <v>279</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <f>IF(NOT(A142=0),A142,A141)+1</f>
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>308</v>
+        <v>42</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <f>IF(NOT(A143=0),A143,A142)+1</f>
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <f>IF(NOT(A144=0),A144,A143)+1</f>
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>40</v>
+        <v>308</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <f>IF(NOT(A145=0),A145,A144)+1</f>
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>64</v>
@@ -5282,178 +5281,178 @@
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <f>IF(NOT(A146=0),A146,A145)+1</f>
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>210</v>
+        <v>40</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <f>IF(NOT(A147=0),A147,A146)+1</f>
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>180</v>
+        <v>64</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <f>IF(NOT(A148=0),A148,A147)+1</f>
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>112</v>
+        <v>210</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <f>IF(NOT(A149=0),A149,A148)+1</f>
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>269</v>
+        <v>180</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <f>IF(NOT(A150=0),A150,A149)+1</f>
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <f>IF(NOT(A151=0),A151,A150)+1</f>
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <f>IF(NOT(A152=0),A152,A151)+1</f>
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>358</v>
+        <v>45</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <f>IF(NOT(A153=0),A153,A152)+1</f>
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <f>IF(NOT(A154=0),A154,A153)+1</f>
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>289</v>
+        <v>358</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <f>IF(NOT(A155=0),A155,A154)+1</f>
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <f>IF(NOT(A156=0),A156,A155)+1</f>
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <f>IF(NOT(A157=0),A157,A156)+1</f>
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>56</v>
+        <v>265</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <f>IF(NOT(A158=0),A158,A157)+1</f>
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <f>IF(NOT(A159=0),A159,A158)+1</f>
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <f>IF(NOT(A160=0),A160,A159)+1</f>
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>260</v>
+        <v>330</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <f>IF(NOT(A161=0),A161,A160)+1</f>
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <f>IF(NOT(A162=0),A162,A161)+1</f>
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>329</v>
+        <v>260</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <f>IF(NOT(A163=0),A163,A162)+1</f>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <f>IF(NOT(A164=0),A164,A163)+1</f>
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>227</v>
+        <v>329</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <f>IF(NOT(A165=0),A165,A164)+1</f>
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>105</v>
@@ -5462,313 +5461,313 @@
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <f>IF(NOT(A166=0),A166,A165)+1</f>
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>328</v>
+        <v>227</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <f>IF(NOT(A167=0),A167,A166)+1</f>
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <f>IF(NOT(A168=0),A168,A167)+1</f>
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>255</v>
+        <v>328</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <f>IF(NOT(A169=0),A169,A168)+1</f>
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <f>IF(NOT(A170=0),A170,A169)+1</f>
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>327</v>
+        <v>255</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <f>IF(NOT(A171=0),A171,A170)+1</f>
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>118</v>
+        <v>246</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <f>IF(NOT(A172=0),A172,A171)+1</f>
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>132</v>
+        <v>327</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <f>IF(NOT(A173=0),A173,A172)+1</f>
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <f>IF(NOT(A174=0),A174,A173)+1</f>
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>326</v>
+        <v>132</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <f>IF(NOT(A175=0),A175,A174)+1</f>
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>108</v>
+        <v>209</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <f>IF(NOT(A176=0),A176,A175)+1</f>
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>147</v>
+        <v>326</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <f>IF(NOT(A177=0),A177,A176)+1</f>
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>175</v>
+        <v>108</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <f>IF(NOT(A178=0),A178,A177)+1</f>
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>325</v>
+        <v>147</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <f>IF(NOT(A179=0),A179,A178)+1</f>
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <f>IF(NOT(A180=0),A180,A179)+1</f>
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>131</v>
+        <v>325</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <f>IF(NOT(A181=0),A181,A180)+1</f>
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>292</v>
+        <v>144</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <f>IF(NOT(A182=0),A182,A181)+1</f>
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <f>IF(NOT(A183=0),A183,A182)+1</f>
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>155</v>
+        <v>292</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <f>IF(NOT(A184=0),A184,A183)+1</f>
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>278</v>
+        <v>91</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <f>IF(NOT(A185=0),A185,A184)+1</f>
+        <v>152</v>
+      </c>
+      <c r="B186" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <f>IF(NOT(A186=0),A186,A185)+1</f>
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>104</v>
+        <v>278</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <f>IF(NOT(A187=0),A187,A186)+1</f>
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>189</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <f>IF(NOT(A188=0),A188,A187)+1</f>
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>214</v>
+        <v>104</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <f>IF(NOT(A189=0),A189,A188)+1</f>
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>13</v>
+        <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <f>IF(NOT(A190=0),A190,A189)+1</f>
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <f>IF(NOT(A191=0),A191,A190)+1</f>
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <f>IF(NOT(A192=0),A192,A191)+1</f>
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>254</v>
+        <v>78</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <f>IF(NOT(A193=0),A193,A192)+1</f>
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <f>IF(NOT(A194=0),A194,A193)+1</f>
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>24</v>
+        <v>254</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <f>IF(NOT(A195=0),A195,A194)+1</f>
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>283</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <f>IF(NOT(A196=0),A196,A195)+1</f>
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>288</v>
+        <v>24</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <f>IF(NOT(A197=0),A197,A196)+1</f>
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>34</v>
+        <v>283</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <f>IF(NOT(A198=0),A198,A197)+1</f>
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <f>IF(NOT(A199=0),A199,A198)+1</f>
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>149</v>
+        <v>34</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <f>IF(NOT(A200=0),A200,A199)+1</f>
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>274</v>
@@ -5777,25 +5776,25 @@
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <f>IF(NOT(A201=0),A201,A200)+1</f>
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>273</v>
+        <v>149</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <f>IF(NOT(A202=0),A202,A201)+1</f>
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>98</v>
+        <v>274</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <f>IF(NOT(A203=0),A203,A202)+1</f>
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>273</v>
@@ -5804,16 +5803,16 @@
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <f>IF(NOT(A204=0),A204,A203)+1</f>
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <f>IF(NOT(A205=0),A205,A204)+1</f>
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>229</v>
@@ -5822,7 +5821,7 @@
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <f>IF(NOT(A206=0),A206,A205)+1</f>
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>170</v>
@@ -5831,7 +5830,7 @@
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <f>IF(NOT(A207=0),A207,A206)+1</f>
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>177</v>
@@ -5840,7 +5839,7 @@
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <f>IF(NOT(A208=0),A208,A207)+1</f>
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>174</v>
@@ -5849,7 +5848,7 @@
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <f>IF(NOT(A209=0),A209,A208)+1</f>
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>188</v>
@@ -5858,7 +5857,7 @@
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <f>IF(NOT(A210=0),A210,A209)+1</f>
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>30</v>
@@ -5867,7 +5866,7 @@
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <f>IF(NOT(A211=0),A211,A210)+1</f>
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>188</v>
@@ -5876,7 +5875,7 @@
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <f>IF(NOT(A212=0),A212,A211)+1</f>
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>353</v>
@@ -5885,7 +5884,7 @@
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <f>IF(NOT(A213=0),A213,A212)+1</f>
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>284</v>
@@ -5894,7 +5893,7 @@
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <f>IF(NOT(A214=0),A214,A213)+1</f>
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>287</v>
@@ -5903,7 +5902,7 @@
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <f>IF(NOT(A215=0),A215,A214)+1</f>
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>282</v>
@@ -5912,7 +5911,7 @@
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <f>IF(NOT(A216=0),A216,A215)+1</f>
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>116</v>
@@ -5921,7 +5920,7 @@
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <f>IF(NOT(A217=0),A217,A216)+1</f>
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>266</v>
@@ -5930,7 +5929,7 @@
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <f>IF(NOT(A218=0),A218,A217)+1</f>
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>53</v>
@@ -5939,7 +5938,7 @@
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <f>IF(NOT(A219=0),A219,A218)+1</f>
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>33</v>
@@ -5948,7 +5947,7 @@
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <f>IF(NOT(A220=0),A220,A219)+1</f>
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>230</v>
@@ -5957,7 +5956,7 @@
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <f>IF(NOT(A221=0),A221,A220)+1</f>
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>133</v>
@@ -5966,7 +5965,7 @@
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <f>IF(NOT(A222=0),A222,A221)+1</f>
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>226</v>
@@ -5975,7 +5974,7 @@
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <f>IF(NOT(A223=0),A223,A222)+1</f>
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>35</v>
@@ -5984,7 +5983,7 @@
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <f>IF(NOT(A224=0),A224,A223)+1</f>
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>44</v>
@@ -5993,7 +5992,7 @@
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <f>IF(NOT(A225=0),A225,A224)+1</f>
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>135</v>
@@ -6002,7 +6001,7 @@
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <f>IF(NOT(A226=0),A226,A225)+1</f>
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>192</v>
@@ -6011,7 +6010,7 @@
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <f>IF(NOT(A227=0),A227,A226)+1</f>
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>228</v>
@@ -6020,7 +6019,7 @@
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <f>IF(NOT(A228=0),A228,A227)+1</f>
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>324</v>
@@ -6029,7 +6028,7 @@
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <f>IF(NOT(A229=0),A229,A228)+1</f>
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>233</v>
@@ -6038,7 +6037,7 @@
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <f>IF(NOT(A230=0),A230,A229)+1</f>
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>14</v>
@@ -6047,7 +6046,7 @@
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <f>IF(NOT(A231=0),A231,A230)+1</f>
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>57</v>
@@ -6056,7 +6055,7 @@
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <f>IF(NOT(A232=0),A232,A231)+1</f>
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>200</v>
@@ -6065,7 +6064,7 @@
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <f>IF(NOT(A233=0),A233,A232)+1</f>
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>237</v>
@@ -6074,7 +6073,7 @@
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <f>IF(NOT(A234=0),A234,A233)+1</f>
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>240</v>
@@ -6083,7 +6082,7 @@
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <f>IF(NOT(A235=0),A235,A234)+1</f>
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>357</v>
@@ -6092,7 +6091,7 @@
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <f>IF(NOT(A236=0),A236,A235)+1</f>
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>245</v>
@@ -6101,7 +6100,7 @@
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <f>IF(NOT(A237=0),A237,A236)+1</f>
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>356</v>
@@ -6110,7 +6109,7 @@
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <f>IF(NOT(A238=0),A238,A237)+1</f>
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>190</v>
@@ -6119,7 +6118,7 @@
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <f>IF(NOT(A239=0),A239,A238)+1</f>
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>355</v>
@@ -6128,7 +6127,7 @@
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <f>IF(NOT(A240=0),A240,A239)+1</f>
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>190</v>
@@ -6137,7 +6136,7 @@
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <f>IF(NOT(A241=0),A241,A240)+1</f>
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>354</v>
@@ -6146,7 +6145,7 @@
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <f>IF(NOT(A242=0),A242,A241)+1</f>
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>217</v>
@@ -6155,7 +6154,7 @@
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <f>IF(NOT(A243=0),A243,A242)+1</f>
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>142</v>
@@ -6164,7 +6163,7 @@
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <f>IF(NOT(A244=0),A244,A243)+1</f>
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>322</v>
@@ -6173,7 +6172,7 @@
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <f>IF(NOT(A245=0),A245,A244)+1</f>
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>321</v>
@@ -6182,7 +6181,7 @@
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <f>IF(NOT(A246=0),A246,A245)+1</f>
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>320</v>
@@ -6191,7 +6190,7 @@
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <f>IF(NOT(A247=0),A247,A246)+1</f>
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>319</v>
@@ -6200,7 +6199,7 @@
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <f>IF(NOT(A248=0),A248,A247)+1</f>
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>198</v>
@@ -6209,7 +6208,7 @@
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <f>IF(NOT(A249=0),A249,A248)+1</f>
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>50</v>
@@ -6218,7 +6217,7 @@
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <f>IF(NOT(A250=0),A250,A249)+1</f>
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>128</v>
@@ -6227,7 +6226,7 @@
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <f>IF(NOT(A251=0),A251,A249)+1</f>
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>66</v>
@@ -6236,7 +6235,7 @@
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <f>IF(NOT(A252=0),A252,A251)+1</f>
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>49</v>
@@ -6245,7 +6244,7 @@
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <f>IF(NOT(A253=0),A253,A252)+1</f>
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>156</v>
@@ -6254,7 +6253,7 @@
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <f>IF(NOT(A254=0),A254,A253)+1</f>
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>138</v>
@@ -6263,7 +6262,7 @@
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <f>IF(NOT(A255=0),A255,A254)+1</f>
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>350</v>
@@ -6272,7 +6271,7 @@
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <f>IF(NOT(A256=0),A256,A255)+1</f>
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>218</v>
@@ -6281,7 +6280,7 @@
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <f>IF(NOT(A257=0),A257,A256)+1</f>
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>205</v>
@@ -6290,7 +6289,7 @@
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <f>IF(NOT(A258=0),A258,A257)+1</f>
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>223</v>
@@ -6299,7 +6298,7 @@
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <f>IF(NOT(A259=0),A259,A258)+1</f>
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>92</v>
@@ -6308,7 +6307,7 @@
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <f>IF(NOT(A260=0),A260,A259)+1</f>
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>92</v>
@@ -6317,7 +6316,7 @@
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <f>IF(NOT(A261=0),A261,A260)+1</f>
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>219</v>
@@ -6326,7 +6325,7 @@
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <f>IF(NOT(A262=0),A262,A261)+1</f>
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>140</v>
@@ -6335,7 +6334,7 @@
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <f>IF(NOT(A263=0),A263,A262)+1</f>
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>197</v>
@@ -6344,7 +6343,7 @@
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <f>IF(NOT(A264=0),A264,A263)+1</f>
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>141</v>
@@ -6353,7 +6352,7 @@
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <f>IF(NOT(A265=0),A265,A264)+1</f>
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>187</v>
@@ -6362,7 +6361,7 @@
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <f>IF(NOT(A266=0),A266,A265)+1</f>
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>352</v>
@@ -6371,7 +6370,7 @@
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <f>IF(NOT(A267=0),A267,A266)+1</f>
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>341</v>
@@ -6380,7 +6379,7 @@
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <f>IF(NOT(A268=0),A268,A267)+1</f>
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>172</v>
@@ -6389,7 +6388,7 @@
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <f>IF(NOT(A269=0),A269,A268)+1</f>
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>62</v>
@@ -6398,7 +6397,7 @@
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <f>IF(NOT(A270=0),A270,A269)+1</f>
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>62</v>
@@ -6407,7 +6406,7 @@
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <f>IF(NOT(A271=0),A271,A270)+1</f>
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>61</v>
@@ -6416,7 +6415,7 @@
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <f>IF(NOT(A272=0),A272,A271)+1</f>
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>276</v>
@@ -6425,7 +6424,7 @@
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <f>IF(NOT(A273=0),A273,A272)+1</f>
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>253</v>
@@ -6434,7 +6433,7 @@
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <f>IF(NOT(A274=0),A274,A273)+1</f>
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>39</v>
@@ -6443,7 +6442,7 @@
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <f>IF(NOT(A275=0),A275,A274)+1</f>
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>55</v>
@@ -6452,7 +6451,7 @@
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <f>IF(NOT(A276=0),A276,A275)+1</f>
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>43</v>
@@ -6461,7 +6460,7 @@
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <f>IF(NOT(A277=0),A277,A276)+1</f>
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>134</v>
@@ -6470,7 +6469,7 @@
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <f>IF(NOT(A278=0),A278,A277)+1</f>
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>191</v>
@@ -6479,7 +6478,7 @@
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <f>IF(NOT(A279=0),A279,A278)+1</f>
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>87</v>
@@ -6488,7 +6487,7 @@
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <f>IF(NOT(A280=0),A280,A279)+1</f>
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>86</v>
@@ -6497,7 +6496,7 @@
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <f>IF(NOT(A281=0),A281,A280)+1</f>
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>232</v>
@@ -6506,7 +6505,7 @@
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <f>IF(NOT(A282=0),A282,A281)+1</f>
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>333</v>
@@ -6515,7 +6514,7 @@
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <f>IF(NOT(A283=0),A283,A282)+1</f>
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>178</v>
@@ -6524,7 +6523,7 @@
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <f>IF(NOT(A284=0),A284,A283)+1</f>
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>247</v>
@@ -6533,7 +6532,7 @@
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <f>IF(NOT(A285=0),A285,A284)+1</f>
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>242</v>
@@ -6542,7 +6541,7 @@
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <f>IF(NOT(A286=0),A286,A285)+1</f>
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>38</v>
@@ -6551,7 +6550,7 @@
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <f>IF(NOT(A287=0),A287,A286)+1</f>
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>231</v>
@@ -6560,7 +6559,7 @@
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <f>IF(NOT(A288=0),A288,A287)+1</f>
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>126</v>
@@ -6569,7 +6568,7 @@
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <f>IF(NOT(A289=0),A289,A288)+1</f>
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>143</v>
@@ -6578,7 +6577,7 @@
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <f>IF(NOT(A290=0),A290,A289)+1</f>
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>251</v>
@@ -6587,7 +6586,7 @@
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <f>IF(NOT(A291=0),A291,A290)+1</f>
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>234</v>
@@ -6596,7 +6595,7 @@
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <f>IF(NOT(A292=0),A292,A291)+1</f>
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>215</v>
@@ -6605,7 +6604,7 @@
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <f>IF(NOT(A293=0),A293,A292)+1</f>
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>171</v>
@@ -6614,7 +6613,7 @@
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <f>IF(NOT(A294=0),A294,A293)+1</f>
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>238</v>
@@ -6623,7 +6622,7 @@
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <f>IF(NOT(A295=0),A295,A294)+1</f>
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>107</v>
@@ -6632,7 +6631,7 @@
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <f>IF(NOT(A296=0),A296,A295)+1</f>
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>239</v>
@@ -6641,7 +6640,7 @@
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <f>IF(NOT(A297=0),A297,A296)+1</f>
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>113</v>
@@ -6650,7 +6649,7 @@
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <f>IF(NOT(A298=0),A298,A297)+1</f>
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>69</v>
@@ -6659,7 +6658,7 @@
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <f>IF(NOT(A299=0),A299,A298)+1</f>
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>69</v>
@@ -6668,7 +6667,7 @@
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <f>IF(NOT(A300=0),A300,A299)+1</f>
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>93</v>
@@ -6677,7 +6676,7 @@
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <f>IF(NOT(A301=0),A301,A300)+1</f>
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>109</v>
@@ -6686,7 +6685,7 @@
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <f>IF(NOT(A302=0),A302,A301)+1</f>
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>106</v>
@@ -6695,7 +6694,7 @@
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <f>IF(NOT(A303=0),A303,A302)+1</f>
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>28</v>
@@ -6704,7 +6703,7 @@
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <f>IF(NOT(A304=0),A304,A303)+1</f>
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>7</v>
@@ -6713,7 +6712,7 @@
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <f>IF(NOT(A305=0),A305,A304)+1</f>
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>27</v>
@@ -6722,7 +6721,7 @@
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
         <f>IF(NOT(A306=0),A306,A305)+1</f>
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>47</v>
@@ -6731,7 +6730,7 @@
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <f>IF(NOT(A307=0),A307,A306)+1</f>
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>152</v>
@@ -6740,7 +6739,7 @@
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <f>IF(NOT(A308=0),A308,A307)+1</f>
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>195</v>
@@ -6749,7 +6748,7 @@
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <f>IF(NOT(A309=0),A309,A308)+1</f>
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>102</v>
@@ -6758,7 +6757,7 @@
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <f>IF(NOT(A310=0),A310,A309)+1</f>
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>83</v>
@@ -6767,7 +6766,7 @@
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <f>IF(NOT(A311=0),A311,A310)+1</f>
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>94</v>
@@ -6776,7 +6775,7 @@
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <f>IF(NOT(A312=0),A312,A311)+1</f>
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>119</v>
@@ -6785,7 +6784,7 @@
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <f>IF(NOT(A313=0),A313,A312)+1</f>
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>89</v>
@@ -6794,7 +6793,7 @@
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
         <f>IF(NOT(A314=0),A314,A313)+1</f>
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>307</v>
@@ -6803,7 +6802,7 @@
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <f>IF(NOT(A315=0),A315,A314)+1</f>
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>77</v>
@@ -6812,7 +6811,7 @@
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <f>IF(NOT(A316=0),A316,A315)+1</f>
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>139</v>
@@ -6821,7 +6820,7 @@
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <f>IF(NOT(A317=0),A317,A316)+1</f>
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>183</v>
@@ -6830,7 +6829,7 @@
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <f>IF(NOT(A318=0),A318,A317)+1</f>
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>176</v>
@@ -6839,7 +6838,7 @@
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <f>IF(NOT(A319=0),A319,A318)+1</f>
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>145</v>
@@ -6848,7 +6847,7 @@
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
         <f>IF(NOT(A320=0),A320,A319)+1</f>
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>168</v>
@@ -6857,7 +6856,7 @@
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <f>IF(NOT(A321=0),A321,A320)+1</f>
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>4</v>
@@ -6866,7 +6865,7 @@
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <f>IF(NOT(A322=0),A322,A321)+1</f>
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>32</v>
@@ -6875,7 +6874,7 @@
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <f>IF(NOT(A323=0),A323,A322)+1</f>
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>270</v>
@@ -6884,7 +6883,7 @@
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
         <f>IF(NOT(A324=0),A324,A323)+1</f>
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>97</v>
@@ -6893,7 +6892,7 @@
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <f>IF(NOT(A325=0),A325,A324)+1</f>
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>81</v>
@@ -6902,7 +6901,7 @@
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <f>IF(NOT(A326=0),A326,A325)+1</f>
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>346</v>
@@ -6911,7 +6910,7 @@
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
         <f>IF(NOT(A327=0),A327,A326)+1</f>
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>72</v>
@@ -6920,7 +6919,7 @@
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <f>IF(NOT(A328=0),A328,A327)+1</f>
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>125</v>
@@ -6929,7 +6928,7 @@
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
         <f>IF(NOT(A329=0),A329,A328)+1</f>
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>125</v>
@@ -6938,7 +6937,7 @@
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
         <f>IF(NOT(A330=0),A330,A329)+1</f>
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>73</v>
@@ -6947,7 +6946,7 @@
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <f>IF(NOT(A331=0),A331,A330)+1</f>
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>84</v>
@@ -6956,7 +6955,7 @@
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
         <f>IF(NOT(A332=0),A332,A331)+1</f>
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>31</v>
@@ -6965,7 +6964,7 @@
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
         <f>IF(NOT(A333=0),A333,A332)+1</f>
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>244</v>
@@ -6974,7 +6973,7 @@
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
         <f>IF(NOT(A334=0),A334,A333)+1</f>
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>0</v>
@@ -6983,7 +6982,7 @@
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
         <f>IF(NOT(A335=0),A335,A334)+1</f>
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>348</v>
@@ -6992,7 +6991,7 @@
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <f>IF(NOT(A336=0),A336,A335)+1</f>
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>186</v>
@@ -7001,7 +7000,7 @@
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
         <f>IF(NOT(A337=0),A337,A336)+1</f>
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>340</v>
@@ -7010,7 +7009,7 @@
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <f>IF(NOT(A338=0),A338,A337)+1</f>
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>339</v>
@@ -7019,7 +7018,7 @@
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <f>IF(NOT(A339=0),A339,A338)+1</f>
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>315</v>
@@ -7028,7 +7027,7 @@
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
         <f>IF(NOT(A340=0),A340,A339)+1</f>
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>100</v>
@@ -7037,7 +7036,7 @@
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
         <f>IF(NOT(A341=0),A341,A340)+1</f>
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>58</v>
@@ -7046,7 +7045,7 @@
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <f>IF(NOT(A342=0),A342,A341)+1</f>
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>58</v>
@@ -7055,7 +7054,7 @@
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
         <f>IF(NOT(A343=0),A343,A342)+1</f>
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>127</v>
@@ -7064,7 +7063,7 @@
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
         <f>IF(NOT(A344=0),A344,A343)+1</f>
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>136</v>
@@ -7073,7 +7072,7 @@
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
         <f>IF(NOT(A345=0),A345,A344)+1</f>
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>312</v>
@@ -7082,7 +7081,7 @@
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
         <f>IF(NOT(A346=0),A346,A345)+1</f>
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>311</v>
@@ -7091,7 +7090,7 @@
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
         <f>IF(NOT(A347=0),A347,A346)+1</f>
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>311</v>
@@ -7100,7 +7099,7 @@
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
         <f>IF(NOT(A348=0),A348,A347)+1</f>
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>257</v>
@@ -7109,7 +7108,7 @@
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
         <f>IF(NOT(A349=0),A349,A348)+1</f>
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>19</v>
@@ -7118,7 +7117,7 @@
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
         <f>IF(NOT(A350=0),A350,A349)+1</f>
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>18</v>
@@ -7127,7 +7126,7 @@
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
         <f>IF(NOT(A351=0),A351,A350)+1</f>
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>323</v>
@@ -7136,7 +7135,7 @@
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
         <f>IF(NOT(A352=0),A352,A351)+1</f>
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>17</v>
@@ -7145,7 +7144,7 @@
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
         <f>IF(NOT(A353=0),A353,A352)+1</f>
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>303</v>
@@ -7154,7 +7153,7 @@
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
         <f>IF(NOT(A354=0),A354,A353)+1</f>
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>68</v>
@@ -7163,7 +7162,7 @@
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
         <f>IF(NOT(A355=0),A355,A354)+1</f>
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>281</v>
@@ -7172,7 +7171,7 @@
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
         <f>IF(NOT(A356=0),A356,A355)+1</f>
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>65</v>
@@ -7181,7 +7180,7 @@
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <f>IF(NOT(A357=0),A357,A356)+1</f>
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>9</v>
@@ -7190,7 +7189,7 @@
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
         <f>IF(NOT(A358=0),A358,A357)+1</f>
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>1</v>
@@ -7199,7 +7198,7 @@
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
         <f>IF(NOT(A359=0),A359,A358)+1</f>
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>25</v>
@@ -7208,7 +7207,7 @@
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
         <f>IF(NOT(A360=0),A360,A359)+1</f>
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>46</v>
@@ -7217,7 +7216,7 @@
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
         <f>IF(NOT(A361=0),A361,A360)+1</f>
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>59</v>
@@ -7226,7 +7225,7 @@
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
         <f>IF(NOT(A362=0),A362,A361)+1</f>
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>261</v>
@@ -7235,7 +7234,7 @@
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
         <f>IF(NOT(A363=0),A363,A362)+1</f>
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>258</v>
@@ -7244,7 +7243,7 @@
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
         <f>IF(NOT(A364=0),A364,A363)+1</f>
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>120</v>
@@ -7253,7 +7252,7 @@
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
         <f>IF(NOT(A365=0),A365,A364)+1</f>
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>338</v>
@@ -7262,7 +7261,7 @@
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
         <f>IF(NOT(A366=0),A366,A365)+1</f>
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>158</v>
@@ -7271,7 +7270,7 @@
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
         <f>IF(NOT(A367=0),A367,A366)+1</f>
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>164</v>
@@ -7280,7 +7279,7 @@
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
         <f>IF(NOT(A368=0),A368,A367)+1</f>
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>213</v>
@@ -7289,7 +7288,7 @@
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
         <f>IF(NOT(A369=0),A369,A368)+1</f>
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>159</v>
@@ -7298,7 +7297,7 @@
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
         <f>IF(NOT(A370=0),A370,A369)+1</f>
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>199</v>
@@ -7307,7 +7306,7 @@
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
         <f>IF(NOT(A371=0),A371,A370)+1</f>
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>203</v>
@@ -7316,7 +7315,7 @@
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
         <f>IF(NOT(A372=0),A372,A371)+1</f>
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>314</v>
@@ -7325,7 +7324,7 @@
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
         <f>IF(NOT(A373=0),A373,A372)+1</f>
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>313</v>
@@ -7334,7 +7333,7 @@
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
         <f>IF(NOT(A374=0),A374,A373)+1</f>
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>48</v>
@@ -15270,6 +15269,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A237:B237"/>
@@ -15286,13 +15292,6 @@
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A125:B125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ALGORITHMS_LIST.xlsx
+++ b/ALGORITHMS_LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0\Git\beginner-algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B221C09E-D56E-4D47-A67F-8D5C8BE8E3F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955B773E-112F-4792-91E2-377F1EDB2A29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F3AEC63A-3935-431B-9D94-C19A95072D1B}"/>
   </bookViews>
@@ -3981,9 +3981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC73345-1EB4-493B-9D32-2379CC101C9C}">
   <dimension ref="A1:D375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4012,7 +4010,7 @@
       </c>
       <c r="D2" s="8">
         <f ca="1">RANDBETWEEN(1,A375)</f>
-        <v>91</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4273,1537 +4271,1536 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>1</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <f>IF(NOT(A35=0),A35,A34)+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <f>IF(NOT(A36=0),A36,A35)+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <f>IF(NOT(A37=0),A37,A36)+1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>299</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <f>IF(NOT(A38=0),A38,A37)+1</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>137</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <f>IF(NOT(A39=0),A39,A38)+1</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>298</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <f>IF(NOT(A40=0),A40,A39)+1</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>216</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <f>IF(NOT(A41=0),A41,A40)+1</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>342</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <f>IF(NOT(A42=0),A42,A41)+1</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>151</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <f>IF(NOT(A43=0),A43,A42)+1</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <f>IF(NOT(A44=0),A44,A43)+1</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>295</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <f>IF(NOT(A45=0),A45,A44)+1</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <f>IF(NOT(A46=0),A46,A45)+1</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <f>IF(NOT(A47=0),A47,A46)+1</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>201</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <f>IF(NOT(A48=0),A48,A47)+1</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <f>IF(NOT(A49=0),A49,A48)+1</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <f>IF(NOT(A50=0),A50,A49)+1</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <f>IF(NOT(A51=0),A51,A50)+1</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>220</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <f>IF(NOT(A52=0),A52,A51)+1</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <f>IF(NOT(A53=0),A53,A52)+1</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>332</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <f>IF(NOT(A54=0),A54,A53)+1</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>161</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <f>IF(NOT(A55=0),A55,A54)+1</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <f>IF(NOT(A56=0),A56,A55)+1</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>343</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <f>IF(NOT(A57=0),A57,A56)+1</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>181</v>
+        <v>343</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <f>IF(NOT(A58=0),A58,A57)+1</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <f>IF(NOT(A59=0),A59,A58)+1</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>347</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <f>IF(NOT(A60=0),A60,A59)+1</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>167</v>
+        <v>347</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <f>IF(NOT(A61=0),A61,A60)+1</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>304</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <f>IF(NOT(A62=0),A62,A61)+1</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <f>IF(NOT(A63=0),A63,A62)+1</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>85</v>
+        <v>349</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <f>IF(NOT(A64=0),A64,A63)+1</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <f>IF(NOT(A65=0),A65,A64)+1</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <f>IF(NOT(A66=0),A66,A65)+1</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>286</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <f>IF(NOT(A67=0),A67,A66)+1</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>334</v>
+        <v>286</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <f>IF(NOT(A68=0),A68,A67)+1</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>88</v>
+        <v>334</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <f>IF(NOT(A69=0),A69,A68)+1</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>291</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <f>IF(NOT(A70=0),A70,A69)+1</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>344</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <f>IF(NOT(A71=0),A71,A70)+1</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>129</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <f>IF(NOT(A72=0),A72,A71)+1</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <f>IF(NOT(A73=0),A73,A72)+1</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>252</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <f>IF(NOT(A74=0),A74,A73)+1</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>117</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <f>IF(NOT(A75=0),A75,A74)+1</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>241</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <f>IF(NOT(A76=0),A76,A75)+1</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>16</v>
+        <v>241</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <f>IF(NOT(A77=0),A77,A76)+1</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>211</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <f>IF(NOT(A78=0),A78,A77)+1</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>331</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <f>IF(NOT(A79=0),A79,A78)+1</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <f>IF(NOT(A80=0),A80,A79)+1</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>5</v>
+        <v>345</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <f>IF(NOT(A81=0),A81,A80)+1</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>294</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <f>IF(NOT(A82=0),A82,A81)+1</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>54</v>
+        <v>294</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <f>IF(NOT(A83=0),A83,A82)+1</f>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <f>IF(NOT(A84=0),A84,A83)+1</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <f>IF(NOT(A85=0),A85,A84)+1</f>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <f>IF(NOT(A86=0),A86,A85)+1</f>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>193</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <f>IF(NOT(A87=0),A87,A86)+1</f>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>36</v>
+        <v>193</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <f>IF(NOT(A88=0),A88,A87)+1</f>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>224</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <f>IF(NOT(A89=0),A89,A88)+1</f>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>76</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <f>IF(NOT(A90=0),A90,A89)+1</f>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <f>IF(NOT(A91=0),A91,A90)+1</f>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <f>IF(NOT(A92=0),A92,A91)+1</f>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>256</v>
+        <v>124</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <f>IF(NOT(A93=0),A93,A92)+1</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <f>IF(NOT(A94=0),A94,A93)+1</f>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>250</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <f>IF(NOT(A95=0),A95,A94)+1</f>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <f>IF(NOT(A96=0),A96,A95)+1</f>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>208</v>
+        <v>122</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <f>IF(NOT(A97=0),A97,A96)+1</f>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <f>IF(NOT(A98=0),A98,A97)+1</f>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>306</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <f>IF(NOT(A99=0),A99,A98)+1</f>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <f>IF(NOT(A100=0),A100,A99)+1</f>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>114</v>
+        <v>302</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <f>IF(NOT(A101=0),A101,A100)+1</f>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <f>IF(NOT(A102=0),A102,A101)+1</f>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>305</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <f>IF(NOT(A103=0),A103,A102)+1</f>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>90</v>
+        <v>305</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <f>IF(NOT(A104=0),A104,A103)+1</f>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <f>IF(NOT(A105=0),A105,A104)+1</f>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>272</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <f>IF(NOT(A106=0),A106,A105)+1</f>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>12</v>
+        <v>272</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <f>IF(NOT(A107=0),A107,A106)+1</f>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <f>IF(NOT(A108=0),A108,A107)+1</f>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <f>IF(NOT(A109=0),A109,A108)+1</f>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>351</v>
+        <v>285</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <f>IF(NOT(A110=0),A110,A109)+1</f>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <f>IF(NOT(A111=0),A111,A110)+1</f>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>148</v>
+        <v>309</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <f>IF(NOT(A112=0),A112,A111)+1</f>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>337</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <f>IF(NOT(A113=0),A113,A112)+1</f>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>262</v>
+        <v>337</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <f>IF(NOT(A114=0),A114,A113)+1</f>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>207</v>
+        <v>262</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <f>IF(NOT(A115=0),A115,A114)+1</f>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>300</v>
+        <v>207</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <f>IF(NOT(A116=0),A116,A115)+1</f>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>179</v>
+        <v>300</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <f>IF(NOT(A117=0),A117,A116)+1</f>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>259</v>
+        <v>179</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <f>IF(NOT(A118=0),A118,A117)+1</f>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>21</v>
+        <v>259</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <f>IF(NOT(A119=0),A119,A118)+1</f>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>301</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <f>IF(NOT(A120=0),A120,A119)+1</f>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <f>IF(NOT(A121=0),A121,A120)+1</f>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>249</v>
+        <v>318</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <f>IF(NOT(A122=0),A122,A121)+1</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <f>IF(NOT(A123=0),A123,A122)+1</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <f>IF(NOT(A124=0),A124,A123)+1</f>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>80</v>
+        <v>293</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <f>IF(NOT(A125=0),A125,A124)+1</f>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>275</v>
+        <v>80</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <f>IF(NOT(A126=0),A126,A125)+1</f>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>166</v>
+        <v>275</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <f>IF(NOT(A127=0),A127,A126)+1</f>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <f>IF(NOT(A128=0),A128,A127)+1</f>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <f>IF(NOT(A129=0),A129,A128)+1</f>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <f>IF(NOT(A130=0),A130,A129)+1</f>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <f>IF(NOT(A131=0),A131,A130)+1</f>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>60</v>
+        <v>194</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <f>IF(NOT(A132=0),A132,A131)+1</f>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>243</v>
+        <v>60</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <f>IF(NOT(A133=0),A133,A132)+1</f>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>130</v>
+        <v>243</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <f>IF(NOT(A134=0),A134,A133)+1</f>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>271</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <f>IF(NOT(A135=0),A135,A134)+1</f>
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>74</v>
+        <v>271</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <f>IF(NOT(A136=0),A136,A135)+1</f>
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>184</v>
+        <v>74</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <f>IF(NOT(A137=0),A137,A136)+1</f>
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <f>IF(NOT(A138=0),A138,A137)+1</f>
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>41</v>
+        <v>212</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <f>IF(NOT(A139=0),A139,A138)+1</f>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <f>IF(NOT(A140=0),A140,A139)+1</f>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>336</v>
+        <v>150</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <f>IF(NOT(A141=0),A141,A140)+1</f>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>279</v>
+        <v>336</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <f>IF(NOT(A142=0),A142,A141)+1</f>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>42</v>
+        <v>279</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <f>IF(NOT(A143=0),A143,A142)+1</f>
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <f>IF(NOT(A144=0),A144,A143)+1</f>
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>308</v>
+        <v>63</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <f>IF(NOT(A145=0),A145,A144)+1</f>
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>64</v>
+        <v>308</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <f>IF(NOT(A146=0),A146,A145)+1</f>
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <f>IF(NOT(A147=0),A147,A146)+1</f>
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <f>IF(NOT(A148=0),A148,A147)+1</f>
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>210</v>
+        <v>64</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <f>IF(NOT(A149=0),A149,A148)+1</f>
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <f>IF(NOT(A150=0),A150,A149)+1</f>
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <f>IF(NOT(A151=0),A151,A150)+1</f>
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>269</v>
+        <v>112</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <f>IF(NOT(A152=0),A152,A151)+1</f>
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>45</v>
+        <v>269</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <f>IF(NOT(A153=0),A153,A152)+1</f>
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>267</v>
+        <v>45</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <f>IF(NOT(A154=0),A154,A153)+1</f>
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>358</v>
+        <v>267</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <f>IF(NOT(A155=0),A155,A154)+1</f>
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>268</v>
+        <v>358</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <f>IF(NOT(A156=0),A156,A155)+1</f>
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <f>IF(NOT(A157=0),A157,A156)+1</f>
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <f>IF(NOT(A158=0),A158,A157)+1</f>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <f>IF(NOT(A159=0),A159,A158)+1</f>
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>56</v>
+        <v>297</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <f>IF(NOT(A160=0),A160,A159)+1</f>
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>330</v>
+        <v>56</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <f>IF(NOT(A161=0),A161,A160)+1</f>
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>82</v>
+        <v>330</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <f>IF(NOT(A162=0),A162,A161)+1</f>
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>260</v>
+        <v>82</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <f>IF(NOT(A163=0),A163,A162)+1</f>
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>51</v>
+        <v>260</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <f>IF(NOT(A164=0),A164,A163)+1</f>
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>329</v>
+        <v>51</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <f>IF(NOT(A165=0),A165,A164)+1</f>
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>105</v>
+        <v>329</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <f>IF(NOT(A166=0),A166,A165)+1</f>
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>227</v>
+        <v>105</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <f>IF(NOT(A167=0),A167,A166)+1</f>
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>105</v>
+        <v>227</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <f>IF(NOT(A168=0),A168,A167)+1</f>
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>328</v>
+        <v>105</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <f>IF(NOT(A169=0),A169,A168)+1</f>
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>204</v>
+        <v>328</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <f>IF(NOT(A170=0),A170,A169)+1</f>
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <f>IF(NOT(A171=0),A171,A170)+1</f>
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <f>IF(NOT(A172=0),A172,A171)+1</f>
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>327</v>
+        <v>246</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <f>IF(NOT(A173=0),A173,A172)+1</f>
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>118</v>
+        <v>327</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <f>IF(NOT(A174=0),A174,A173)+1</f>
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <f>IF(NOT(A175=0),A175,A174)+1</f>
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>209</v>
+        <v>132</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <f>IF(NOT(A176=0),A176,A175)+1</f>
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <f>IF(NOT(A177=0),A177,A176)+1</f>
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>108</v>
+        <v>326</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <f>IF(NOT(A178=0),A178,A177)+1</f>
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <f>IF(NOT(A179=0),A179,A178)+1</f>
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <f>IF(NOT(A180=0),A180,A179)+1</f>
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>325</v>
+        <v>175</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <f>IF(NOT(A181=0),A181,A180)+1</f>
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>144</v>
+        <v>325</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <f>IF(NOT(A182=0),A182,A181)+1</f>
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <f>IF(NOT(A183=0),A183,A182)+1</f>
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>292</v>
+        <v>131</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <f>IF(NOT(A184=0),A184,A183)+1</f>
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>91</v>
+        <v>292</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <f>IF(NOT(A185=0),A185,A184)+1</f>
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <f>IF(NOT(A186=0),A186,A185)+1</f>
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>278</v>
+        <v>155</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <f>IF(NOT(A187=0),A187,A186)+1</f>
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>2</v>
+        <v>278</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <f>IF(NOT(A188=0),A188,A187)+1</f>
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>104</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <f>IF(NOT(A189=0),A189,A188)+1</f>
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <f>IF(NOT(A190=0),A190,A189)+1</f>
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <f>IF(NOT(A191=0),A191,A190)+1</f>
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>13</v>
+        <v>214</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <f>IF(NOT(A192=0),A192,A191)+1</f>
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <f>IF(NOT(A193=0),A193,A192)+1</f>
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <f>IF(NOT(A194=0),A194,A193)+1</f>
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>254</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <f>IF(NOT(A195=0),A195,A194)+1</f>
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>8</v>
+        <v>254</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <f>IF(NOT(A196=0),A196,A195)+1</f>
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <f>IF(NOT(A197=0),A197,A196)+1</f>
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>283</v>
+        <v>24</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <f>IF(NOT(A198=0),A198,A197)+1</f>
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <f>IF(NOT(A199=0),A199,A198)+1</f>
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>34</v>
+        <v>288</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <f>IF(NOT(A200=0),A200,A199)+1</f>
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>274</v>
+        <v>34</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <f>IF(NOT(A201=0),A201,A200)+1</f>
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>149</v>
+        <v>274</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <f>IF(NOT(A202=0),A202,A201)+1</f>
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>274</v>
+        <v>149</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <f>IF(NOT(A203=0),A203,A202)+1</f>
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <f>IF(NOT(A204=0),A204,A203)+1</f>
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>273</v>
@@ -5812,250 +5809,250 @@
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <f>IF(NOT(A205=0),A205,A204)+1</f>
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>229</v>
+        <v>273</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <f>IF(NOT(A206=0),A206,A205)+1</f>
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>170</v>
+        <v>229</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <f>IF(NOT(A207=0),A207,A206)+1</f>
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <f>IF(NOT(A208=0),A208,A207)+1</f>
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <f>IF(NOT(A209=0),A209,A208)+1</f>
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <f>IF(NOT(A210=0),A210,A209)+1</f>
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>30</v>
+        <v>188</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <f>IF(NOT(A211=0),A211,A210)+1</f>
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>188</v>
+        <v>30</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <f>IF(NOT(A212=0),A212,A211)+1</f>
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>353</v>
+        <v>188</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <f>IF(NOT(A213=0),A213,A212)+1</f>
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>284</v>
+        <v>353</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <f>IF(NOT(A214=0),A214,A213)+1</f>
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <f>IF(NOT(A215=0),A215,A214)+1</f>
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <f>IF(NOT(A216=0),A216,A215)+1</f>
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>116</v>
+        <v>282</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <f>IF(NOT(A217=0),A217,A216)+1</f>
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>266</v>
+        <v>116</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <f>IF(NOT(A218=0),A218,A217)+1</f>
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>53</v>
+        <v>266</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <f>IF(NOT(A219=0),A219,A218)+1</f>
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <f>IF(NOT(A220=0),A220,A219)+1</f>
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>230</v>
+        <v>33</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <f>IF(NOT(A221=0),A221,A220)+1</f>
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>133</v>
+        <v>230</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <f>IF(NOT(A222=0),A222,A221)+1</f>
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>226</v>
+        <v>133</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <f>IF(NOT(A223=0),A223,A222)+1</f>
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>35</v>
+        <v>226</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <f>IF(NOT(A224=0),A224,A223)+1</f>
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <f>IF(NOT(A225=0),A225,A224)+1</f>
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <f>IF(NOT(A226=0),A226,A225)+1</f>
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <f>IF(NOT(A227=0),A227,A226)+1</f>
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <f>IF(NOT(A228=0),A228,A227)+1</f>
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>324</v>
+        <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <f>IF(NOT(A229=0),A229,A228)+1</f>
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>233</v>
+        <v>324</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <f>IF(NOT(A230=0),A230,A229)+1</f>
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <f>IF(NOT(A231=0),A231,A230)+1</f>
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <f>IF(NOT(A232=0),A232,A231)+1</f>
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>200</v>
@@ -6064,7 +6061,7 @@
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <f>IF(NOT(A233=0),A233,A232)+1</f>
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>237</v>
@@ -6073,7 +6070,7 @@
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <f>IF(NOT(A234=0),A234,A233)+1</f>
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>240</v>
@@ -6082,7 +6079,7 @@
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <f>IF(NOT(A235=0),A235,A234)+1</f>
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>357</v>
@@ -6091,7 +6088,7 @@
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <f>IF(NOT(A236=0),A236,A235)+1</f>
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>245</v>
@@ -6100,7 +6097,7 @@
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <f>IF(NOT(A237=0),A237,A236)+1</f>
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>356</v>
@@ -6109,7 +6106,7 @@
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <f>IF(NOT(A238=0),A238,A237)+1</f>
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>190</v>
@@ -6118,7 +6115,7 @@
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <f>IF(NOT(A239=0),A239,A238)+1</f>
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>355</v>
@@ -6127,7 +6124,7 @@
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <f>IF(NOT(A240=0),A240,A239)+1</f>
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>190</v>
@@ -6136,7 +6133,7 @@
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <f>IF(NOT(A241=0),A241,A240)+1</f>
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>354</v>
@@ -6145,7 +6142,7 @@
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <f>IF(NOT(A242=0),A242,A241)+1</f>
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>217</v>
@@ -6154,7 +6151,7 @@
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <f>IF(NOT(A243=0),A243,A242)+1</f>
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>142</v>
@@ -6163,7 +6160,7 @@
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <f>IF(NOT(A244=0),A244,A243)+1</f>
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>322</v>
@@ -6172,7 +6169,7 @@
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <f>IF(NOT(A245=0),A245,A244)+1</f>
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>321</v>
@@ -6181,7 +6178,7 @@
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <f>IF(NOT(A246=0),A246,A245)+1</f>
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>320</v>
@@ -6190,7 +6187,7 @@
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <f>IF(NOT(A247=0),A247,A246)+1</f>
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>319</v>
@@ -6199,7 +6196,7 @@
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <f>IF(NOT(A248=0),A248,A247)+1</f>
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>198</v>
@@ -6208,7 +6205,7 @@
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <f>IF(NOT(A249=0),A249,A248)+1</f>
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>50</v>
@@ -6217,7 +6214,7 @@
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <f>IF(NOT(A250=0),A250,A249)+1</f>
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>128</v>
@@ -6226,7 +6223,7 @@
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <f>IF(NOT(A251=0),A251,A249)+1</f>
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>66</v>
@@ -6235,7 +6232,7 @@
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <f>IF(NOT(A252=0),A252,A251)+1</f>
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>49</v>
@@ -6244,7 +6241,7 @@
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <f>IF(NOT(A253=0),A253,A252)+1</f>
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>156</v>
@@ -6253,7 +6250,7 @@
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <f>IF(NOT(A254=0),A254,A253)+1</f>
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>138</v>
@@ -6262,7 +6259,7 @@
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <f>IF(NOT(A255=0),A255,A254)+1</f>
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>350</v>
@@ -6271,7 +6268,7 @@
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <f>IF(NOT(A256=0),A256,A255)+1</f>
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>218</v>
@@ -6280,7 +6277,7 @@
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <f>IF(NOT(A257=0),A257,A256)+1</f>
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>205</v>
@@ -6289,7 +6286,7 @@
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <f>IF(NOT(A258=0),A258,A257)+1</f>
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>223</v>
@@ -6298,7 +6295,7 @@
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <f>IF(NOT(A259=0),A259,A258)+1</f>
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>92</v>
@@ -6307,7 +6304,7 @@
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <f>IF(NOT(A260=0),A260,A259)+1</f>
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>92</v>
@@ -6316,7 +6313,7 @@
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <f>IF(NOT(A261=0),A261,A260)+1</f>
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>219</v>
@@ -6325,7 +6322,7 @@
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <f>IF(NOT(A262=0),A262,A261)+1</f>
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>140</v>
@@ -6334,7 +6331,7 @@
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <f>IF(NOT(A263=0),A263,A262)+1</f>
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>197</v>
@@ -6343,7 +6340,7 @@
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <f>IF(NOT(A264=0),A264,A263)+1</f>
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>141</v>
@@ -6352,7 +6349,7 @@
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <f>IF(NOT(A265=0),A265,A264)+1</f>
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>187</v>
@@ -6361,7 +6358,7 @@
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <f>IF(NOT(A266=0),A266,A265)+1</f>
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>352</v>
@@ -6370,7 +6367,7 @@
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <f>IF(NOT(A267=0),A267,A266)+1</f>
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>341</v>
@@ -6379,7 +6376,7 @@
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <f>IF(NOT(A268=0),A268,A267)+1</f>
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>172</v>
@@ -6388,7 +6385,7 @@
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <f>IF(NOT(A269=0),A269,A268)+1</f>
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>62</v>
@@ -6397,7 +6394,7 @@
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <f>IF(NOT(A270=0),A270,A269)+1</f>
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>62</v>
@@ -6406,7 +6403,7 @@
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <f>IF(NOT(A271=0),A271,A270)+1</f>
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>61</v>
@@ -6415,7 +6412,7 @@
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <f>IF(NOT(A272=0),A272,A271)+1</f>
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>276</v>
@@ -6424,7 +6421,7 @@
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <f>IF(NOT(A273=0),A273,A272)+1</f>
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>253</v>
@@ -6433,7 +6430,7 @@
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <f>IF(NOT(A274=0),A274,A273)+1</f>
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>39</v>
@@ -6442,7 +6439,7 @@
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <f>IF(NOT(A275=0),A275,A274)+1</f>
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>55</v>
@@ -6451,7 +6448,7 @@
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <f>IF(NOT(A276=0),A276,A275)+1</f>
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>43</v>
@@ -6460,7 +6457,7 @@
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <f>IF(NOT(A277=0),A277,A276)+1</f>
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>134</v>
@@ -6469,7 +6466,7 @@
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <f>IF(NOT(A278=0),A278,A277)+1</f>
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>191</v>
@@ -6478,7 +6475,7 @@
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <f>IF(NOT(A279=0),A279,A278)+1</f>
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>87</v>
@@ -6487,7 +6484,7 @@
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <f>IF(NOT(A280=0),A280,A279)+1</f>
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>86</v>
@@ -6496,7 +6493,7 @@
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <f>IF(NOT(A281=0),A281,A280)+1</f>
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>232</v>
@@ -6505,7 +6502,7 @@
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <f>IF(NOT(A282=0),A282,A281)+1</f>
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>333</v>
@@ -6514,7 +6511,7 @@
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <f>IF(NOT(A283=0),A283,A282)+1</f>
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>178</v>
@@ -6523,7 +6520,7 @@
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <f>IF(NOT(A284=0),A284,A283)+1</f>
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>247</v>
@@ -6532,7 +6529,7 @@
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <f>IF(NOT(A285=0),A285,A284)+1</f>
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>242</v>
@@ -6541,7 +6538,7 @@
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <f>IF(NOT(A286=0),A286,A285)+1</f>
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>38</v>
@@ -6550,7 +6547,7 @@
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <f>IF(NOT(A287=0),A287,A286)+1</f>
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>231</v>
@@ -6559,7 +6556,7 @@
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <f>IF(NOT(A288=0),A288,A287)+1</f>
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>126</v>
@@ -6568,7 +6565,7 @@
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <f>IF(NOT(A289=0),A289,A288)+1</f>
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>143</v>
@@ -6577,7 +6574,7 @@
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <f>IF(NOT(A290=0),A290,A289)+1</f>
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>251</v>
@@ -6586,7 +6583,7 @@
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <f>IF(NOT(A291=0),A291,A290)+1</f>
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>234</v>
@@ -6595,7 +6592,7 @@
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <f>IF(NOT(A292=0),A292,A291)+1</f>
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>215</v>
@@ -6604,7 +6601,7 @@
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <f>IF(NOT(A293=0),A293,A292)+1</f>
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>171</v>
@@ -6613,7 +6610,7 @@
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <f>IF(NOT(A294=0),A294,A293)+1</f>
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>238</v>
@@ -6622,7 +6619,7 @@
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <f>IF(NOT(A295=0),A295,A294)+1</f>
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>107</v>
@@ -6631,7 +6628,7 @@
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <f>IF(NOT(A296=0),A296,A295)+1</f>
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>239</v>
@@ -6640,7 +6637,7 @@
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <f>IF(NOT(A297=0),A297,A296)+1</f>
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>113</v>
@@ -6649,7 +6646,7 @@
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <f>IF(NOT(A298=0),A298,A297)+1</f>
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>69</v>
@@ -6658,7 +6655,7 @@
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <f>IF(NOT(A299=0),A299,A298)+1</f>
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>69</v>
@@ -6667,7 +6664,7 @@
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <f>IF(NOT(A300=0),A300,A299)+1</f>
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>93</v>
@@ -6676,7 +6673,7 @@
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <f>IF(NOT(A301=0),A301,A300)+1</f>
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>109</v>
@@ -6685,7 +6682,7 @@
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <f>IF(NOT(A302=0),A302,A301)+1</f>
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>106</v>
@@ -6694,7 +6691,7 @@
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <f>IF(NOT(A303=0),A303,A302)+1</f>
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>28</v>
@@ -6703,7 +6700,7 @@
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <f>IF(NOT(A304=0),A304,A303)+1</f>
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>7</v>
@@ -6712,7 +6709,7 @@
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <f>IF(NOT(A305=0),A305,A304)+1</f>
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>27</v>
@@ -6721,7 +6718,7 @@
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
         <f>IF(NOT(A306=0),A306,A305)+1</f>
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>47</v>
@@ -6730,7 +6727,7 @@
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <f>IF(NOT(A307=0),A307,A306)+1</f>
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>152</v>
@@ -6739,7 +6736,7 @@
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <f>IF(NOT(A308=0),A308,A307)+1</f>
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>195</v>
@@ -6748,7 +6745,7 @@
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <f>IF(NOT(A309=0),A309,A308)+1</f>
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>102</v>
@@ -6757,7 +6754,7 @@
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <f>IF(NOT(A310=0),A310,A309)+1</f>
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>83</v>
@@ -6766,7 +6763,7 @@
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <f>IF(NOT(A311=0),A311,A310)+1</f>
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>94</v>
@@ -6775,7 +6772,7 @@
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <f>IF(NOT(A312=0),A312,A311)+1</f>
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>119</v>
@@ -6784,7 +6781,7 @@
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <f>IF(NOT(A313=0),A313,A312)+1</f>
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>89</v>
@@ -6793,7 +6790,7 @@
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
         <f>IF(NOT(A314=0),A314,A313)+1</f>
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>307</v>
@@ -6802,7 +6799,7 @@
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <f>IF(NOT(A315=0),A315,A314)+1</f>
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>77</v>
@@ -6811,7 +6808,7 @@
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <f>IF(NOT(A316=0),A316,A315)+1</f>
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>139</v>
@@ -6820,7 +6817,7 @@
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <f>IF(NOT(A317=0),A317,A316)+1</f>
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>183</v>
@@ -6829,7 +6826,7 @@
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <f>IF(NOT(A318=0),A318,A317)+1</f>
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>176</v>
@@ -6838,7 +6835,7 @@
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <f>IF(NOT(A319=0),A319,A318)+1</f>
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>145</v>
@@ -6847,7 +6844,7 @@
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
         <f>IF(NOT(A320=0),A320,A319)+1</f>
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>168</v>
@@ -6856,7 +6853,7 @@
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <f>IF(NOT(A321=0),A321,A320)+1</f>
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>4</v>
@@ -6865,7 +6862,7 @@
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <f>IF(NOT(A322=0),A322,A321)+1</f>
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>32</v>
@@ -6874,7 +6871,7 @@
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <f>IF(NOT(A323=0),A323,A322)+1</f>
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>270</v>
@@ -6883,7 +6880,7 @@
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
         <f>IF(NOT(A324=0),A324,A323)+1</f>
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>97</v>
@@ -6892,7 +6889,7 @@
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <f>IF(NOT(A325=0),A325,A324)+1</f>
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>81</v>
@@ -6901,7 +6898,7 @@
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <f>IF(NOT(A326=0),A326,A325)+1</f>
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>346</v>
@@ -6910,7 +6907,7 @@
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
         <f>IF(NOT(A327=0),A327,A326)+1</f>
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>72</v>
@@ -6919,7 +6916,7 @@
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <f>IF(NOT(A328=0),A328,A327)+1</f>
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>125</v>
@@ -6928,7 +6925,7 @@
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
         <f>IF(NOT(A329=0),A329,A328)+1</f>
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>125</v>
@@ -6937,7 +6934,7 @@
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
         <f>IF(NOT(A330=0),A330,A329)+1</f>
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>73</v>
@@ -6946,7 +6943,7 @@
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <f>IF(NOT(A331=0),A331,A330)+1</f>
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>84</v>
@@ -6955,7 +6952,7 @@
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
         <f>IF(NOT(A332=0),A332,A331)+1</f>
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>31</v>
@@ -6964,7 +6961,7 @@
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
         <f>IF(NOT(A333=0),A333,A332)+1</f>
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>244</v>
@@ -6973,7 +6970,7 @@
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
         <f>IF(NOT(A334=0),A334,A333)+1</f>
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>0</v>
@@ -6982,7 +6979,7 @@
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
         <f>IF(NOT(A335=0),A335,A334)+1</f>
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>348</v>
@@ -6991,7 +6988,7 @@
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <f>IF(NOT(A336=0),A336,A335)+1</f>
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>186</v>
@@ -7000,7 +6997,7 @@
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
         <f>IF(NOT(A337=0),A337,A336)+1</f>
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>340</v>
@@ -7009,7 +7006,7 @@
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <f>IF(NOT(A338=0),A338,A337)+1</f>
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>339</v>
@@ -7018,7 +7015,7 @@
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <f>IF(NOT(A339=0),A339,A338)+1</f>
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>315</v>
@@ -7027,7 +7024,7 @@
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
         <f>IF(NOT(A340=0),A340,A339)+1</f>
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>100</v>
@@ -7036,7 +7033,7 @@
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
         <f>IF(NOT(A341=0),A341,A340)+1</f>
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>58</v>
@@ -7045,7 +7042,7 @@
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <f>IF(NOT(A342=0),A342,A341)+1</f>
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>58</v>
@@ -7054,7 +7051,7 @@
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
         <f>IF(NOT(A343=0),A343,A342)+1</f>
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>127</v>
@@ -7063,7 +7060,7 @@
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
         <f>IF(NOT(A344=0),A344,A343)+1</f>
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>136</v>
@@ -7072,7 +7069,7 @@
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
         <f>IF(NOT(A345=0),A345,A344)+1</f>
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>312</v>
@@ -7081,7 +7078,7 @@
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
         <f>IF(NOT(A346=0),A346,A345)+1</f>
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>311</v>
@@ -7090,7 +7087,7 @@
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
         <f>IF(NOT(A347=0),A347,A346)+1</f>
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>311</v>
@@ -7099,7 +7096,7 @@
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
         <f>IF(NOT(A348=0),A348,A347)+1</f>
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>257</v>
@@ -7108,7 +7105,7 @@
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
         <f>IF(NOT(A349=0),A349,A348)+1</f>
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>19</v>
@@ -7117,7 +7114,7 @@
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
         <f>IF(NOT(A350=0),A350,A349)+1</f>
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>18</v>
@@ -7126,7 +7123,7 @@
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
         <f>IF(NOT(A351=0),A351,A350)+1</f>
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>323</v>
@@ -7135,7 +7132,7 @@
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
         <f>IF(NOT(A352=0),A352,A351)+1</f>
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>17</v>
@@ -7144,7 +7141,7 @@
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
         <f>IF(NOT(A353=0),A353,A352)+1</f>
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>303</v>
@@ -7153,7 +7150,7 @@
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
         <f>IF(NOT(A354=0),A354,A353)+1</f>
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>68</v>
@@ -7162,7 +7159,7 @@
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
         <f>IF(NOT(A355=0),A355,A354)+1</f>
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>281</v>
@@ -7171,7 +7168,7 @@
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
         <f>IF(NOT(A356=0),A356,A355)+1</f>
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>65</v>
@@ -7180,7 +7177,7 @@
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <f>IF(NOT(A357=0),A357,A356)+1</f>
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>9</v>
@@ -7189,7 +7186,7 @@
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
         <f>IF(NOT(A358=0),A358,A357)+1</f>
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>1</v>
@@ -7198,7 +7195,7 @@
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
         <f>IF(NOT(A359=0),A359,A358)+1</f>
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>25</v>
@@ -7207,7 +7204,7 @@
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
         <f>IF(NOT(A360=0),A360,A359)+1</f>
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>46</v>
@@ -7216,7 +7213,7 @@
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
         <f>IF(NOT(A361=0),A361,A360)+1</f>
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>59</v>
@@ -7225,7 +7222,7 @@
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
         <f>IF(NOT(A362=0),A362,A361)+1</f>
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>261</v>
@@ -7234,7 +7231,7 @@
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
         <f>IF(NOT(A363=0),A363,A362)+1</f>
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>258</v>
@@ -7243,7 +7240,7 @@
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
         <f>IF(NOT(A364=0),A364,A363)+1</f>
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>120</v>
@@ -7252,7 +7249,7 @@
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
         <f>IF(NOT(A365=0),A365,A364)+1</f>
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>338</v>
@@ -7261,7 +7258,7 @@
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
         <f>IF(NOT(A366=0),A366,A365)+1</f>
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>158</v>
@@ -7270,7 +7267,7 @@
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
         <f>IF(NOT(A367=0),A367,A366)+1</f>
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>164</v>
@@ -7279,7 +7276,7 @@
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
         <f>IF(NOT(A368=0),A368,A367)+1</f>
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>213</v>
@@ -7288,7 +7285,7 @@
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
         <f>IF(NOT(A369=0),A369,A368)+1</f>
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>159</v>
@@ -7297,7 +7294,7 @@
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
         <f>IF(NOT(A370=0),A370,A369)+1</f>
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>199</v>
@@ -7306,7 +7303,7 @@
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
         <f>IF(NOT(A371=0),A371,A370)+1</f>
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>203</v>
@@ -7315,7 +7312,7 @@
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
         <f>IF(NOT(A372=0),A372,A371)+1</f>
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>314</v>
@@ -7324,7 +7321,7 @@
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
         <f>IF(NOT(A373=0),A373,A372)+1</f>
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>313</v>
@@ -7333,7 +7330,7 @@
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
         <f>IF(NOT(A374=0),A374,A373)+1</f>
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>48</v>
@@ -15269,13 +15266,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A125:B125"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A237:B237"/>
@@ -15292,6 +15282,13 @@
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ALGORITHMS_LIST.xlsx
+++ b/ALGORITHMS_LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0\Git\beginner-algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955B773E-112F-4792-91E2-377F1EDB2A29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F189EB-56E2-4180-B2F2-9C5CB54FFBBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F3AEC63A-3935-431B-9D94-C19A95072D1B}"/>
   </bookViews>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="D2" s="8">
         <f ca="1">RANDBETWEEN(1,A375)</f>
-        <v>54</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4279,286 +4279,284 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>1</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <f>IF(NOT(A36=0),A36,A35)+1</f>
-        <v>2</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <f>IF(NOT(A37=0),A37,A36)+1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <f>IF(NOT(A38=0),A38,A37)+1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>299</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <f>IF(NOT(A39=0),A39,A38)+1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <f>IF(NOT(A40=0),A40,A39)+1</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <f>IF(NOT(A41=0),A41,A40)+1</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <f>IF(NOT(A42=0),A42,A41)+1</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>342</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <f>IF(NOT(A43=0),A43,A42)+1</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>151</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <f>IF(NOT(A44=0),A44,A43)+1</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>162</v>
+        <v>342</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <f>IF(NOT(A45=0),A45,A44)+1</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>295</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <f>IF(NOT(A46=0),A46,A45)+1</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>335</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <f>IF(NOT(A47=0),A47,A46)+1</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <f>IF(NOT(A48=0),A48,A47)+1</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>201</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <f>IF(NOT(A49=0),A49,A48)+1</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <f>IF(NOT(A50=0),A50,A49)+1</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <f>IF(NOT(A51=0),A51,A50)+1</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <f>IF(NOT(A52=0),A52,A51)+1</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <f>IF(NOT(A53=0),A53,A52)+1</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <f>IF(NOT(A54=0),A54,A53)+1</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>332</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <f>IF(NOT(A55=0),A55,A54)+1</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <f>IF(NOT(A56=0),A56,A55)+1</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>206</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <f>IF(NOT(A57=0),A57,A56)+1</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>343</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <f>IF(NOT(A58=0),A58,A57)+1</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <f>IF(NOT(A59=0),A59,A58)+1</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>160</v>
+        <v>343</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <f>IF(NOT(A60=0),A60,A59)+1</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>347</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <f>IF(NOT(A61=0),A61,A60)+1</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <f>IF(NOT(A62=0),A62,A61)+1</f>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <f>IF(NOT(A63=0),A63,A62)+1</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>349</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <f>IF(NOT(A64=0),A64,A63)+1</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>85</v>
+        <v>304</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <f>IF(NOT(A65=0),A65,A64)+1</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>29</v>
+        <v>349</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <f>IF(NOT(A66=0),A66,A65)+1</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>85</v>
@@ -4567,736 +4565,736 @@
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <f>IF(NOT(A67=0),A67,A66)+1</f>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>286</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <f>IF(NOT(A68=0),A68,A67)+1</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>334</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <f>IF(NOT(A69=0),A69,A68)+1</f>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>88</v>
+        <v>286</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <f>IF(NOT(A70=0),A70,A69)+1</f>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>291</v>
+        <v>334</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <f>IF(NOT(A71=0),A71,A70)+1</f>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>344</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <f>IF(NOT(A72=0),A72,A71)+1</f>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>129</v>
+        <v>291</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <f>IF(NOT(A73=0),A73,A72)+1</f>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>26</v>
+        <v>344</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <f>IF(NOT(A74=0),A74,A73)+1</f>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>252</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <f>IF(NOT(A75=0),A75,A74)+1</f>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <f>IF(NOT(A76=0),A76,A75)+1</f>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <f>IF(NOT(A77=0),A77,A76)+1</f>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <f>IF(NOT(A78=0),A78,A77)+1</f>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <f>IF(NOT(A79=0),A79,A78)+1</f>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>331</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <f>IF(NOT(A80=0),A80,A79)+1</f>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>345</v>
+        <v>211</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <f>IF(NOT(A81=0),A81,A80)+1</f>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>5</v>
+        <v>331</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <f>IF(NOT(A82=0),A82,A81)+1</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>294</v>
+        <v>345</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <f>IF(NOT(A83=0),A83,A82)+1</f>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <f>IF(NOT(A84=0),A84,A83)+1</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>121</v>
+        <v>294</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <f>IF(NOT(A85=0),A85,A84)+1</f>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>185</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <f>IF(NOT(A86=0),A86,A85)+1</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <f>IF(NOT(A87=0),A87,A86)+1</f>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <f>IF(NOT(A88=0),A88,A87)+1</f>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <f>IF(NOT(A89=0),A89,A88)+1</f>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <f>IF(NOT(A90=0),A90,A89)+1</f>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <f>IF(NOT(A91=0),A91,A90)+1</f>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>20</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <f>IF(NOT(A92=0),A92,A91)+1</f>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <f>IF(NOT(A93=0),A93,A92)+1</f>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>256</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <f>IF(NOT(A94=0),A94,A93)+1</f>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <f>IF(NOT(A95=0),A95,A94)+1</f>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <f>IF(NOT(A96=0),A96,A95)+1</f>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <f>IF(NOT(A97=0),A97,A96)+1</f>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <f>IF(NOT(A98=0),A98,A97)+1</f>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <f>IF(NOT(A99=0),A99,A98)+1</f>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>306</v>
+        <v>208</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <f>IF(NOT(A100=0),A100,A99)+1</f>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>302</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <f>IF(NOT(A101=0),A101,A100)+1</f>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>114</v>
+        <v>306</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <f>IF(NOT(A102=0),A102,A101)+1</f>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>163</v>
+        <v>302</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <f>IF(NOT(A103=0),A103,A102)+1</f>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>305</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <f>IF(NOT(A104=0),A104,A103)+1</f>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <f>IF(NOT(A105=0),A105,A104)+1</f>
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>111</v>
+        <v>305</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <f>IF(NOT(A106=0),A106,A105)+1</f>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>272</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <f>IF(NOT(A107=0),A107,A106)+1</f>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <f>IF(NOT(A108=0),A108,A107)+1</f>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <f>IF(NOT(A109=0),A109,A108)+1</f>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>285</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <f>IF(NOT(A110=0),A110,A109)+1</f>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>351</v>
+        <v>235</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <f>IF(NOT(A111=0),A111,A110)+1</f>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <f>IF(NOT(A112=0),A112,A111)+1</f>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <f>IF(NOT(A113=0),A113,A112)+1</f>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <f>IF(NOT(A114=0),A114,A113)+1</f>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>262</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <f>IF(NOT(A115=0),A115,A114)+1</f>
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>207</v>
+        <v>337</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <f>IF(NOT(A116=0),A116,A115)+1</f>
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <f>IF(NOT(A117=0),A117,A116)+1</f>
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <f>IF(NOT(A118=0),A118,A117)+1</f>
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <f>IF(NOT(A119=0),A119,A118)+1</f>
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>21</v>
+        <v>179</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <f>IF(NOT(A120=0),A120,A119)+1</f>
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>301</v>
+        <v>259</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <f>IF(NOT(A121=0),A121,A120)+1</f>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>318</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <f>IF(NOT(A122=0),A122,A121)+1</f>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <f>IF(NOT(A123=0),A123,A122)+1</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <f>IF(NOT(A124=0),A124,A123)+1</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>293</v>
+        <v>249</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <f>IF(NOT(A125=0),A125,A124)+1</f>
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>80</v>
+        <v>296</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <f>IF(NOT(A126=0),A126,A125)+1</f>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <f>IF(NOT(A127=0),A127,A126)+1</f>
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <f>IF(NOT(A128=0),A128,A127)+1</f>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>202</v>
+        <v>275</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <f>IF(NOT(A129=0),A129,A128)+1</f>
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <f>IF(NOT(A130=0),A130,A129)+1</f>
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <f>IF(NOT(A131=0),A131,A130)+1</f>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <f>IF(NOT(A132=0),A132,A131)+1</f>
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>60</v>
+        <v>236</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <f>IF(NOT(A133=0),A133,A132)+1</f>
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <f>IF(NOT(A134=0),A134,A133)+1</f>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <f>IF(NOT(A135=0),A135,A134)+1</f>
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <f>IF(NOT(A136=0),A136,A135)+1</f>
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <f>IF(NOT(A137=0),A137,A136)+1</f>
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <f>IF(NOT(A138=0),A138,A137)+1</f>
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>212</v>
+        <v>74</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <f>IF(NOT(A139=0),A139,A138)+1</f>
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>41</v>
+        <v>184</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <f>IF(NOT(A140=0),A140,A139)+1</f>
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>150</v>
+        <v>212</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <f>IF(NOT(A141=0),A141,A140)+1</f>
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>336</v>
+        <v>41</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <f>IF(NOT(A142=0),A142,A141)+1</f>
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>279</v>
+        <v>150</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <f>IF(NOT(A143=0),A143,A142)+1</f>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>42</v>
+        <v>336</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <f>IF(NOT(A144=0),A144,A143)+1</f>
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>63</v>
+        <v>279</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <f>IF(NOT(A145=0),A145,A144)+1</f>
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>308</v>
+        <v>42</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <f>IF(NOT(A146=0),A146,A145)+1</f>
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <f>IF(NOT(A147=0),A147,A146)+1</f>
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>40</v>
+        <v>308</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <f>IF(NOT(A148=0),A148,A147)+1</f>
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>64</v>
@@ -5305,511 +5303,511 @@
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <f>IF(NOT(A149=0),A149,A148)+1</f>
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>210</v>
+        <v>40</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <f>IF(NOT(A150=0),A150,A149)+1</f>
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>180</v>
+        <v>64</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <f>IF(NOT(A151=0),A151,A150)+1</f>
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>112</v>
+        <v>210</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <f>IF(NOT(A152=0),A152,A151)+1</f>
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>269</v>
+        <v>180</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <f>IF(NOT(A153=0),A153,A152)+1</f>
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <f>IF(NOT(A154=0),A154,A153)+1</f>
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <f>IF(NOT(A155=0),A155,A154)+1</f>
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>358</v>
+        <v>45</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <f>IF(NOT(A156=0),A156,A155)+1</f>
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <f>IF(NOT(A157=0),A157,A156)+1</f>
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>289</v>
+        <v>358</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <f>IF(NOT(A158=0),A158,A157)+1</f>
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <f>IF(NOT(A159=0),A159,A158)+1</f>
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <f>IF(NOT(A160=0),A160,A159)+1</f>
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>56</v>
+        <v>297</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <f>IF(NOT(A161=0),A161,A160)+1</f>
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>330</v>
+        <v>56</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <f>IF(NOT(A162=0),A162,A161)+1</f>
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>82</v>
+        <v>330</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <f>IF(NOT(A163=0),A163,A162)+1</f>
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>260</v>
+        <v>82</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <f>IF(NOT(A164=0),A164,A163)+1</f>
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>51</v>
+        <v>260</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <f>IF(NOT(A165=0),A165,A164)+1</f>
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>329</v>
+        <v>51</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <f>IF(NOT(A166=0),A166,A165)+1</f>
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>105</v>
+        <v>329</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <f>IF(NOT(A167=0),A167,A166)+1</f>
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>227</v>
+        <v>105</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <f>IF(NOT(A168=0),A168,A167)+1</f>
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>105</v>
+        <v>227</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <f>IF(NOT(A169=0),A169,A168)+1</f>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>328</v>
+        <v>105</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <f>IF(NOT(A170=0),A170,A169)+1</f>
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>204</v>
+        <v>328</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <f>IF(NOT(A171=0),A171,A170)+1</f>
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <f>IF(NOT(A172=0),A172,A171)+1</f>
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <f>IF(NOT(A173=0),A173,A172)+1</f>
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>327</v>
+        <v>246</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <f>IF(NOT(A174=0),A174,A173)+1</f>
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>118</v>
+        <v>327</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <f>IF(NOT(A175=0),A175,A174)+1</f>
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <f>IF(NOT(A176=0),A176,A175)+1</f>
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>209</v>
+        <v>132</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <f>IF(NOT(A177=0),A177,A176)+1</f>
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <f>IF(NOT(A178=0),A178,A177)+1</f>
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>108</v>
+        <v>326</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <f>IF(NOT(A179=0),A179,A178)+1</f>
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <f>IF(NOT(A180=0),A180,A179)+1</f>
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <f>IF(NOT(A181=0),A181,A180)+1</f>
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>325</v>
+        <v>175</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <f>IF(NOT(A182=0),A182,A181)+1</f>
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>144</v>
+        <v>325</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <f>IF(NOT(A183=0),A183,A182)+1</f>
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <f>IF(NOT(A184=0),A184,A183)+1</f>
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>292</v>
+        <v>131</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <f>IF(NOT(A185=0),A185,A184)+1</f>
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>91</v>
+        <v>292</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <f>IF(NOT(A186=0),A186,A185)+1</f>
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <f>IF(NOT(A187=0),A187,A186)+1</f>
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>278</v>
+        <v>155</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <f>IF(NOT(A188=0),A188,A187)+1</f>
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>2</v>
+        <v>278</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <f>IF(NOT(A189=0),A189,A188)+1</f>
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>104</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <f>IF(NOT(A190=0),A190,A189)+1</f>
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <f>IF(NOT(A191=0),A191,A190)+1</f>
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <f>IF(NOT(A192=0),A192,A191)+1</f>
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>13</v>
+        <v>214</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <f>IF(NOT(A193=0),A193,A192)+1</f>
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <f>IF(NOT(A194=0),A194,A193)+1</f>
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <f>IF(NOT(A195=0),A195,A194)+1</f>
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>254</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <f>IF(NOT(A196=0),A196,A195)+1</f>
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>8</v>
+        <v>254</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <f>IF(NOT(A197=0),A197,A196)+1</f>
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <f>IF(NOT(A198=0),A198,A197)+1</f>
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>283</v>
+        <v>24</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <f>IF(NOT(A199=0),A199,A198)+1</f>
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <f>IF(NOT(A200=0),A200,A199)+1</f>
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>34</v>
+        <v>288</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <f>IF(NOT(A201=0),A201,A200)+1</f>
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>274</v>
+        <v>34</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <f>IF(NOT(A202=0),A202,A201)+1</f>
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>149</v>
+        <v>274</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <f>IF(NOT(A203=0),A203,A202)+1</f>
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>274</v>
+        <v>149</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <f>IF(NOT(A204=0),A204,A203)+1</f>
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <f>IF(NOT(A205=0),A205,A204)+1</f>
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>273</v>
@@ -5818,124 +5816,124 @@
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <f>IF(NOT(A206=0),A206,A205)+1</f>
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>229</v>
+        <v>273</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <f>IF(NOT(A207=0),A207,A206)+1</f>
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>170</v>
+        <v>229</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <f>IF(NOT(A208=0),A208,A207)+1</f>
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <f>IF(NOT(A209=0),A209,A208)+1</f>
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <f>IF(NOT(A210=0),A210,A209)+1</f>
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <f>IF(NOT(A211=0),A211,A210)+1</f>
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>30</v>
+        <v>188</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <f>IF(NOT(A212=0),A212,A211)+1</f>
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>188</v>
+        <v>30</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <f>IF(NOT(A213=0),A213,A212)+1</f>
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>353</v>
+        <v>188</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <f>IF(NOT(A214=0),A214,A213)+1</f>
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>284</v>
+        <v>353</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <f>IF(NOT(A215=0),A215,A214)+1</f>
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <f>IF(NOT(A216=0),A216,A215)+1</f>
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <f>IF(NOT(A217=0),A217,A216)+1</f>
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>116</v>
+        <v>282</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <f>IF(NOT(A218=0),A218,A217)+1</f>
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>266</v>
+        <v>116</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <f>IF(NOT(A219=0),A219,A218)+1</f>
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>53</v>
@@ -5944,7 +5942,7 @@
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <f>IF(NOT(A220=0),A220,A219)+1</f>
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>33</v>
@@ -5953,7 +5951,7 @@
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <f>IF(NOT(A221=0),A221,A220)+1</f>
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>230</v>
@@ -5962,7 +5960,7 @@
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <f>IF(NOT(A222=0),A222,A221)+1</f>
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>133</v>
@@ -5971,7 +5969,7 @@
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <f>IF(NOT(A223=0),A223,A222)+1</f>
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>226</v>
@@ -5980,7 +5978,7 @@
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <f>IF(NOT(A224=0),A224,A223)+1</f>
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>35</v>
@@ -5989,7 +5987,7 @@
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <f>IF(NOT(A225=0),A225,A224)+1</f>
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>44</v>
@@ -5998,7 +5996,7 @@
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <f>IF(NOT(A226=0),A226,A225)+1</f>
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>135</v>
@@ -6007,7 +6005,7 @@
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <f>IF(NOT(A227=0),A227,A226)+1</f>
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>192</v>
@@ -6016,7 +6014,7 @@
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <f>IF(NOT(A228=0),A228,A227)+1</f>
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>228</v>
@@ -6025,7 +6023,7 @@
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <f>IF(NOT(A229=0),A229,A228)+1</f>
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>324</v>
@@ -6034,7 +6032,7 @@
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <f>IF(NOT(A230=0),A230,A229)+1</f>
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>233</v>
@@ -6043,7 +6041,7 @@
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <f>IF(NOT(A231=0),A231,A230)+1</f>
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>14</v>
@@ -6052,7 +6050,7 @@
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <f>IF(NOT(A232=0),A232,A231)+1</f>
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>200</v>
@@ -6061,7 +6059,7 @@
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <f>IF(NOT(A233=0),A233,A232)+1</f>
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>237</v>
@@ -6070,7 +6068,7 @@
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <f>IF(NOT(A234=0),A234,A233)+1</f>
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>240</v>
@@ -6079,7 +6077,7 @@
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <f>IF(NOT(A235=0),A235,A234)+1</f>
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>357</v>
@@ -6088,7 +6086,7 @@
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <f>IF(NOT(A236=0),A236,A235)+1</f>
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>245</v>
@@ -6097,7 +6095,7 @@
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <f>IF(NOT(A237=0),A237,A236)+1</f>
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>356</v>
@@ -6106,7 +6104,7 @@
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <f>IF(NOT(A238=0),A238,A237)+1</f>
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>190</v>
@@ -6115,7 +6113,7 @@
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <f>IF(NOT(A239=0),A239,A238)+1</f>
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>355</v>
@@ -6124,7 +6122,7 @@
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <f>IF(NOT(A240=0),A240,A239)+1</f>
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>190</v>
@@ -6133,7 +6131,7 @@
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <f>IF(NOT(A241=0),A241,A240)+1</f>
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>354</v>
@@ -6142,7 +6140,7 @@
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <f>IF(NOT(A242=0),A242,A241)+1</f>
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>217</v>
@@ -6151,7 +6149,7 @@
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <f>IF(NOT(A243=0),A243,A242)+1</f>
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>142</v>
@@ -6160,7 +6158,7 @@
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <f>IF(NOT(A244=0),A244,A243)+1</f>
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>322</v>
@@ -6169,7 +6167,7 @@
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <f>IF(NOT(A245=0),A245,A244)+1</f>
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>321</v>
@@ -6178,7 +6176,7 @@
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <f>IF(NOT(A246=0),A246,A245)+1</f>
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>320</v>
@@ -6187,7 +6185,7 @@
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <f>IF(NOT(A247=0),A247,A246)+1</f>
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>319</v>
@@ -6196,7 +6194,7 @@
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <f>IF(NOT(A248=0),A248,A247)+1</f>
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>198</v>
@@ -6205,7 +6203,7 @@
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <f>IF(NOT(A249=0),A249,A248)+1</f>
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>50</v>
@@ -6214,7 +6212,7 @@
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <f>IF(NOT(A250=0),A250,A249)+1</f>
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>128</v>
@@ -6223,7 +6221,7 @@
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <f>IF(NOT(A251=0),A251,A249)+1</f>
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>66</v>
@@ -6232,7 +6230,7 @@
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <f>IF(NOT(A252=0),A252,A251)+1</f>
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>49</v>
@@ -6241,7 +6239,7 @@
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <f>IF(NOT(A253=0),A253,A252)+1</f>
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>156</v>
@@ -6250,7 +6248,7 @@
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <f>IF(NOT(A254=0),A254,A253)+1</f>
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>138</v>
@@ -6259,7 +6257,7 @@
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <f>IF(NOT(A255=0),A255,A254)+1</f>
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>350</v>
@@ -6268,7 +6266,7 @@
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <f>IF(NOT(A256=0),A256,A255)+1</f>
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>218</v>
@@ -6277,7 +6275,7 @@
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <f>IF(NOT(A257=0),A257,A256)+1</f>
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>205</v>
@@ -6286,7 +6284,7 @@
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <f>IF(NOT(A258=0),A258,A257)+1</f>
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>223</v>
@@ -6295,7 +6293,7 @@
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <f>IF(NOT(A259=0),A259,A258)+1</f>
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>92</v>
@@ -6304,7 +6302,7 @@
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <f>IF(NOT(A260=0),A260,A259)+1</f>
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>92</v>
@@ -6313,7 +6311,7 @@
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <f>IF(NOT(A261=0),A261,A260)+1</f>
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>219</v>
@@ -6322,7 +6320,7 @@
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <f>IF(NOT(A262=0),A262,A261)+1</f>
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>140</v>
@@ -6331,7 +6329,7 @@
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <f>IF(NOT(A263=0),A263,A262)+1</f>
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>197</v>
@@ -6340,7 +6338,7 @@
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <f>IF(NOT(A264=0),A264,A263)+1</f>
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>141</v>
@@ -6349,7 +6347,7 @@
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <f>IF(NOT(A265=0),A265,A264)+1</f>
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>187</v>
@@ -6358,7 +6356,7 @@
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <f>IF(NOT(A266=0),A266,A265)+1</f>
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>352</v>
@@ -6367,7 +6365,7 @@
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <f>IF(NOT(A267=0),A267,A266)+1</f>
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>341</v>
@@ -6376,7 +6374,7 @@
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <f>IF(NOT(A268=0),A268,A267)+1</f>
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>172</v>
@@ -6385,7 +6383,7 @@
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <f>IF(NOT(A269=0),A269,A268)+1</f>
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>62</v>
@@ -6394,7 +6392,7 @@
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <f>IF(NOT(A270=0),A270,A269)+1</f>
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>62</v>
@@ -6403,7 +6401,7 @@
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <f>IF(NOT(A271=0),A271,A270)+1</f>
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>61</v>
@@ -6412,7 +6410,7 @@
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <f>IF(NOT(A272=0),A272,A271)+1</f>
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>276</v>
@@ -6421,7 +6419,7 @@
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <f>IF(NOT(A273=0),A273,A272)+1</f>
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>253</v>
@@ -6430,7 +6428,7 @@
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <f>IF(NOT(A274=0),A274,A273)+1</f>
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>39</v>
@@ -6439,7 +6437,7 @@
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <f>IF(NOT(A275=0),A275,A274)+1</f>
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>55</v>
@@ -6448,7 +6446,7 @@
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <f>IF(NOT(A276=0),A276,A275)+1</f>
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>43</v>
@@ -6457,7 +6455,7 @@
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <f>IF(NOT(A277=0),A277,A276)+1</f>
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>134</v>
@@ -6466,7 +6464,7 @@
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <f>IF(NOT(A278=0),A278,A277)+1</f>
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>191</v>
@@ -6475,7 +6473,7 @@
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <f>IF(NOT(A279=0),A279,A278)+1</f>
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>87</v>
@@ -6484,7 +6482,7 @@
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <f>IF(NOT(A280=0),A280,A279)+1</f>
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>86</v>
@@ -6493,7 +6491,7 @@
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <f>IF(NOT(A281=0),A281,A280)+1</f>
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>232</v>
@@ -6502,7 +6500,7 @@
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <f>IF(NOT(A282=0),A282,A281)+1</f>
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>333</v>
@@ -6511,7 +6509,7 @@
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <f>IF(NOT(A283=0),A283,A282)+1</f>
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>178</v>
@@ -6520,7 +6518,7 @@
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <f>IF(NOT(A284=0),A284,A283)+1</f>
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>247</v>
@@ -6529,7 +6527,7 @@
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <f>IF(NOT(A285=0),A285,A284)+1</f>
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>242</v>
@@ -6538,7 +6536,7 @@
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <f>IF(NOT(A286=0),A286,A285)+1</f>
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>38</v>
@@ -6547,7 +6545,7 @@
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <f>IF(NOT(A287=0),A287,A286)+1</f>
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>231</v>
@@ -6556,7 +6554,7 @@
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <f>IF(NOT(A288=0),A288,A287)+1</f>
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>126</v>
@@ -6565,7 +6563,7 @@
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <f>IF(NOT(A289=0),A289,A288)+1</f>
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>143</v>
@@ -6574,7 +6572,7 @@
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <f>IF(NOT(A290=0),A290,A289)+1</f>
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>251</v>
@@ -6583,7 +6581,7 @@
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <f>IF(NOT(A291=0),A291,A290)+1</f>
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>234</v>
@@ -6592,7 +6590,7 @@
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <f>IF(NOT(A292=0),A292,A291)+1</f>
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>215</v>
@@ -6601,7 +6599,7 @@
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <f>IF(NOT(A293=0),A293,A292)+1</f>
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>171</v>
@@ -6610,7 +6608,7 @@
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <f>IF(NOT(A294=0),A294,A293)+1</f>
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>238</v>
@@ -6619,7 +6617,7 @@
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <f>IF(NOT(A295=0),A295,A294)+1</f>
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>107</v>
@@ -6628,7 +6626,7 @@
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <f>IF(NOT(A296=0),A296,A295)+1</f>
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>239</v>
@@ -6637,7 +6635,7 @@
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <f>IF(NOT(A297=0),A297,A296)+1</f>
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>113</v>
@@ -6646,7 +6644,7 @@
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <f>IF(NOT(A298=0),A298,A297)+1</f>
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>69</v>
@@ -6655,7 +6653,7 @@
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <f>IF(NOT(A299=0),A299,A298)+1</f>
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>69</v>
@@ -6664,7 +6662,7 @@
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <f>IF(NOT(A300=0),A300,A299)+1</f>
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>93</v>
@@ -6673,7 +6671,7 @@
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <f>IF(NOT(A301=0),A301,A300)+1</f>
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>109</v>
@@ -6682,7 +6680,7 @@
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <f>IF(NOT(A302=0),A302,A301)+1</f>
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>106</v>
@@ -6691,7 +6689,7 @@
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <f>IF(NOT(A303=0),A303,A302)+1</f>
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>28</v>
@@ -6700,7 +6698,7 @@
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <f>IF(NOT(A304=0),A304,A303)+1</f>
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>7</v>
@@ -6709,7 +6707,7 @@
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <f>IF(NOT(A305=0),A305,A304)+1</f>
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>27</v>
@@ -6718,7 +6716,7 @@
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
         <f>IF(NOT(A306=0),A306,A305)+1</f>
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>47</v>
@@ -6727,7 +6725,7 @@
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <f>IF(NOT(A307=0),A307,A306)+1</f>
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>152</v>
@@ -6736,7 +6734,7 @@
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <f>IF(NOT(A308=0),A308,A307)+1</f>
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>195</v>
@@ -6745,7 +6743,7 @@
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <f>IF(NOT(A309=0),A309,A308)+1</f>
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>102</v>
@@ -6754,7 +6752,7 @@
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <f>IF(NOT(A310=0),A310,A309)+1</f>
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>83</v>
@@ -6763,7 +6761,7 @@
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <f>IF(NOT(A311=0),A311,A310)+1</f>
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>94</v>
@@ -6772,7 +6770,7 @@
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <f>IF(NOT(A312=0),A312,A311)+1</f>
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>119</v>
@@ -6781,7 +6779,7 @@
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <f>IF(NOT(A313=0),A313,A312)+1</f>
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>89</v>
@@ -6790,7 +6788,7 @@
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
         <f>IF(NOT(A314=0),A314,A313)+1</f>
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>307</v>
@@ -6799,7 +6797,7 @@
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <f>IF(NOT(A315=0),A315,A314)+1</f>
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>77</v>
@@ -6808,7 +6806,7 @@
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <f>IF(NOT(A316=0),A316,A315)+1</f>
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>139</v>
@@ -6817,7 +6815,7 @@
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <f>IF(NOT(A317=0),A317,A316)+1</f>
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>183</v>
@@ -6826,7 +6824,7 @@
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <f>IF(NOT(A318=0),A318,A317)+1</f>
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>176</v>
@@ -6835,7 +6833,7 @@
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <f>IF(NOT(A319=0),A319,A318)+1</f>
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>145</v>
@@ -6844,7 +6842,7 @@
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
         <f>IF(NOT(A320=0),A320,A319)+1</f>
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>168</v>
@@ -6853,7 +6851,7 @@
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <f>IF(NOT(A321=0),A321,A320)+1</f>
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>4</v>
@@ -6862,7 +6860,7 @@
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <f>IF(NOT(A322=0),A322,A321)+1</f>
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>32</v>
@@ -6871,7 +6869,7 @@
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <f>IF(NOT(A323=0),A323,A322)+1</f>
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>270</v>
@@ -6880,7 +6878,7 @@
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
         <f>IF(NOT(A324=0),A324,A323)+1</f>
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>97</v>
@@ -6889,7 +6887,7 @@
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <f>IF(NOT(A325=0),A325,A324)+1</f>
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>81</v>
@@ -6898,7 +6896,7 @@
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <f>IF(NOT(A326=0),A326,A325)+1</f>
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>346</v>
@@ -6907,7 +6905,7 @@
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
         <f>IF(NOT(A327=0),A327,A326)+1</f>
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>72</v>
@@ -6916,7 +6914,7 @@
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <f>IF(NOT(A328=0),A328,A327)+1</f>
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>125</v>
@@ -6925,7 +6923,7 @@
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
         <f>IF(NOT(A329=0),A329,A328)+1</f>
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>125</v>
@@ -6934,7 +6932,7 @@
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
         <f>IF(NOT(A330=0),A330,A329)+1</f>
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>73</v>
@@ -6943,7 +6941,7 @@
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <f>IF(NOT(A331=0),A331,A330)+1</f>
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>84</v>
@@ -6952,7 +6950,7 @@
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
         <f>IF(NOT(A332=0),A332,A331)+1</f>
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>31</v>
@@ -6961,7 +6959,7 @@
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
         <f>IF(NOT(A333=0),A333,A332)+1</f>
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>244</v>
@@ -6970,7 +6968,7 @@
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
         <f>IF(NOT(A334=0),A334,A333)+1</f>
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>0</v>
@@ -6979,7 +6977,7 @@
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
         <f>IF(NOT(A335=0),A335,A334)+1</f>
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>348</v>
@@ -6988,7 +6986,7 @@
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <f>IF(NOT(A336=0),A336,A335)+1</f>
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>186</v>
@@ -6997,7 +6995,7 @@
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
         <f>IF(NOT(A337=0),A337,A336)+1</f>
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>340</v>
@@ -7006,7 +7004,7 @@
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <f>IF(NOT(A338=0),A338,A337)+1</f>
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>339</v>
@@ -7015,7 +7013,7 @@
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <f>IF(NOT(A339=0),A339,A338)+1</f>
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>315</v>
@@ -7024,7 +7022,7 @@
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
         <f>IF(NOT(A340=0),A340,A339)+1</f>
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>100</v>
@@ -7033,7 +7031,7 @@
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
         <f>IF(NOT(A341=0),A341,A340)+1</f>
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>58</v>
@@ -7042,7 +7040,7 @@
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <f>IF(NOT(A342=0),A342,A341)+1</f>
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>58</v>
@@ -7051,7 +7049,7 @@
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
         <f>IF(NOT(A343=0),A343,A342)+1</f>
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>127</v>
@@ -7060,7 +7058,7 @@
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
         <f>IF(NOT(A344=0),A344,A343)+1</f>
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>136</v>
@@ -7069,7 +7067,7 @@
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
         <f>IF(NOT(A345=0),A345,A344)+1</f>
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>312</v>
@@ -7078,7 +7076,7 @@
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
         <f>IF(NOT(A346=0),A346,A345)+1</f>
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>311</v>
@@ -7087,7 +7085,7 @@
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
         <f>IF(NOT(A347=0),A347,A346)+1</f>
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>311</v>
@@ -7096,7 +7094,7 @@
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
         <f>IF(NOT(A348=0),A348,A347)+1</f>
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>257</v>
@@ -7105,7 +7103,7 @@
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
         <f>IF(NOT(A349=0),A349,A348)+1</f>
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>19</v>
@@ -7114,7 +7112,7 @@
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
         <f>IF(NOT(A350=0),A350,A349)+1</f>
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>18</v>
@@ -7123,7 +7121,7 @@
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
         <f>IF(NOT(A351=0),A351,A350)+1</f>
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>323</v>
@@ -7132,7 +7130,7 @@
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
         <f>IF(NOT(A352=0),A352,A351)+1</f>
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>17</v>
@@ -7141,7 +7139,7 @@
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
         <f>IF(NOT(A353=0),A353,A352)+1</f>
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>303</v>
@@ -7150,7 +7148,7 @@
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
         <f>IF(NOT(A354=0),A354,A353)+1</f>
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>68</v>
@@ -7159,7 +7157,7 @@
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
         <f>IF(NOT(A355=0),A355,A354)+1</f>
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>281</v>
@@ -7168,7 +7166,7 @@
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
         <f>IF(NOT(A356=0),A356,A355)+1</f>
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>65</v>
@@ -7177,7 +7175,7 @@
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <f>IF(NOT(A357=0),A357,A356)+1</f>
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>9</v>
@@ -7186,7 +7184,7 @@
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
         <f>IF(NOT(A358=0),A358,A357)+1</f>
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>1</v>
@@ -7195,7 +7193,7 @@
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
         <f>IF(NOT(A359=0),A359,A358)+1</f>
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>25</v>
@@ -7204,7 +7202,7 @@
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
         <f>IF(NOT(A360=0),A360,A359)+1</f>
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>46</v>
@@ -7213,7 +7211,7 @@
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
         <f>IF(NOT(A361=0),A361,A360)+1</f>
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>59</v>
@@ -7222,7 +7220,7 @@
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
         <f>IF(NOT(A362=0),A362,A361)+1</f>
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>261</v>
@@ -7231,7 +7229,7 @@
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
         <f>IF(NOT(A363=0),A363,A362)+1</f>
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>258</v>
@@ -7240,7 +7238,7 @@
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
         <f>IF(NOT(A364=0),A364,A363)+1</f>
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>120</v>
@@ -7249,7 +7247,7 @@
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
         <f>IF(NOT(A365=0),A365,A364)+1</f>
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>338</v>
@@ -7258,7 +7256,7 @@
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
         <f>IF(NOT(A366=0),A366,A365)+1</f>
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>158</v>
@@ -7267,7 +7265,7 @@
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
         <f>IF(NOT(A367=0),A367,A366)+1</f>
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>164</v>
@@ -7276,7 +7274,7 @@
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
         <f>IF(NOT(A368=0),A368,A367)+1</f>
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>213</v>
@@ -7285,7 +7283,7 @@
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
         <f>IF(NOT(A369=0),A369,A368)+1</f>
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>159</v>
@@ -7294,7 +7292,7 @@
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
         <f>IF(NOT(A370=0),A370,A369)+1</f>
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>199</v>
@@ -7303,7 +7301,7 @@
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
         <f>IF(NOT(A371=0),A371,A370)+1</f>
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>203</v>
@@ -7312,7 +7310,7 @@
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
         <f>IF(NOT(A372=0),A372,A371)+1</f>
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>314</v>
@@ -7321,7 +7319,7 @@
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
         <f>IF(NOT(A373=0),A373,A372)+1</f>
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>313</v>
@@ -7330,7 +7328,7 @@
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
         <f>IF(NOT(A374=0),A374,A373)+1</f>
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>48</v>
@@ -15266,6 +15264,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A237:B237"/>
@@ -15282,13 +15287,6 @@
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A125:B125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ALGORITHMS_LIST.xlsx
+++ b/ALGORITHMS_LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0\Git\beginner-algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F189EB-56E2-4180-B2F2-9C5CB54FFBBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B22B1E0-A84E-46A4-8679-066E25437358}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F3AEC63A-3935-431B-9D94-C19A95072D1B}"/>
   </bookViews>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="D2" s="8">
         <f ca="1">RANDBETWEEN(1,A375)</f>
-        <v>241</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4295,1528 +4295,1526 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>1</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <f>IF(NOT(A38=0),A38,A37)+1</f>
-        <v>2</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <f>IF(NOT(A39=0),A39,A38)+1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <f>IF(NOT(A40=0),A40,A39)+1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>299</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <f>IF(NOT(A41=0),A41,A40)+1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <f>IF(NOT(A42=0),A42,A41)+1</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <f>IF(NOT(A43=0),A43,A42)+1</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <f>IF(NOT(A44=0),A44,A43)+1</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>342</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <f>IF(NOT(A45=0),A45,A44)+1</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>151</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <f>IF(NOT(A46=0),A46,A45)+1</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>162</v>
+        <v>342</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <f>IF(NOT(A47=0),A47,A46)+1</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>295</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <f>IF(NOT(A48=0),A48,A47)+1</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>335</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <f>IF(NOT(A49=0),A49,A48)+1</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <f>IF(NOT(A50=0),A50,A49)+1</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>201</v>
+        <v>335</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <f>IF(NOT(A51=0),A51,A50)+1</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <f>IF(NOT(A52=0),A52,A51)+1</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <f>IF(NOT(A53=0),A53,A52)+1</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <f>IF(NOT(A54=0),A54,A53)+1</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <f>IF(NOT(A55=0),A55,A54)+1</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <f>IF(NOT(A56=0),A56,A55)+1</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>332</v>
+        <v>220</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <f>IF(NOT(A57=0),A57,A56)+1</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <f>IF(NOT(A58=0),A58,A57)+1</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>206</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <f>IF(NOT(A59=0),A59,A58)+1</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>343</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <f>IF(NOT(A60=0),A60,A59)+1</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>181</v>
+        <v>343</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <f>IF(NOT(A61=0),A61,A60)+1</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <f>IF(NOT(A62=0),A62,A61)+1</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>347</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <f>IF(NOT(A63=0),A63,A62)+1</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>167</v>
+        <v>347</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <f>IF(NOT(A64=0),A64,A63)+1</f>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>304</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <f>IF(NOT(A65=0),A65,A64)+1</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <f>IF(NOT(A66=0),A66,A65)+1</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>85</v>
+        <v>349</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <f>IF(NOT(A67=0),A67,A66)+1</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <f>IF(NOT(A68=0),A68,A67)+1</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <f>IF(NOT(A69=0),A69,A68)+1</f>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>286</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <f>IF(NOT(A70=0),A70,A69)+1</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>334</v>
+        <v>286</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <f>IF(NOT(A71=0),A71,A70)+1</f>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>88</v>
+        <v>334</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <f>IF(NOT(A72=0),A72,A71)+1</f>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>291</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <f>IF(NOT(A73=0),A73,A72)+1</f>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>344</v>
+        <v>291</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <f>IF(NOT(A74=0),A74,A73)+1</f>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>129</v>
+        <v>344</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <f>IF(NOT(A75=0),A75,A74)+1</f>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <f>IF(NOT(A76=0),A76,A75)+1</f>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>252</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <f>IF(NOT(A77=0),A77,A76)+1</f>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>117</v>
+        <v>252</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <f>IF(NOT(A78=0),A78,A77)+1</f>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>241</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <f>IF(NOT(A79=0),A79,A78)+1</f>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>16</v>
+        <v>241</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <f>IF(NOT(A80=0),A80,A79)+1</f>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>211</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <f>IF(NOT(A81=0),A81,A80)+1</f>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>331</v>
+        <v>211</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <f>IF(NOT(A82=0),A82,A81)+1</f>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <f>IF(NOT(A83=0),A83,A82)+1</f>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>5</v>
+        <v>345</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <f>IF(NOT(A84=0),A84,A83)+1</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>294</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <f>IF(NOT(A85=0),A85,A84)+1</f>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>54</v>
+        <v>294</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <f>IF(NOT(A86=0),A86,A85)+1</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <f>IF(NOT(A87=0),A87,A86)+1</f>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <f>IF(NOT(A88=0),A88,A87)+1</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <f>IF(NOT(A89=0),A89,A88)+1</f>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>193</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <f>IF(NOT(A90=0),A90,A89)+1</f>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>36</v>
+        <v>193</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <f>IF(NOT(A91=0),A91,A90)+1</f>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>224</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <f>IF(NOT(A92=0),A92,A91)+1</f>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>76</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <f>IF(NOT(A93=0),A93,A92)+1</f>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <f>IF(NOT(A94=0),A94,A93)+1</f>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <f>IF(NOT(A95=0),A95,A94)+1</f>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>256</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <f>IF(NOT(A96=0),A96,A95)+1</f>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <f>IF(NOT(A97=0),A97,A96)+1</f>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>250</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <f>IF(NOT(A98=0),A98,A97)+1</f>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <f>IF(NOT(A99=0),A99,A98)+1</f>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>208</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <f>IF(NOT(A100=0),A100,A99)+1</f>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <f>IF(NOT(A101=0),A101,A100)+1</f>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>306</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <f>IF(NOT(A102=0),A102,A101)+1</f>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <f>IF(NOT(A103=0),A103,A102)+1</f>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>114</v>
+        <v>302</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <f>IF(NOT(A104=0),A104,A103)+1</f>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <f>IF(NOT(A105=0),A105,A104)+1</f>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>305</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <f>IF(NOT(A106=0),A106,A105)+1</f>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>90</v>
+        <v>305</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <f>IF(NOT(A107=0),A107,A106)+1</f>
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <f>IF(NOT(A108=0),A108,A107)+1</f>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>272</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <f>IF(NOT(A109=0),A109,A108)+1</f>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>12</v>
+        <v>272</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <f>IF(NOT(A110=0),A110,A109)+1</f>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <f>IF(NOT(A111=0),A111,A110)+1</f>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <f>IF(NOT(A112=0),A112,A111)+1</f>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>351</v>
+        <v>285</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <f>IF(NOT(A113=0),A113,A112)+1</f>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <f>IF(NOT(A114=0),A114,A113)+1</f>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>148</v>
+        <v>309</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <f>IF(NOT(A115=0),A115,A114)+1</f>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>337</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <f>IF(NOT(A116=0),A116,A115)+1</f>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>262</v>
+        <v>337</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <f>IF(NOT(A117=0),A117,A116)+1</f>
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>207</v>
+        <v>262</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <f>IF(NOT(A118=0),A118,A117)+1</f>
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>300</v>
+        <v>207</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <f>IF(NOT(A119=0),A119,A118)+1</f>
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>179</v>
+        <v>300</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <f>IF(NOT(A120=0),A120,A119)+1</f>
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>259</v>
+        <v>179</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <f>IF(NOT(A121=0),A121,A120)+1</f>
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>21</v>
+        <v>259</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <f>IF(NOT(A122=0),A122,A121)+1</f>
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>301</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <f>IF(NOT(A123=0),A123,A122)+1</f>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <f>IF(NOT(A124=0),A124,A123)+1</f>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>249</v>
+        <v>318</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <f>IF(NOT(A125=0),A125,A124)+1</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <f>IF(NOT(A126=0),A126,A125)+1</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <f>IF(NOT(A127=0),A127,A126)+1</f>
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>80</v>
+        <v>293</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <f>IF(NOT(A128=0),A128,A127)+1</f>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>275</v>
+        <v>80</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <f>IF(NOT(A129=0),A129,A128)+1</f>
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>166</v>
+        <v>275</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <f>IF(NOT(A130=0),A130,A129)+1</f>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <f>IF(NOT(A131=0),A131,A130)+1</f>
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <f>IF(NOT(A132=0),A132,A131)+1</f>
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <f>IF(NOT(A133=0),A133,A132)+1</f>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <f>IF(NOT(A134=0),A134,A133)+1</f>
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>60</v>
+        <v>194</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <f>IF(NOT(A135=0),A135,A134)+1</f>
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>243</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <f>IF(NOT(A136=0),A136,A135)+1</f>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>130</v>
+        <v>243</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <f>IF(NOT(A137=0),A137,A136)+1</f>
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>271</v>
+        <v>130</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <f>IF(NOT(A138=0),A138,A137)+1</f>
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>74</v>
+        <v>271</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <f>IF(NOT(A139=0),A139,A138)+1</f>
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>184</v>
+        <v>74</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <f>IF(NOT(A140=0),A140,A139)+1</f>
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <f>IF(NOT(A141=0),A141,A140)+1</f>
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>41</v>
+        <v>212</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <f>IF(NOT(A142=0),A142,A141)+1</f>
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <f>IF(NOT(A143=0),A143,A142)+1</f>
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>336</v>
+        <v>150</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <f>IF(NOT(A144=0),A144,A143)+1</f>
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>279</v>
+        <v>336</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <f>IF(NOT(A145=0),A145,A144)+1</f>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>42</v>
+        <v>279</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <f>IF(NOT(A146=0),A146,A145)+1</f>
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <f>IF(NOT(A147=0),A147,A146)+1</f>
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>308</v>
+        <v>63</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <f>IF(NOT(A148=0),A148,A147)+1</f>
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>64</v>
+        <v>308</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <f>IF(NOT(A149=0),A149,A148)+1</f>
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <f>IF(NOT(A150=0),A150,A149)+1</f>
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <f>IF(NOT(A151=0),A151,A150)+1</f>
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>210</v>
+        <v>64</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <f>IF(NOT(A152=0),A152,A151)+1</f>
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <f>IF(NOT(A153=0),A153,A152)+1</f>
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <f>IF(NOT(A154=0),A154,A153)+1</f>
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>269</v>
+        <v>112</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <f>IF(NOT(A155=0),A155,A154)+1</f>
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>45</v>
+        <v>269</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <f>IF(NOT(A156=0),A156,A155)+1</f>
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>267</v>
+        <v>45</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <f>IF(NOT(A157=0),A157,A156)+1</f>
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>358</v>
+        <v>267</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <f>IF(NOT(A158=0),A158,A157)+1</f>
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>268</v>
+        <v>358</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <f>IF(NOT(A159=0),A159,A158)+1</f>
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <f>IF(NOT(A160=0),A160,A159)+1</f>
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <f>IF(NOT(A161=0),A161,A160)+1</f>
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>56</v>
+        <v>297</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <f>IF(NOT(A162=0),A162,A161)+1</f>
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>330</v>
+        <v>56</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <f>IF(NOT(A163=0),A163,A162)+1</f>
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>82</v>
+        <v>330</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <f>IF(NOT(A164=0),A164,A163)+1</f>
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>260</v>
+        <v>82</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <f>IF(NOT(A165=0),A165,A164)+1</f>
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>51</v>
+        <v>260</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <f>IF(NOT(A166=0),A166,A165)+1</f>
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>329</v>
+        <v>51</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <f>IF(NOT(A167=0),A167,A166)+1</f>
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>105</v>
+        <v>329</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <f>IF(NOT(A168=0),A168,A167)+1</f>
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>227</v>
+        <v>105</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <f>IF(NOT(A169=0),A169,A168)+1</f>
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>105</v>
+        <v>227</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <f>IF(NOT(A170=0),A170,A169)+1</f>
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>328</v>
+        <v>105</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <f>IF(NOT(A171=0),A171,A170)+1</f>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>204</v>
+        <v>328</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <f>IF(NOT(A172=0),A172,A171)+1</f>
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <f>IF(NOT(A173=0),A173,A172)+1</f>
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <f>IF(NOT(A174=0),A174,A173)+1</f>
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>327</v>
+        <v>246</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <f>IF(NOT(A175=0),A175,A174)+1</f>
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>118</v>
+        <v>327</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <f>IF(NOT(A176=0),A176,A175)+1</f>
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <f>IF(NOT(A177=0),A177,A176)+1</f>
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>209</v>
+        <v>132</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <f>IF(NOT(A178=0),A178,A177)+1</f>
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <f>IF(NOT(A179=0),A179,A178)+1</f>
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>108</v>
+        <v>326</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <f>IF(NOT(A180=0),A180,A179)+1</f>
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <f>IF(NOT(A181=0),A181,A180)+1</f>
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <f>IF(NOT(A182=0),A182,A181)+1</f>
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>325</v>
+        <v>175</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <f>IF(NOT(A183=0),A183,A182)+1</f>
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>144</v>
+        <v>325</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <f>IF(NOT(A184=0),A184,A183)+1</f>
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <f>IF(NOT(A185=0),A185,A184)+1</f>
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>292</v>
+        <v>131</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <f>IF(NOT(A186=0),A186,A185)+1</f>
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>91</v>
+        <v>292</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <f>IF(NOT(A187=0),A187,A186)+1</f>
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <f>IF(NOT(A188=0),A188,A187)+1</f>
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>278</v>
+        <v>155</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <f>IF(NOT(A189=0),A189,A188)+1</f>
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>2</v>
+        <v>278</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <f>IF(NOT(A190=0),A190,A189)+1</f>
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>104</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <f>IF(NOT(A191=0),A191,A190)+1</f>
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <f>IF(NOT(A192=0),A192,A191)+1</f>
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <f>IF(NOT(A193=0),A193,A192)+1</f>
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>13</v>
+        <v>214</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <f>IF(NOT(A194=0),A194,A193)+1</f>
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <f>IF(NOT(A195=0),A195,A194)+1</f>
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <f>IF(NOT(A196=0),A196,A195)+1</f>
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>254</v>
+        <v>15</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <f>IF(NOT(A197=0),A197,A196)+1</f>
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>8</v>
+        <v>254</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <f>IF(NOT(A198=0),A198,A197)+1</f>
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <f>IF(NOT(A199=0),A199,A198)+1</f>
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>283</v>
+        <v>24</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <f>IF(NOT(A200=0),A200,A199)+1</f>
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <f>IF(NOT(A201=0),A201,A200)+1</f>
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>34</v>
+        <v>288</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <f>IF(NOT(A202=0),A202,A201)+1</f>
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>274</v>
+        <v>34</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <f>IF(NOT(A203=0),A203,A202)+1</f>
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>149</v>
+        <v>274</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <f>IF(NOT(A204=0),A204,A203)+1</f>
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>274</v>
+        <v>149</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <f>IF(NOT(A205=0),A205,A204)+1</f>
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <f>IF(NOT(A206=0),A206,A205)+1</f>
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>273</v>
@@ -5825,484 +5823,484 @@
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <f>IF(NOT(A207=0),A207,A206)+1</f>
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>229</v>
+        <v>273</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <f>IF(NOT(A208=0),A208,A207)+1</f>
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>170</v>
+        <v>229</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <f>IF(NOT(A209=0),A209,A208)+1</f>
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <f>IF(NOT(A210=0),A210,A209)+1</f>
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <f>IF(NOT(A211=0),A211,A210)+1</f>
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <f>IF(NOT(A212=0),A212,A211)+1</f>
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>30</v>
+        <v>188</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <f>IF(NOT(A213=0),A213,A212)+1</f>
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>188</v>
+        <v>30</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <f>IF(NOT(A214=0),A214,A213)+1</f>
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>353</v>
+        <v>188</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <f>IF(NOT(A215=0),A215,A214)+1</f>
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>284</v>
+        <v>353</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <f>IF(NOT(A216=0),A216,A215)+1</f>
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <f>IF(NOT(A217=0),A217,A216)+1</f>
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <f>IF(NOT(A218=0),A218,A217)+1</f>
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>116</v>
+        <v>282</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <f>IF(NOT(A219=0),A219,A218)+1</f>
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <f>IF(NOT(A220=0),A220,A219)+1</f>
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <f>IF(NOT(A221=0),A221,A220)+1</f>
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>230</v>
+        <v>33</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <f>IF(NOT(A222=0),A222,A221)+1</f>
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>133</v>
+        <v>230</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <f>IF(NOT(A223=0),A223,A222)+1</f>
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>226</v>
+        <v>133</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <f>IF(NOT(A224=0),A224,A223)+1</f>
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>35</v>
+        <v>226</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <f>IF(NOT(A225=0),A225,A224)+1</f>
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <f>IF(NOT(A226=0),A226,A225)+1</f>
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <f>IF(NOT(A227=0),A227,A226)+1</f>
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <f>IF(NOT(A228=0),A228,A227)+1</f>
+        <v>190</v>
+      </c>
+      <c r="B229" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <f>IF(NOT(A229=0),A229,A228)+1</f>
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>324</v>
+        <v>228</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <f>IF(NOT(A230=0),A230,A229)+1</f>
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>233</v>
+        <v>324</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <f>IF(NOT(A231=0),A231,A230)+1</f>
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <f>IF(NOT(A232=0),A232,A231)+1</f>
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <f>IF(NOT(A233=0),A233,A232)+1</f>
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <f>IF(NOT(A234=0),A234,A233)+1</f>
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <f>IF(NOT(A235=0),A235,A234)+1</f>
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>357</v>
+        <v>240</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <f>IF(NOT(A236=0),A236,A235)+1</f>
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>245</v>
+        <v>357</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <f>IF(NOT(A237=0),A237,A236)+1</f>
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>356</v>
+        <v>245</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <f>IF(NOT(A238=0),A238,A237)+1</f>
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>190</v>
+        <v>356</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <f>IF(NOT(A239=0),A239,A238)+1</f>
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>355</v>
+        <v>190</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <f>IF(NOT(A240=0),A240,A239)+1</f>
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>190</v>
+        <v>355</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <f>IF(NOT(A241=0),A241,A240)+1</f>
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>354</v>
+        <v>190</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <f>IF(NOT(A242=0),A242,A241)+1</f>
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>217</v>
+        <v>354</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <f>IF(NOT(A243=0),A243,A242)+1</f>
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>142</v>
+        <v>217</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <f>IF(NOT(A244=0),A244,A243)+1</f>
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>322</v>
+        <v>142</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <f>IF(NOT(A245=0),A245,A244)+1</f>
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <f>IF(NOT(A246=0),A246,A245)+1</f>
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <f>IF(NOT(A247=0),A247,A246)+1</f>
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <f>IF(NOT(A248=0),A248,A247)+1</f>
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>198</v>
+        <v>319</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <f>IF(NOT(A249=0),A249,A248)+1</f>
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>50</v>
+        <v>198</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <f>IF(NOT(A250=0),A250,A249)+1</f>
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
-        <f>IF(NOT(A251=0),A251,A249)+1</f>
-        <v>215</v>
+        <f>IF(NOT(A251=0),A251,A250)+1</f>
+        <v>213</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
-        <f>IF(NOT(A252=0),A252,A251)+1</f>
-        <v>216</v>
+        <f>IF(NOT(A252=0),A252,A250)+1</f>
+        <v>214</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <f>IF(NOT(A253=0),A253,A252)+1</f>
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>156</v>
+        <v>49</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <f>IF(NOT(A254=0),A254,A253)+1</f>
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <f>IF(NOT(A255=0),A255,A254)+1</f>
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>350</v>
+        <v>138</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <f>IF(NOT(A256=0),A256,A255)+1</f>
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>218</v>
+        <v>350</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <f>IF(NOT(A257=0),A257,A256)+1</f>
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <f>IF(NOT(A258=0),A258,A257)+1</f>
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <f>IF(NOT(A259=0),A259,A258)+1</f>
+        <v>221</v>
+      </c>
+      <c r="B260" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <f>IF(NOT(A260=0),A260,A259)+1</f>
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>92</v>
@@ -6311,88 +6309,88 @@
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <f>IF(NOT(A261=0),A261,A260)+1</f>
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>219</v>
+        <v>92</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <f>IF(NOT(A262=0),A262,A261)+1</f>
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>140</v>
+        <v>219</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <f>IF(NOT(A263=0),A263,A262)+1</f>
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <f>IF(NOT(A264=0),A264,A263)+1</f>
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <f>IF(NOT(A265=0),A265,A264)+1</f>
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <f>IF(NOT(A266=0),A266,A265)+1</f>
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>352</v>
+        <v>187</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <f>IF(NOT(A267=0),A267,A266)+1</f>
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <f>IF(NOT(A268=0),A268,A267)+1</f>
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>172</v>
+        <v>341</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <f>IF(NOT(A269=0),A269,A268)+1</f>
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <f>IF(NOT(A270=0),A270,A269)+1</f>
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>62</v>
@@ -6401,259 +6399,259 @@
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <f>IF(NOT(A271=0),A271,A270)+1</f>
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <f>IF(NOT(A272=0),A272,A271)+1</f>
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>276</v>
+        <v>61</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <f>IF(NOT(A273=0),A273,A272)+1</f>
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <f>IF(NOT(A274=0),A274,A273)+1</f>
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>39</v>
+        <v>253</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <f>IF(NOT(A275=0),A275,A274)+1</f>
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <f>IF(NOT(A276=0),A276,A275)+1</f>
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <f>IF(NOT(A277=0),A277,A276)+1</f>
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <f>IF(NOT(A278=0),A278,A277)+1</f>
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <f>IF(NOT(A279=0),A279,A278)+1</f>
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <f>IF(NOT(A280=0),A280,A279)+1</f>
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <f>IF(NOT(A281=0),A281,A280)+1</f>
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>232</v>
+        <v>86</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <f>IF(NOT(A282=0),A282,A281)+1</f>
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>333</v>
+        <v>232</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <f>IF(NOT(A283=0),A283,A282)+1</f>
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>178</v>
+        <v>333</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <f>IF(NOT(A284=0),A284,A283)+1</f>
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>247</v>
+        <v>178</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <f>IF(NOT(A285=0),A285,A284)+1</f>
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <f>IF(NOT(A286=0),A286,A285)+1</f>
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>38</v>
+        <v>242</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <f>IF(NOT(A287=0),A287,A286)+1</f>
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>231</v>
+        <v>38</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <f>IF(NOT(A288=0),A288,A287)+1</f>
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>126</v>
+        <v>231</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <f>IF(NOT(A289=0),A289,A288)+1</f>
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <f>IF(NOT(A290=0),A290,A289)+1</f>
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>251</v>
+        <v>143</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <f>IF(NOT(A291=0),A291,A290)+1</f>
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <f>IF(NOT(A292=0),A292,A291)+1</f>
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <f>IF(NOT(A293=0),A293,A292)+1</f>
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <f>IF(NOT(A294=0),A294,A293)+1</f>
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>238</v>
+        <v>171</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <f>IF(NOT(A295=0),A295,A294)+1</f>
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>107</v>
+        <v>238</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <f>IF(NOT(A296=0),A296,A295)+1</f>
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>239</v>
+        <v>107</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <f>IF(NOT(A297=0),A297,A296)+1</f>
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>113</v>
+        <v>239</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <f>IF(NOT(A298=0),A298,A297)+1</f>
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <f>IF(NOT(A299=0),A299,A298)+1</f>
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>69</v>
@@ -6662,268 +6660,268 @@
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <f>IF(NOT(A300=0),A300,A299)+1</f>
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <f>IF(NOT(A301=0),A301,A300)+1</f>
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <f>IF(NOT(A302=0),A302,A301)+1</f>
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <f>IF(NOT(A303=0),A303,A302)+1</f>
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <f>IF(NOT(A304=0),A304,A303)+1</f>
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <f>IF(NOT(A305=0),A305,A304)+1</f>
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
         <f>IF(NOT(A306=0),A306,A305)+1</f>
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <f>IF(NOT(A307=0),A307,A306)+1</f>
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>152</v>
+        <v>47</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <f>IF(NOT(A308=0),A308,A307)+1</f>
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <f>IF(NOT(A309=0),A309,A308)+1</f>
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>102</v>
+        <v>195</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <f>IF(NOT(A310=0),A310,A309)+1</f>
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <f>IF(NOT(A311=0),A311,A310)+1</f>
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <f>IF(NOT(A312=0),A312,A311)+1</f>
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <f>IF(NOT(A313=0),A313,A312)+1</f>
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
         <f>IF(NOT(A314=0),A314,A313)+1</f>
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>307</v>
+        <v>89</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <f>IF(NOT(A315=0),A315,A314)+1</f>
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>77</v>
+        <v>307</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <f>IF(NOT(A316=0),A316,A315)+1</f>
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <f>IF(NOT(A317=0),A317,A316)+1</f>
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <f>IF(NOT(A318=0),A318,A317)+1</f>
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <f>IF(NOT(A319=0),A319,A318)+1</f>
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
         <f>IF(NOT(A320=0),A320,A319)+1</f>
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <f>IF(NOT(A321=0),A321,A320)+1</f>
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>4</v>
+        <v>168</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <f>IF(NOT(A322=0),A322,A321)+1</f>
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <f>IF(NOT(A323=0),A323,A322)+1</f>
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>270</v>
+        <v>32</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
         <f>IF(NOT(A324=0),A324,A323)+1</f>
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <f>IF(NOT(A325=0),A325,A324)+1</f>
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <f>IF(NOT(A326=0),A326,A325)+1</f>
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>346</v>
+        <v>81</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
         <f>IF(NOT(A327=0),A327,A326)+1</f>
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>72</v>
+        <v>346</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <f>IF(NOT(A328=0),A328,A327)+1</f>
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
         <f>IF(NOT(A329=0),A329,A328)+1</f>
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>125</v>
@@ -6932,115 +6930,115 @@
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
         <f>IF(NOT(A330=0),A330,A329)+1</f>
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <f>IF(NOT(A331=0),A331,A330)+1</f>
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
         <f>IF(NOT(A332=0),A332,A331)+1</f>
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
         <f>IF(NOT(A333=0),A333,A332)+1</f>
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>244</v>
+        <v>31</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
         <f>IF(NOT(A334=0),A334,A333)+1</f>
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>0</v>
+        <v>244</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
         <f>IF(NOT(A335=0),A335,A334)+1</f>
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <f>IF(NOT(A336=0),A336,A335)+1</f>
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>186</v>
+        <v>348</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
         <f>IF(NOT(A337=0),A337,A336)+1</f>
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>340</v>
+        <v>186</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <f>IF(NOT(A338=0),A338,A337)+1</f>
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <f>IF(NOT(A339=0),A339,A338)+1</f>
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
         <f>IF(NOT(A340=0),A340,A339)+1</f>
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>100</v>
+        <v>315</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
         <f>IF(NOT(A341=0),A341,A340)+1</f>
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <f>IF(NOT(A342=0),A342,A341)+1</f>
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>58</v>
@@ -7049,43 +7047,43 @@
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
         <f>IF(NOT(A343=0),A343,A342)+1</f>
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
         <f>IF(NOT(A344=0),A344,A343)+1</f>
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
         <f>IF(NOT(A345=0),A345,A344)+1</f>
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>312</v>
+        <v>136</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
         <f>IF(NOT(A346=0),A346,A345)+1</f>
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
         <f>IF(NOT(A347=0),A347,A346)+1</f>
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>311</v>
@@ -7094,142 +7092,142 @@
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
         <f>IF(NOT(A348=0),A348,A347)+1</f>
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
         <f>IF(NOT(A349=0),A349,A348)+1</f>
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>19</v>
+        <v>257</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
         <f>IF(NOT(A350=0),A350,A349)+1</f>
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
         <f>IF(NOT(A351=0),A351,A350)+1</f>
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>323</v>
+        <v>18</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
         <f>IF(NOT(A352=0),A352,A351)+1</f>
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>17</v>
+        <v>323</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
         <f>IF(NOT(A353=0),A353,A352)+1</f>
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>303</v>
+        <v>17</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
         <f>IF(NOT(A354=0),A354,A353)+1</f>
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>68</v>
+        <v>303</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
         <f>IF(NOT(A355=0),A355,A354)+1</f>
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>281</v>
+        <v>68</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
         <f>IF(NOT(A356=0),A356,A355)+1</f>
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>65</v>
+        <v>281</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <f>IF(NOT(A357=0),A357,A356)+1</f>
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
         <f>IF(NOT(A358=0),A358,A357)+1</f>
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
         <f>IF(NOT(A359=0),A359,A358)+1</f>
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
         <f>IF(NOT(A360=0),A360,A359)+1</f>
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
         <f>IF(NOT(A361=0),A361,A360)+1</f>
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
         <f>IF(NOT(A362=0),A362,A361)+1</f>
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>261</v>
+        <v>59</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
         <f>IF(NOT(A363=0),A363,A362)+1</f>
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>258</v>
@@ -7238,7 +7236,7 @@
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
         <f>IF(NOT(A364=0),A364,A363)+1</f>
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>120</v>
@@ -7247,7 +7245,7 @@
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
         <f>IF(NOT(A365=0),A365,A364)+1</f>
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>338</v>
@@ -7256,7 +7254,7 @@
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
         <f>IF(NOT(A366=0),A366,A365)+1</f>
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>158</v>
@@ -7265,7 +7263,7 @@
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
         <f>IF(NOT(A367=0),A367,A366)+1</f>
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>164</v>
@@ -7274,7 +7272,7 @@
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
         <f>IF(NOT(A368=0),A368,A367)+1</f>
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>213</v>
@@ -7283,7 +7281,7 @@
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
         <f>IF(NOT(A369=0),A369,A368)+1</f>
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>159</v>
@@ -7292,7 +7290,7 @@
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
         <f>IF(NOT(A370=0),A370,A369)+1</f>
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>199</v>
@@ -7301,7 +7299,7 @@
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
         <f>IF(NOT(A371=0),A371,A370)+1</f>
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>203</v>
@@ -7310,7 +7308,7 @@
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
         <f>IF(NOT(A372=0),A372,A371)+1</f>
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>314</v>
@@ -7319,7 +7317,7 @@
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
         <f>IF(NOT(A373=0),A373,A372)+1</f>
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>313</v>
@@ -7328,7 +7326,7 @@
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
         <f>IF(NOT(A374=0),A374,A373)+1</f>
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>48</v>
@@ -15264,13 +15262,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A125:B125"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A237:B237"/>
@@ -15287,6 +15278,13 @@
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ALGORITHMS_LIST.xlsx
+++ b/ALGORITHMS_LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0\Git\beginner-algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B22B1E0-A84E-46A4-8679-066E25437358}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85600A5D-F84D-47E4-A61A-DA46B126A369}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F3AEC63A-3935-431B-9D94-C19A95072D1B}"/>
   </bookViews>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="D2" s="8">
         <f ca="1">RANDBETWEEN(1,A375)</f>
-        <v>165</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4311,412 +4311,410 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>1</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <f>IF(NOT(A40=0),A40,A39)+1</f>
-        <v>2</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <f>IF(NOT(A41=0),A41,A40)+1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <f>IF(NOT(A42=0),A42,A41)+1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>299</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <f>IF(NOT(A43=0),A43,A42)+1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <f>IF(NOT(A44=0),A44,A43)+1</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <f>IF(NOT(A45=0),A45,A44)+1</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <f>IF(NOT(A46=0),A46,A45)+1</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>342</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <f>IF(NOT(A47=0),A47,A46)+1</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>151</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <f>IF(NOT(A48=0),A48,A47)+1</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>162</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <f>IF(NOT(A49=0),A49,A48)+1</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>295</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <f>IF(NOT(A50=0),A50,A49)+1</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>335</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <f>IF(NOT(A51=0),A51,A50)+1</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <f>IF(NOT(A52=0),A52,A51)+1</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>201</v>
+        <v>335</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <f>IF(NOT(A53=0),A53,A52)+1</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <f>IF(NOT(A54=0),A54,A53)+1</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <f>IF(NOT(A55=0),A55,A54)+1</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <f>IF(NOT(A56=0),A56,A55)+1</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <f>IF(NOT(A57=0),A57,A56)+1</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <f>IF(NOT(A58=0),A58,A57)+1</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>332</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <f>IF(NOT(A59=0),A59,A58)+1</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <f>IF(NOT(A60=0),A60,A59)+1</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <f>IF(NOT(A61=0),A61,A60)+1</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <f>IF(NOT(A62=0),A62,A61)+1</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>160</v>
+        <v>343</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <f>IF(NOT(A63=0),A63,A62)+1</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>347</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <f>IF(NOT(A64=0),A64,A63)+1</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <f>IF(NOT(A65=0),A65,A64)+1</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <f>IF(NOT(A66=0),A66,A65)+1</f>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>349</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <f>IF(NOT(A67=0),A67,A66)+1</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>85</v>
+        <v>349</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <f>IF(NOT(A68=0),A68,A67)+1</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <f>IF(NOT(A69=0),A69,A68)+1</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <f>IF(NOT(A70=0),A70,A69)+1</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>286</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <f>IF(NOT(A71=0),A71,A70)+1</f>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>334</v>
+        <v>286</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <f>IF(NOT(A72=0),A72,A71)+1</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>88</v>
+        <v>334</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <f>IF(NOT(A73=0),A73,A72)+1</f>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>291</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <f>IF(NOT(A74=0),A74,A73)+1</f>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>344</v>
+        <v>291</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <f>IF(NOT(A75=0),A75,A74)+1</f>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>129</v>
+        <v>344</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <f>IF(NOT(A76=0),A76,A75)+1</f>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <f>IF(NOT(A77=0),A77,A76)+1</f>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>252</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <f>IF(NOT(A78=0),A78,A77)+1</f>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>117</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <f>IF(NOT(A79=0),A79,A78)+1</f>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>241</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <f>IF(NOT(A80=0),A80,A79)+1</f>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>16</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <f>IF(NOT(A81=0),A81,A80)+1</f>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>211</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <f>IF(NOT(A82=0),A82,A81)+1</f>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>331</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <f>IF(NOT(A83=0),A83,A82)+1</f>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <f>IF(NOT(A84=0),A84,A83)+1</f>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>5</v>
@@ -4725,7 +4723,7 @@
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <f>IF(NOT(A85=0),A85,A84)+1</f>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>294</v>
@@ -4734,7 +4732,7 @@
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <f>IF(NOT(A86=0),A86,A85)+1</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>54</v>
@@ -4743,7 +4741,7 @@
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <f>IF(NOT(A87=0),A87,A86)+1</f>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>121</v>
@@ -4752,7 +4750,7 @@
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <f>IF(NOT(A88=0),A88,A87)+1</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>185</v>
@@ -4761,7 +4759,7 @@
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <f>IF(NOT(A89=0),A89,A88)+1</f>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>115</v>
@@ -4770,7 +4768,7 @@
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <f>IF(NOT(A90=0),A90,A89)+1</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>193</v>
@@ -4779,7 +4777,7 @@
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <f>IF(NOT(A91=0),A91,A90)+1</f>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>36</v>
@@ -4788,7 +4786,7 @@
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <f>IF(NOT(A92=0),A92,A91)+1</f>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>224</v>
@@ -4797,7 +4795,7 @@
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <f>IF(NOT(A93=0),A93,A92)+1</f>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>76</v>
@@ -4806,7 +4804,7 @@
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <f>IF(NOT(A94=0),A94,A93)+1</f>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>20</v>
@@ -4815,7 +4813,7 @@
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <f>IF(NOT(A95=0),A95,A94)+1</f>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>124</v>
@@ -4824,7 +4822,7 @@
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <f>IF(NOT(A96=0),A96,A95)+1</f>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>256</v>
@@ -4833,7 +4831,7 @@
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <f>IF(NOT(A97=0),A97,A96)+1</f>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>157</v>
@@ -4842,7 +4840,7 @@
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <f>IF(NOT(A98=0),A98,A97)+1</f>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>250</v>
@@ -4851,7 +4849,7 @@
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <f>IF(NOT(A99=0),A99,A98)+1</f>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>122</v>
@@ -4860,7 +4858,7 @@
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <f>IF(NOT(A100=0),A100,A99)+1</f>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>208</v>
@@ -4869,7 +4867,7 @@
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <f>IF(NOT(A101=0),A101,A100)+1</f>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>154</v>
@@ -4878,7 +4876,7 @@
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <f>IF(NOT(A102=0),A102,A101)+1</f>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>306</v>
@@ -4887,7 +4885,7 @@
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <f>IF(NOT(A103=0),A103,A102)+1</f>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>302</v>
@@ -4896,7 +4894,7 @@
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <f>IF(NOT(A104=0),A104,A103)+1</f>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>114</v>
@@ -4905,7 +4903,7 @@
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <f>IF(NOT(A105=0),A105,A104)+1</f>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>163</v>
@@ -4914,7 +4912,7 @@
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <f>IF(NOT(A106=0),A106,A105)+1</f>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>305</v>
@@ -4923,7 +4921,7 @@
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <f>IF(NOT(A107=0),A107,A106)+1</f>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>90</v>
@@ -4932,7 +4930,7 @@
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <f>IF(NOT(A108=0),A108,A107)+1</f>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>111</v>
@@ -4941,7 +4939,7 @@
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <f>IF(NOT(A109=0),A109,A108)+1</f>
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>272</v>
@@ -4950,7 +4948,7 @@
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <f>IF(NOT(A110=0),A110,A109)+1</f>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>12</v>
@@ -4959,7 +4957,7 @@
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <f>IF(NOT(A111=0),A111,A110)+1</f>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>235</v>
@@ -4968,7 +4966,7 @@
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <f>IF(NOT(A112=0),A112,A111)+1</f>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>285</v>
@@ -4977,7 +4975,7 @@
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <f>IF(NOT(A113=0),A113,A112)+1</f>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>351</v>
@@ -4986,7 +4984,7 @@
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <f>IF(NOT(A114=0),A114,A113)+1</f>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>309</v>
@@ -4995,7 +4993,7 @@
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <f>IF(NOT(A115=0),A115,A114)+1</f>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>148</v>
@@ -5004,7 +5002,7 @@
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <f>IF(NOT(A116=0),A116,A115)+1</f>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>337</v>
@@ -5013,7 +5011,7 @@
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <f>IF(NOT(A117=0),A117,A116)+1</f>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>262</v>
@@ -5022,7 +5020,7 @@
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <f>IF(NOT(A118=0),A118,A117)+1</f>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>207</v>
@@ -5031,7 +5029,7 @@
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <f>IF(NOT(A119=0),A119,A118)+1</f>
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>300</v>
@@ -5040,7 +5038,7 @@
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <f>IF(NOT(A120=0),A120,A119)+1</f>
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>179</v>
@@ -5049,7 +5047,7 @@
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <f>IF(NOT(A121=0),A121,A120)+1</f>
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>259</v>
@@ -5058,7 +5056,7 @@
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <f>IF(NOT(A122=0),A122,A121)+1</f>
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>21</v>
@@ -5067,7 +5065,7 @@
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <f>IF(NOT(A123=0),A123,A122)+1</f>
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>301</v>
@@ -5076,7 +5074,7 @@
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <f>IF(NOT(A124=0),A124,A123)+1</f>
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>318</v>
@@ -5085,7 +5083,7 @@
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <f>IF(NOT(A125=0),A125,A124)+1</f>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>249</v>
@@ -5094,7 +5092,7 @@
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <f>IF(NOT(A126=0),A126,A125)+1</f>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>296</v>
@@ -5103,7 +5101,7 @@
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <f>IF(NOT(A127=0),A127,A126)+1</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>293</v>
@@ -5112,7 +5110,7 @@
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <f>IF(NOT(A128=0),A128,A127)+1</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>80</v>
@@ -5121,7 +5119,7 @@
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <f>IF(NOT(A129=0),A129,A128)+1</f>
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>275</v>
@@ -5130,7 +5128,7 @@
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <f>IF(NOT(A130=0),A130,A129)+1</f>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>166</v>
@@ -5139,7 +5137,7 @@
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <f>IF(NOT(A131=0),A131,A130)+1</f>
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>202</v>
@@ -5148,7 +5146,7 @@
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <f>IF(NOT(A132=0),A132,A131)+1</f>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>196</v>
@@ -5157,7 +5155,7 @@
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <f>IF(NOT(A133=0),A133,A132)+1</f>
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>236</v>
@@ -5166,7 +5164,7 @@
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <f>IF(NOT(A134=0),A134,A133)+1</f>
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>194</v>
@@ -5175,7 +5173,7 @@
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <f>IF(NOT(A135=0),A135,A134)+1</f>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>60</v>
@@ -5184,7 +5182,7 @@
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <f>IF(NOT(A136=0),A136,A135)+1</f>
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>243</v>
@@ -5193,7 +5191,7 @@
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <f>IF(NOT(A137=0),A137,A136)+1</f>
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>130</v>
@@ -5202,7 +5200,7 @@
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <f>IF(NOT(A138=0),A138,A137)+1</f>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>271</v>
@@ -5211,7 +5209,7 @@
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <f>IF(NOT(A139=0),A139,A138)+1</f>
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>74</v>
@@ -5220,7 +5218,7 @@
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <f>IF(NOT(A140=0),A140,A139)+1</f>
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>184</v>
@@ -5229,7 +5227,7 @@
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <f>IF(NOT(A141=0),A141,A140)+1</f>
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>212</v>
@@ -5238,7 +5236,7 @@
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <f>IF(NOT(A142=0),A142,A141)+1</f>
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>41</v>
@@ -5247,7 +5245,7 @@
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <f>IF(NOT(A143=0),A143,A142)+1</f>
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>150</v>
@@ -5256,7 +5254,7 @@
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <f>IF(NOT(A144=0),A144,A143)+1</f>
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>336</v>
@@ -5265,7 +5263,7 @@
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <f>IF(NOT(A145=0),A145,A144)+1</f>
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>279</v>
@@ -5274,7 +5272,7 @@
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <f>IF(NOT(A146=0),A146,A145)+1</f>
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>42</v>
@@ -5283,7 +5281,7 @@
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <f>IF(NOT(A147=0),A147,A146)+1</f>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>63</v>
@@ -5292,7 +5290,7 @@
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <f>IF(NOT(A148=0),A148,A147)+1</f>
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>308</v>
@@ -5301,7 +5299,7 @@
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <f>IF(NOT(A149=0),A149,A148)+1</f>
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>64</v>
@@ -5310,7 +5308,7 @@
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <f>IF(NOT(A150=0),A150,A149)+1</f>
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>40</v>
@@ -5319,7 +5317,7 @@
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <f>IF(NOT(A151=0),A151,A150)+1</f>
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>64</v>
@@ -5328,7 +5326,7 @@
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <f>IF(NOT(A152=0),A152,A151)+1</f>
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>210</v>
@@ -5337,7 +5335,7 @@
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <f>IF(NOT(A153=0),A153,A152)+1</f>
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>180</v>
@@ -5346,7 +5344,7 @@
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <f>IF(NOT(A154=0),A154,A153)+1</f>
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>112</v>
@@ -5355,7 +5353,7 @@
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <f>IF(NOT(A155=0),A155,A154)+1</f>
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>269</v>
@@ -5364,7 +5362,7 @@
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <f>IF(NOT(A156=0),A156,A155)+1</f>
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>45</v>
@@ -5373,7 +5371,7 @@
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <f>IF(NOT(A157=0),A157,A156)+1</f>
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>267</v>
@@ -5382,7 +5380,7 @@
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <f>IF(NOT(A158=0),A158,A157)+1</f>
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>358</v>
@@ -5391,7 +5389,7 @@
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <f>IF(NOT(A159=0),A159,A158)+1</f>
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>268</v>
@@ -5400,7 +5398,7 @@
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <f>IF(NOT(A160=0),A160,A159)+1</f>
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>289</v>
@@ -5409,7 +5407,7 @@
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <f>IF(NOT(A161=0),A161,A160)+1</f>
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>297</v>
@@ -5418,7 +5416,7 @@
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <f>IF(NOT(A162=0),A162,A161)+1</f>
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>56</v>
@@ -5427,7 +5425,7 @@
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <f>IF(NOT(A163=0),A163,A162)+1</f>
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>330</v>
@@ -5436,7 +5434,7 @@
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <f>IF(NOT(A164=0),A164,A163)+1</f>
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>82</v>
@@ -5445,7 +5443,7 @@
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <f>IF(NOT(A165=0),A165,A164)+1</f>
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>260</v>
@@ -5454,7 +5452,7 @@
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <f>IF(NOT(A166=0),A166,A165)+1</f>
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>51</v>
@@ -5463,7 +5461,7 @@
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <f>IF(NOT(A167=0),A167,A166)+1</f>
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>329</v>
@@ -5472,7 +5470,7 @@
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <f>IF(NOT(A168=0),A168,A167)+1</f>
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>105</v>
@@ -5481,7 +5479,7 @@
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <f>IF(NOT(A169=0),A169,A168)+1</f>
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>227</v>
@@ -5490,7 +5488,7 @@
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <f>IF(NOT(A170=0),A170,A169)+1</f>
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>105</v>
@@ -5499,7 +5497,7 @@
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <f>IF(NOT(A171=0),A171,A170)+1</f>
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>328</v>
@@ -5508,7 +5506,7 @@
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <f>IF(NOT(A172=0),A172,A171)+1</f>
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>204</v>
@@ -5517,7 +5515,7 @@
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <f>IF(NOT(A173=0),A173,A172)+1</f>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>255</v>
@@ -5526,7 +5524,7 @@
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <f>IF(NOT(A174=0),A174,A173)+1</f>
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>246</v>
@@ -5535,7 +5533,7 @@
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <f>IF(NOT(A175=0),A175,A174)+1</f>
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>327</v>
@@ -5544,7 +5542,7 @@
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <f>IF(NOT(A176=0),A176,A175)+1</f>
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>118</v>
@@ -5553,7 +5551,7 @@
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <f>IF(NOT(A177=0),A177,A176)+1</f>
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>132</v>
@@ -5562,7 +5560,7 @@
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <f>IF(NOT(A178=0),A178,A177)+1</f>
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>209</v>
@@ -5571,7 +5569,7 @@
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <f>IF(NOT(A179=0),A179,A178)+1</f>
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>326</v>
@@ -5580,7 +5578,7 @@
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <f>IF(NOT(A180=0),A180,A179)+1</f>
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>108</v>
@@ -5589,7 +5587,7 @@
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <f>IF(NOT(A181=0),A181,A180)+1</f>
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>147</v>
@@ -5598,7 +5596,7 @@
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <f>IF(NOT(A182=0),A182,A181)+1</f>
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>175</v>
@@ -5607,7 +5605,7 @@
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <f>IF(NOT(A183=0),A183,A182)+1</f>
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>325</v>
@@ -5616,7 +5614,7 @@
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <f>IF(NOT(A184=0),A184,A183)+1</f>
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>144</v>
@@ -5625,7 +5623,7 @@
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <f>IF(NOT(A185=0),A185,A184)+1</f>
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>131</v>
@@ -5634,7 +5632,7 @@
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <f>IF(NOT(A186=0),A186,A185)+1</f>
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>292</v>
@@ -5643,7 +5641,7 @@
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <f>IF(NOT(A187=0),A187,A186)+1</f>
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>91</v>
@@ -5652,7 +5650,7 @@
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <f>IF(NOT(A188=0),A188,A187)+1</f>
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>155</v>
@@ -5661,7 +5659,7 @@
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <f>IF(NOT(A189=0),A189,A188)+1</f>
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>278</v>
@@ -5670,7 +5668,7 @@
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <f>IF(NOT(A190=0),A190,A189)+1</f>
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>2</v>
@@ -5679,7 +5677,7 @@
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <f>IF(NOT(A191=0),A191,A190)+1</f>
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>104</v>
@@ -5688,7 +5686,7 @@
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <f>IF(NOT(A192=0),A192,A191)+1</f>
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>189</v>
@@ -5697,7 +5695,7 @@
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <f>IF(NOT(A193=0),A193,A192)+1</f>
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>214</v>
@@ -5706,7 +5704,7 @@
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <f>IF(NOT(A194=0),A194,A193)+1</f>
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>13</v>
@@ -5715,7 +5713,7 @@
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <f>IF(NOT(A195=0),A195,A194)+1</f>
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>78</v>
@@ -5724,7 +5722,7 @@
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <f>IF(NOT(A196=0),A196,A195)+1</f>
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>15</v>
@@ -5733,7 +5731,7 @@
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <f>IF(NOT(A197=0),A197,A196)+1</f>
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>254</v>
@@ -5742,7 +5740,7 @@
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <f>IF(NOT(A198=0),A198,A197)+1</f>
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>8</v>
@@ -5751,7 +5749,7 @@
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <f>IF(NOT(A199=0),A199,A198)+1</f>
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>24</v>
@@ -5760,7 +5758,7 @@
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <f>IF(NOT(A200=0),A200,A199)+1</f>
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>283</v>
@@ -5769,7 +5767,7 @@
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <f>IF(NOT(A201=0),A201,A200)+1</f>
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>288</v>
@@ -5778,7 +5776,7 @@
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <f>IF(NOT(A202=0),A202,A201)+1</f>
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>34</v>
@@ -5787,7 +5785,7 @@
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <f>IF(NOT(A203=0),A203,A202)+1</f>
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>274</v>
@@ -5796,7 +5794,7 @@
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <f>IF(NOT(A204=0),A204,A203)+1</f>
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>149</v>
@@ -5805,7 +5803,7 @@
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <f>IF(NOT(A205=0),A205,A204)+1</f>
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>274</v>
@@ -5814,7 +5812,7 @@
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <f>IF(NOT(A206=0),A206,A205)+1</f>
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>273</v>
@@ -5823,7 +5821,7 @@
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <f>IF(NOT(A207=0),A207,A206)+1</f>
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>273</v>
@@ -5832,7 +5830,7 @@
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <f>IF(NOT(A208=0),A208,A207)+1</f>
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>229</v>
@@ -5841,7 +5839,7 @@
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <f>IF(NOT(A209=0),A209,A208)+1</f>
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>170</v>
@@ -5850,7 +5848,7 @@
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <f>IF(NOT(A210=0),A210,A209)+1</f>
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>177</v>
@@ -5859,7 +5857,7 @@
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <f>IF(NOT(A211=0),A211,A210)+1</f>
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>174</v>
@@ -5868,7 +5866,7 @@
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <f>IF(NOT(A212=0),A212,A211)+1</f>
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>188</v>
@@ -5877,7 +5875,7 @@
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <f>IF(NOT(A213=0),A213,A212)+1</f>
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>30</v>
@@ -5886,7 +5884,7 @@
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <f>IF(NOT(A214=0),A214,A213)+1</f>
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>188</v>
@@ -5895,7 +5893,7 @@
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <f>IF(NOT(A215=0),A215,A214)+1</f>
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>353</v>
@@ -5904,7 +5902,7 @@
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <f>IF(NOT(A216=0),A216,A215)+1</f>
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>284</v>
@@ -5913,7 +5911,7 @@
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <f>IF(NOT(A217=0),A217,A216)+1</f>
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>287</v>
@@ -5922,7 +5920,7 @@
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <f>IF(NOT(A218=0),A218,A217)+1</f>
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>282</v>
@@ -5931,7 +5929,7 @@
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <f>IF(NOT(A219=0),A219,A218)+1</f>
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>116</v>
@@ -5940,7 +5938,7 @@
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <f>IF(NOT(A220=0),A220,A219)+1</f>
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>53</v>
@@ -5949,7 +5947,7 @@
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <f>IF(NOT(A221=0),A221,A220)+1</f>
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>33</v>
@@ -5958,7 +5956,7 @@
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <f>IF(NOT(A222=0),A222,A221)+1</f>
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>230</v>
@@ -5967,7 +5965,7 @@
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <f>IF(NOT(A223=0),A223,A222)+1</f>
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>133</v>
@@ -5976,7 +5974,7 @@
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <f>IF(NOT(A224=0),A224,A223)+1</f>
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>226</v>
@@ -5985,7 +5983,7 @@
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <f>IF(NOT(A225=0),A225,A224)+1</f>
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>35</v>
@@ -5994,7 +5992,7 @@
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <f>IF(NOT(A226=0),A226,A225)+1</f>
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>44</v>
@@ -6003,7 +6001,7 @@
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <f>IF(NOT(A227=0),A227,A226)+1</f>
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>135</v>
@@ -6012,7 +6010,7 @@
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <f>IF(NOT(A228=0),A228,A227)+1</f>
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>192</v>
@@ -6021,7 +6019,7 @@
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <f>IF(NOT(A229=0),A229,A228)+1</f>
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>228</v>
@@ -6030,7 +6028,7 @@
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <f>IF(NOT(A230=0),A230,A229)+1</f>
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>324</v>
@@ -6039,7 +6037,7 @@
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <f>IF(NOT(A231=0),A231,A230)+1</f>
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>233</v>
@@ -6048,7 +6046,7 @@
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <f>IF(NOT(A232=0),A232,A231)+1</f>
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>14</v>
@@ -6057,7 +6055,7 @@
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <f>IF(NOT(A233=0),A233,A232)+1</f>
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>200</v>
@@ -6066,7 +6064,7 @@
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <f>IF(NOT(A234=0),A234,A233)+1</f>
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>237</v>
@@ -6075,7 +6073,7 @@
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <f>IF(NOT(A235=0),A235,A234)+1</f>
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>240</v>
@@ -6084,7 +6082,7 @@
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <f>IF(NOT(A236=0),A236,A235)+1</f>
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>357</v>
@@ -6093,7 +6091,7 @@
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <f>IF(NOT(A237=0),A237,A236)+1</f>
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>245</v>
@@ -6102,7 +6100,7 @@
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <f>IF(NOT(A238=0),A238,A237)+1</f>
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>356</v>
@@ -6111,7 +6109,7 @@
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <f>IF(NOT(A239=0),A239,A238)+1</f>
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>190</v>
@@ -6120,7 +6118,7 @@
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <f>IF(NOT(A240=0),A240,A239)+1</f>
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>355</v>
@@ -6129,7 +6127,7 @@
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <f>IF(NOT(A241=0),A241,A240)+1</f>
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>190</v>
@@ -6138,7 +6136,7 @@
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <f>IF(NOT(A242=0),A242,A241)+1</f>
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>354</v>
@@ -6147,7 +6145,7 @@
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <f>IF(NOT(A243=0),A243,A242)+1</f>
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>217</v>
@@ -6156,7 +6154,7 @@
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <f>IF(NOT(A244=0),A244,A243)+1</f>
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>142</v>
@@ -6165,7 +6163,7 @@
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <f>IF(NOT(A245=0),A245,A244)+1</f>
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>322</v>
@@ -6174,7 +6172,7 @@
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <f>IF(NOT(A246=0),A246,A245)+1</f>
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>321</v>
@@ -6183,7 +6181,7 @@
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <f>IF(NOT(A247=0),A247,A246)+1</f>
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>320</v>
@@ -6192,7 +6190,7 @@
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <f>IF(NOT(A248=0),A248,A247)+1</f>
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>319</v>
@@ -6201,7 +6199,7 @@
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <f>IF(NOT(A249=0),A249,A248)+1</f>
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>198</v>
@@ -6210,7 +6208,7 @@
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <f>IF(NOT(A250=0),A250,A249)+1</f>
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>50</v>
@@ -6219,7 +6217,7 @@
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <f>IF(NOT(A251=0),A251,A250)+1</f>
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>128</v>
@@ -6228,7 +6226,7 @@
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <f>IF(NOT(A252=0),A252,A250)+1</f>
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>66</v>
@@ -6237,7 +6235,7 @@
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <f>IF(NOT(A253=0),A253,A252)+1</f>
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>49</v>
@@ -6246,7 +6244,7 @@
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <f>IF(NOT(A254=0),A254,A253)+1</f>
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>156</v>
@@ -6255,7 +6253,7 @@
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <f>IF(NOT(A255=0),A255,A254)+1</f>
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>138</v>
@@ -6264,7 +6262,7 @@
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <f>IF(NOT(A256=0),A256,A255)+1</f>
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>350</v>
@@ -6273,7 +6271,7 @@
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <f>IF(NOT(A257=0),A257,A256)+1</f>
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>218</v>
@@ -6282,7 +6280,7 @@
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <f>IF(NOT(A258=0),A258,A257)+1</f>
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>205</v>
@@ -6291,7 +6289,7 @@
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <f>IF(NOT(A259=0),A259,A258)+1</f>
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>223</v>
@@ -6300,7 +6298,7 @@
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <f>IF(NOT(A260=0),A260,A259)+1</f>
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>92</v>
@@ -6309,7 +6307,7 @@
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <f>IF(NOT(A261=0),A261,A260)+1</f>
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>92</v>
@@ -6318,7 +6316,7 @@
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <f>IF(NOT(A262=0),A262,A261)+1</f>
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>219</v>
@@ -6327,7 +6325,7 @@
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <f>IF(NOT(A263=0),A263,A262)+1</f>
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>140</v>
@@ -6336,7 +6334,7 @@
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <f>IF(NOT(A264=0),A264,A263)+1</f>
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>197</v>
@@ -6345,7 +6343,7 @@
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <f>IF(NOT(A265=0),A265,A264)+1</f>
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>141</v>
@@ -6354,7 +6352,7 @@
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <f>IF(NOT(A266=0),A266,A265)+1</f>
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>187</v>
@@ -6363,7 +6361,7 @@
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <f>IF(NOT(A267=0),A267,A266)+1</f>
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>352</v>
@@ -6372,7 +6370,7 @@
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <f>IF(NOT(A268=0),A268,A267)+1</f>
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>341</v>
@@ -6381,7 +6379,7 @@
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <f>IF(NOT(A269=0),A269,A268)+1</f>
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>172</v>
@@ -6390,7 +6388,7 @@
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <f>IF(NOT(A270=0),A270,A269)+1</f>
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>62</v>
@@ -6399,7 +6397,7 @@
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <f>IF(NOT(A271=0),A271,A270)+1</f>
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>62</v>
@@ -6408,7 +6406,7 @@
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <f>IF(NOT(A272=0),A272,A271)+1</f>
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>61</v>
@@ -6417,7 +6415,7 @@
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <f>IF(NOT(A273=0),A273,A272)+1</f>
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>276</v>
@@ -6426,7 +6424,7 @@
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <f>IF(NOT(A274=0),A274,A273)+1</f>
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>253</v>
@@ -6435,7 +6433,7 @@
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <f>IF(NOT(A275=0),A275,A274)+1</f>
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>39</v>
@@ -6444,7 +6442,7 @@
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <f>IF(NOT(A276=0),A276,A275)+1</f>
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>55</v>
@@ -6453,7 +6451,7 @@
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <f>IF(NOT(A277=0),A277,A276)+1</f>
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>43</v>
@@ -6462,7 +6460,7 @@
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <f>IF(NOT(A278=0),A278,A277)+1</f>
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>134</v>
@@ -6471,7 +6469,7 @@
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <f>IF(NOT(A279=0),A279,A278)+1</f>
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>191</v>
@@ -6480,7 +6478,7 @@
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <f>IF(NOT(A280=0),A280,A279)+1</f>
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>87</v>
@@ -6489,7 +6487,7 @@
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <f>IF(NOT(A281=0),A281,A280)+1</f>
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>86</v>
@@ -6498,7 +6496,7 @@
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <f>IF(NOT(A282=0),A282,A281)+1</f>
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>232</v>
@@ -6507,7 +6505,7 @@
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <f>IF(NOT(A283=0),A283,A282)+1</f>
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>333</v>
@@ -6516,7 +6514,7 @@
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <f>IF(NOT(A284=0),A284,A283)+1</f>
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>178</v>
@@ -6525,7 +6523,7 @@
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <f>IF(NOT(A285=0),A285,A284)+1</f>
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>247</v>
@@ -6534,7 +6532,7 @@
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <f>IF(NOT(A286=0),A286,A285)+1</f>
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>242</v>
@@ -6543,7 +6541,7 @@
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <f>IF(NOT(A287=0),A287,A286)+1</f>
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>38</v>
@@ -6552,7 +6550,7 @@
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <f>IF(NOT(A288=0),A288,A287)+1</f>
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>231</v>
@@ -6561,7 +6559,7 @@
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <f>IF(NOT(A289=0),A289,A288)+1</f>
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>126</v>
@@ -6570,7 +6568,7 @@
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <f>IF(NOT(A290=0),A290,A289)+1</f>
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>143</v>
@@ -6579,7 +6577,7 @@
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <f>IF(NOT(A291=0),A291,A290)+1</f>
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>251</v>
@@ -6588,7 +6586,7 @@
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <f>IF(NOT(A292=0),A292,A291)+1</f>
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>234</v>
@@ -6597,7 +6595,7 @@
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <f>IF(NOT(A293=0),A293,A292)+1</f>
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>215</v>
@@ -6606,7 +6604,7 @@
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <f>IF(NOT(A294=0),A294,A293)+1</f>
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>171</v>
@@ -6615,7 +6613,7 @@
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <f>IF(NOT(A295=0),A295,A294)+1</f>
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>238</v>
@@ -6624,7 +6622,7 @@
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <f>IF(NOT(A296=0),A296,A295)+1</f>
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>107</v>
@@ -6633,7 +6631,7 @@
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <f>IF(NOT(A297=0),A297,A296)+1</f>
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>239</v>
@@ -6642,7 +6640,7 @@
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <f>IF(NOT(A298=0),A298,A297)+1</f>
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>113</v>
@@ -6651,7 +6649,7 @@
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <f>IF(NOT(A299=0),A299,A298)+1</f>
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>69</v>
@@ -6660,7 +6658,7 @@
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <f>IF(NOT(A300=0),A300,A299)+1</f>
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>69</v>
@@ -6669,7 +6667,7 @@
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <f>IF(NOT(A301=0),A301,A300)+1</f>
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>93</v>
@@ -6678,7 +6676,7 @@
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <f>IF(NOT(A302=0),A302,A301)+1</f>
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>109</v>
@@ -6687,7 +6685,7 @@
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <f>IF(NOT(A303=0),A303,A302)+1</f>
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>106</v>
@@ -6696,7 +6694,7 @@
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <f>IF(NOT(A304=0),A304,A303)+1</f>
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>28</v>
@@ -6705,7 +6703,7 @@
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <f>IF(NOT(A305=0),A305,A304)+1</f>
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>7</v>
@@ -6714,7 +6712,7 @@
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
         <f>IF(NOT(A306=0),A306,A305)+1</f>
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>27</v>
@@ -6723,7 +6721,7 @@
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <f>IF(NOT(A307=0),A307,A306)+1</f>
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>47</v>
@@ -6732,7 +6730,7 @@
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <f>IF(NOT(A308=0),A308,A307)+1</f>
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>152</v>
@@ -6741,7 +6739,7 @@
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <f>IF(NOT(A309=0),A309,A308)+1</f>
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>195</v>
@@ -6750,7 +6748,7 @@
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <f>IF(NOT(A310=0),A310,A309)+1</f>
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>102</v>
@@ -6759,7 +6757,7 @@
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <f>IF(NOT(A311=0),A311,A310)+1</f>
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>83</v>
@@ -6768,7 +6766,7 @@
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <f>IF(NOT(A312=0),A312,A311)+1</f>
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>94</v>
@@ -6777,7 +6775,7 @@
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <f>IF(NOT(A313=0),A313,A312)+1</f>
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>119</v>
@@ -6786,7 +6784,7 @@
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
         <f>IF(NOT(A314=0),A314,A313)+1</f>
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>89</v>
@@ -6795,7 +6793,7 @@
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <f>IF(NOT(A315=0),A315,A314)+1</f>
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>307</v>
@@ -6804,7 +6802,7 @@
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <f>IF(NOT(A316=0),A316,A315)+1</f>
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>77</v>
@@ -6813,7 +6811,7 @@
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <f>IF(NOT(A317=0),A317,A316)+1</f>
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>139</v>
@@ -6822,7 +6820,7 @@
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <f>IF(NOT(A318=0),A318,A317)+1</f>
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>183</v>
@@ -6831,7 +6829,7 @@
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <f>IF(NOT(A319=0),A319,A318)+1</f>
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>176</v>
@@ -6840,7 +6838,7 @@
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
         <f>IF(NOT(A320=0),A320,A319)+1</f>
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>145</v>
@@ -6849,7 +6847,7 @@
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <f>IF(NOT(A321=0),A321,A320)+1</f>
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>168</v>
@@ -6858,7 +6856,7 @@
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <f>IF(NOT(A322=0),A322,A321)+1</f>
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>4</v>
@@ -6867,7 +6865,7 @@
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <f>IF(NOT(A323=0),A323,A322)+1</f>
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>32</v>
@@ -6876,7 +6874,7 @@
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
         <f>IF(NOT(A324=0),A324,A323)+1</f>
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>270</v>
@@ -6885,7 +6883,7 @@
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <f>IF(NOT(A325=0),A325,A324)+1</f>
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>97</v>
@@ -6894,7 +6892,7 @@
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <f>IF(NOT(A326=0),A326,A325)+1</f>
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>81</v>
@@ -6903,7 +6901,7 @@
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
         <f>IF(NOT(A327=0),A327,A326)+1</f>
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>346</v>
@@ -6912,7 +6910,7 @@
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <f>IF(NOT(A328=0),A328,A327)+1</f>
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>72</v>
@@ -6921,7 +6919,7 @@
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
         <f>IF(NOT(A329=0),A329,A328)+1</f>
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>125</v>
@@ -6930,7 +6928,7 @@
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
         <f>IF(NOT(A330=0),A330,A329)+1</f>
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>125</v>
@@ -6939,7 +6937,7 @@
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <f>IF(NOT(A331=0),A331,A330)+1</f>
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>73</v>
@@ -6948,7 +6946,7 @@
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
         <f>IF(NOT(A332=0),A332,A331)+1</f>
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>84</v>
@@ -6957,7 +6955,7 @@
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
         <f>IF(NOT(A333=0),A333,A332)+1</f>
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>31</v>
@@ -6966,7 +6964,7 @@
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
         <f>IF(NOT(A334=0),A334,A333)+1</f>
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>244</v>
@@ -6975,7 +6973,7 @@
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
         <f>IF(NOT(A335=0),A335,A334)+1</f>
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>0</v>
@@ -6984,7 +6982,7 @@
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <f>IF(NOT(A336=0),A336,A335)+1</f>
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>348</v>
@@ -6993,7 +6991,7 @@
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
         <f>IF(NOT(A337=0),A337,A336)+1</f>
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>186</v>
@@ -7002,7 +7000,7 @@
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <f>IF(NOT(A338=0),A338,A337)+1</f>
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>340</v>
@@ -7011,7 +7009,7 @@
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <f>IF(NOT(A339=0),A339,A338)+1</f>
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>339</v>
@@ -7020,7 +7018,7 @@
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
         <f>IF(NOT(A340=0),A340,A339)+1</f>
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>315</v>
@@ -7029,7 +7027,7 @@
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
         <f>IF(NOT(A341=0),A341,A340)+1</f>
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>100</v>
@@ -7038,7 +7036,7 @@
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <f>IF(NOT(A342=0),A342,A341)+1</f>
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>58</v>
@@ -7047,7 +7045,7 @@
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
         <f>IF(NOT(A343=0),A343,A342)+1</f>
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>58</v>
@@ -7056,7 +7054,7 @@
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
         <f>IF(NOT(A344=0),A344,A343)+1</f>
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>127</v>
@@ -7065,7 +7063,7 @@
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
         <f>IF(NOT(A345=0),A345,A344)+1</f>
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>136</v>
@@ -7074,7 +7072,7 @@
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
         <f>IF(NOT(A346=0),A346,A345)+1</f>
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>312</v>
@@ -7083,7 +7081,7 @@
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
         <f>IF(NOT(A347=0),A347,A346)+1</f>
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>311</v>
@@ -7092,7 +7090,7 @@
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
         <f>IF(NOT(A348=0),A348,A347)+1</f>
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>311</v>
@@ -7101,7 +7099,7 @@
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
         <f>IF(NOT(A349=0),A349,A348)+1</f>
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>257</v>
@@ -7110,7 +7108,7 @@
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
         <f>IF(NOT(A350=0),A350,A349)+1</f>
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>19</v>
@@ -7119,7 +7117,7 @@
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
         <f>IF(NOT(A351=0),A351,A350)+1</f>
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>18</v>
@@ -7128,7 +7126,7 @@
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
         <f>IF(NOT(A352=0),A352,A351)+1</f>
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>323</v>
@@ -7137,7 +7135,7 @@
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
         <f>IF(NOT(A353=0),A353,A352)+1</f>
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>17</v>
@@ -7146,7 +7144,7 @@
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
         <f>IF(NOT(A354=0),A354,A353)+1</f>
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>303</v>
@@ -7155,7 +7153,7 @@
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
         <f>IF(NOT(A355=0),A355,A354)+1</f>
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>68</v>
@@ -7164,7 +7162,7 @@
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
         <f>IF(NOT(A356=0),A356,A355)+1</f>
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>281</v>
@@ -7173,7 +7171,7 @@
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <f>IF(NOT(A357=0),A357,A356)+1</f>
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>65</v>
@@ -7182,7 +7180,7 @@
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
         <f>IF(NOT(A358=0),A358,A357)+1</f>
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>9</v>
@@ -7191,7 +7189,7 @@
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
         <f>IF(NOT(A359=0),A359,A358)+1</f>
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>1</v>
@@ -7200,7 +7198,7 @@
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
         <f>IF(NOT(A360=0),A360,A359)+1</f>
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>25</v>
@@ -7209,7 +7207,7 @@
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
         <f>IF(NOT(A361=0),A361,A360)+1</f>
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>46</v>
@@ -7218,7 +7216,7 @@
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
         <f>IF(NOT(A362=0),A362,A361)+1</f>
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>59</v>
@@ -7227,7 +7225,7 @@
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
         <f>IF(NOT(A363=0),A363,A362)+1</f>
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>258</v>
@@ -7236,7 +7234,7 @@
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
         <f>IF(NOT(A364=0),A364,A363)+1</f>
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>120</v>
@@ -7245,7 +7243,7 @@
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
         <f>IF(NOT(A365=0),A365,A364)+1</f>
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>338</v>
@@ -7254,7 +7252,7 @@
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
         <f>IF(NOT(A366=0),A366,A365)+1</f>
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>158</v>
@@ -7263,7 +7261,7 @@
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
         <f>IF(NOT(A367=0),A367,A366)+1</f>
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>164</v>
@@ -7272,7 +7270,7 @@
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
         <f>IF(NOT(A368=0),A368,A367)+1</f>
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>213</v>
@@ -7281,7 +7279,7 @@
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
         <f>IF(NOT(A369=0),A369,A368)+1</f>
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>159</v>
@@ -7290,7 +7288,7 @@
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
         <f>IF(NOT(A370=0),A370,A369)+1</f>
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>199</v>
@@ -7299,7 +7297,7 @@
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
         <f>IF(NOT(A371=0),A371,A370)+1</f>
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>203</v>
@@ -7308,7 +7306,7 @@
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
         <f>IF(NOT(A372=0),A372,A371)+1</f>
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>314</v>
@@ -7317,7 +7315,7 @@
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
         <f>IF(NOT(A373=0),A373,A372)+1</f>
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>313</v>
@@ -7326,7 +7324,7 @@
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
         <f>IF(NOT(A374=0),A374,A373)+1</f>
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>48</v>
@@ -15262,6 +15260,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A237:B237"/>
@@ -15278,13 +15283,6 @@
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A125:B125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ALGORITHMS_LIST.xlsx
+++ b/ALGORITHMS_LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0\Git\beginner-algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85600A5D-F84D-47E4-A61A-DA46B126A369}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC7BDF5-F2FD-4320-B03B-76B85537309B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F3AEC63A-3935-431B-9D94-C19A95072D1B}"/>
   </bookViews>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="D2" s="8">
         <f ca="1">RANDBETWEEN(1,A375)</f>
-        <v>31</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4327,556 +4327,555 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>1</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <f>IF(NOT(A42=0),A42,A41)+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <f>IF(NOT(A43=0),A43,A42)+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <f>IF(NOT(A44=0),A44,A43)+1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>299</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <f>IF(NOT(A45=0),A45,A44)+1</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>137</v>
+        <v>299</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <f>IF(NOT(A46=0),A46,A45)+1</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>298</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <f>IF(NOT(A47=0),A47,A46)+1</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>216</v>
+        <v>298</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <f>IF(NOT(A48=0),A48,A47)+1</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>342</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <f>IF(NOT(A49=0),A49,A48)+1</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>151</v>
+        <v>342</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <f>IF(NOT(A50=0),A50,A49)+1</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <f>IF(NOT(A51=0),A51,A50)+1</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>295</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <f>IF(NOT(A52=0),A52,A51)+1</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <f>IF(NOT(A53=0),A53,A52)+1</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <f>IF(NOT(A54=0),A54,A53)+1</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>201</v>
+        <v>310</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <f>IF(NOT(A55=0),A55,A54)+1</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <f>IF(NOT(A56=0),A56,A55)+1</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <f>IF(NOT(A57=0),A57,A56)+1</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <f>IF(NOT(A58=0),A58,A57)+1</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>220</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <f>IF(NOT(A59=0),A59,A58)+1</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <f>IF(NOT(A60=0),A60,A59)+1</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>332</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <f>IF(NOT(A61=0),A61,A60)+1</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>161</v>
+        <v>332</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <f>IF(NOT(A62=0),A62,A61)+1</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>343</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <f>IF(NOT(A63=0),A63,A62)+1</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>181</v>
+        <v>343</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <f>IF(NOT(A64=0),A64,A63)+1</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <f>IF(NOT(A65=0),A65,A64)+1</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>347</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <f>IF(NOT(A66=0),A66,A65)+1</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>167</v>
+        <v>347</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <f>IF(NOT(A67=0),A67,A66)+1</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>349</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <f>IF(NOT(A68=0),A68,A67)+1</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>85</v>
+        <v>349</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <f>IF(NOT(A69=0),A69,A68)+1</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <f>IF(NOT(A70=0),A70,A69)+1</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <f>IF(NOT(A71=0),A71,A70)+1</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>286</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <f>IF(NOT(A72=0),A72,A71)+1</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>334</v>
+        <v>286</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <f>IF(NOT(A73=0),A73,A72)+1</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>88</v>
+        <v>334</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <f>IF(NOT(A74=0),A74,A73)+1</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>291</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <f>IF(NOT(A75=0),A75,A74)+1</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>344</v>
+        <v>291</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <f>IF(NOT(A76=0),A76,A75)+1</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>129</v>
+        <v>344</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <f>IF(NOT(A77=0),A77,A76)+1</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <f>IF(NOT(A78=0),A78,A77)+1</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>252</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <f>IF(NOT(A79=0),A79,A78)+1</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>117</v>
+        <v>252</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <f>IF(NOT(A80=0),A80,A79)+1</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>241</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <f>IF(NOT(A81=0),A81,A80)+1</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>16</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <f>IF(NOT(A82=0),A82,A81)+1</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>211</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <f>IF(NOT(A83=0),A83,A82)+1</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>331</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <f>IF(NOT(A84=0),A84,A83)+1</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>5</v>
+        <v>331</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <f>IF(NOT(A85=0),A85,A84)+1</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>294</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <f>IF(NOT(A86=0),A86,A85)+1</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>54</v>
+        <v>294</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <f>IF(NOT(A87=0),A87,A86)+1</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <f>IF(NOT(A88=0),A88,A87)+1</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <f>IF(NOT(A89=0),A89,A88)+1</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <f>IF(NOT(A90=0),A90,A89)+1</f>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>193</v>
+        <v>115</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <f>IF(NOT(A91=0),A91,A90)+1</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>36</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <f>IF(NOT(A92=0),A92,A91)+1</f>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>224</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <f>IF(NOT(A93=0),A93,A92)+1</f>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>76</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <f>IF(NOT(A94=0),A94,A93)+1</f>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <f>IF(NOT(A95=0),A95,A94)+1</f>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <f>IF(NOT(A96=0),A96,A95)+1</f>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>256</v>
+        <v>124</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <f>IF(NOT(A97=0),A97,A96)+1</f>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <f>IF(NOT(A98=0),A98,A97)+1</f>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>250</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <f>IF(NOT(A99=0),A99,A98)+1</f>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <f>IF(NOT(A100=0),A100,A99)+1</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>208</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <f>IF(NOT(A101=0),A101,A100)+1</f>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <f>IF(NOT(A102=0),A102,A101)+1</f>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>306</v>
@@ -4885,7 +4884,7 @@
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <f>IF(NOT(A103=0),A103,A102)+1</f>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>302</v>
@@ -4894,7 +4893,7 @@
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <f>IF(NOT(A104=0),A104,A103)+1</f>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>114</v>
@@ -4903,7 +4902,7 @@
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <f>IF(NOT(A105=0),A105,A104)+1</f>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>163</v>
@@ -4912,7 +4911,7 @@
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <f>IF(NOT(A106=0),A106,A105)+1</f>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>305</v>
@@ -4921,7 +4920,7 @@
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <f>IF(NOT(A107=0),A107,A106)+1</f>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>90</v>
@@ -4930,7 +4929,7 @@
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <f>IF(NOT(A108=0),A108,A107)+1</f>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>111</v>
@@ -4939,7 +4938,7 @@
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <f>IF(NOT(A109=0),A109,A108)+1</f>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>272</v>
@@ -4948,7 +4947,7 @@
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <f>IF(NOT(A110=0),A110,A109)+1</f>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>12</v>
@@ -4957,7 +4956,7 @@
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <f>IF(NOT(A111=0),A111,A110)+1</f>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>235</v>
@@ -4966,7 +4965,7 @@
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <f>IF(NOT(A112=0),A112,A111)+1</f>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>285</v>
@@ -4975,7 +4974,7 @@
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <f>IF(NOT(A113=0),A113,A112)+1</f>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>351</v>
@@ -4984,7 +4983,7 @@
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <f>IF(NOT(A114=0),A114,A113)+1</f>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>309</v>
@@ -4993,7 +4992,7 @@
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <f>IF(NOT(A115=0),A115,A114)+1</f>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>148</v>
@@ -5002,7 +5001,7 @@
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <f>IF(NOT(A116=0),A116,A115)+1</f>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>337</v>
@@ -5011,7 +5010,7 @@
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <f>IF(NOT(A117=0),A117,A116)+1</f>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>262</v>
@@ -5020,7 +5019,7 @@
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <f>IF(NOT(A118=0),A118,A117)+1</f>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>207</v>
@@ -5029,7 +5028,7 @@
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <f>IF(NOT(A119=0),A119,A118)+1</f>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>300</v>
@@ -5038,7 +5037,7 @@
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <f>IF(NOT(A120=0),A120,A119)+1</f>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>179</v>
@@ -5047,7 +5046,7 @@
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <f>IF(NOT(A121=0),A121,A120)+1</f>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>259</v>
@@ -5056,7 +5055,7 @@
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <f>IF(NOT(A122=0),A122,A121)+1</f>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>21</v>
@@ -5065,7 +5064,7 @@
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <f>IF(NOT(A123=0),A123,A122)+1</f>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>301</v>
@@ -5074,7 +5073,7 @@
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <f>IF(NOT(A124=0),A124,A123)+1</f>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>318</v>
@@ -5083,7 +5082,7 @@
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <f>IF(NOT(A125=0),A125,A124)+1</f>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>249</v>
@@ -5092,7 +5091,7 @@
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <f>IF(NOT(A126=0),A126,A125)+1</f>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>296</v>
@@ -5101,7 +5100,7 @@
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <f>IF(NOT(A127=0),A127,A126)+1</f>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>293</v>
@@ -5110,7 +5109,7 @@
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <f>IF(NOT(A128=0),A128,A127)+1</f>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>80</v>
@@ -5119,7 +5118,7 @@
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <f>IF(NOT(A129=0),A129,A128)+1</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>275</v>
@@ -5128,7 +5127,7 @@
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <f>IF(NOT(A130=0),A130,A129)+1</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>166</v>
@@ -5137,7 +5136,7 @@
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <f>IF(NOT(A131=0),A131,A130)+1</f>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>202</v>
@@ -5146,7 +5145,7 @@
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <f>IF(NOT(A132=0),A132,A131)+1</f>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>196</v>
@@ -5155,7 +5154,7 @@
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <f>IF(NOT(A133=0),A133,A132)+1</f>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>236</v>
@@ -5164,7 +5163,7 @@
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <f>IF(NOT(A134=0),A134,A133)+1</f>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>194</v>
@@ -5173,7 +5172,7 @@
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <f>IF(NOT(A135=0),A135,A134)+1</f>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>60</v>
@@ -5182,7 +5181,7 @@
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <f>IF(NOT(A136=0),A136,A135)+1</f>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>243</v>
@@ -5191,7 +5190,7 @@
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <f>IF(NOT(A137=0),A137,A136)+1</f>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>130</v>
@@ -5200,7 +5199,7 @@
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <f>IF(NOT(A138=0),A138,A137)+1</f>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>271</v>
@@ -5209,7 +5208,7 @@
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <f>IF(NOT(A139=0),A139,A138)+1</f>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>74</v>
@@ -5218,7 +5217,7 @@
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <f>IF(NOT(A140=0),A140,A139)+1</f>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>184</v>
@@ -5227,7 +5226,7 @@
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <f>IF(NOT(A141=0),A141,A140)+1</f>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>212</v>
@@ -5236,7 +5235,7 @@
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <f>IF(NOT(A142=0),A142,A141)+1</f>
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>41</v>
@@ -5245,7 +5244,7 @@
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <f>IF(NOT(A143=0),A143,A142)+1</f>
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>150</v>
@@ -5254,7 +5253,7 @@
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <f>IF(NOT(A144=0),A144,A143)+1</f>
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>336</v>
@@ -5263,7 +5262,7 @@
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <f>IF(NOT(A145=0),A145,A144)+1</f>
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>279</v>
@@ -5272,7 +5271,7 @@
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <f>IF(NOT(A146=0),A146,A145)+1</f>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>42</v>
@@ -5281,7 +5280,7 @@
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <f>IF(NOT(A147=0),A147,A146)+1</f>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>63</v>
@@ -5290,7 +5289,7 @@
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <f>IF(NOT(A148=0),A148,A147)+1</f>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>308</v>
@@ -5299,7 +5298,7 @@
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <f>IF(NOT(A149=0),A149,A148)+1</f>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>64</v>
@@ -5308,7 +5307,7 @@
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <f>IF(NOT(A150=0),A150,A149)+1</f>
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>40</v>
@@ -5317,7 +5316,7 @@
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <f>IF(NOT(A151=0),A151,A150)+1</f>
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>64</v>
@@ -5326,7 +5325,7 @@
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <f>IF(NOT(A152=0),A152,A151)+1</f>
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>210</v>
@@ -5335,7 +5334,7 @@
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <f>IF(NOT(A153=0),A153,A152)+1</f>
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>180</v>
@@ -5344,7 +5343,7 @@
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <f>IF(NOT(A154=0),A154,A153)+1</f>
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>112</v>
@@ -5353,7 +5352,7 @@
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <f>IF(NOT(A155=0),A155,A154)+1</f>
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>269</v>
@@ -5362,7 +5361,7 @@
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <f>IF(NOT(A156=0),A156,A155)+1</f>
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>45</v>
@@ -5371,7 +5370,7 @@
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <f>IF(NOT(A157=0),A157,A156)+1</f>
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>267</v>
@@ -5380,7 +5379,7 @@
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <f>IF(NOT(A158=0),A158,A157)+1</f>
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>358</v>
@@ -5389,7 +5388,7 @@
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <f>IF(NOT(A159=0),A159,A158)+1</f>
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>268</v>
@@ -5398,7 +5397,7 @@
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <f>IF(NOT(A160=0),A160,A159)+1</f>
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>289</v>
@@ -5407,7 +5406,7 @@
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <f>IF(NOT(A161=0),A161,A160)+1</f>
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>297</v>
@@ -5416,7 +5415,7 @@
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <f>IF(NOT(A162=0),A162,A161)+1</f>
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>56</v>
@@ -5425,7 +5424,7 @@
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <f>IF(NOT(A163=0),A163,A162)+1</f>
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>330</v>
@@ -5434,7 +5433,7 @@
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <f>IF(NOT(A164=0),A164,A163)+1</f>
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>82</v>
@@ -5443,7 +5442,7 @@
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <f>IF(NOT(A165=0),A165,A164)+1</f>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>260</v>
@@ -5452,7 +5451,7 @@
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <f>IF(NOT(A166=0),A166,A165)+1</f>
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>51</v>
@@ -5461,7 +5460,7 @@
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <f>IF(NOT(A167=0),A167,A166)+1</f>
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>329</v>
@@ -5470,7 +5469,7 @@
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <f>IF(NOT(A168=0),A168,A167)+1</f>
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>105</v>
@@ -5479,7 +5478,7 @@
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <f>IF(NOT(A169=0),A169,A168)+1</f>
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>227</v>
@@ -5488,7 +5487,7 @@
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <f>IF(NOT(A170=0),A170,A169)+1</f>
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>105</v>
@@ -5497,7 +5496,7 @@
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <f>IF(NOT(A171=0),A171,A170)+1</f>
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>328</v>
@@ -5506,7 +5505,7 @@
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <f>IF(NOT(A172=0),A172,A171)+1</f>
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>204</v>
@@ -5515,7 +5514,7 @@
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <f>IF(NOT(A173=0),A173,A172)+1</f>
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>255</v>
@@ -5524,7 +5523,7 @@
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <f>IF(NOT(A174=0),A174,A173)+1</f>
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>246</v>
@@ -5533,7 +5532,7 @@
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <f>IF(NOT(A175=0),A175,A174)+1</f>
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>327</v>
@@ -5542,7 +5541,7 @@
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <f>IF(NOT(A176=0),A176,A175)+1</f>
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>118</v>
@@ -5551,7 +5550,7 @@
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <f>IF(NOT(A177=0),A177,A176)+1</f>
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>132</v>
@@ -5560,7 +5559,7 @@
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <f>IF(NOT(A178=0),A178,A177)+1</f>
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>209</v>
@@ -5569,7 +5568,7 @@
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <f>IF(NOT(A179=0),A179,A178)+1</f>
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>326</v>
@@ -5578,7 +5577,7 @@
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <f>IF(NOT(A180=0),A180,A179)+1</f>
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>108</v>
@@ -5587,7 +5586,7 @@
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <f>IF(NOT(A181=0),A181,A180)+1</f>
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>147</v>
@@ -5596,7 +5595,7 @@
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <f>IF(NOT(A182=0),A182,A181)+1</f>
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>175</v>
@@ -5605,7 +5604,7 @@
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <f>IF(NOT(A183=0),A183,A182)+1</f>
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>325</v>
@@ -5614,7 +5613,7 @@
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <f>IF(NOT(A184=0),A184,A183)+1</f>
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>144</v>
@@ -5623,7 +5622,7 @@
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <f>IF(NOT(A185=0),A185,A184)+1</f>
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>131</v>
@@ -5632,7 +5631,7 @@
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <f>IF(NOT(A186=0),A186,A185)+1</f>
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>292</v>
@@ -5641,7 +5640,7 @@
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <f>IF(NOT(A187=0),A187,A186)+1</f>
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>91</v>
@@ -5650,7 +5649,7 @@
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <f>IF(NOT(A188=0),A188,A187)+1</f>
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>155</v>
@@ -5659,7 +5658,7 @@
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <f>IF(NOT(A189=0),A189,A188)+1</f>
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>278</v>
@@ -5668,7 +5667,7 @@
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <f>IF(NOT(A190=0),A190,A189)+1</f>
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>2</v>
@@ -5677,7 +5676,7 @@
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <f>IF(NOT(A191=0),A191,A190)+1</f>
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>104</v>
@@ -5686,7 +5685,7 @@
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <f>IF(NOT(A192=0),A192,A191)+1</f>
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>189</v>
@@ -5695,7 +5694,7 @@
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <f>IF(NOT(A193=0),A193,A192)+1</f>
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>214</v>
@@ -5704,7 +5703,7 @@
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <f>IF(NOT(A194=0),A194,A193)+1</f>
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>13</v>
@@ -5713,7 +5712,7 @@
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <f>IF(NOT(A195=0),A195,A194)+1</f>
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>78</v>
@@ -5722,7 +5721,7 @@
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <f>IF(NOT(A196=0),A196,A195)+1</f>
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>15</v>
@@ -5731,7 +5730,7 @@
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <f>IF(NOT(A197=0),A197,A196)+1</f>
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>254</v>
@@ -5740,7 +5739,7 @@
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <f>IF(NOT(A198=0),A198,A197)+1</f>
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>8</v>
@@ -5749,7 +5748,7 @@
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <f>IF(NOT(A199=0),A199,A198)+1</f>
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>24</v>
@@ -5758,7 +5757,7 @@
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <f>IF(NOT(A200=0),A200,A199)+1</f>
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>283</v>
@@ -5767,7 +5766,7 @@
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <f>IF(NOT(A201=0),A201,A200)+1</f>
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>288</v>
@@ -5776,7 +5775,7 @@
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <f>IF(NOT(A202=0),A202,A201)+1</f>
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>34</v>
@@ -5785,7 +5784,7 @@
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <f>IF(NOT(A203=0),A203,A202)+1</f>
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>274</v>
@@ -5794,7 +5793,7 @@
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <f>IF(NOT(A204=0),A204,A203)+1</f>
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>149</v>
@@ -5803,7 +5802,7 @@
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <f>IF(NOT(A205=0),A205,A204)+1</f>
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>274</v>
@@ -5812,7 +5811,7 @@
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <f>IF(NOT(A206=0),A206,A205)+1</f>
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>273</v>
@@ -5821,7 +5820,7 @@
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <f>IF(NOT(A207=0),A207,A206)+1</f>
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>273</v>
@@ -5830,7 +5829,7 @@
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <f>IF(NOT(A208=0),A208,A207)+1</f>
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>229</v>
@@ -5839,7 +5838,7 @@
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <f>IF(NOT(A209=0),A209,A208)+1</f>
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>170</v>
@@ -5848,7 +5847,7 @@
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <f>IF(NOT(A210=0),A210,A209)+1</f>
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>177</v>
@@ -5857,7 +5856,7 @@
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <f>IF(NOT(A211=0),A211,A210)+1</f>
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>174</v>
@@ -5866,7 +5865,7 @@
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <f>IF(NOT(A212=0),A212,A211)+1</f>
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>188</v>
@@ -5875,7 +5874,7 @@
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <f>IF(NOT(A213=0),A213,A212)+1</f>
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>30</v>
@@ -5884,7 +5883,7 @@
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <f>IF(NOT(A214=0),A214,A213)+1</f>
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>188</v>
@@ -5893,7 +5892,7 @@
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <f>IF(NOT(A215=0),A215,A214)+1</f>
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>353</v>
@@ -5902,7 +5901,7 @@
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <f>IF(NOT(A216=0),A216,A215)+1</f>
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>284</v>
@@ -5911,7 +5910,7 @@
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <f>IF(NOT(A217=0),A217,A216)+1</f>
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>287</v>
@@ -5920,7 +5919,7 @@
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <f>IF(NOT(A218=0),A218,A217)+1</f>
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>282</v>
@@ -5929,7 +5928,7 @@
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <f>IF(NOT(A219=0),A219,A218)+1</f>
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>116</v>
@@ -5938,7 +5937,7 @@
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <f>IF(NOT(A220=0),A220,A219)+1</f>
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>53</v>
@@ -5947,7 +5946,7 @@
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <f>IF(NOT(A221=0),A221,A220)+1</f>
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>33</v>
@@ -5956,7 +5955,7 @@
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <f>IF(NOT(A222=0),A222,A221)+1</f>
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>230</v>
@@ -5965,7 +5964,7 @@
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <f>IF(NOT(A223=0),A223,A222)+1</f>
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>133</v>
@@ -5974,7 +5973,7 @@
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <f>IF(NOT(A224=0),A224,A223)+1</f>
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>226</v>
@@ -5983,7 +5982,7 @@
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <f>IF(NOT(A225=0),A225,A224)+1</f>
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>35</v>
@@ -5992,7 +5991,7 @@
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <f>IF(NOT(A226=0),A226,A225)+1</f>
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>44</v>
@@ -6001,7 +6000,7 @@
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <f>IF(NOT(A227=0),A227,A226)+1</f>
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>135</v>
@@ -6010,7 +6009,7 @@
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <f>IF(NOT(A228=0),A228,A227)+1</f>
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>192</v>
@@ -6019,7 +6018,7 @@
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <f>IF(NOT(A229=0),A229,A228)+1</f>
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>228</v>
@@ -6028,7 +6027,7 @@
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <f>IF(NOT(A230=0),A230,A229)+1</f>
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>324</v>
@@ -6037,7 +6036,7 @@
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <f>IF(NOT(A231=0),A231,A230)+1</f>
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>233</v>
@@ -6046,7 +6045,7 @@
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <f>IF(NOT(A232=0),A232,A231)+1</f>
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>14</v>
@@ -6055,7 +6054,7 @@
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <f>IF(NOT(A233=0),A233,A232)+1</f>
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>200</v>
@@ -6064,7 +6063,7 @@
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <f>IF(NOT(A234=0),A234,A233)+1</f>
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>237</v>
@@ -6073,7 +6072,7 @@
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <f>IF(NOT(A235=0),A235,A234)+1</f>
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>240</v>
@@ -6082,7 +6081,7 @@
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <f>IF(NOT(A236=0),A236,A235)+1</f>
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>357</v>
@@ -6091,7 +6090,7 @@
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <f>IF(NOT(A237=0),A237,A236)+1</f>
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>245</v>
@@ -6100,7 +6099,7 @@
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <f>IF(NOT(A238=0),A238,A237)+1</f>
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>356</v>
@@ -6109,7 +6108,7 @@
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <f>IF(NOT(A239=0),A239,A238)+1</f>
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>190</v>
@@ -6118,7 +6117,7 @@
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <f>IF(NOT(A240=0),A240,A239)+1</f>
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>355</v>
@@ -6127,7 +6126,7 @@
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <f>IF(NOT(A241=0),A241,A240)+1</f>
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>190</v>
@@ -6136,7 +6135,7 @@
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <f>IF(NOT(A242=0),A242,A241)+1</f>
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>354</v>
@@ -6145,7 +6144,7 @@
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <f>IF(NOT(A243=0),A243,A242)+1</f>
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>217</v>
@@ -6154,7 +6153,7 @@
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <f>IF(NOT(A244=0),A244,A243)+1</f>
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>142</v>
@@ -6163,7 +6162,7 @@
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <f>IF(NOT(A245=0),A245,A244)+1</f>
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>322</v>
@@ -6172,7 +6171,7 @@
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <f>IF(NOT(A246=0),A246,A245)+1</f>
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>321</v>
@@ -6181,7 +6180,7 @@
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <f>IF(NOT(A247=0),A247,A246)+1</f>
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>320</v>
@@ -6190,7 +6189,7 @@
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <f>IF(NOT(A248=0),A248,A247)+1</f>
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>319</v>
@@ -6199,7 +6198,7 @@
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <f>IF(NOT(A249=0),A249,A248)+1</f>
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>198</v>
@@ -6208,7 +6207,7 @@
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <f>IF(NOT(A250=0),A250,A249)+1</f>
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>50</v>
@@ -6217,7 +6216,7 @@
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <f>IF(NOT(A251=0),A251,A250)+1</f>
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>128</v>
@@ -6226,7 +6225,7 @@
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <f>IF(NOT(A252=0),A252,A250)+1</f>
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>66</v>
@@ -6235,7 +6234,7 @@
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <f>IF(NOT(A253=0),A253,A252)+1</f>
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>49</v>
@@ -6244,7 +6243,7 @@
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <f>IF(NOT(A254=0),A254,A253)+1</f>
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>156</v>
@@ -6253,7 +6252,7 @@
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <f>IF(NOT(A255=0),A255,A254)+1</f>
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>138</v>
@@ -6262,7 +6261,7 @@
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <f>IF(NOT(A256=0),A256,A255)+1</f>
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>350</v>
@@ -6271,7 +6270,7 @@
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <f>IF(NOT(A257=0),A257,A256)+1</f>
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>218</v>
@@ -6280,7 +6279,7 @@
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <f>IF(NOT(A258=0),A258,A257)+1</f>
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>205</v>
@@ -6289,7 +6288,7 @@
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <f>IF(NOT(A259=0),A259,A258)+1</f>
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>223</v>
@@ -6298,7 +6297,7 @@
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <f>IF(NOT(A260=0),A260,A259)+1</f>
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>92</v>
@@ -6307,7 +6306,7 @@
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <f>IF(NOT(A261=0),A261,A260)+1</f>
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>92</v>
@@ -6316,7 +6315,7 @@
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <f>IF(NOT(A262=0),A262,A261)+1</f>
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>219</v>
@@ -6325,7 +6324,7 @@
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <f>IF(NOT(A263=0),A263,A262)+1</f>
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>140</v>
@@ -6334,7 +6333,7 @@
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <f>IF(NOT(A264=0),A264,A263)+1</f>
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>197</v>
@@ -6343,7 +6342,7 @@
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <f>IF(NOT(A265=0),A265,A264)+1</f>
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>141</v>
@@ -6352,7 +6351,7 @@
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <f>IF(NOT(A266=0),A266,A265)+1</f>
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>187</v>
@@ -6361,7 +6360,7 @@
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <f>IF(NOT(A267=0),A267,A266)+1</f>
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>352</v>
@@ -6370,7 +6369,7 @@
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <f>IF(NOT(A268=0),A268,A267)+1</f>
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>341</v>
@@ -6379,7 +6378,7 @@
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <f>IF(NOT(A269=0),A269,A268)+1</f>
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>172</v>
@@ -6388,7 +6387,7 @@
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <f>IF(NOT(A270=0),A270,A269)+1</f>
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>62</v>
@@ -6397,7 +6396,7 @@
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <f>IF(NOT(A271=0),A271,A270)+1</f>
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>62</v>
@@ -6406,7 +6405,7 @@
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <f>IF(NOT(A272=0),A272,A271)+1</f>
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>61</v>
@@ -6415,7 +6414,7 @@
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <f>IF(NOT(A273=0),A273,A272)+1</f>
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>276</v>
@@ -6424,7 +6423,7 @@
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <f>IF(NOT(A274=0),A274,A273)+1</f>
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>253</v>
@@ -6433,7 +6432,7 @@
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <f>IF(NOT(A275=0),A275,A274)+1</f>
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>39</v>
@@ -6442,7 +6441,7 @@
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <f>IF(NOT(A276=0),A276,A275)+1</f>
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>55</v>
@@ -6451,7 +6450,7 @@
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <f>IF(NOT(A277=0),A277,A276)+1</f>
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>43</v>
@@ -6460,7 +6459,7 @@
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <f>IF(NOT(A278=0),A278,A277)+1</f>
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>134</v>
@@ -6469,7 +6468,7 @@
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <f>IF(NOT(A279=0),A279,A278)+1</f>
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>191</v>
@@ -6478,7 +6477,7 @@
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <f>IF(NOT(A280=0),A280,A279)+1</f>
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>87</v>
@@ -6487,7 +6486,7 @@
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <f>IF(NOT(A281=0),A281,A280)+1</f>
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>86</v>
@@ -6496,7 +6495,7 @@
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <f>IF(NOT(A282=0),A282,A281)+1</f>
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>232</v>
@@ -6505,7 +6504,7 @@
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <f>IF(NOT(A283=0),A283,A282)+1</f>
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>333</v>
@@ -6514,7 +6513,7 @@
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <f>IF(NOT(A284=0),A284,A283)+1</f>
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>178</v>
@@ -6523,7 +6522,7 @@
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <f>IF(NOT(A285=0),A285,A284)+1</f>
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>247</v>
@@ -6532,7 +6531,7 @@
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <f>IF(NOT(A286=0),A286,A285)+1</f>
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>242</v>
@@ -6541,7 +6540,7 @@
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <f>IF(NOT(A287=0),A287,A286)+1</f>
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>38</v>
@@ -6550,7 +6549,7 @@
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <f>IF(NOT(A288=0),A288,A287)+1</f>
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>231</v>
@@ -6559,7 +6558,7 @@
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <f>IF(NOT(A289=0),A289,A288)+1</f>
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>126</v>
@@ -6568,7 +6567,7 @@
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <f>IF(NOT(A290=0),A290,A289)+1</f>
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>143</v>
@@ -6577,7 +6576,7 @@
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <f>IF(NOT(A291=0),A291,A290)+1</f>
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>251</v>
@@ -6586,7 +6585,7 @@
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <f>IF(NOT(A292=0),A292,A291)+1</f>
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>234</v>
@@ -6595,7 +6594,7 @@
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <f>IF(NOT(A293=0),A293,A292)+1</f>
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>215</v>
@@ -6604,7 +6603,7 @@
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <f>IF(NOT(A294=0),A294,A293)+1</f>
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>171</v>
@@ -6613,7 +6612,7 @@
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <f>IF(NOT(A295=0),A295,A294)+1</f>
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>238</v>
@@ -6622,7 +6621,7 @@
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <f>IF(NOT(A296=0),A296,A295)+1</f>
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>107</v>
@@ -6631,7 +6630,7 @@
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <f>IF(NOT(A297=0),A297,A296)+1</f>
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>239</v>
@@ -6640,7 +6639,7 @@
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <f>IF(NOT(A298=0),A298,A297)+1</f>
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>113</v>
@@ -6649,7 +6648,7 @@
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <f>IF(NOT(A299=0),A299,A298)+1</f>
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>69</v>
@@ -6658,7 +6657,7 @@
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <f>IF(NOT(A300=0),A300,A299)+1</f>
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>69</v>
@@ -6667,7 +6666,7 @@
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <f>IF(NOT(A301=0),A301,A300)+1</f>
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>93</v>
@@ -6676,7 +6675,7 @@
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <f>IF(NOT(A302=0),A302,A301)+1</f>
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>109</v>
@@ -6685,7 +6684,7 @@
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <f>IF(NOT(A303=0),A303,A302)+1</f>
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>106</v>
@@ -6694,7 +6693,7 @@
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <f>IF(NOT(A304=0),A304,A303)+1</f>
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>28</v>
@@ -6703,7 +6702,7 @@
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <f>IF(NOT(A305=0),A305,A304)+1</f>
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>7</v>
@@ -6712,7 +6711,7 @@
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
         <f>IF(NOT(A306=0),A306,A305)+1</f>
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>27</v>
@@ -6721,7 +6720,7 @@
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <f>IF(NOT(A307=0),A307,A306)+1</f>
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>47</v>
@@ -6730,7 +6729,7 @@
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <f>IF(NOT(A308=0),A308,A307)+1</f>
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>152</v>
@@ -6739,7 +6738,7 @@
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <f>IF(NOT(A309=0),A309,A308)+1</f>
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>195</v>
@@ -6748,7 +6747,7 @@
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <f>IF(NOT(A310=0),A310,A309)+1</f>
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>102</v>
@@ -6757,7 +6756,7 @@
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <f>IF(NOT(A311=0),A311,A310)+1</f>
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>83</v>
@@ -6766,7 +6765,7 @@
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <f>IF(NOT(A312=0),A312,A311)+1</f>
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>94</v>
@@ -6775,7 +6774,7 @@
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <f>IF(NOT(A313=0),A313,A312)+1</f>
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>119</v>
@@ -6784,7 +6783,7 @@
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
         <f>IF(NOT(A314=0),A314,A313)+1</f>
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>89</v>
@@ -6793,7 +6792,7 @@
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <f>IF(NOT(A315=0),A315,A314)+1</f>
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>307</v>
@@ -6802,7 +6801,7 @@
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <f>IF(NOT(A316=0),A316,A315)+1</f>
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>77</v>
@@ -6811,7 +6810,7 @@
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <f>IF(NOT(A317=0),A317,A316)+1</f>
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>139</v>
@@ -6820,7 +6819,7 @@
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <f>IF(NOT(A318=0),A318,A317)+1</f>
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>183</v>
@@ -6829,7 +6828,7 @@
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <f>IF(NOT(A319=0),A319,A318)+1</f>
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>176</v>
@@ -6838,7 +6837,7 @@
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
         <f>IF(NOT(A320=0),A320,A319)+1</f>
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>145</v>
@@ -6847,7 +6846,7 @@
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <f>IF(NOT(A321=0),A321,A320)+1</f>
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>168</v>
@@ -6856,7 +6855,7 @@
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <f>IF(NOT(A322=0),A322,A321)+1</f>
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>4</v>
@@ -6865,7 +6864,7 @@
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <f>IF(NOT(A323=0),A323,A322)+1</f>
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>32</v>
@@ -6874,7 +6873,7 @@
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
         <f>IF(NOT(A324=0),A324,A323)+1</f>
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>270</v>
@@ -6883,7 +6882,7 @@
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <f>IF(NOT(A325=0),A325,A324)+1</f>
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>97</v>
@@ -6892,7 +6891,7 @@
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <f>IF(NOT(A326=0),A326,A325)+1</f>
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>81</v>
@@ -6901,7 +6900,7 @@
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
         <f>IF(NOT(A327=0),A327,A326)+1</f>
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>346</v>
@@ -6910,7 +6909,7 @@
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <f>IF(NOT(A328=0),A328,A327)+1</f>
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>72</v>
@@ -6919,7 +6918,7 @@
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
         <f>IF(NOT(A329=0),A329,A328)+1</f>
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>125</v>
@@ -6928,7 +6927,7 @@
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
         <f>IF(NOT(A330=0),A330,A329)+1</f>
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>125</v>
@@ -6937,7 +6936,7 @@
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <f>IF(NOT(A331=0),A331,A330)+1</f>
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>73</v>
@@ -6946,7 +6945,7 @@
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
         <f>IF(NOT(A332=0),A332,A331)+1</f>
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>84</v>
@@ -6955,7 +6954,7 @@
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
         <f>IF(NOT(A333=0),A333,A332)+1</f>
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>31</v>
@@ -6964,7 +6963,7 @@
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
         <f>IF(NOT(A334=0),A334,A333)+1</f>
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>244</v>
@@ -6973,7 +6972,7 @@
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
         <f>IF(NOT(A335=0),A335,A334)+1</f>
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>0</v>
@@ -6982,7 +6981,7 @@
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <f>IF(NOT(A336=0),A336,A335)+1</f>
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>348</v>
@@ -6991,7 +6990,7 @@
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
         <f>IF(NOT(A337=0),A337,A336)+1</f>
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>186</v>
@@ -7000,7 +6999,7 @@
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <f>IF(NOT(A338=0),A338,A337)+1</f>
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>340</v>
@@ -7009,7 +7008,7 @@
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <f>IF(NOT(A339=0),A339,A338)+1</f>
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>339</v>
@@ -7018,7 +7017,7 @@
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
         <f>IF(NOT(A340=0),A340,A339)+1</f>
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>315</v>
@@ -7027,7 +7026,7 @@
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
         <f>IF(NOT(A341=0),A341,A340)+1</f>
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>100</v>
@@ -7036,7 +7035,7 @@
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <f>IF(NOT(A342=0),A342,A341)+1</f>
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>58</v>
@@ -7045,7 +7044,7 @@
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
         <f>IF(NOT(A343=0),A343,A342)+1</f>
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>58</v>
@@ -7054,7 +7053,7 @@
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
         <f>IF(NOT(A344=0),A344,A343)+1</f>
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>127</v>
@@ -7063,7 +7062,7 @@
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
         <f>IF(NOT(A345=0),A345,A344)+1</f>
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>136</v>
@@ -7072,7 +7071,7 @@
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
         <f>IF(NOT(A346=0),A346,A345)+1</f>
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>312</v>
@@ -7081,7 +7080,7 @@
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
         <f>IF(NOT(A347=0),A347,A346)+1</f>
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>311</v>
@@ -7090,7 +7089,7 @@
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
         <f>IF(NOT(A348=0),A348,A347)+1</f>
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>311</v>
@@ -7099,7 +7098,7 @@
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
         <f>IF(NOT(A349=0),A349,A348)+1</f>
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>257</v>
@@ -7108,7 +7107,7 @@
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
         <f>IF(NOT(A350=0),A350,A349)+1</f>
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>19</v>
@@ -7117,7 +7116,7 @@
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
         <f>IF(NOT(A351=0),A351,A350)+1</f>
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>18</v>
@@ -7126,7 +7125,7 @@
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
         <f>IF(NOT(A352=0),A352,A351)+1</f>
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>323</v>
@@ -7135,7 +7134,7 @@
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
         <f>IF(NOT(A353=0),A353,A352)+1</f>
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>17</v>
@@ -7144,7 +7143,7 @@
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
         <f>IF(NOT(A354=0),A354,A353)+1</f>
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>303</v>
@@ -7153,7 +7152,7 @@
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
         <f>IF(NOT(A355=0),A355,A354)+1</f>
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>68</v>
@@ -7162,7 +7161,7 @@
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
         <f>IF(NOT(A356=0),A356,A355)+1</f>
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>281</v>
@@ -7171,7 +7170,7 @@
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <f>IF(NOT(A357=0),A357,A356)+1</f>
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>65</v>
@@ -7180,7 +7179,7 @@
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
         <f>IF(NOT(A358=0),A358,A357)+1</f>
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>9</v>
@@ -7189,7 +7188,7 @@
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
         <f>IF(NOT(A359=0),A359,A358)+1</f>
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>1</v>
@@ -7198,7 +7197,7 @@
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
         <f>IF(NOT(A360=0),A360,A359)+1</f>
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>25</v>
@@ -7207,7 +7206,7 @@
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
         <f>IF(NOT(A361=0),A361,A360)+1</f>
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>46</v>
@@ -7216,7 +7215,7 @@
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
         <f>IF(NOT(A362=0),A362,A361)+1</f>
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>59</v>
@@ -7225,7 +7224,7 @@
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
         <f>IF(NOT(A363=0),A363,A362)+1</f>
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>258</v>
@@ -7234,7 +7233,7 @@
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
         <f>IF(NOT(A364=0),A364,A363)+1</f>
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>120</v>
@@ -7243,7 +7242,7 @@
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
         <f>IF(NOT(A365=0),A365,A364)+1</f>
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>338</v>
@@ -7252,7 +7251,7 @@
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
         <f>IF(NOT(A366=0),A366,A365)+1</f>
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>158</v>
@@ -7261,7 +7260,7 @@
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
         <f>IF(NOT(A367=0),A367,A366)+1</f>
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>164</v>
@@ -7270,7 +7269,7 @@
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
         <f>IF(NOT(A368=0),A368,A367)+1</f>
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>213</v>
@@ -7279,7 +7278,7 @@
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
         <f>IF(NOT(A369=0),A369,A368)+1</f>
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>159</v>
@@ -7288,7 +7287,7 @@
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
         <f>IF(NOT(A370=0),A370,A369)+1</f>
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>199</v>
@@ -7297,7 +7296,7 @@
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
         <f>IF(NOT(A371=0),A371,A370)+1</f>
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>203</v>
@@ -7306,7 +7305,7 @@
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
         <f>IF(NOT(A372=0),A372,A371)+1</f>
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>314</v>
@@ -7315,7 +7314,7 @@
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
         <f>IF(NOT(A373=0),A373,A372)+1</f>
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>313</v>
@@ -7324,7 +7323,7 @@
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
         <f>IF(NOT(A374=0),A374,A373)+1</f>
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>48</v>
@@ -15260,13 +15259,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A125:B125"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A237:B237"/>
@@ -15283,6 +15275,13 @@
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ALGORITHMS_LIST.xlsx
+++ b/ALGORITHMS_LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0\Git\beginner-algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC7BDF5-F2FD-4320-B03B-76B85537309B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAA2598-DAE4-4732-B0D0-A662E204813F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F3AEC63A-3935-431B-9D94-C19A95072D1B}"/>
   </bookViews>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="D2" s="8">
         <f ca="1">RANDBETWEEN(1,A375)</f>
-        <v>79</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4335,268 +4335,266 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>1</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <f>IF(NOT(A43=0),A43,A42)+1</f>
-        <v>2</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <f>IF(NOT(A44=0),A44,A43)+1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <f>IF(NOT(A45=0),A45,A44)+1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>299</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <f>IF(NOT(A46=0),A46,A45)+1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <f>IF(NOT(A47=0),A47,A46)+1</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <f>IF(NOT(A48=0),A48,A47)+1</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <f>IF(NOT(A49=0),A49,A48)+1</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>342</v>
+        <v>298</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <f>IF(NOT(A50=0),A50,A49)+1</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>151</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <f>IF(NOT(A51=0),A51,A50)+1</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>162</v>
+        <v>342</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <f>IF(NOT(A52=0),A52,A51)+1</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>295</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <f>IF(NOT(A53=0),A53,A52)+1</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>335</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <f>IF(NOT(A54=0),A54,A53)+1</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <f>IF(NOT(A55=0),A55,A54)+1</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>201</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <f>IF(NOT(A56=0),A56,A55)+1</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <f>IF(NOT(A57=0),A57,A56)+1</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <f>IF(NOT(A58=0),A58,A57)+1</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <f>IF(NOT(A59=0),A59,A58)+1</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <f>IF(NOT(A60=0),A60,A59)+1</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <f>IF(NOT(A61=0),A61,A60)+1</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>332</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <f>IF(NOT(A62=0),A62,A61)+1</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <f>IF(NOT(A63=0),A63,A62)+1</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <f>IF(NOT(A64=0),A64,A63)+1</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <f>IF(NOT(A65=0),A65,A64)+1</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>160</v>
+        <v>343</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <f>IF(NOT(A66=0),A66,A65)+1</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>347</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <f>IF(NOT(A67=0),A67,A66)+1</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <f>IF(NOT(A68=0),A68,A67)+1</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <f>IF(NOT(A69=0),A69,A68)+1</f>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <f>IF(NOT(A70=0),A70,A69)+1</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>29</v>
+        <v>349</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <f>IF(NOT(A71=0),A71,A70)+1</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>85</v>
@@ -4605,718 +4603,718 @@
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <f>IF(NOT(A72=0),A72,A71)+1</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>286</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <f>IF(NOT(A73=0),A73,A72)+1</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>334</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <f>IF(NOT(A74=0),A74,A73)+1</f>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>88</v>
+        <v>286</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <f>IF(NOT(A75=0),A75,A74)+1</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>291</v>
+        <v>334</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <f>IF(NOT(A76=0),A76,A75)+1</f>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>344</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <f>IF(NOT(A77=0),A77,A76)+1</f>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>129</v>
+        <v>291</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <f>IF(NOT(A78=0),A78,A77)+1</f>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>26</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <f>IF(NOT(A79=0),A79,A78)+1</f>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>252</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <f>IF(NOT(A80=0),A80,A79)+1</f>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <f>IF(NOT(A81=0),A81,A80)+1</f>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <f>IF(NOT(A82=0),A82,A81)+1</f>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <f>IF(NOT(A83=0),A83,A82)+1</f>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <f>IF(NOT(A84=0),A84,A83)+1</f>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>331</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <f>IF(NOT(A85=0),A85,A84)+1</f>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>5</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <f>IF(NOT(A86=0),A86,A85)+1</f>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <f>IF(NOT(A87=0),A87,A86)+1</f>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <f>IF(NOT(A88=0),A88,A87)+1</f>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>121</v>
+        <v>294</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <f>IF(NOT(A89=0),A89,A88)+1</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>185</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <f>IF(NOT(A90=0),A90,A89)+1</f>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <f>IF(NOT(A91=0),A91,A90)+1</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <f>IF(NOT(A92=0),A92,A91)+1</f>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <f>IF(NOT(A93=0),A93,A92)+1</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <f>IF(NOT(A94=0),A94,A93)+1</f>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <f>IF(NOT(A95=0),A95,A94)+1</f>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>20</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <f>IF(NOT(A96=0),A96,A95)+1</f>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <f>IF(NOT(A97=0),A97,A96)+1</f>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>256</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <f>IF(NOT(A98=0),A98,A97)+1</f>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <f>IF(NOT(A99=0),A99,A98)+1</f>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <f>IF(NOT(A100=0),A100,A99)+1</f>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <f>IF(NOT(A101=0),A101,A100)+1</f>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <f>IF(NOT(A102=0),A102,A101)+1</f>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>306</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <f>IF(NOT(A103=0),A103,A102)+1</f>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>302</v>
+        <v>208</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <f>IF(NOT(A104=0),A104,A103)+1</f>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>114</v>
+        <v>306</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <f>IF(NOT(A105=0),A105,A104)+1</f>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>163</v>
+        <v>302</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <f>IF(NOT(A106=0),A106,A105)+1</f>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>305</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <f>IF(NOT(A107=0),A107,A106)+1</f>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <f>IF(NOT(A108=0),A108,A107)+1</f>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>111</v>
+        <v>305</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <f>IF(NOT(A109=0),A109,A108)+1</f>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>272</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <f>IF(NOT(A110=0),A110,A109)+1</f>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <f>IF(NOT(A111=0),A111,A110)+1</f>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <f>IF(NOT(A112=0),A112,A111)+1</f>
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>285</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <f>IF(NOT(A113=0),A113,A112)+1</f>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>351</v>
+        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <f>IF(NOT(A114=0),A114,A113)+1</f>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <f>IF(NOT(A115=0),A115,A114)+1</f>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <f>IF(NOT(A116=0),A116,A115)+1</f>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <f>IF(NOT(A117=0),A117,A116)+1</f>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>262</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <f>IF(NOT(A118=0),A118,A117)+1</f>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>207</v>
+        <v>337</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <f>IF(NOT(A119=0),A119,A118)+1</f>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <f>IF(NOT(A120=0),A120,A119)+1</f>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <f>IF(NOT(A121=0),A121,A120)+1</f>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <f>IF(NOT(A122=0),A122,A121)+1</f>
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>21</v>
+        <v>179</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <f>IF(NOT(A123=0),A123,A122)+1</f>
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>301</v>
+        <v>259</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <f>IF(NOT(A124=0),A124,A123)+1</f>
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>318</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <f>IF(NOT(A125=0),A125,A124)+1</f>
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <f>IF(NOT(A126=0),A126,A125)+1</f>
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <f>IF(NOT(A127=0),A127,A126)+1</f>
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>293</v>
+        <v>249</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <f>IF(NOT(A128=0),A128,A127)+1</f>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>80</v>
+        <v>296</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <f>IF(NOT(A129=0),A129,A128)+1</f>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <f>IF(NOT(A130=0),A130,A129)+1</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <f>IF(NOT(A131=0),A131,A130)+1</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>202</v>
+        <v>275</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <f>IF(NOT(A132=0),A132,A131)+1</f>
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <f>IF(NOT(A133=0),A133,A132)+1</f>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <f>IF(NOT(A134=0),A134,A133)+1</f>
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <f>IF(NOT(A135=0),A135,A134)+1</f>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>60</v>
+        <v>236</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <f>IF(NOT(A136=0),A136,A135)+1</f>
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <f>IF(NOT(A137=0),A137,A136)+1</f>
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <f>IF(NOT(A138=0),A138,A137)+1</f>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <f>IF(NOT(A139=0),A139,A138)+1</f>
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <f>IF(NOT(A140=0),A140,A139)+1</f>
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <f>IF(NOT(A141=0),A141,A140)+1</f>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>212</v>
+        <v>74</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <f>IF(NOT(A142=0),A142,A141)+1</f>
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>41</v>
+        <v>184</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <f>IF(NOT(A143=0),A143,A142)+1</f>
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>150</v>
+        <v>212</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <f>IF(NOT(A144=0),A144,A143)+1</f>
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>336</v>
+        <v>41</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <f>IF(NOT(A145=0),A145,A144)+1</f>
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>279</v>
+        <v>150</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <f>IF(NOT(A146=0),A146,A145)+1</f>
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>42</v>
+        <v>336</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <f>IF(NOT(A147=0),A147,A146)+1</f>
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>63</v>
+        <v>279</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <f>IF(NOT(A148=0),A148,A147)+1</f>
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>308</v>
+        <v>42</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <f>IF(NOT(A149=0),A149,A148)+1</f>
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <f>IF(NOT(A150=0),A150,A149)+1</f>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>40</v>
+        <v>308</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <f>IF(NOT(A151=0),A151,A150)+1</f>
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>64</v>
@@ -5325,169 +5323,169 @@
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <f>IF(NOT(A152=0),A152,A151)+1</f>
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>210</v>
+        <v>40</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <f>IF(NOT(A153=0),A153,A152)+1</f>
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>180</v>
+        <v>64</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <f>IF(NOT(A154=0),A154,A153)+1</f>
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>112</v>
+        <v>210</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <f>IF(NOT(A155=0),A155,A154)+1</f>
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>269</v>
+        <v>180</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <f>IF(NOT(A156=0),A156,A155)+1</f>
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <f>IF(NOT(A157=0),A157,A156)+1</f>
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <f>IF(NOT(A158=0),A158,A157)+1</f>
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>358</v>
+        <v>45</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <f>IF(NOT(A159=0),A159,A158)+1</f>
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <f>IF(NOT(A160=0),A160,A159)+1</f>
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>289</v>
+        <v>358</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <f>IF(NOT(A161=0),A161,A160)+1</f>
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <f>IF(NOT(A162=0),A162,A161)+1</f>
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>56</v>
+        <v>289</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <f>IF(NOT(A163=0),A163,A162)+1</f>
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <f>IF(NOT(A164=0),A164,A163)+1</f>
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <f>IF(NOT(A165=0),A165,A164)+1</f>
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>260</v>
+        <v>330</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <f>IF(NOT(A166=0),A166,A165)+1</f>
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <f>IF(NOT(A167=0),A167,A166)+1</f>
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>329</v>
+        <v>260</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <f>IF(NOT(A168=0),A168,A167)+1</f>
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <f>IF(NOT(A169=0),A169,A168)+1</f>
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>227</v>
+        <v>329</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <f>IF(NOT(A170=0),A170,A169)+1</f>
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>105</v>
@@ -5496,124 +5494,124 @@
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <f>IF(NOT(A171=0),A171,A170)+1</f>
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>328</v>
+        <v>227</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <f>IF(NOT(A172=0),A172,A171)+1</f>
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <f>IF(NOT(A173=0),A173,A172)+1</f>
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>255</v>
+        <v>328</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <f>IF(NOT(A174=0),A174,A173)+1</f>
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <f>IF(NOT(A175=0),A175,A174)+1</f>
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>327</v>
+        <v>255</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <f>IF(NOT(A176=0),A176,A175)+1</f>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>118</v>
+        <v>246</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <f>IF(NOT(A177=0),A177,A176)+1</f>
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>132</v>
+        <v>327</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <f>IF(NOT(A178=0),A178,A177)+1</f>
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <f>IF(NOT(A179=0),A179,A178)+1</f>
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>326</v>
+        <v>132</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <f>IF(NOT(A180=0),A180,A179)+1</f>
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>108</v>
+        <v>209</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <f>IF(NOT(A181=0),A181,A180)+1</f>
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <f>IF(NOT(A182=0),A182,A181)+1</f>
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <f>IF(NOT(A183=0),A183,A182)+1</f>
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>325</v>
+        <v>175</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <f>IF(NOT(A184=0),A184,A183)+1</f>
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>144</v>
@@ -5622,7 +5620,7 @@
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <f>IF(NOT(A185=0),A185,A184)+1</f>
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>131</v>
@@ -5631,7 +5629,7 @@
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <f>IF(NOT(A186=0),A186,A185)+1</f>
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>292</v>
@@ -5640,7 +5638,7 @@
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <f>IF(NOT(A187=0),A187,A186)+1</f>
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>91</v>
@@ -5649,7 +5647,7 @@
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <f>IF(NOT(A188=0),A188,A187)+1</f>
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>155</v>
@@ -5658,7 +5656,7 @@
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <f>IF(NOT(A189=0),A189,A188)+1</f>
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>278</v>
@@ -5667,7 +5665,7 @@
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <f>IF(NOT(A190=0),A190,A189)+1</f>
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>2</v>
@@ -5676,7 +5674,7 @@
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <f>IF(NOT(A191=0),A191,A190)+1</f>
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>104</v>
@@ -5685,7 +5683,7 @@
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <f>IF(NOT(A192=0),A192,A191)+1</f>
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>189</v>
@@ -5694,7 +5692,7 @@
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <f>IF(NOT(A193=0),A193,A192)+1</f>
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>214</v>
@@ -5703,7 +5701,7 @@
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <f>IF(NOT(A194=0),A194,A193)+1</f>
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>13</v>
@@ -5712,7 +5710,7 @@
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <f>IF(NOT(A195=0),A195,A194)+1</f>
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>78</v>
@@ -5721,7 +5719,7 @@
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <f>IF(NOT(A196=0),A196,A195)+1</f>
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>15</v>
@@ -5730,7 +5728,7 @@
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <f>IF(NOT(A197=0),A197,A196)+1</f>
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>254</v>
@@ -5739,7 +5737,7 @@
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <f>IF(NOT(A198=0),A198,A197)+1</f>
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>8</v>
@@ -5748,7 +5746,7 @@
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <f>IF(NOT(A199=0),A199,A198)+1</f>
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>24</v>
@@ -5757,7 +5755,7 @@
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <f>IF(NOT(A200=0),A200,A199)+1</f>
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>283</v>
@@ -5766,7 +5764,7 @@
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <f>IF(NOT(A201=0),A201,A200)+1</f>
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>288</v>
@@ -5775,7 +5773,7 @@
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <f>IF(NOT(A202=0),A202,A201)+1</f>
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>34</v>
@@ -5784,7 +5782,7 @@
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <f>IF(NOT(A203=0),A203,A202)+1</f>
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>274</v>
@@ -5793,7 +5791,7 @@
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <f>IF(NOT(A204=0),A204,A203)+1</f>
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>149</v>
@@ -5802,7 +5800,7 @@
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <f>IF(NOT(A205=0),A205,A204)+1</f>
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>274</v>
@@ -5811,7 +5809,7 @@
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <f>IF(NOT(A206=0),A206,A205)+1</f>
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>273</v>
@@ -5820,7 +5818,7 @@
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <f>IF(NOT(A207=0),A207,A206)+1</f>
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>273</v>
@@ -5829,7 +5827,7 @@
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <f>IF(NOT(A208=0),A208,A207)+1</f>
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>229</v>
@@ -5838,7 +5836,7 @@
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <f>IF(NOT(A209=0),A209,A208)+1</f>
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>170</v>
@@ -5847,7 +5845,7 @@
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <f>IF(NOT(A210=0),A210,A209)+1</f>
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>177</v>
@@ -5856,7 +5854,7 @@
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <f>IF(NOT(A211=0),A211,A210)+1</f>
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>174</v>
@@ -5865,7 +5863,7 @@
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <f>IF(NOT(A212=0),A212,A211)+1</f>
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>188</v>
@@ -5874,7 +5872,7 @@
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <f>IF(NOT(A213=0),A213,A212)+1</f>
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>30</v>
@@ -5883,7 +5881,7 @@
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <f>IF(NOT(A214=0),A214,A213)+1</f>
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>188</v>
@@ -5892,7 +5890,7 @@
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <f>IF(NOT(A215=0),A215,A214)+1</f>
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>353</v>
@@ -5901,7 +5899,7 @@
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <f>IF(NOT(A216=0),A216,A215)+1</f>
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>284</v>
@@ -5910,7 +5908,7 @@
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <f>IF(NOT(A217=0),A217,A216)+1</f>
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>287</v>
@@ -5919,7 +5917,7 @@
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <f>IF(NOT(A218=0),A218,A217)+1</f>
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>282</v>
@@ -5928,7 +5926,7 @@
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <f>IF(NOT(A219=0),A219,A218)+1</f>
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>116</v>
@@ -5937,7 +5935,7 @@
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <f>IF(NOT(A220=0),A220,A219)+1</f>
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>53</v>
@@ -5946,7 +5944,7 @@
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <f>IF(NOT(A221=0),A221,A220)+1</f>
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>33</v>
@@ -5955,7 +5953,7 @@
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <f>IF(NOT(A222=0),A222,A221)+1</f>
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>230</v>
@@ -5964,7 +5962,7 @@
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <f>IF(NOT(A223=0),A223,A222)+1</f>
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>133</v>
@@ -5973,7 +5971,7 @@
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <f>IF(NOT(A224=0),A224,A223)+1</f>
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>226</v>
@@ -5982,7 +5980,7 @@
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <f>IF(NOT(A225=0),A225,A224)+1</f>
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>35</v>
@@ -5991,7 +5989,7 @@
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <f>IF(NOT(A226=0),A226,A225)+1</f>
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>44</v>
@@ -6000,7 +5998,7 @@
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <f>IF(NOT(A227=0),A227,A226)+1</f>
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>135</v>
@@ -6009,7 +6007,7 @@
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <f>IF(NOT(A228=0),A228,A227)+1</f>
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>192</v>
@@ -6018,7 +6016,7 @@
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <f>IF(NOT(A229=0),A229,A228)+1</f>
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>228</v>
@@ -6027,7 +6025,7 @@
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <f>IF(NOT(A230=0),A230,A229)+1</f>
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>324</v>
@@ -6036,7 +6034,7 @@
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <f>IF(NOT(A231=0),A231,A230)+1</f>
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>233</v>
@@ -6045,7 +6043,7 @@
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <f>IF(NOT(A232=0),A232,A231)+1</f>
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>14</v>
@@ -6054,7 +6052,7 @@
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <f>IF(NOT(A233=0),A233,A232)+1</f>
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>200</v>
@@ -6063,7 +6061,7 @@
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <f>IF(NOT(A234=0),A234,A233)+1</f>
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>237</v>
@@ -6072,7 +6070,7 @@
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <f>IF(NOT(A235=0),A235,A234)+1</f>
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>240</v>
@@ -6081,7 +6079,7 @@
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <f>IF(NOT(A236=0),A236,A235)+1</f>
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>357</v>
@@ -6090,7 +6088,7 @@
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <f>IF(NOT(A237=0),A237,A236)+1</f>
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>245</v>
@@ -6099,7 +6097,7 @@
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <f>IF(NOT(A238=0),A238,A237)+1</f>
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>356</v>
@@ -6108,7 +6106,7 @@
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <f>IF(NOT(A239=0),A239,A238)+1</f>
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>190</v>
@@ -6117,7 +6115,7 @@
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <f>IF(NOT(A240=0),A240,A239)+1</f>
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>355</v>
@@ -6126,7 +6124,7 @@
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <f>IF(NOT(A241=0),A241,A240)+1</f>
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>190</v>
@@ -6135,7 +6133,7 @@
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <f>IF(NOT(A242=0),A242,A241)+1</f>
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>354</v>
@@ -6144,7 +6142,7 @@
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <f>IF(NOT(A243=0),A243,A242)+1</f>
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>217</v>
@@ -6153,7 +6151,7 @@
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <f>IF(NOT(A244=0),A244,A243)+1</f>
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>142</v>
@@ -6162,7 +6160,7 @@
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <f>IF(NOT(A245=0),A245,A244)+1</f>
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>322</v>
@@ -6171,7 +6169,7 @@
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <f>IF(NOT(A246=0),A246,A245)+1</f>
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>321</v>
@@ -6180,7 +6178,7 @@
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <f>IF(NOT(A247=0),A247,A246)+1</f>
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>320</v>
@@ -6189,7 +6187,7 @@
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <f>IF(NOT(A248=0),A248,A247)+1</f>
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>319</v>
@@ -6198,7 +6196,7 @@
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <f>IF(NOT(A249=0),A249,A248)+1</f>
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>198</v>
@@ -6207,7 +6205,7 @@
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <f>IF(NOT(A250=0),A250,A249)+1</f>
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>50</v>
@@ -6216,7 +6214,7 @@
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <f>IF(NOT(A251=0),A251,A250)+1</f>
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>128</v>
@@ -6225,7 +6223,7 @@
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <f>IF(NOT(A252=0),A252,A250)+1</f>
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>66</v>
@@ -6234,7 +6232,7 @@
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <f>IF(NOT(A253=0),A253,A252)+1</f>
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>49</v>
@@ -6243,7 +6241,7 @@
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <f>IF(NOT(A254=0),A254,A253)+1</f>
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>156</v>
@@ -6252,7 +6250,7 @@
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <f>IF(NOT(A255=0),A255,A254)+1</f>
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>138</v>
@@ -6261,7 +6259,7 @@
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <f>IF(NOT(A256=0),A256,A255)+1</f>
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>350</v>
@@ -6270,7 +6268,7 @@
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <f>IF(NOT(A257=0),A257,A256)+1</f>
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>218</v>
@@ -6279,7 +6277,7 @@
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <f>IF(NOT(A258=0),A258,A257)+1</f>
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>205</v>
@@ -6288,7 +6286,7 @@
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <f>IF(NOT(A259=0),A259,A258)+1</f>
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>223</v>
@@ -6297,7 +6295,7 @@
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <f>IF(NOT(A260=0),A260,A259)+1</f>
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>92</v>
@@ -6306,7 +6304,7 @@
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <f>IF(NOT(A261=0),A261,A260)+1</f>
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>92</v>
@@ -6315,7 +6313,7 @@
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <f>IF(NOT(A262=0),A262,A261)+1</f>
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>219</v>
@@ -6324,7 +6322,7 @@
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <f>IF(NOT(A263=0),A263,A262)+1</f>
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>140</v>
@@ -6333,7 +6331,7 @@
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <f>IF(NOT(A264=0),A264,A263)+1</f>
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>197</v>
@@ -6342,7 +6340,7 @@
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <f>IF(NOT(A265=0),A265,A264)+1</f>
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>141</v>
@@ -6351,7 +6349,7 @@
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <f>IF(NOT(A266=0),A266,A265)+1</f>
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>187</v>
@@ -6360,7 +6358,7 @@
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <f>IF(NOT(A267=0),A267,A266)+1</f>
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>352</v>
@@ -6369,7 +6367,7 @@
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <f>IF(NOT(A268=0),A268,A267)+1</f>
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>341</v>
@@ -6378,7 +6376,7 @@
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <f>IF(NOT(A269=0),A269,A268)+1</f>
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>172</v>
@@ -6387,7 +6385,7 @@
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <f>IF(NOT(A270=0),A270,A269)+1</f>
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>62</v>
@@ -6396,7 +6394,7 @@
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <f>IF(NOT(A271=0),A271,A270)+1</f>
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>62</v>
@@ -6405,7 +6403,7 @@
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <f>IF(NOT(A272=0),A272,A271)+1</f>
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>61</v>
@@ -6414,7 +6412,7 @@
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <f>IF(NOT(A273=0),A273,A272)+1</f>
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>276</v>
@@ -6423,7 +6421,7 @@
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <f>IF(NOT(A274=0),A274,A273)+1</f>
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>253</v>
@@ -6432,7 +6430,7 @@
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <f>IF(NOT(A275=0),A275,A274)+1</f>
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>39</v>
@@ -6441,7 +6439,7 @@
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <f>IF(NOT(A276=0),A276,A275)+1</f>
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>55</v>
@@ -6450,7 +6448,7 @@
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <f>IF(NOT(A277=0),A277,A276)+1</f>
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>43</v>
@@ -6459,7 +6457,7 @@
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <f>IF(NOT(A278=0),A278,A277)+1</f>
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>134</v>
@@ -6468,7 +6466,7 @@
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <f>IF(NOT(A279=0),A279,A278)+1</f>
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>191</v>
@@ -6477,7 +6475,7 @@
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <f>IF(NOT(A280=0),A280,A279)+1</f>
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>87</v>
@@ -6486,7 +6484,7 @@
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <f>IF(NOT(A281=0),A281,A280)+1</f>
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>86</v>
@@ -6495,7 +6493,7 @@
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <f>IF(NOT(A282=0),A282,A281)+1</f>
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>232</v>
@@ -6504,7 +6502,7 @@
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <f>IF(NOT(A283=0),A283,A282)+1</f>
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>333</v>
@@ -6513,7 +6511,7 @@
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <f>IF(NOT(A284=0),A284,A283)+1</f>
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>178</v>
@@ -6522,7 +6520,7 @@
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <f>IF(NOT(A285=0),A285,A284)+1</f>
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>247</v>
@@ -6531,7 +6529,7 @@
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <f>IF(NOT(A286=0),A286,A285)+1</f>
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>242</v>
@@ -6540,7 +6538,7 @@
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <f>IF(NOT(A287=0),A287,A286)+1</f>
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>38</v>
@@ -6549,7 +6547,7 @@
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <f>IF(NOT(A288=0),A288,A287)+1</f>
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>231</v>
@@ -6558,7 +6556,7 @@
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <f>IF(NOT(A289=0),A289,A288)+1</f>
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>126</v>
@@ -6567,7 +6565,7 @@
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <f>IF(NOT(A290=0),A290,A289)+1</f>
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>143</v>
@@ -6576,7 +6574,7 @@
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <f>IF(NOT(A291=0),A291,A290)+1</f>
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>251</v>
@@ -6585,7 +6583,7 @@
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <f>IF(NOT(A292=0),A292,A291)+1</f>
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>234</v>
@@ -6594,7 +6592,7 @@
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <f>IF(NOT(A293=0),A293,A292)+1</f>
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>215</v>
@@ -6603,7 +6601,7 @@
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <f>IF(NOT(A294=0),A294,A293)+1</f>
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>171</v>
@@ -6612,7 +6610,7 @@
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <f>IF(NOT(A295=0),A295,A294)+1</f>
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>238</v>
@@ -6621,7 +6619,7 @@
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <f>IF(NOT(A296=0),A296,A295)+1</f>
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>107</v>
@@ -6630,7 +6628,7 @@
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <f>IF(NOT(A297=0),A297,A296)+1</f>
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>239</v>
@@ -6639,7 +6637,7 @@
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <f>IF(NOT(A298=0),A298,A297)+1</f>
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>113</v>
@@ -6648,7 +6646,7 @@
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <f>IF(NOT(A299=0),A299,A298)+1</f>
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>69</v>
@@ -6657,7 +6655,7 @@
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <f>IF(NOT(A300=0),A300,A299)+1</f>
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>69</v>
@@ -6666,7 +6664,7 @@
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <f>IF(NOT(A301=0),A301,A300)+1</f>
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>93</v>
@@ -6675,7 +6673,7 @@
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <f>IF(NOT(A302=0),A302,A301)+1</f>
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>109</v>
@@ -6684,7 +6682,7 @@
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <f>IF(NOT(A303=0),A303,A302)+1</f>
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>106</v>
@@ -6693,7 +6691,7 @@
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <f>IF(NOT(A304=0),A304,A303)+1</f>
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>28</v>
@@ -6702,7 +6700,7 @@
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <f>IF(NOT(A305=0),A305,A304)+1</f>
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>7</v>
@@ -6711,7 +6709,7 @@
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
         <f>IF(NOT(A306=0),A306,A305)+1</f>
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>27</v>
@@ -6720,7 +6718,7 @@
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <f>IF(NOT(A307=0),A307,A306)+1</f>
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>47</v>
@@ -6729,7 +6727,7 @@
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <f>IF(NOT(A308=0),A308,A307)+1</f>
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>152</v>
@@ -6738,7 +6736,7 @@
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <f>IF(NOT(A309=0),A309,A308)+1</f>
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>195</v>
@@ -6747,7 +6745,7 @@
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <f>IF(NOT(A310=0),A310,A309)+1</f>
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>102</v>
@@ -6756,7 +6754,7 @@
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <f>IF(NOT(A311=0),A311,A310)+1</f>
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>83</v>
@@ -6765,7 +6763,7 @@
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <f>IF(NOT(A312=0),A312,A311)+1</f>
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>94</v>
@@ -6774,7 +6772,7 @@
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <f>IF(NOT(A313=0),A313,A312)+1</f>
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>119</v>
@@ -6783,7 +6781,7 @@
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
         <f>IF(NOT(A314=0),A314,A313)+1</f>
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>89</v>
@@ -6792,7 +6790,7 @@
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <f>IF(NOT(A315=0),A315,A314)+1</f>
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>307</v>
@@ -6801,7 +6799,7 @@
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <f>IF(NOT(A316=0),A316,A315)+1</f>
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>77</v>
@@ -6810,7 +6808,7 @@
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <f>IF(NOT(A317=0),A317,A316)+1</f>
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>139</v>
@@ -6819,7 +6817,7 @@
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <f>IF(NOT(A318=0),A318,A317)+1</f>
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>183</v>
@@ -6828,7 +6826,7 @@
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <f>IF(NOT(A319=0),A319,A318)+1</f>
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>176</v>
@@ -6837,7 +6835,7 @@
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
         <f>IF(NOT(A320=0),A320,A319)+1</f>
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>145</v>
@@ -6846,7 +6844,7 @@
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <f>IF(NOT(A321=0),A321,A320)+1</f>
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>168</v>
@@ -6855,7 +6853,7 @@
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <f>IF(NOT(A322=0),A322,A321)+1</f>
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>4</v>
@@ -6864,7 +6862,7 @@
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <f>IF(NOT(A323=0),A323,A322)+1</f>
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>32</v>
@@ -6873,7 +6871,7 @@
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
         <f>IF(NOT(A324=0),A324,A323)+1</f>
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>270</v>
@@ -6882,7 +6880,7 @@
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <f>IF(NOT(A325=0),A325,A324)+1</f>
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>97</v>
@@ -6891,7 +6889,7 @@
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <f>IF(NOT(A326=0),A326,A325)+1</f>
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>81</v>
@@ -6900,7 +6898,7 @@
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
         <f>IF(NOT(A327=0),A327,A326)+1</f>
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>346</v>
@@ -6909,7 +6907,7 @@
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <f>IF(NOT(A328=0),A328,A327)+1</f>
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>72</v>
@@ -6918,7 +6916,7 @@
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
         <f>IF(NOT(A329=0),A329,A328)+1</f>
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>125</v>
@@ -6927,7 +6925,7 @@
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
         <f>IF(NOT(A330=0),A330,A329)+1</f>
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>125</v>
@@ -6936,7 +6934,7 @@
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <f>IF(NOT(A331=0),A331,A330)+1</f>
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>73</v>
@@ -6945,7 +6943,7 @@
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
         <f>IF(NOT(A332=0),A332,A331)+1</f>
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>84</v>
@@ -6954,7 +6952,7 @@
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
         <f>IF(NOT(A333=0),A333,A332)+1</f>
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>31</v>
@@ -6963,7 +6961,7 @@
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
         <f>IF(NOT(A334=0),A334,A333)+1</f>
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>244</v>
@@ -6972,7 +6970,7 @@
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
         <f>IF(NOT(A335=0),A335,A334)+1</f>
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>0</v>
@@ -6981,7 +6979,7 @@
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <f>IF(NOT(A336=0),A336,A335)+1</f>
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>348</v>
@@ -6990,7 +6988,7 @@
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
         <f>IF(NOT(A337=0),A337,A336)+1</f>
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>186</v>
@@ -6999,7 +6997,7 @@
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <f>IF(NOT(A338=0),A338,A337)+1</f>
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>340</v>
@@ -7008,7 +7006,7 @@
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <f>IF(NOT(A339=0),A339,A338)+1</f>
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>339</v>
@@ -7017,7 +7015,7 @@
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
         <f>IF(NOT(A340=0),A340,A339)+1</f>
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>315</v>
@@ -7026,7 +7024,7 @@
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
         <f>IF(NOT(A341=0),A341,A340)+1</f>
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>100</v>
@@ -7035,7 +7033,7 @@
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <f>IF(NOT(A342=0),A342,A341)+1</f>
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>58</v>
@@ -7044,7 +7042,7 @@
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
         <f>IF(NOT(A343=0),A343,A342)+1</f>
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>58</v>
@@ -7053,7 +7051,7 @@
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
         <f>IF(NOT(A344=0),A344,A343)+1</f>
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>127</v>
@@ -7062,7 +7060,7 @@
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
         <f>IF(NOT(A345=0),A345,A344)+1</f>
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>136</v>
@@ -7071,7 +7069,7 @@
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
         <f>IF(NOT(A346=0),A346,A345)+1</f>
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>312</v>
@@ -7080,7 +7078,7 @@
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
         <f>IF(NOT(A347=0),A347,A346)+1</f>
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>311</v>
@@ -7089,7 +7087,7 @@
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
         <f>IF(NOT(A348=0),A348,A347)+1</f>
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>311</v>
@@ -7098,7 +7096,7 @@
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
         <f>IF(NOT(A349=0),A349,A348)+1</f>
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>257</v>
@@ -7107,7 +7105,7 @@
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
         <f>IF(NOT(A350=0),A350,A349)+1</f>
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>19</v>
@@ -7116,7 +7114,7 @@
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
         <f>IF(NOT(A351=0),A351,A350)+1</f>
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>18</v>
@@ -7125,7 +7123,7 @@
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
         <f>IF(NOT(A352=0),A352,A351)+1</f>
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>323</v>
@@ -7134,7 +7132,7 @@
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
         <f>IF(NOT(A353=0),A353,A352)+1</f>
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>17</v>
@@ -7143,7 +7141,7 @@
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
         <f>IF(NOT(A354=0),A354,A353)+1</f>
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>303</v>
@@ -7152,7 +7150,7 @@
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
         <f>IF(NOT(A355=0),A355,A354)+1</f>
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>68</v>
@@ -7161,7 +7159,7 @@
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
         <f>IF(NOT(A356=0),A356,A355)+1</f>
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>281</v>
@@ -7170,7 +7168,7 @@
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <f>IF(NOT(A357=0),A357,A356)+1</f>
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>65</v>
@@ -7179,7 +7177,7 @@
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
         <f>IF(NOT(A358=0),A358,A357)+1</f>
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>9</v>
@@ -7188,7 +7186,7 @@
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
         <f>IF(NOT(A359=0),A359,A358)+1</f>
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>1</v>
@@ -7197,7 +7195,7 @@
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
         <f>IF(NOT(A360=0),A360,A359)+1</f>
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>25</v>
@@ -7206,7 +7204,7 @@
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
         <f>IF(NOT(A361=0),A361,A360)+1</f>
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>46</v>
@@ -7215,7 +7213,7 @@
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
         <f>IF(NOT(A362=0),A362,A361)+1</f>
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>59</v>
@@ -7224,7 +7222,7 @@
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
         <f>IF(NOT(A363=0),A363,A362)+1</f>
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>258</v>
@@ -7233,7 +7231,7 @@
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
         <f>IF(NOT(A364=0),A364,A363)+1</f>
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>120</v>
@@ -7242,7 +7240,7 @@
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
         <f>IF(NOT(A365=0),A365,A364)+1</f>
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>338</v>
@@ -7251,7 +7249,7 @@
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
         <f>IF(NOT(A366=0),A366,A365)+1</f>
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>158</v>
@@ -7260,7 +7258,7 @@
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
         <f>IF(NOT(A367=0),A367,A366)+1</f>
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>164</v>
@@ -7269,7 +7267,7 @@
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
         <f>IF(NOT(A368=0),A368,A367)+1</f>
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>213</v>
@@ -7278,7 +7276,7 @@
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
         <f>IF(NOT(A369=0),A369,A368)+1</f>
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>159</v>
@@ -7287,7 +7285,7 @@
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
         <f>IF(NOT(A370=0),A370,A369)+1</f>
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>199</v>
@@ -7296,7 +7294,7 @@
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
         <f>IF(NOT(A371=0),A371,A370)+1</f>
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>203</v>
@@ -7305,7 +7303,7 @@
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
         <f>IF(NOT(A372=0),A372,A371)+1</f>
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>314</v>
@@ -7314,7 +7312,7 @@
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
         <f>IF(NOT(A373=0),A373,A372)+1</f>
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>313</v>
@@ -7323,7 +7321,7 @@
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
         <f>IF(NOT(A374=0),A374,A373)+1</f>
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>48</v>
@@ -15259,6 +15257,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A237:B237"/>
@@ -15275,13 +15280,6 @@
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A125:B125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ALGORITHMS_LIST.xlsx
+++ b/ALGORITHMS_LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0\Git\beginner-algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAA2598-DAE4-4732-B0D0-A662E204813F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EAD8CF-0ACA-42CD-AE78-B12A5ABAA105}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F3AEC63A-3935-431B-9D94-C19A95072D1B}"/>
   </bookViews>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="D2" s="8">
         <f ca="1">RANDBETWEEN(1,A375)</f>
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4351,1474 +4351,1473 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>1</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <f>IF(NOT(A45=0),A45,A44)+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <f>IF(NOT(A46=0),A46,A45)+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <f>IF(NOT(A47=0),A47,A46)+1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>299</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <f>IF(NOT(A48=0),A48,A47)+1</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>137</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <f>IF(NOT(A49=0),A49,A48)+1</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>298</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <f>IF(NOT(A50=0),A50,A49)+1</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>216</v>
+        <v>298</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <f>IF(NOT(A51=0),A51,A50)+1</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>342</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <f>IF(NOT(A52=0),A52,A51)+1</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>151</v>
+        <v>342</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <f>IF(NOT(A53=0),A53,A52)+1</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <f>IF(NOT(A54=0),A54,A53)+1</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>295</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <f>IF(NOT(A55=0),A55,A54)+1</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <f>IF(NOT(A56=0),A56,A55)+1</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <f>IF(NOT(A57=0),A57,A56)+1</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>201</v>
+        <v>310</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <f>IF(NOT(A58=0),A58,A57)+1</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <f>IF(NOT(A59=0),A59,A58)+1</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <f>IF(NOT(A60=0),A60,A59)+1</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <f>IF(NOT(A61=0),A61,A60)+1</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>220</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <f>IF(NOT(A62=0),A62,A61)+1</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <f>IF(NOT(A63=0),A63,A62)+1</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>332</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <f>IF(NOT(A64=0),A64,A63)+1</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>161</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <f>IF(NOT(A65=0),A65,A64)+1</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>343</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <f>IF(NOT(A66=0),A66,A65)+1</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>181</v>
+        <v>343</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <f>IF(NOT(A67=0),A67,A66)+1</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <f>IF(NOT(A68=0),A68,A67)+1</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>347</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <f>IF(NOT(A69=0),A69,A68)+1</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>167</v>
+        <v>347</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <f>IF(NOT(A70=0),A70,A69)+1</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>349</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <f>IF(NOT(A71=0),A71,A70)+1</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>85</v>
+        <v>349</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <f>IF(NOT(A72=0),A72,A71)+1</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <f>IF(NOT(A73=0),A73,A72)+1</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <f>IF(NOT(A74=0),A74,A73)+1</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>286</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <f>IF(NOT(A75=0),A75,A74)+1</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>334</v>
+        <v>286</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <f>IF(NOT(A76=0),A76,A75)+1</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>88</v>
+        <v>334</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <f>IF(NOT(A77=0),A77,A76)+1</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>291</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <f>IF(NOT(A78=0),A78,A77)+1</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>344</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <f>IF(NOT(A79=0),A79,A78)+1</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>129</v>
+        <v>344</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <f>IF(NOT(A80=0),A80,A79)+1</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <f>IF(NOT(A81=0),A81,A80)+1</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>252</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <f>IF(NOT(A82=0),A82,A81)+1</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>117</v>
+        <v>252</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <f>IF(NOT(A83=0),A83,A82)+1</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>241</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <f>IF(NOT(A84=0),A84,A83)+1</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>16</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <f>IF(NOT(A85=0),A85,A84)+1</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>211</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <f>IF(NOT(A86=0),A86,A85)+1</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>331</v>
+        <v>211</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <f>IF(NOT(A87=0),A87,A86)+1</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>5</v>
+        <v>331</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <f>IF(NOT(A88=0),A88,A87)+1</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>294</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <f>IF(NOT(A89=0),A89,A88)+1</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>54</v>
+        <v>294</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <f>IF(NOT(A90=0),A90,A89)+1</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <f>IF(NOT(A91=0),A91,A90)+1</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <f>IF(NOT(A92=0),A92,A91)+1</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <f>IF(NOT(A93=0),A93,A92)+1</f>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>193</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <f>IF(NOT(A94=0),A94,A93)+1</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>36</v>
+        <v>193</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <f>IF(NOT(A95=0),A95,A94)+1</f>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>224</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <f>IF(NOT(A96=0),A96,A95)+1</f>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>76</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <f>IF(NOT(A97=0),A97,A96)+1</f>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <f>IF(NOT(A98=0),A98,A97)+1</f>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <f>IF(NOT(A99=0),A99,A98)+1</f>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>256</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <f>IF(NOT(A100=0),A100,A99)+1</f>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <f>IF(NOT(A101=0),A101,A100)+1</f>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>250</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <f>IF(NOT(A102=0),A102,A101)+1</f>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <f>IF(NOT(A103=0),A103,A102)+1</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>208</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <f>IF(NOT(A104=0),A104,A103)+1</f>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>306</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <f>IF(NOT(A105=0),A105,A104)+1</f>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <f>IF(NOT(A106=0),A106,A105)+1</f>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>114</v>
+        <v>302</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <f>IF(NOT(A107=0),A107,A106)+1</f>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <f>IF(NOT(A108=0),A108,A107)+1</f>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>305</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <f>IF(NOT(A109=0),A109,A108)+1</f>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>90</v>
+        <v>305</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <f>IF(NOT(A110=0),A110,A109)+1</f>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <f>IF(NOT(A111=0),A111,A110)+1</f>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>272</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <f>IF(NOT(A112=0),A112,A111)+1</f>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>12</v>
+        <v>272</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <f>IF(NOT(A113=0),A113,A112)+1</f>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <f>IF(NOT(A114=0),A114,A113)+1</f>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <f>IF(NOT(A115=0),A115,A114)+1</f>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>351</v>
+        <v>285</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <f>IF(NOT(A116=0),A116,A115)+1</f>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <f>IF(NOT(A117=0),A117,A116)+1</f>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>148</v>
+        <v>309</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <f>IF(NOT(A118=0),A118,A117)+1</f>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>337</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <f>IF(NOT(A119=0),A119,A118)+1</f>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>262</v>
+        <v>337</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <f>IF(NOT(A120=0),A120,A119)+1</f>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>207</v>
+        <v>262</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <f>IF(NOT(A121=0),A121,A120)+1</f>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>300</v>
+        <v>207</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <f>IF(NOT(A122=0),A122,A121)+1</f>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>179</v>
+        <v>300</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <f>IF(NOT(A123=0),A123,A122)+1</f>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>259</v>
+        <v>179</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <f>IF(NOT(A124=0),A124,A123)+1</f>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>21</v>
+        <v>259</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <f>IF(NOT(A125=0),A125,A124)+1</f>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>301</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <f>IF(NOT(A126=0),A126,A125)+1</f>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <f>IF(NOT(A127=0),A127,A126)+1</f>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>249</v>
+        <v>318</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <f>IF(NOT(A128=0),A128,A127)+1</f>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <f>IF(NOT(A129=0),A129,A128)+1</f>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <f>IF(NOT(A130=0),A130,A129)+1</f>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>80</v>
+        <v>293</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <f>IF(NOT(A131=0),A131,A130)+1</f>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>275</v>
+        <v>80</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <f>IF(NOT(A132=0),A132,A131)+1</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>166</v>
+        <v>275</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <f>IF(NOT(A133=0),A133,A132)+1</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <f>IF(NOT(A134=0),A134,A133)+1</f>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <f>IF(NOT(A135=0),A135,A134)+1</f>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <f>IF(NOT(A136=0),A136,A135)+1</f>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <f>IF(NOT(A137=0),A137,A136)+1</f>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>60</v>
+        <v>194</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <f>IF(NOT(A138=0),A138,A137)+1</f>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>243</v>
+        <v>60</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <f>IF(NOT(A139=0),A139,A138)+1</f>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>130</v>
+        <v>243</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <f>IF(NOT(A140=0),A140,A139)+1</f>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>271</v>
+        <v>130</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <f>IF(NOT(A141=0),A141,A140)+1</f>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>74</v>
+        <v>271</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <f>IF(NOT(A142=0),A142,A141)+1</f>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>184</v>
+        <v>74</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <f>IF(NOT(A143=0),A143,A142)+1</f>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <f>IF(NOT(A144=0),A144,A143)+1</f>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>41</v>
+        <v>212</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <f>IF(NOT(A145=0),A145,A144)+1</f>
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <f>IF(NOT(A146=0),A146,A145)+1</f>
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>336</v>
+        <v>150</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <f>IF(NOT(A147=0),A147,A146)+1</f>
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>279</v>
+        <v>336</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <f>IF(NOT(A148=0),A148,A147)+1</f>
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>42</v>
+        <v>279</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <f>IF(NOT(A149=0),A149,A148)+1</f>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <f>IF(NOT(A150=0),A150,A149)+1</f>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>308</v>
+        <v>63</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <f>IF(NOT(A151=0),A151,A150)+1</f>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>64</v>
+        <v>308</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <f>IF(NOT(A152=0),A152,A151)+1</f>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <f>IF(NOT(A153=0),A153,A152)+1</f>
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <f>IF(NOT(A154=0),A154,A153)+1</f>
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>210</v>
+        <v>64</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <f>IF(NOT(A155=0),A155,A154)+1</f>
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <f>IF(NOT(A156=0),A156,A155)+1</f>
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <f>IF(NOT(A157=0),A157,A156)+1</f>
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>269</v>
+        <v>112</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <f>IF(NOT(A158=0),A158,A157)+1</f>
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>45</v>
+        <v>269</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <f>IF(NOT(A159=0),A159,A158)+1</f>
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>267</v>
+        <v>45</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <f>IF(NOT(A160=0),A160,A159)+1</f>
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>358</v>
+        <v>267</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <f>IF(NOT(A161=0),A161,A160)+1</f>
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>268</v>
+        <v>358</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <f>IF(NOT(A162=0),A162,A161)+1</f>
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <f>IF(NOT(A163=0),A163,A162)+1</f>
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <f>IF(NOT(A164=0),A164,A163)+1</f>
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>56</v>
+        <v>297</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <f>IF(NOT(A165=0),A165,A164)+1</f>
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>330</v>
+        <v>56</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <f>IF(NOT(A166=0),A166,A165)+1</f>
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>82</v>
+        <v>330</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <f>IF(NOT(A167=0),A167,A166)+1</f>
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>260</v>
+        <v>82</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <f>IF(NOT(A168=0),A168,A167)+1</f>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>51</v>
+        <v>260</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <f>IF(NOT(A169=0),A169,A168)+1</f>
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>329</v>
+        <v>51</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <f>IF(NOT(A170=0),A170,A169)+1</f>
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>105</v>
+        <v>329</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <f>IF(NOT(A171=0),A171,A170)+1</f>
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>227</v>
+        <v>105</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <f>IF(NOT(A172=0),A172,A171)+1</f>
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>105</v>
+        <v>227</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <f>IF(NOT(A173=0),A173,A172)+1</f>
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>328</v>
+        <v>105</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <f>IF(NOT(A174=0),A174,A173)+1</f>
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>204</v>
+        <v>328</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <f>IF(NOT(A175=0),A175,A174)+1</f>
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <f>IF(NOT(A176=0),A176,A175)+1</f>
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <f>IF(NOT(A177=0),A177,A176)+1</f>
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>327</v>
+        <v>246</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <f>IF(NOT(A178=0),A178,A177)+1</f>
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>118</v>
+        <v>327</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <f>IF(NOT(A179=0),A179,A178)+1</f>
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <f>IF(NOT(A180=0),A180,A179)+1</f>
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>209</v>
+        <v>132</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <f>IF(NOT(A181=0),A181,A180)+1</f>
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>108</v>
+        <v>209</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <f>IF(NOT(A182=0),A182,A181)+1</f>
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <f>IF(NOT(A183=0),A183,A182)+1</f>
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <f>IF(NOT(A184=0),A184,A183)+1</f>
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <f>IF(NOT(A185=0),A185,A184)+1</f>
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <f>IF(NOT(A186=0),A186,A185)+1</f>
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>292</v>
+        <v>131</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <f>IF(NOT(A187=0),A187,A186)+1</f>
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>91</v>
+        <v>292</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <f>IF(NOT(A188=0),A188,A187)+1</f>
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <f>IF(NOT(A189=0),A189,A188)+1</f>
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>278</v>
+        <v>155</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <f>IF(NOT(A190=0),A190,A189)+1</f>
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>2</v>
+        <v>278</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <f>IF(NOT(A191=0),A191,A190)+1</f>
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>104</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <f>IF(NOT(A192=0),A192,A191)+1</f>
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <f>IF(NOT(A193=0),A193,A192)+1</f>
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <f>IF(NOT(A194=0),A194,A193)+1</f>
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>13</v>
+        <v>214</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <f>IF(NOT(A195=0),A195,A194)+1</f>
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <f>IF(NOT(A196=0),A196,A195)+1</f>
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <f>IF(NOT(A197=0),A197,A196)+1</f>
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>254</v>
+        <v>15</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <f>IF(NOT(A198=0),A198,A197)+1</f>
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>8</v>
+        <v>254</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <f>IF(NOT(A199=0),A199,A198)+1</f>
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <f>IF(NOT(A200=0),A200,A199)+1</f>
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>283</v>
+        <v>24</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <f>IF(NOT(A201=0),A201,A200)+1</f>
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <f>IF(NOT(A202=0),A202,A201)+1</f>
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>34</v>
+        <v>288</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <f>IF(NOT(A203=0),A203,A202)+1</f>
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>274</v>
+        <v>34</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <f>IF(NOT(A204=0),A204,A203)+1</f>
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>149</v>
+        <v>274</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <f>IF(NOT(A205=0),A205,A204)+1</f>
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>274</v>
+        <v>149</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <f>IF(NOT(A206=0),A206,A205)+1</f>
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <f>IF(NOT(A207=0),A207,A206)+1</f>
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>273</v>
@@ -5827,484 +5826,484 @@
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <f>IF(NOT(A208=0),A208,A207)+1</f>
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>229</v>
+        <v>273</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <f>IF(NOT(A209=0),A209,A208)+1</f>
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>170</v>
+        <v>229</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <f>IF(NOT(A210=0),A210,A209)+1</f>
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <f>IF(NOT(A211=0),A211,A210)+1</f>
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <f>IF(NOT(A212=0),A212,A211)+1</f>
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <f>IF(NOT(A213=0),A213,A212)+1</f>
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>30</v>
+        <v>188</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <f>IF(NOT(A214=0),A214,A213)+1</f>
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>188</v>
+        <v>30</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <f>IF(NOT(A215=0),A215,A214)+1</f>
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>353</v>
+        <v>188</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <f>IF(NOT(A216=0),A216,A215)+1</f>
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>284</v>
+        <v>353</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <f>IF(NOT(A217=0),A217,A216)+1</f>
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <f>IF(NOT(A218=0),A218,A217)+1</f>
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <f>IF(NOT(A219=0),A219,A218)+1</f>
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>116</v>
+        <v>282</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <f>IF(NOT(A220=0),A220,A219)+1</f>
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <f>IF(NOT(A221=0),A221,A220)+1</f>
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <f>IF(NOT(A222=0),A222,A221)+1</f>
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>230</v>
+        <v>33</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <f>IF(NOT(A223=0),A223,A222)+1</f>
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>133</v>
+        <v>230</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <f>IF(NOT(A224=0),A224,A223)+1</f>
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>226</v>
+        <v>133</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <f>IF(NOT(A225=0),A225,A224)+1</f>
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>35</v>
+        <v>226</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <f>IF(NOT(A226=0),A226,A225)+1</f>
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <f>IF(NOT(A227=0),A227,A226)+1</f>
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <f>IF(NOT(A228=0),A228,A227)+1</f>
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <f>IF(NOT(A229=0),A229,A228)+1</f>
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <f>IF(NOT(A230=0),A230,A229)+1</f>
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>324</v>
+        <v>228</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <f>IF(NOT(A231=0),A231,A230)+1</f>
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>233</v>
+        <v>324</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <f>IF(NOT(A232=0),A232,A231)+1</f>
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <f>IF(NOT(A233=0),A233,A232)+1</f>
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <f>IF(NOT(A234=0),A234,A233)+1</f>
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <f>IF(NOT(A235=0),A235,A234)+1</f>
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <f>IF(NOT(A236=0),A236,A235)+1</f>
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>357</v>
+        <v>240</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <f>IF(NOT(A237=0),A237,A236)+1</f>
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>245</v>
+        <v>357</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <f>IF(NOT(A238=0),A238,A237)+1</f>
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>356</v>
+        <v>245</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <f>IF(NOT(A239=0),A239,A238)+1</f>
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>190</v>
+        <v>356</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <f>IF(NOT(A240=0),A240,A239)+1</f>
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>355</v>
+        <v>190</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <f>IF(NOT(A241=0),A241,A240)+1</f>
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>190</v>
+        <v>355</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <f>IF(NOT(A242=0),A242,A241)+1</f>
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>354</v>
+        <v>190</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <f>IF(NOT(A243=0),A243,A242)+1</f>
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>217</v>
+        <v>354</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <f>IF(NOT(A244=0),A244,A243)+1</f>
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>142</v>
+        <v>217</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <f>IF(NOT(A245=0),A245,A244)+1</f>
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>322</v>
+        <v>142</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <f>IF(NOT(A246=0),A246,A245)+1</f>
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <f>IF(NOT(A247=0),A247,A246)+1</f>
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <f>IF(NOT(A248=0),A248,A247)+1</f>
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <f>IF(NOT(A249=0),A249,A248)+1</f>
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>198</v>
+        <v>319</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <f>IF(NOT(A250=0),A250,A249)+1</f>
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>50</v>
+        <v>198</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <f>IF(NOT(A251=0),A251,A250)+1</f>
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
-        <f>IF(NOT(A252=0),A252,A250)+1</f>
-        <v>209</v>
+        <f>IF(NOT(A252=0),A252,A251)+1</f>
+        <v>208</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
-        <f>IF(NOT(A253=0),A253,A252)+1</f>
-        <v>210</v>
+        <f>IF(NOT(A253=0),A253,A251)+1</f>
+        <v>209</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <f>IF(NOT(A254=0),A254,A253)+1</f>
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>156</v>
+        <v>49</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <f>IF(NOT(A255=0),A255,A254)+1</f>
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <f>IF(NOT(A256=0),A256,A255)+1</f>
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>350</v>
+        <v>138</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <f>IF(NOT(A257=0),A257,A256)+1</f>
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>218</v>
+        <v>350</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <f>IF(NOT(A258=0),A258,A257)+1</f>
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <f>IF(NOT(A259=0),A259,A258)+1</f>
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <f>IF(NOT(A260=0),A260,A259)+1</f>
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>92</v>
+        <v>223</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <f>IF(NOT(A261=0),A261,A260)+1</f>
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>92</v>
@@ -6313,88 +6312,88 @@
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <f>IF(NOT(A262=0),A262,A261)+1</f>
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>219</v>
+        <v>92</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <f>IF(NOT(A263=0),A263,A262)+1</f>
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>140</v>
+        <v>219</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <f>IF(NOT(A264=0),A264,A263)+1</f>
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <f>IF(NOT(A265=0),A265,A264)+1</f>
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <f>IF(NOT(A266=0),A266,A265)+1</f>
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <f>IF(NOT(A267=0),A267,A266)+1</f>
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>352</v>
+        <v>187</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <f>IF(NOT(A268=0),A268,A267)+1</f>
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <f>IF(NOT(A269=0),A269,A268)+1</f>
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>172</v>
+        <v>341</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <f>IF(NOT(A270=0),A270,A269)+1</f>
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <f>IF(NOT(A271=0),A271,A270)+1</f>
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>62</v>
@@ -6403,259 +6402,259 @@
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <f>IF(NOT(A272=0),A272,A271)+1</f>
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <f>IF(NOT(A273=0),A273,A272)+1</f>
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>276</v>
+        <v>61</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <f>IF(NOT(A274=0),A274,A273)+1</f>
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <f>IF(NOT(A275=0),A275,A274)+1</f>
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>39</v>
+        <v>253</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <f>IF(NOT(A276=0),A276,A275)+1</f>
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <f>IF(NOT(A277=0),A277,A276)+1</f>
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <f>IF(NOT(A278=0),A278,A277)+1</f>
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <f>IF(NOT(A279=0),A279,A278)+1</f>
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <f>IF(NOT(A280=0),A280,A279)+1</f>
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <f>IF(NOT(A281=0),A281,A280)+1</f>
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <f>IF(NOT(A282=0),A282,A281)+1</f>
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>232</v>
+        <v>86</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <f>IF(NOT(A283=0),A283,A282)+1</f>
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>333</v>
+        <v>232</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <f>IF(NOT(A284=0),A284,A283)+1</f>
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>178</v>
+        <v>333</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <f>IF(NOT(A285=0),A285,A284)+1</f>
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>247</v>
+        <v>178</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <f>IF(NOT(A286=0),A286,A285)+1</f>
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <f>IF(NOT(A287=0),A287,A286)+1</f>
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>38</v>
+        <v>242</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <f>IF(NOT(A288=0),A288,A287)+1</f>
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>231</v>
+        <v>38</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <f>IF(NOT(A289=0),A289,A288)+1</f>
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>126</v>
+        <v>231</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <f>IF(NOT(A290=0),A290,A289)+1</f>
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <f>IF(NOT(A291=0),A291,A290)+1</f>
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>251</v>
+        <v>143</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <f>IF(NOT(A292=0),A292,A291)+1</f>
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <f>IF(NOT(A293=0),A293,A292)+1</f>
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <f>IF(NOT(A294=0),A294,A293)+1</f>
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <f>IF(NOT(A295=0),A295,A294)+1</f>
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>238</v>
+        <v>171</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <f>IF(NOT(A296=0),A296,A295)+1</f>
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>107</v>
+        <v>238</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <f>IF(NOT(A297=0),A297,A296)+1</f>
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>239</v>
+        <v>107</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <f>IF(NOT(A298=0),A298,A297)+1</f>
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>113</v>
+        <v>239</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <f>IF(NOT(A299=0),A299,A298)+1</f>
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <f>IF(NOT(A300=0),A300,A299)+1</f>
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>69</v>
@@ -6664,268 +6663,268 @@
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <f>IF(NOT(A301=0),A301,A300)+1</f>
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <f>IF(NOT(A302=0),A302,A301)+1</f>
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <f>IF(NOT(A303=0),A303,A302)+1</f>
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <f>IF(NOT(A304=0),A304,A303)+1</f>
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <f>IF(NOT(A305=0),A305,A304)+1</f>
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
         <f>IF(NOT(A306=0),A306,A305)+1</f>
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <f>IF(NOT(A307=0),A307,A306)+1</f>
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <f>IF(NOT(A308=0),A308,A307)+1</f>
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>152</v>
+        <v>47</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <f>IF(NOT(A309=0),A309,A308)+1</f>
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <f>IF(NOT(A310=0),A310,A309)+1</f>
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>102</v>
+        <v>195</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <f>IF(NOT(A311=0),A311,A310)+1</f>
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <f>IF(NOT(A312=0),A312,A311)+1</f>
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <f>IF(NOT(A313=0),A313,A312)+1</f>
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
         <f>IF(NOT(A314=0),A314,A313)+1</f>
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <f>IF(NOT(A315=0),A315,A314)+1</f>
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>307</v>
+        <v>89</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <f>IF(NOT(A316=0),A316,A315)+1</f>
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>77</v>
+        <v>307</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <f>IF(NOT(A317=0),A317,A316)+1</f>
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <f>IF(NOT(A318=0),A318,A317)+1</f>
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <f>IF(NOT(A319=0),A319,A318)+1</f>
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
         <f>IF(NOT(A320=0),A320,A319)+1</f>
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <f>IF(NOT(A321=0),A321,A320)+1</f>
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <f>IF(NOT(A322=0),A322,A321)+1</f>
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>4</v>
+        <v>168</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <f>IF(NOT(A323=0),A323,A322)+1</f>
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
         <f>IF(NOT(A324=0),A324,A323)+1</f>
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>270</v>
+        <v>32</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <f>IF(NOT(A325=0),A325,A324)+1</f>
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <f>IF(NOT(A326=0),A326,A325)+1</f>
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
         <f>IF(NOT(A327=0),A327,A326)+1</f>
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>346</v>
+        <v>81</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <f>IF(NOT(A328=0),A328,A327)+1</f>
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>72</v>
+        <v>346</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
         <f>IF(NOT(A329=0),A329,A328)+1</f>
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
         <f>IF(NOT(A330=0),A330,A329)+1</f>
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>125</v>
@@ -6934,115 +6933,115 @@
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <f>IF(NOT(A331=0),A331,A330)+1</f>
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
         <f>IF(NOT(A332=0),A332,A331)+1</f>
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
         <f>IF(NOT(A333=0),A333,A332)+1</f>
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
         <f>IF(NOT(A334=0),A334,A333)+1</f>
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>244</v>
+        <v>31</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
         <f>IF(NOT(A335=0),A335,A334)+1</f>
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>0</v>
+        <v>244</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <f>IF(NOT(A336=0),A336,A335)+1</f>
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
         <f>IF(NOT(A337=0),A337,A336)+1</f>
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>186</v>
+        <v>348</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <f>IF(NOT(A338=0),A338,A337)+1</f>
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>340</v>
+        <v>186</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <f>IF(NOT(A339=0),A339,A338)+1</f>
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
         <f>IF(NOT(A340=0),A340,A339)+1</f>
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
         <f>IF(NOT(A341=0),A341,A340)+1</f>
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>100</v>
+        <v>315</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <f>IF(NOT(A342=0),A342,A341)+1</f>
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
         <f>IF(NOT(A343=0),A343,A342)+1</f>
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>58</v>
@@ -7051,43 +7050,43 @@
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
         <f>IF(NOT(A344=0),A344,A343)+1</f>
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
         <f>IF(NOT(A345=0),A345,A344)+1</f>
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
         <f>IF(NOT(A346=0),A346,A345)+1</f>
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>312</v>
+        <v>136</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
         <f>IF(NOT(A347=0),A347,A346)+1</f>
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
         <f>IF(NOT(A348=0),A348,A347)+1</f>
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>311</v>
@@ -7096,133 +7095,133 @@
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
         <f>IF(NOT(A349=0),A349,A348)+1</f>
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
         <f>IF(NOT(A350=0),A350,A349)+1</f>
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>19</v>
+        <v>257</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
         <f>IF(NOT(A351=0),A351,A350)+1</f>
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
         <f>IF(NOT(A352=0),A352,A351)+1</f>
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>323</v>
+        <v>18</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
         <f>IF(NOT(A353=0),A353,A352)+1</f>
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>17</v>
+        <v>323</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
         <f>IF(NOT(A354=0),A354,A353)+1</f>
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>303</v>
+        <v>17</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
         <f>IF(NOT(A355=0),A355,A354)+1</f>
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>68</v>
+        <v>303</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
         <f>IF(NOT(A356=0),A356,A355)+1</f>
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>281</v>
+        <v>68</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <f>IF(NOT(A357=0),A357,A356)+1</f>
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>65</v>
+        <v>281</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
         <f>IF(NOT(A358=0),A358,A357)+1</f>
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
         <f>IF(NOT(A359=0),A359,A358)+1</f>
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
         <f>IF(NOT(A360=0),A360,A359)+1</f>
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
         <f>IF(NOT(A361=0),A361,A360)+1</f>
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
         <f>IF(NOT(A362=0),A362,A361)+1</f>
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
         <f>IF(NOT(A363=0),A363,A362)+1</f>
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>258</v>
@@ -7231,7 +7230,7 @@
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
         <f>IF(NOT(A364=0),A364,A363)+1</f>
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>120</v>
@@ -7240,7 +7239,7 @@
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
         <f>IF(NOT(A365=0),A365,A364)+1</f>
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>338</v>
@@ -7249,7 +7248,7 @@
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
         <f>IF(NOT(A366=0),A366,A365)+1</f>
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>158</v>
@@ -7258,7 +7257,7 @@
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
         <f>IF(NOT(A367=0),A367,A366)+1</f>
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>164</v>
@@ -7267,7 +7266,7 @@
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
         <f>IF(NOT(A368=0),A368,A367)+1</f>
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>213</v>
@@ -7276,7 +7275,7 @@
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
         <f>IF(NOT(A369=0),A369,A368)+1</f>
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>159</v>
@@ -7285,7 +7284,7 @@
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
         <f>IF(NOT(A370=0),A370,A369)+1</f>
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>199</v>
@@ -7294,7 +7293,7 @@
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
         <f>IF(NOT(A371=0),A371,A370)+1</f>
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>203</v>
@@ -7303,7 +7302,7 @@
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
         <f>IF(NOT(A372=0),A372,A371)+1</f>
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>314</v>
@@ -7312,7 +7311,7 @@
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
         <f>IF(NOT(A373=0),A373,A372)+1</f>
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>313</v>
@@ -7321,7 +7320,7 @@
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
         <f>IF(NOT(A374=0),A374,A373)+1</f>
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>48</v>
@@ -15257,13 +15256,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A125:B125"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A237:B237"/>
@@ -15280,6 +15272,13 @@
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
